--- a/examples/Canada OGD/vehicle manufacturers/profile.xlsx
+++ b/examples/Canada OGD/vehicle manufacturers/profile.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +435,30 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>default_count</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>default_value</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>most_frequent_value</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -508,18 +517,26 @@
       <c r="P2" t="n">
         <v>2</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>les Produits M??taliques A.T. inc.</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Drive Products Inc</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
         <v>112237</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>1549</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>['0782739 B.C. Ltd.', '1091736 Ontario Inc. o/a L.B. Welding', '1132290 Alberta Ltd. DBA Norseman Oilfield Mechanical Services', "1132682 Alberta Inc. d.b.a. Brown's Industrial Services", '1146592 Ontario Inc. d.b.a. S &amp; L Waste Tech', '1162928 Ontario Inc.', '1201363 Ontario Ltd., d.b.a. McBride Horse Trailers', '1246086 Alberta Ltd', '1263337 Ontario Inc.  o/a Burlington Krown', '1293550 Ontario Inc. d.b.a. D&amp;D Tow Truck Builder Inc.', '1389899 Ontario Inc. d.b.a. M&amp;S Equipment Sales &amp; Service', '1425893 Alberta Ltd. dba Big Wheels Equipment Emporium', '1433797 ALBERTA LTD. DBA INNOVATIVE SOLUTIONS', '1435741 Ontario Inc. o/a Excalibur Trailers', '1450384 Ont. Inc. dba A&amp;S Towing', '1462782 Alberta Ltd. o/a Dynamic Industrial Solutions', '1482271 Alberta Ltd. o/a Kamparoo Campers', '1515974 Ontario Inc. (Hitch Centre)', '1519786 Alberta Ltd. dba Foremost Fleet Outfitters', '1527490 Alberta Ltd. (d.b.a. Peerless Parts &amp; Service)', '1561660 Ontario Ltd. d.b.a. Surgenor Truck Centre', '1561660 Ontario Ltd. d.b.a. Surgenor Truck Centre (Ottawa, ON)', '1561660 Ontario Ltd. d.b.a. Surgenor Truck Centre(Ottawa, ON)', '1570621 ALBERTA LTD O/A R.J.Mobile Mechanical Services', '1628721 Ontario Inc. d.b.a. Northland Truck Centre', '1693382 ONT Inc. d.b.a. Lawson Trailers', '1708828 ONTARIO dba Horst Welding', '1719502 Ontario Inc. d.b.a. Apex2 Auto', '1742227 ONT Inc. d.b.a. Hyhills Trailers', '1746954 Ontario Limited (Operating as Northend Mobility)', '1792911 Alberta Ltd.', '1823741 ALBERTA LTD. (DBA. KWIK-FAB ENERGY SERVICES LTD.)', '2000007 ONT. INC. d.b.a Inkas', '2055495 Ontario Inc. d.b.a. Miska Trailer Factory', '2116602 Ontario Ltd.', '2193123 Ontario Limited o/a New Gen Trailers', '2213535 Ontario Inc. d.b.a. Vanfitters Inc.', '2231545 Ontario Inc. dba Matrixx Specialized Trailers', '2236697 Ontario Inc. O/A Delta Truck Equipment', '2550-2311 Qu??bec Inc. - Soudure Gerald Guibord 2000', '2747391 Canada Inc. o/a McCloskey Bros. Mfg', '3022331 Canada Inc', '30879076 Qu??bec Inc.', '3212921 Canada Inc. o/a Do It Industries', '3470148 Canada Inc. d.b.a. Fast T.R.A.C.', '3696660 Manitoba Ltd.', "3816410 Manitoba Ltd. d.b.a. Berg's Prep &amp; Paint", '3891721 Canada inc.', '3923932 Canada Inc. (o/a Remorque 3 Fronti??res)', '3963128 Canada inc. (Remorques AERO )', '401 Trucksource Inc.', '4187229 Canada Inc. dba Harmony Juvenile Products', '425723 Ontario Ltd. dba Holland Enterprises', '4843305 Manitoba Ltd. (o/a LTS Manufacturing)', '4WD Manufacturing Inc.', '510669 Ontario Limited d.b.a. Stainless Steel Technology', '5274398 Manitoba Ltd. d.b.a. Cross Country Manufacturing', '5274398 Manitoba Ltd. d.b.a. Cross Country Manufacturing Ltd. (Morden,ON)', '533438 Ontario Limited d.b.a. Northlander Industries', '5514 KM', '58952 Alberta Ltd dba Custom Energy Equipment Services', '611421 ONTARIO INC BAYWOOD ENTERPRISES', '6186433 Manitoba Ltd. d.b.a. Ironmen Industries', '626814 Alberta Ltd.', '6607578 Canada Ltd. D.B.A. Kangaroo Trailers', '662021 NB Inc. d.b.a. Coastal Aluminum Manufacturing', '686109 Alberta Ltd.', '727831 Ontario Limited d.b.a. Carmikel Canada', '7289235 CANADA INC. d.b.a Les ??quipements EDG', '731073 Ontario Inc. (d.b.a. Milano Trailers)', '732509 Alberta Ltd.', '749106 Alberta Ltd. c/o River Run Trailers', '771603 Alberta Ltd., o.a. Pressure Vessel Services', '77445 Alberta Ltd.', '823353 Ontario Limited o/a HD Equipment Sales &amp; Se', '830482 Alberta Ltd. o/a TFT Trailers', '853418 Ontario Ltd. d.b.a. Ratler Manufacturing', '862390 Ontario Inc. d.b.a. Nickel City International Truck Centre', '865593 Ontario Limited', '9000-2783 Quebec Inc., dba Garage Marcel Heon Enr.', '9006-5335 Qu??bec inc. (d.b.a. Ateliers Dufour &amp; Associ??)', '9019-8813 Quebec inc. o/a Machinerie Bromer', '9043 - 0851 Quebec Inc.', '9044-3433 Quebec Inc. dba Aluquip', '9054-9767 Qu??bec Inc. o/a Les Industries Danmare', '9060 - 6542 Quebec Inc.', '9066-7353 QU??BEC INC. o/a (Omnifab)', '9067-3708 Quebec Inc dba Technifab Industries', '9069-4654 Quebec inc. (Supervac 2000)', '9077-0223 Quebec Inc. dba. M??canique G??n??rale St-Thomas', '9081-0060 Quebec Inc. (Fourgons Elite)', '9102-2285 Qu??bec inc.', '9103-8034 Quebec Inc. d.b.a. Ginove', '91284182 Qu??bec Inc. o/a Les roulottes La Boheme', '9159-5181 QU??BEC INC. (REMORQUES LEWIS)', '9160 - 7531 Quebec Inc.', '9164-4419 QU??BEC INC. (DBA REMBEC)', '9175-3681 Qu??bec inc. o/a Amtech', '9197-5912 Qu??bec Inc. dba SM Suspension', '9299-5000 Qu??bec inc. (Raison sociale :  Remorques camping la bulle)', '930098 ONTARIO LTD. (FREIGHTLINER NORTH BAY)', '936244 Alberta Ltd. o/a Triple J Welding', '988951 Ontario Inc. o/a Wishing Well Fabricating', '??chelles Warwick Inc.', '??quipement Amos Lt??e', '??quipements SBI Inc.', 'A &amp; D Fabricating Ltd.', 'A. AMYOTTE &amp; SON WELDING LTD.', 'A.R.S. Trucking &amp; Welding Ltd.', 'ABC Mobilite Inc.', 'ABCO Industries Limited', 'ABS Remorques Inc.', 'ACCO TRAILER MANUFACTURING LTD.', 'ACTION CUSTOM TRUCK PARTS LTD.', 'AD Boivin Design Inc.', 'AG Shield mfg.', "AJJ's Trailers &amp; Welding", 'ALBERTA TANK TRUCK &amp; SUPPLY LTD.', 'ARCHER TRUCK CENTER (Welland) LIMITED', 'ARCHER TRUCK SERVICES LIMITED', 'ARW Truck Equipment Ltd.', 'ASL flameless heaters', 'AUTO TRUCK GROUP CANADA INC.', 'Abritech Inc.', 'Absolute Styling Limousine LTD', 'Accurate Guage Ltd.', 'Accusteel Inc.', 'Ace Custom Fabrication Ltd', 'Ace Machining &amp; Welding (P.R.) Ltd.', 'Acier Select Inc.', 'Acres Industries Inc.', 'Action Fiberglass &amp; Manufacturing Ltd. (CHARLETOWN)', 'Action Fiberglass &amp; Manufacturing Ltd. (Clarenville)', 'Action Fiberglass &amp; Manufacturing Ltd. (Corner Brook)', 'Action Fiberglass &amp; Manufacturing Ltd. (Dartmouth)', 'Action Fiberglass &amp; Manufacturing Ltd. (Gander)', 'Action Fiberglass &amp; Manufacturing Ltd. (Grand Falls)', 'Action Fiberglass &amp; Manufacturing Ltd. (Moncton)', 'Action Fiberglass &amp; Manufacturing Ltd. (Saint John)', "Action Fiberglass &amp; Manufacturing Ltd. (St John's)", 'Action Van &amp; Truck World Ltd. (Barrie)', 'Action Van &amp; Truck World Ltd. (Belleville)', 'Action Van &amp; Truck World Ltd. (Cobourg)', 'Action Van &amp; Truck World Ltd. (Collingwood)', 'Action Van &amp; Truck World Ltd. (Guelph)', 'Action Van &amp; Truck World Ltd. (Hamilton)', 'Action Van &amp; Truck World Ltd. (Kingston)', 'Action Van &amp; Truck World Ltd. (Kitchener)', 'Action Van &amp; Truck World Ltd. (London)', 'Action Van &amp; Truck World Ltd. (Mississauga)', 'Action Van &amp; Truck World Ltd. (Orillia)', 'Action Van &amp; Truck World Ltd. (Ottawa)', 'Action Van &amp; Truck World Ltd. (Pickering)', 'Action Van &amp; Truck World Ltd. (Regina)', 'Action Van &amp; Truck World Ltd. (Saskatoon)', 'Action Van &amp; Truck World Ltd. (Sault Ste Marie)', 'Action Van &amp; Truck World Ltd. (Scarborough)', 'Action Van &amp; Truck World Ltd. (Sudbury)', 'Action Van &amp; Truck World Ltd. (Timmins)', 'Action Van &amp; Truck World Ltd. (Whitby)', 'Action Van &amp; Truck World Ltd. (Winnipeg)', 'Acute Trailer Manufacturing Ltd.', "Adapt-Solutions #1 Lte?? (Centre de l'auto Saint-Lambert)", 'Admiral Drive Systems Inc.', 'Adriatic Machine and Tool Ltd.', 'Advance Engineered Products Ltd. (Calgary)', 'Advance Engineered Products Ltd. (Edmonton)', 'Advance Engineered Products Ltd. (Lloydminster)', 'Advance Engineered Products Ltd. (Regina)', 'Advance Engineered Products Ltd. (SURREY, B.C.)', 'Advance Manufacturing Ltd.', 'Advance Trailer Mfg.', 'Advantage Manufacturing Ltd.', 'Advocate Metal Works Inc.', 'Agri Plastics Mfg. A division of Polydome Ontario', 'Agrimetal Inc', 'Air Arc Manufacturing Ltd.', 'Air-V Design Inc.', 'Airland Manufacturing Inc.', 'Alantra Leasing Inc.', 'Alberta Flares Energy Services Ltd.', 'Alco Industrial Inc', 'Alcor Mat??riaux de Toiture Inc.', 'Alcraft industries Inc.', 'Alfab Manufacturing', 'All Seasons Equipment Manufacturing', 'All Trailer Repair Ltd', 'Allain Equipment Manufacturing Ltd.', 'Allan Fyfe Equipment Ltd.', 'Alliance Concrete Pumps Inc.', 'Alliance Custom Fabrication Ltd.', 'Allianz Madvac inc.', 'Alliston Equipment Ltd.', 'Alloy Truck Equipment Ltd.', 'Allstone Equipment Limited', 'Allweld Manufacturing Ltd.', 'Almas Custom Trailers', 'Alpine Shredders Limited', 'Alta Gear Distributing', 'Alta Vac Serices Ltd.', 'Altec Industries Ltd. (Milton)', 'Altec Industries Ltd. (Winnipeg)', 'Alternative Access &amp; Mobility Inc.', 'Alutrec Inc.', 'Alvan Truck Bodies Inc.', 'American Road Service Inc.', 'Andycap Mobility Services Inc.', 'Anra Manufacturing Ltd', 'Anser Manufacturing Ltd.', 'Ant Enterprises', 'Arctic Manufacturing Ltd.', 'Arfab Inc.', 'Armet Armored Vehicles Canada Inc.', "Arne's Welding Ltd. &amp; Trailer Sales 1986 Ltd.", "Arnold's Welding Regina Ltd.", 'Artic Therm International Ltd.', 'Aspectair Inc.', 'Aspen Custom Trailers', 'Asphodel Firetrucks Ltd', 'Associate Truck Bodies', 'Atelier Desgagnes Inc.', 'Atelier Despres Inc.', 'Atelier G??rard Beaulieu Inc.', 'Atelier Mobile No Problemo Inc.', 'Atelier Pli-Soude 2015 Inc.', 'Atelier Rosario Tremblay inc.', 'Atelier Ste-Emilie Inc.', "Atelier d'usinage R.R. enc", 'Atelier de Soudure Gino Isabel Inc.', 'Atelier de soudure R.S. inc.', 'Atlas Polar Company Limited', 'Auto Light Atlantic Limited', 'Autobus Lion Inc (Lion Bus)', 'Autobus Thomas Inc.', 'Automated Rig Technologies Ltd.', 'Automobile Rainville (1975) Inc.', 'Aventure DY inc.', 'Avenue Lawn &amp; Leisure', 'Award Recreational Vehicles Inc.', 'Awatec Industries Inc.', 'B.D.J. Menard', 'BECKNER &amp; SONS LTD.', 'BENOIT GILBERT', 'BLACKRAIN ENERGY SERVICES LTD', 'BMB Products Ltd.', 'BWS Manufacturing Ltd.', 'BXL Bulk Explosives Limited', 'Baby Trend Inc. c/o FMD Service (Ontario) Inc.', 'Back Motor Bodies Inc.', 'Backwoods Trailers', 'Badger Daylighting Inc', 'Badger Truck Decks &amp; Services', 'Bar T5 (BC) Agra Services Inc.', 'Bargin Wrecker Supply Ltd', 'Barton Truck Centre Ltd', 'Bayview Boats Inc.', 'Beck Industries Ltd.', 'Bedard Tankers Inc./Citernes Bedard Inc.', "Berk's Intertruck LTD.", 'Berkelmans Welding &amp; Manufacturing Inc.', 'Best 4 Less Trailers Inc.', 'Bigfoot Industries (2010) Inc.', 'Bik Hydraulics LTD.', 'Black Gear Products', 'Blue Hills Trailer &amp; Fabricating Ltd.', 'Blue Sky Trailer Manufacturing Inc.', 'Boden Fabricating &amp; Metal Products Ltd.', 'Body Company Industries(BCI)', 'Bombardier Recreational Products Inc. - BRP', 'Boss Trailers', 'Boulder Metal Industries (2002) Inc.', 'Bourdeau Entreprise', 'Bradvin Trailer Sales Ltd.', 'Brandt Engineered Products Ltd.', "Braun's Welding &amp; Repair Ltd.", 'Breda Machinery Limited', 'Brian McIntyre', 'Bridgeview Mfg. Inc.', 'Britax Child Safety, Ltd.', 'Brodex Industries Ltd.', 'Bruce Coach Inc.', 'Built Right Utility Bodies Ltd.', 'Built-Tuff Trailers', 'Burnaby Hitch Ltd.', 'Burncrest Industries LTD', 'C-Extrem Inc.', 'C-Max Transportation Equipment', 'C.D. Jabbco Sales Ltd', 'C.E.M. Heavy Equipment Ltd.', 'C.T. Soudure Inc.', 'CAMIONS EXCELLENCE PETERBILT INC.', 'CAMIONS EXCELLENCE PETERBILT INC. (DRUMMONDVILE)', 'CAMIONS EXCELLENCE PETERBILT INC. (LAVAL)', 'CAMIONS HELIE (2003) INC.', 'CCS Corporation d.b.a. Concord Well Servicing', "CENTRE DE GESTION DE L'EQUIPEMENT ROULANT (CGER)", 'CENTRE DE R??PARATION HYDRAULIQUE HYDREP INC.', 'CFO Calgary Fleet Outfitters &amp; Supply Inc.', 'CITY WRECKER MFG SERVICE INC.', 'CJAY Trailers Inc.', 'CJC 2000 Inc.', 'CLYDE COOPER ENTERPRISES LIMITED', 'COIL SOLUTIONS INC.', 'COMET WELDING LTD.', 'CONTINENTAL RAILWORKS TECHNOLOGY I INC.', 'CTS Automotive Truck Repair Ltd', 'CVA CANADA INC.', 'CW Manufacturing Ltd.', 'Cadman Power Equipment Limited', 'Calco Equipment (BC) Ltd - (Edmonton)', 'Calco Equipment (BC) Ltd. (Delta)', 'Calgary Aluminum Fabricating &amp; Distributing Ltd.', 'Calgary Box and Hoist Ltd.', 'California Immobilizer Int. Ltd.', 'Cam-Concept inc.', 'Camex Equipment Sales &amp; Rentals Inc.', 'Camion International West Island Inc.', 'Camions Carl Thibault inc.', 'Camions Freightliner M.B. Trois-Rivi??res Lt??e', 'Camions Freightliner Quebec Inc.', 'Camions Freightliner et Sterling Drummondville Inc', 'Camions Inter-Anjou Inc.', 'Camions International Elite Ltee', 'Camions Sterling Western Star Mauricie Inc.', 'Camrose Machine &amp; Welding Ltd.', 'Can Am Cruisers Inc.', 'Can American Stone Spreader Ltd', 'CanDig Mini Excavators Inc.', 'Canada Trailers Manufacturing Limited', 'Canadian Chassis Corporation', 'Canadian Electric Vehicles Ltd.', 'Canadian Range Trailers Ltd.', 'Canadian Tire Corporation Limited', 'Canadian Towing Equipment', 'Canadian Truck &amp; Trailer Inc.', 'Cancade Company Ltd.', 'Canuck Trailer Manufacturing Ltd.', 'Capital Disposal Equipment 2001 Limited', 'Capital Rig Repair Ltd.', 'Capital Truck Bodies', 'Capital Truck Body &amp; Equipment o/a 755968 Alberta Ltd', 'Carbec Inc.', 'Cardigan Bearing &amp; Steel', 'Care Industries Ltd.', 'Carrier Truck Center (London)', 'Carrier Truck Center (Windsor)', 'Carrier Truck Center Inc (Brantford)', 'Carrier Truck Center Inc. (Woodstock)', 'Carrier Truck Centre Inc. (Sarnia)', 'Carrovic Inc', 'CarryMor Industries Corp.', 'Cast Away Manufacturing Ltd.', 'Castleton Industries Ltd.', 'Catherwood Welding &amp; Boiler Service Inc.', 'Caytec Equipment Ltd.', 'Celtic Pride Manufacturing Ltd', 'Central Automation Control (2006) Limited', 'Central Automotive Services Limited d.b.a. Cambridge Mack', 'Central Automotive Services Limited d.b.a. Performance Equipment Body Shop', 'Central Mechanical Ltd.', 'Central Truck Body Co. Ltd.', 'Centre Auto De Duberger inc.', 'Centre Hydraulique GMB Inc', 'Centre de Suspension Routiers Inc', 'Centre de Transmission J.D.H. inc.', "Centre de gestion de l'equipement roulant (CGER) (Trois-Rivi??res)", 'Centre du Camion Acton-Vale inc.', 'Centre du Camion Beaudoin Inc.', 'Centre du Camion Gamache inc.', 'Centre du Camion Mabo Inc.', 'Centre du Camion Pro Cam Saguenay Inc', 'Centre du Camion R.B. enr., div. de 144778 Canada inc.', 'Centre du Camion U.T.R. Inc.', "Centre du Camion d'Amos inc.", 'Centre du camion Denis inc.', 'Certified Custom Trailers Ltd.', 'Certiflo inc.', 'Chagnon &amp; Fils Incorporee', 'Challenger Manufacturing Ltd.', 'Charest Automobile Ltee.', 'Charlton &amp; Hill Welding Ltd.', 'Chinook Manufacturing Partnership', 'Cirbin Inc. dba Campagna Motors', 'Citerne Almac Tank International Inc.', 'Citernes Girard et Coulombe Inc', 'Citernes Hebert &amp; Fils Inc.', 'City of Calgary Fleet Services', 'City of Vancouver', 'Classic Van Conversion &amp; Accessories', 'Clek, Inc.', 'Co-Up Garage &amp; Towing Service', 'Cobra Trailer Manufacturing Inc.', 'Collins Manufacturing Co. Ltd.', 'Colonial Railings (2000) LTD.', 'Columbia Remtec Manufacturing', 'Command Industries Inc.', 'Commander Industries Inc.', 'Commercial Body Builders Ltd.', 'Commercial Truck Equipment Corp (Calgary)', 'Commercial Truck Equipment Corp. (Calgary)', 'Commercial Truck Equipment Corp. (Delta Head Office)', 'Commercial Truck Equipment Corp. (Edmonton)', 'Commercial Truck Equipment Corp. (Regina)', 'Commercial Truck Equipment Corp. (Surrey)', 'Commercial Truck Equipment Corp. (Woodstock)', 'Compac Equip. Mfg. Inc.', 'Complete Auto Centre -Div. of National Energy Equipment', 'Complete Oilfield Manufacturing Inc.', 'Complete Truck Maintenance Ltd.', 'Comptank Corporation', 'Concept Truck &amp; Trailer Ltd.', 'Conception Metavic Inc.', 'Concord Elevator (Ottawa) Ltd.', 'Conqur', 'Consbec Inc.', 'Construction Mobilco Ltee.', 'Consultants F. Drapeau Inc.', 'Convey-All Industries Inc.', 'Convoyeurs B.M.G. inc.', 'Coral International Truck Equipment Ltd.', 'Coral Oilfield Services Inc.', "Corcoran's Farm Supply Ltd.", 'Corporation Micro Bird Inc.', 'Cottrill Heavy Equipment (1005422 Ontario Ltd.)', 'Country Trailers Sales (1999) Ltd', 'Courtland Mobility Services Inc.', 'Courtney Berg Industries Ltd.', 'Covax Tank Company Inc.', 'Cow Poke Trailers', 'Cramero Trailers', 'Creative Carriage Ltd.', 'Creative Enterprises Inc.', 'Crestline Coach Ltd.', 'Cropac Equipment Inc.', 'Cropper Motors Inc.', 'Cubex Ltd.', 'Cummins Hydraulics Ltd', 'Curtis Trailers Mfg.', 'Cusco Fabricators Ltd.', 'Custom Coachwork Inc.', 'Custom Gravel Box Ltd.', 'Custom Welding Services', 'Custom Welding and Fabricating Ltd.', 'Customvac Services Ltd.', 'Cycle-Mate', 'Cypress Industries Ltd', 'D &amp; G Box &amp; Hoist Ltd', 'D &amp; L Double Cut Sawmills Ltd.', 'D &amp; M Koch Enterprises Ltd.', 'D-Line Trailers/Division of 3-D Line Locating Ltd.', 'D. Murphy Sport Boats', 'DAIMLER TRUCKS CANADA LTD.', 'DESIGN ARMORIC INC.', 'DEW Engineering &amp; Development ULC.', 'DGC Trailer Manufacturing and Sales', 'DISTRIBUTIONS MARANDA INC.', 'DJT Corporation', 'DK Manufacturing Inc.', 'DML Soudure Inc', 'DNOW CANADA ULC (FULL TILT)', 'DRAGON ENERGY SALES AND SERVICE, LLC', 'DRD Fabrications Inc.', 'DSML Welding &amp; Fabricating', 'Dan Wilkinson Welding Ltd.', 'Danchuk Trailer 2000', 'Darco Industries', "Dave's Welding", 'Davidson Trailers', 'De Cloet Ltd.', 'DeCap Trailer Mfg. Ltd.', 'DeMonte Fabricating Ltd.', 'Debway 2000 Ltd. d.b.a. Debway Truck Body Mfg &amp; Repair', 'Decca Industries Ltd.', 'Defined Designs Inc', 'Deloupe Inc.', 'Deluxe Van &amp; Body (1988) Ltd.', "Demers, Ambulance Manufacturer Inc. (Demers, Manufacturier D'Ambulances Inc.)", 'Dentech Meters and Electronics Ltd.', 'Dependable Truck &amp; Tank Ltd. d.b.a Dependable Emergency Vehicles', 'Di-Mond Sales Inc.', 'Diemo Machine Works Inc.', 'Diesel Equipment Ltd. d.b.a. DEL (Burlington,ON)', 'Diesel Equipment Ltd. d.b.a. DEL (Moncton,NB)', 'Diesel Equipment Ltd. d.b.a. DEL (Port Coquitlam, BC)', 'Diesel Equipment Ltd. d.b.a. DEL (Regina,SK)', 'Diesel Equipment Ltd. d.b.a. DEL (Toronto,ON)', 'Diesel Equipment Ltee. d.b.a. DEL(Dorval,QC)', 'Diono Canada, ULC', 'Distribution Alumico', 'Distribution DFT Canada Inc', 'Distribution Raynald Bertrand DRB inc.', 'Distribution et Services R.G. inc.', 'Diversabody', 'Dock Rite Boat Lifts Ltd.', 'Doepker Industries Ltd. (Annaheim)', 'Doepker Industries Ltd. (Burlington)', 'Doepker Industries Ltd. (Moose Jaw)', 'Doepker Industries Ltd. (Saskatoon)', 'Dollman Welding Ltd.', 'Don Adams Welding Ltd.', 'Donore Holdings Ltd.', 'Dorel Juvenile Canada', 'Double Don Properties Ltd', 'Double S Enterprises', 'Dowler-Karn Limited', 'Doyle Manufacturing', "Drake's Truck Box Sales Limited", 'Drive Products Inc', 'Drivetec Manufacturing Inc.', 'DryAir 2000 Inc.', "Dueck's Mechanical", "Dumonceau's Trailers dba Dumonceau's Custom Trailers", 'Duncan Trailer Ltd.', 'Durabody Industries Limited', 'Dust Check Mfg.', 'DyTerra Corporation (Headingley, MB)', 'DyTerra Corporation (Saskatoon, SK)', 'DyTerra Corporation(Ayr, ON)', 'Dymark Industries Inc.', 'Dymech Engineering Inc', 'Dynacorp Fabricators Inc. (Calgary, AB)', 'Dynacorp Fabricators Inc. (Grande Prairie, AB)', 'Dynahyd Equipment Ltd.', 'Dynamic Fibre Lt??e', 'Dynamic Specialty Vehicles Ltd.', 'Dynawinch Industries Ltd.', 'Dyson Trailers &amp; R.V. Ltd.', 'E &amp; H Hitch Shop a Div. of Erik Jensen Ltd.', 'EDMONTON TRAILER SALES &amp; LEASING LTD', 'EMB Mfg. Inc.', 'ENVIROMECH INDUSTRIES INC.', 'Eagle Industries Ltd.', 'Eagle Iron Industries', 'Eagle RV Services Ltd', 'Eagle Trailers (829100 Ontario Limited)', 'Eaglemate Motorcycle Trailers Ltd.', "Earl Hoover's Machine &amp; Welding Ltd.", 'Eastgate Truck Centre', 'Eastway Tank, Pump And Meter Limited', 'Eastway911 Emergency Vehicles Ltd.', 'Echelles C.E. Thibault', 'Eddynet Inc.', 'Edmonton Trailer Manufacturing Ltd.', 'Egebjerg Green Farmline Ltd.', 'Elfe Juvenile Products', 'Elite Aluminum Inc.', 'Elite Trailer Sales', 'Ella Ventures Ltd. d.b.a. BC Upfitters', 'Eloquip Ltd.', 'Eltik Design', 'Empire International Service Rigs Inc.', 'Endeavor Manufacturing Ltd.', 'Enduron/Custom Inc.', 'Enercraft Silva-Saw Ltd.', 'Enerflow Industries Inc', 'Energy Savers Inc.', 'Enervac Corporation', 'Entreprise Jocelyn Baril inc.', 'Entreprise Ramec Inc', 'Equifab Inc.', 'Equinox Industries Ltd', 'Equipement Incendie Levasseur', 'Equipements F.D.S. INC.', 'Equipements Lourds Papineau Inc.', 'Equipements Ouellet Ltee', 'Equipements R. Poulin Inc.', 'Equipements Tremzac Inc.', 'Equipements Woody Inc', "Erv's Oilfield Service Ltd.", 'Escape Trailer Industries', 'Euroway Industrial Service Co. Ltd.', 'Eveley Alignment &amp; Spring Service Limited', 'Evenflo Canada, Inc.', 'Exact Enterprises Inc. d.b.a. Victory Rig Equipment Corp.', 'Excel Materiaux Composites Inc.', 'Expertec Van Systems Inc.', 'Express Custom Trailer Mfg. Inc.', 'F&amp;R Steelcraft Industries Inc.', 'F.A.S.T. Industries Ltd.', 'FABMASTER LTD.', 'FCA Canada Inc. (Chrysler)', 'FINISH LINE INDUSTRIES LTD', 'FRF Fabrication Inc.', 'FRP Manufacturing Inc o/a (Fiberglass Canada)', 'FUSION PRODUCTION SYSTEMS INC.', 'Fabal Fabrication Ltd.', 'Fabrication Damsen Inc.', 'Fabrication Delta inc.', 'Fabrications DALJI Inc.', 'Fabrimex Inc.', 'Fabrinord Ltee.', 'Fabrox Inc.', 'Falcon Equipment Ltd.', 'Fanotech Waste Equipement Inc.', 'Farmbro Inc.', 'Federated Co-operatives Ltd', 'Fer Plus Enr.', 'Ferguson Thresher Company', 'Fericar Inc.', 'Fiba Canning Inc.', 'Fibermax Systems Inc.', 'Fibro Concept ??volution Inc.', 'Fifties Trailers Inc.', 'First Choice Upholstery', 'First Truck Center Inc. d.b.a. FTC South', 'First Truck Centre Inc. (Edmonton, AB)', 'First Truck Centre Inc. d.b.a. FTC Vancouver', 'Firsttrax Snowplows Ind.', 'Flat Boy Trailers Inc', 'Flint Energy Services Ltd.', 'Flo-Back Rental and Fabrication Ltd.', 'Flow Specialties Inc.', 'Ford Motor Company Of Canada Ltd.', 'Foremost Equipment LP', 'Foremost Industries Ltd.', 'Fort Fabrication &amp; Welding Ltd', 'Fort Garry Fire Trucks Ltd.', 'Fort Garry Industries Ltd.', 'Fortress Tank Services Limited', 'Fourgons Leclair Inc', 'Freightliner of Red Deer Inc.', 'Frontier Fabrication Ltd.', 'Frontier Power Products Ltd.', 'Fullerton welding Ltd.', 'G &amp; D Tank and Trailer Inc.', 'G &amp; M Trailers Ltd.', 'G. Hansen 2007', 'G. Levesque Holdings Ltd', 'G.F. TRUCK BODY MFG. INC.', 'G.M.C. Truck Center', 'G.T. MANUFACTURING &amp; WELDING (ST.PAUL) LTD.', 'G.W. Anglin Manufacturing Limited', 'GARAGE ADANAC INC.', 'GARAGE REN?? BERTRAND INC.', 'GBM Trailer Service Ltd.', 'GCI Environnement inc.', 'GORMAN-RUPP OF CANADA LIMITED', 'GRAZIER CUSTOM MANUFACTURING LTD.', 'GROUPE CAMBLI INC.', 'Garage Desfonds inc.', 'Garage Georges Trudeau Ltee', 'Garage Lague Ltee', 'Gard Manufacturing', 'Gauthier Paul', 'Genax Metal Manufacturing Limited', 'General Body &amp; Equipment Ltd.', 'General Motors of Canada Company', 'George C. Doerr Body &amp; Trailer Company', 'Germain Jette Machineries Inc.', 'Germanic Mfg. Ltd.', 'Gilles Pelletier Artisan Soudeur Enr.', 'Gilmet Fabricated Products Ltd.', 'Gin-Cor Industries Inc o/a Gingras Corriveau', 'Glacier Hydraulics Ltd', 'Glendale Industries Ltd.', 'Global Service Rig and Repair (2005) Ltd.', 'Glover International Trucks Ltd.', "Goldec Hamm's Manufacturing Ltd.", 'Golden Mobility &amp; Rehab Ltd.', 'Goldline Mobility &amp; Conversions', 'Gortech Inc.', 'Grainmaster Manufacturing Ltd.', 'Grande West Transportation International Ltd.', 'Great Lakes Recreational Vehicles', 'Great West Kenworth Ltd. (Clairmont, AB)', 'Great West Kenworth Ltd. (Head Office)', 'Great West Kenworth Ltd. (Lethbridge, AB)', 'Great West Kenworth Ltd. (Red Deer, AB)', 'Great West Van Conversions Inc.', 'Greene Flyer Inc.', 'Greenweld', 'GreyHighlands Industrial Inc.', 'Groupe Environnemental Labrie inc.', 'Groupe FCM Inc.', 'Groupe J.L. Leclerc Inc.', 'Groupe R.Y. Beaudoin inc.', 'Grunthal Welding &amp; Supplies Ltd.', "Guido's Custom Trailers", 'Gypsy Trailers Inc.', 'H &amp; D Trailer Manufacturing', 'H. &amp; H. Care Ltd.', 'H.R. Runciman &amp; Company Limited', 'HARLEY-DAVIDSON CANADA LP', 'HORIZON TRUCK &amp; BODY LTD.', 'HSC Fabrication Ltd.', 'HYDRODIG LTD.', 'Harper Ontario Truck Centers Inc.', 'Harvest Services (1995) Ltd.', 'Harvey &amp; Company Limited', 'Haul-All Equipment Ltd.', "Hauser's Machinery Ltd.", 'Hay River Heavy Truck Sales Ltd.', 'Hayshed Trailers Ltd.', 'Hayworth Equipment Sales Inc.', 'Hazeland Manufacturing Inc.', 'Heartwood Saw Company Ltd.', 'Heat Design Equipment Inc.', 'Heat Innovations Inc.', 'Hi Q Fabrication Ltd.', 'Hi-Tec Fuel &amp; Auto Ltd.', 'Hi-Tec Trailers', 'Hickman Motors Limited', 'Highliner Trailers Ltd.', 'Highwood Global Manufacturing Inc.', 'Hillary Production Machining Ltd.', 'Hino Motors Canada, Ltd.', 'Hitchman Trailer by Lordale Ltd.', 'Hitchman Trailers and Supply Ltd.', 'Hocan Industries Ltd.', 'Honda Canada Inc.', 'Horizon Trailers Ltd.', 'Horseshoe Trailer Mfg.', 'Hub Fire Engines &amp; Equipment Ltd.', 'Hutchinson Industries Canada Inc', 'Hydra Nor International Ltd.', 'Hydraco Industries Ltd', 'Hydralfor Inc.', 'Hyduke Drilling Solutions Inc. d.b.a. Go Getter Welding Ltd.', 'Hyduke Well Service Solutions', 'Hyland Limited', 'Hymec inc', 'Hyundai Auto Canada', 'II M Welding &amp; Fabricating', 'INNOCAR INC.', 'INTERNATIONAL TRUCK BODY INC', 'IRS Truck &amp; Trailer Repair Inc.', 'ISSI Inc.', 'Icon Manufacturing', 'Ideal Cargo Inc.', 'Imex Marketing Inc.', 'Imperial Coach Trailers', 'Incendo Welding and Fabrication', 'Indian Custom Cargo Trailers', 'Industrial Engines Ltd.', 'Industries B. Rainville Inc.', 'Industries J.N.P. enr.', 'Industries Lafleur Inc.', 'Industries N.R.C. Inc.', 'Inline Industries Ltd.', 'Innotec Inc.', 'Innovation Industrielle Boivin Inc.', 'Innovative Trailer Design Industries Inc.', 'Insight Manufacturing Inc.', 'Inter-Boucherville inc.', 'Intercontinental Truck Body (B.C.) Inc.', 'Intercontinental Truck Body Ltd.(AB)', 'Interior R.V. Products Inc.', 'International Fabricating and Machining Inc.', 'Interprovincial Truck Body Corporation', 'Inventive Marine Products Ltd.', 'Irontech Rig Repair and Manufacturing Inc.', 'J. BOND &amp; SONS LTD.', 'J.C. Trailers And Equipment Ltd.', 'J.D.J. Trailer Manufacturers Inc.', 'J.R.W. Trailer Company', 'J.Z.K. Sales &amp; Service Ltd.', 'JEAN PAUL LECOURS LIMITED', 'JHG Metalworks', 'JJ Trailers Manufacturers and Sales Ltd.', "JP's Sales, Service &amp; Repair Ltd.", 'JSD TRUCK REPAIRS LTD.', 'JSW Manufacturing Inc.', 'JT Fabrication Ltd', 'Jackqueline Lockwood As Lockwood Trailer', 'Jacques Legault Welding Ltd.', 'Jamco Trailers a Division of MacLellan Welding Ltd', 'Jays Trailers', 'Jean-Marc Brissette inc.', 'Jensen Auto Body Inc. d.b.a. Jensen Trailer Sales &amp; Service', 'Jesler Enterprises Inc.', 'Joe Johnson Equipment Inc. (Head Office)', 'Joyride Lifts', 'Jroberts International Inc.', 'Junction RV Inc.', 'K-Line Maintenance &amp; Construction Limited', 'K-Line Trailers Ltd.', 'KAL TIRE (Alberta) LTD.', 'KID Trailer And Equipment', 'KRM Metal Products Ltd.', 'KSAD INC.', 'KSM Inc.', 'Kargo-Max Trailer Enclosures Ltd.', 'Kargotec Management Inc.', 'Kelly Trailers Inc.', 'Kemble Mountain Welding', 'Kente Enterprises Div. Of 349895 Ont.ltd', 'Kenworth Quebec inc.', 'Kerr Industries', 'Kevin Busque Inc', 'Kids Embrace c/o Trillium Sales &amp; Distribution Inc.', 'King Cobra Oilfield Services (Drumheller Ltd.)', 'Kingpin Trailers Ltd.', 'Kino Mobility Inc.', 'Kirby International Trucks Ltd. (Hamilton, ON) d.b.a. Altruck International Truck Centers', 'Kirby International Trucks Ltd. (Kitchener, ON) d.b.a. Altruck International Truck Centers', 'Knight Trailer Sales Inc.', 'Kruzer Motorcycle Trailers', 'Kwik Load Products Ltd.', 'L &amp; B Moore Co. Ltd.', 'L &amp; S Beck Enterprises', "L'Equipe Labrie Inc.", 'L. Asselin Inc.', 'L. Smith Industries Ltd.', 'L.E.S. Pro inc', 'L.T.S.  Enr.', 'LBC Contracting Ltd.', 'LES ??QUIPEMENTS POLYTEK INC.', 'LINK SUSPENSIONS OF CANADA, LIMITED PARTNERSHIP', 'LITE INDUSTRIES INC.', 'LITO GREEN MOTION', 'La Compagnie Normand Limitee', 'Lambton Fleet Maintenance Inc', "Landry's Truck Body Manufacturer Ltd.", 'Langfab Fabricators Ltd.', 'Larry Walsh', "Larry's Custom Trailer Manufacturing Inc.", 'Lazer Inox Inc.', 'Le Carrossier Rive-Sud Inc.', 'Le Centre Routier 1994 Inc', 'Le Centre du Camion (Amiante) inc.', 'Le Centre du Camion (Beauce) Inc.', 'Lejeune Engineering', 'Lennox Welding &amp; Supply Ltd.', 'Leo Lavoie &amp; Fils (1976) Ltee.', 'Les Ateliers FLPH Ltee', 'Les Ateliers MCG de Charlevoix Inc.', 'Les Ateliers Richard Tardif', 'Les Bras De Fer Gingras Inc', 'Les Camions Beaudoin Inc.', 'Les Contenants Durabac inc.', 'Les Distributions G.A.P. Inc.', 'Les Entreprises Damris inc.', 'Les Entreprises Ga??van Inc.', 'Les Entreprises H.M. Metal Inc.', 'Les Entreprises JGM Enr.', 'Les Entreprises Jo-He', 'Les Entreprises M. St-Hilaire Enr.', 'Les Entreprises M.C.R. Soudure Inc.', 'Les Equipements Decoste Inc.', 'Les Equipements Reka inc.', 'Les Equipements Twin (1980) Lt??e', 'Les Fabrications A.R.H. Ste-Melanie Inc.', 'Les Fabrications Daunais Inc.', 'Les Fourgons Nortech Inc.', 'Les Fourgons PME Ltee.', 'Les Fourgons Rive-Sud Inc.', 'Les Fourgons Transit Inc.', 'Les Industries Halrai Inc.', 'Les Industries Jack, Div. Auto-Decor Matane Inc.', 'Les Industries Wajax Limitee (Lachine)', 'Les Installations Am??Cam', 'Les Machineries St-Jovite inc.', 'Les Plastiques Flexibulb', 'Les Produits Denray Inc', 'Les Produits Fraco Ltee/Fraco Products Ltd.', 'Les Quais Beaulac Inc.', "Les Quais De L'Estrie Inc.", 'Les Remorques C.F.D.', 'Les Remorques Fleur-Maggs Enr.', 'Les Remorques Jelano', 'Les Remorques Megcass inc.', 'Les Remorques Pliantes DR Inc.', 'Les Ressorts Pour Vehicules Industriels Laval Inc.', 'Les Roulottes Prolite Engr.', 'Les Systemes Erin Ltee/Erin Systems Ltd.', 'Les Voitures Robert Inc.', 'Les modification de camions Tardif &amp; Fils Inc', 'Les remorques JD inc.', 'Les remorques TORX', 'Liberty Motor Company (The)', 'Linetech Design &amp; Mfg. Ltd.', "Linkletter's Welding Ltd.", 'Llomar Trailers 1998 Ltd.', 'Load Line Incorporated', 'London Machinery Inc.', 'Lonestar Welding', "Lorne's Welding &amp; Fabricating Ltd.", 'Lowey Enterprises Ltd.', 'Lucanus Mobility Aids', "Luke's Welding", 'Lyncorp Manufacturing Ltd.', 'M &amp; A Welding', 'M &amp; M Development Ltd.', 'M &amp; R Machines (2000) Ltd.', 'M-R-O RV Services Inc.', 'M. Tucci Construction Ltd.', 'M.G.H. Welding Ltd.', 'M??canique CGL inc.', 'M??cano Alca inc.', 'M??tallomax Inc.', 'MAX-INF (Ningbo) Baby Product Co., Ltd. (for Harmony Juvenile Products)', 'METRO FREIGHTLINER HAMILTON INC.', 'METRO TOW TRUCKS LTD.', 'MFTA Canada Inc (Mitsubishi Fuso Truck)', 'MICRON INDUSTRIES INC.', 'MID-COUNTRY SALES &amp; SUPPLY INC.', 'MID-ONTARIO DIESEL LIMITED', 'MID-ONTARIO TRUCK CENTER', 'MJS Fabricating', 'MORGAN CANADA CORPORATION', 'MRG Industries Inc.', 'MTB Mfg. Inc.', 'MUST Technologies Ltd.', 'MYSHAK SALES &amp; RENTALS LTD.', 'MacDonald Equipment Sales', 'Maccabee Tanks Ltd.', 'Machinerie Agricole Bois-Francs inc.', 'Machinerie Anderson', 'Machinerie G. Simard Inc.', 'Machinerie L??pine inc.', 'Machinerie Laurin Inc.', 'Mack Sales &amp; Service of Manitoba Ltd.', 'Mack Sales and Service of Stoney Creek Ltd.', 'Magma Welding Ltd.', 'Magnum Trailer &amp; Equipment Inc.', 'Mahadev Metal Works &amp; Fabrication', 'Main St. Woodworkers &amp; Marine Supply', 'Mainstream Manufacturing Inc.', 'Maisons SRM Blondeau Homes Inc.', 'Majestik Trailer', 'Malley Industries Inc.', 'Malmberg Truck Trailer Equipment Ltd.', 'Mammoth Trucks Corporation', 'Manac Inc.', 'Mar-Jo Welding &amp; Mechanical Services Ltd.', 'Marathon Equipment Inc.', 'Marboral Ltee', 'Marcep Manufacturing Ltd.', 'Marine Cradle Shop Inc.', 'Marion Trucking Ltd.', 'Mark Manley', 'Marl Technologies Inc.', 'Marshall Truck &amp; Trailer Repair Ltd.', 'Max Load Trailers Inc.', 'Max-Atlas Equipment International Inc.', 'Maxfield Inc', 'Maxi-Metal Inc.', 'Maxi-Roule Inc.', 'McCoy Corporation (Edmonton West end)', 'McCoy Corporation (Edmonton south side)', 'McCoy Corporation (Fort St-John)', 'McCoy Corporation (Red Deer)', 'McGrath Contracting LTD.', 'Medatech Engineering SVC. Ltd', 'Mega-Stage Inc.', 'MegaService R.G.', 'Meltrail (2002) Inc.', 'Mesures Calib-Tech inc.', 'Metal Grenier Ltee', 'Metal Laroche Inc.', 'Metalfab Ltd.', 'Metro Trailer Sales o/a Metro Centre Ltd', 'Micada Farm and Industrial Ltd.', 'Michel Gohier Ltee.', 'Midland Manufacturing Limited', 'Miklyn Mobile Service Inc.', 'Millcosteel', 'Miller Technology Inc.', 'Millroad Manufacturing &amp; Sales INc.', 'Millstone Heating &amp; Sheet Metal Ltd.', 'Milron Metal Fabricators Inc.', 'Minoru Truck Bodies Ltd.', 'Mobile Fibreglass Ltd.', 'Mobilift Inc.', 'Montreal Hydraulique 04 inc.', 'Morskate Manufacturing Ltd', 'Mory Inc.', 'Motor Coach Industries Limited (MCI Canada)', 'Motorises Star Suites Inc./Star Suites Motorhomes Inc.', 'Mountain Road Sales', 'Mowat Fabrication Ltd.', 'Muirhead Manufacturing Ltd.', 'Mulltech Industries Ltd.', 'Multi National Supply Canada Ltd.', 'Multivans Inc. (Bolton)', 'Mumby Manufacturing Ltd.', 'Mustang Trailers &amp; Welding', 'N &amp;  N Remorques Inc.', 'N.L.T. Fabrication', 'NOVILCO INC.', 'NRTC Inc.', 'Nahanni Industries Ltd.', "Nando's Trailer Mfg.", 'National Energy Equipment Inc (BC)', 'National Energy Equipment Inc (NS)', 'National Energy Equipment Inc (ON)', 'National Energy Equipment Inc (SK)', 'National Energy Equipment Inc. (MB)', 'National Energy Equipment Inc. (NB)', 'National Energy Equipment Inc. (NF)', 'National Oilwell/Hitec Systems and C</t>
         </is>
@@ -578,18 +595,26 @@
       <c r="P3" t="n">
         <v>2</v>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>v61</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>R02</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
         <v>11355</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>1428</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>['104', '11', '115', '117', '128', '132', '138', '14', '157', '158', '159', '163', '169', '171', '18', '180', '190', '199', '2', '201', '207', '214', '23', '232', '242', '249', '250', '252', '256', '271', '279', '28', '297', '3', '307', '309', '33', '330', '345', '346', '348', '38', '388', '394', '40', '402', '408', '417', '436', '439', '443', '461', '47', '471', '475', '477', '48', '485', '491', '501', '509', '51', '510', '532', '533', '543', '549', '561', '565', '567', '581', '582', '593', '598', '5HZ', '604', '627', '629', '63', '634', '655', '714', '715', '718', '729', '748', '771', '82', '821', '845', '863', '867', '885', '89', '896', '897', '901', '904', '912', '913', '927', '928', '930', '931', '933', '936', '942', '944', '950', '954', '961', '963', '964', '972', '975', '977', '979', '98', '981', '984', '985', '986', 'A05', 'A06', 'A13', 'A23', 'A26', 'A29', 'A35', 'A40', 'A49', 'A54', 'A56', 'A58', 'A67', 'A69', 'A74', 'A79', 'A82', 'A84', 'A87', 'A88', 'A95', 'B19', 'B23', 'B24', 'B25', 'B32', 'B42', 'B59', 'B61', 'B75', 'B77', 'B85', 'B88', 'B89', 'B94', 'B98', 'C03', 'C11', 'C30', 'C32', 'C37', 'C50', 'C51', 'C56', 'C57', 'C61', 'C64', 'C68', 'C72', 'C76', 'C78', 'C94', 'D04', 'D35', 'D50', 'D58', 'D76', 'D96', 'E08', 'E12', 'E14', 'E16', 'E18', 'E19', 'E25', 'E27', 'E31', 'E32', 'E38', 'E39', 'E40', 'E45', 'E61', 'E66', 'E69', 'E70', 'E75', 'E81', 'E82', 'E97', 'F01', 'F04', 'F06', 'F08', 'F18', 'F22', 'F27', 'F29', 'F31', 'F33', 'F34', 'F37', 'F39', 'F43', 'F44', 'F46', 'F49', 'F50', 'F52', 'F71', 'F76', 'F78', 'G03', 'G07', 'G09', 'G13', 'G17', 'G18', 'G25', 'G27', 'G34', 'G36', 'G45', 'G48', 'G49', 'G56', 'G57', 'G62', 'G63', 'G65', 'G71', 'G77', 'G83', 'G88', 'G89', 'G93', 'G96', 'G97', 'H01', 'H02', 'H04', 'H12', 'H13', 'H14', 'H16', 'H17', 'H19', 'H25', 'H28', 'H30', 'H33', 'H36', 'H37', 'H41', 'H45', 'H47', 'H55', 'H57', 'H60', 'H62', 'H63', 'H67', 'H68', 'H69', 'H71', 'H72', 'H73', 'H74', 'H76', 'H77', 'H78', 'H83', 'H85', 'H86', 'H89', 'H93', 'H94', 'H95', 'H96', 'H97', 'I02', 'I13', 'I15', 'I16', 'I20', 'I21', 'I23', 'I25', 'I27', 'I28', 'I32', 'I33', 'I34', 'I36', 'I37', 'I38', 'I40', 'I43', 'I44', 'I49', 'I51', 'I54', 'I56', 'I57', 'I59', 'I60', 'I64', 'I65', 'I66', 'I67', 'I68', 'I70', 'I71', 'I73', 'I74', 'I75', 'I76', 'I79', 'I80', 'I81', 'I83', 'I84', 'I87', 'I88', 'I89', 'I93', 'I95', 'I96', 'I97', 'I98', 'I99', 'J04', 'J08', 'J10', 'J11', 'J12', 'J13', 'J14', 'J15', 'J18', 'J20', 'J21', 'J24', 'J26', 'J27', 'J29', 'J30', 'J31', 'J32', 'J34', 'J35', 'J37', 'J39', 'J41', 'J43', 'J45', 'J47', 'J49', 'J51', 'J52', 'J53', 'J54', 'J55', 'J58', 'J63', 'J64', 'J65', 'J66', 'J67', 'J72', 'J73', 'J75', 'J76', 'J78', 'J80', 'J81', 'J82', 'J83', 'J85', 'J87', 'J89', 'J90', 'J91', 'J92', 'J93', 'J94', 'J95', 'J96', 'J97', 'J98', 'K01', 'K02', 'K03', 'K04', 'K07', 'K08', 'K09', 'K11', 'K12', 'K13', 'K15', 'K16', 'K18', 'K20', 'K22', 'K24', 'K28', 'K30', 'K31', 'K33', 'K35', 'K36', 'K37', 'K38', 'K42', 'K45', 'K46', 'K48', 'K49', 'K50', 'K52', 'K53', 'K54', 'K55', 'K56', 'K59', 'K60', 'K61', 'K62', 'K63', 'K67', 'K73', 'K78', 'K79', 'K80', 'K81', 'K82', 'K83', 'K87', 'K89', 'K92', 'K94', 'K95', 'K96', 'K97', 'K98', 'L04', 'L05', 'L06', 'L08', 'L12', 'L13', 'L14', 'L16', 'L17', 'L18', 'L22', 'L23', 'L24', 'L25', 'L27', 'L28', 'L30', 'L31', 'L32', 'L35', 'L36', 'L39', 'L42', 'L43', 'L44', 'L45', 'L46', 'L47', 'L49', 'L51', 'L55', 'L56', 'L57', 'L59', 'L61', 'L62', 'L66', 'L69', 'L71', 'L72', 'L74', 'L75', 'L77', 'L78', 'L80', 'L81', 'L82', 'L83', 'L84', 'L85', 'L86', 'L87', 'L89', 'L91', 'L94', 'L95', 'L96', 'L97', 'L98', 'L99', 'M01', 'M04', 'M07', 'M08', 'M09', 'M10', 'M11', 'M12', 'M13', 'M16', 'M19', 'M21', 'M23', 'M24', 'M25', 'M28', 'M29', 'M30', 'M33', 'M35', 'M36', 'M37', 'M38', 'M39', 'M41', 'M42', 'M43', 'M44', 'M45', 'M46', 'M47', 'M48', 'M49', 'M50', 'M51', 'M52', 'M55', 'M56', 'M57', 'M58', 'M60', 'M62', 'M63', 'M64', 'M65', 'M66', 'M67', 'M69', 'M70', 'M71', 'M73', 'M74', 'M75', 'M78', 'M79', 'M81', 'M82', 'M83', 'M84', 'M85', 'M86', 'M87', 'M88', 'M89', 'M90', 'M91', 'M92', 'M93', 'M94', 'M96', 'N01', 'N02', 'N03', 'N04', 'N06', 'N07', 'N08', 'N09', 'N11', 'N13', 'N14', 'N15', 'N17', 'N18', 'N20', 'N21', 'N23', 'N24', 'N25', 'N26', 'N28', 'N29', 'N30', 'N31', 'N32', 'N33', 'N35', 'N36', 'N37', 'N38', 'N40', 'N41', 'N42', 'N43', 'N44', 'N47', 'N48', 'N49', 'N50', 'N51', 'N53', 'N55', 'N56', 'N57', 'N59', 'N61', 'N62', 'N63', 'N64', 'N65', 'N66', 'N69', 'N70', 'N71', 'N73', 'N74', 'N75', 'N76', 'N77', 'N79', 'N80', 'N81', 'N82', 'N83', 'N84', 'N85', 'N86', 'N89', 'N90', 'N91', 'N93', 'N95', 'N96', 'N97', 'N99', 'P02', 'P03', 'P04', 'P05', 'P06', 'P08', 'P09', 'P12', 'P14', 'P15', 'P16', 'P17', 'P18', 'P22', 'P23', 'P24', 'P25', 'P28', 'P29', 'P30', 'P31', 'P35', 'P36', 'P37', 'P38', 'P39', 'P40', 'P41', 'P42', 'P44', 'P45', 'P46', 'P47', 'P48', 'P50', 'P51', 'P52', 'P53', 'P55', 'P56', 'P57', 'P60', 'P61', 'P62', 'P63', 'P66', 'P67', 'P68', 'P69', 'P70', 'P71', 'P72', 'P73', 'P74', 'P75', 'P76', 'P77', 'P79', 'P80', 'P81', 'P83', 'P84', 'P85', 'P86', 'P87', 'P88', 'P89', 'P91', 'P92', 'P94', 'P95', 'P96', 'P97', 'P98', 'P99', 'R01', 'R02', 'R04', 'R05', 'R06', 'R07', 'R08', 'R09', 'R10', 'R12', 'R13', 'R14', 'R15', 'R16', 'R18', 'R19', 'R20', 'R21', 'R22', 'R23', 'R24', 'R25', 'R26', 'R28', 'R29', 'R30', 'R31', 'R33', 'R34', 'R35', 'R36', 'R37', 'R38', 'R39', 'R40', 'R41', 'R42', 'R43', 'R44', 'R45', 'R47', 'R48', 'R49', 'R50', 'R51', 'R53', 'R54', 'R58', 'R59', 'R60', 'R61', 'R62', 'R63', 'R64', 'R65', 'R66', 'R68', 'R69', 'R70', 'R72', 'R73', 'R74', 'R75', 'R76', 'R77', 'R78', 'R79', 'R80', 'R81', 'R82', 'R83', 'R84', 'R85', 'R86', 'R87', 'R88', 'R89', 'R90', 'R91', 'R92', 'R93', 'R94', 'R95', 'R96', 'R97', 'R98', 'R99', 'T01', 'T02', 'T03', 'T04', 'T05', 'T06', 'T07', 'T08', 'T09', 'T10', 'T11', 'T12', 'T13', 'T20', 'T21', 'T22', 'T24', 'T25', 'T28', 'T30', 'T31', 'T32', 'T33', 'T34', 'T35', 'T38', 'T41', 'T42', 'T44', 'T45', 'T47', 'T48', 'T49', 'T50', 'T51', 'T52', 'T53', 'T54', 'T56', 'T57', 'T58', 'T59', 'T60', 'T62', 'T65', 'T66', 'T67', 'T69', 'T70', 'T71', 'T72', 'T73', 'T74', 'T75', 'T76', 'T77', 'T78', 'T79', 'T81', 'T82', 'T83', 'T85', 'T86', 'T87', 'T88', 'T89', 'T90', 'T92', 'T93', 'T95', 'T96', 'T97', 'T99', 'U01', 'U02', 'U03', 'U07', 'U09', 'U10', 'U11', 'U12', 'U13', 'U14', 'U15', 'U16', 'U18', 'U19', 'U20', 'U21', 'U22', 'U23', 'U24', 'U25', 'U26', 'U29', 'U30', 'U31', 'U32', 'U33', 'U34', 'U36', 'U37', 'U38', 'U40', 'U41', 'U42', 'U43', 'U44', 'U45', 'U46', 'U47', 'U48', 'U49', 'U50', 'U51', 'U52', 'U53', 'U55', 'U56', 'U57', 'U58', 'U59', 'U61', 'U62', 'U63', 'U65', 'U66', 'U67', 'U68', 'U69', 'U71', 'U72', 'U73', 'U74', 'U75', 'U76', 'U77', 'U78', 'U79', 'U80', 'U81', 'U82', 'U83', 'U84', 'U85', 'U86', 'U87', 'U88', 'U89', 'U90', 'U91', 'U92', 'U93', 'U94', 'U95', 'U96', 'U97', 'U98', 'U99', 'V01', 'V02', 'V03', 'V04', 'V07', 'V08', 'V09', 'V10', 'V11', 'V12', 'V13', 'V14', 'V15', 'V16', 'V17', 'V18', 'V20', 'V21', 'V22', 'V23', 'V24', 'V25', 'V27', 'V28', 'V29', 'V30', 'V31', 'V32', 'V33', 'V34', 'V35', 'V36', 'V37', 'V38', 'V39', 'V40', 'V41', 'V42', 'V44', 'V45', 'V46', 'V47', 'V48', 'V49', 'V50', 'V51', 'V52', 'V53', 'V54', 'V56', 'V57', 'V58', 'V59', 'V60', 'V62', 'V63', 'V65', 'V66', 'V67', 'V68', 'V69', 'V70', 'V71', 'V72', 'V73', 'V74', 'V75', 'V76', 'V77', 'V78', 'V79', 'V81', 'V82', 'V83', 'V84', 'V85', 'V86', 'V87', 'V88', 'V89', 'V90', 'V91', 'V92', 'V93', 'V94', 'V95', 'V96', 'V97', 'V98', 'V99', 'W01', 'W03', 'W04', 'W05', 'W06', 'W07', 'W08', 'W10', 'W11', 'W12', 'W13', 'W14', 'W16', 'W18', 'W19', 'W20', 'W21', 'W22', 'W23', 'W24', 'W25', 'W26', 'W27', 'W28', 'W29', 'W30', 'W31', 'W32', 'W33', 'W34', 'W35', 'W36', 'W37', 'W38', 'W39', 'W40', 'W41', 'W42', 'W43', 'W44', 'W45', 'W46', 'W47', 'W48', 'W49', 'W50', 'W51', 'W52', 'W53', 'W54', 'W55', 'W56', 'W57', 'W58', 'W59', 'W60', 'W61', 'W62', 'W63', 'W64', 'W65', 'W66', 'W67', 'W68', 'W69', 'W70', 'W71', 'W72', 'W73', 'W74', 'W75', 'W76', 'W77', 'W78', 'W79', 'W80', 'W81', 'W82', 'W83', 'W84', 'W85', 'W86', 'W87', 'W88', 'W89', 'W90', 'W91', 'W92', 'W93', 'W94', 'W96', 'W97', 'W98', 'W99', 'X01', 'X02', 'X03', 'X04', 'X05', 'X06', 'X07', 'X08', 'X09', 'X10', 'X11', 'X12', 'X13', 'X14', 'X15', 'X16', 'X17', 'X18', 'X19', 'X21', 'X22', 'X23', 'X24', 'X25', 'X26', 'X27', 'X28', 'X29', 'X30', 'X31', 'X32', 'X33', 'X34', 'X35', 'X36', 'X37', 'X38', 'X40', 'X41', 'X43', 'X44', 'X45', 'X46', 'X47', 'X48', 'X49', 'X50', 'X51', 'X52', 'X53', 'X54', 'X55', 'X56', 'X57', 'X58', 'X59', 'X60', 'X61', 'X62', 'X63', 'X64', 'X65', 'X66', 'X67', 'X68', 'X70', 'X71', 'X72', 'X73', 'X74', 'X75', 'X76', 'X77', 'X78', 'X79', 'X80', 'X81', 'X82', 'X83', 'X84', 'X85', 'X86', 'X87', 'X88', 'X89', 'X90', 'X91', 'X92', 'X93', 'X94', 'X95', 'X96', 'X97', 'Y03', 'Y04', 'Y05', 'Y06', 'Y07', 'Y08', 'Y09', 'Y10', 'Y11', 'Y12', 'Y13', 'Y14', 'Y15', 'Y16', 'Y17', 'Y18', 'Y19', 'Y20', 'Y21', 'Y22', 'Y23', 'Y24', 'Y25', 'Y26', 'Y27', 'Y28', 'Y29', 'Y30', 'Y31', 'Y32', 'Y34', 'Y35', 'Y36', 'Y37', 'Y38', 'Y39', 'Y40', 'Y41', 'Y42', 'Y43', 'Y44', 'Y45', 'Y47', 'Y48', 'Y49', 'Y50', 'Y51', 'Y52', 'Y53', 'Y54', 'Y55', 'Y56', 'Y57', 'Y58', 'Y59', 'Y60', 'Y61', 'Y62', 'Y63', 'Y64', 'Y65', 'Y66', 'Y68', 'Y69', 'Y70', 'Y71', 'Y72', 'Y73', 'Y74', 'Y75', 'Y76', 'Y77', 'Y78', 'Y80', 'Y81', 'Y82', 'Y84', 'Y85', 'Y86', 'Y87', 'Y88', 'Y89', 'Y90', 'Y92', 'Y93', 'Y94', 'Y95', 'Y96', 'Y97', 'Y98', 'Z01', 'Z02', 'Z03', 'Z05', 'Z06', 'Z07', 'Z08', 'Z10', 'Z11', 'Z12', 'Z13', 'Z14', 'Z15', 'Z16', 'Z17', 'Z18', 'Z19', 'Z20', 'Z21', 'Z22', 'Z23', 'Z24', 'Z25', 'Z26', 'Z27', 'Z28', 'Z29', 'Z30', 'Z31', 'Z32', 'Z33', 'Z34', 'Z35', 'Z36', 'Z37', 'Z38', 'Z39', 'Z40', 'Z41', 'Z42', 'Z43', 'Z44', 'Z45', 'Z46', 'Z47', 'Z48', 'Z49', 'Z50', 'Z51', 'Z52', 'Z53', 'Z54', 'Z55', 'Z56', 'Z57', 'Z58', 'Z60', 'Z61', 'Z62', 'Z63', 'Z64', 'Z65', 'Z66', 'Z67', 'Z68', 'Z69', 'Z70', 'Z71', 'Z72', 'Z73', 'Z74', 'Z75', 'Z76', 'Z77', 'Z79', 'Z81', 'v61']</t>
         </is>
@@ -648,18 +673,22 @@
       <c r="P4" t="n">
         <v>3391</v>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>trailers manufactured are CMVSS 223 exempt</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="n">
         <v>22302</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>76</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>['2007 - GSR 400, GSR 600, GSRPT- service rigs &amp; pump truck', '3390', '5th Wheel trailers', '5th Wheel, flatdeck', '5th wheel trailers.  SR', 'All RIG  equipped trailers are CMVSS 223 compliant.', 'All RIG equipped trailers are CMVSS 223 compliant', 'All RIG equipped trailers are CMVSS 223 compliant\n\n\n\nWMI Codes:\n\n2R9 144 - trailers\n\n2J9 037 - trucks\n\n2A9 138 - trailer conv dollies', 'All RIG equipped trailers are CMVSS 223 compliant.', 'All RIG equipped trailers are CMVSS 223-RIG compliant - CTEA generic RIG program.', 'All RIG equipped trailers are CMVSs 223 compliant.', 'All trailers that Haultec manufacturers are wheels back.', 'Also Mfg flat deck car haulers DB July 19, 2003.', 'Armored vehicles', 'Astro/Safari infloor lift;\n\nRaised roofs by Kino;', 'Authorized to import under National Safety Mark X19 child restraint systems and booster seats manufactured in China by MAX-INF (Ningbo) Baby Product Co., Ltd. (formerly Ningbo Winwin)', 'CMVSS 223 - RIG exempt', 'CMVSS 223 EXEMPT AS PER SECTION 2(C)', 'CMVSS 223 compliant', 'Cadillac XTS conversions 7", 24", 44", 70"\n\nLincoln MKT conversions 44", 70", 120"', 'Chrysler mini-vans raised roof back from the "B" pillar, in floor lift, taxi.', 'Company is also performing "raised roof" conversions.', 'Drill rigs from the ground up and air brake trailers for the oil field. DB', 'Fire Trucks', 'Fire truck', 'Flat decks on chassis.', 'Flatbeds and service bodies.', 'Ford travel van conversions', 'Formerly o/a Ningbo Winwin, manufactures child restraint systems and booster seats in China for importation into Canada by 4187229 Canada Inc. dba Harmony Juvenile Products under National Safety Mark X19', 'Importer for Apramo, Kukuxumusu, Sparco products', 'Importer for Britax, BOB products', 'Importer for Chicco and Nuna products', 'Importer for Diono, Little Tikes, and formerly Sunshine Kids products', 'Importer for Evenflo and Snugli products', 'Importer for Graco products', 'Importer for Safety 1st, Cosco, Eddie Bauer, Maxi-Cosi products', 'Importer for TeamTex (Fisher Price, Ferrari, Barbie, Hot Wheels) and UPPABaby products', 'Installs Winter maintenance equipment (Snowplows, Sidewing, V-Box, Sander, Dump bodies, PTO) DB', 'Installs petroleum tanks', 'LSV', 'Low chassis trailers - CMVSS 223 - RIG exempt.', 'Mahadev is an alterer specializing in the modification of completed/compliant vehicles so as to render them wheelchair accessible.', 'Manufactures boat, snowmobile and small tent trailers. DB (from RDIM) July 16, 03.', 'Manufactures drilling rigs', 'Manufactures motorcycle trailers.', 'Member of CTEA generic RIG program.', 'Mfg firetrucks D.B. Sept 30, 2004', 'Mfg rear dump trailers', 'Mfg trailers that are used to heat buildings or tents for construction', 'Mfg, gravel dump trailers', 'Mud tank trailers. DB June 21, 2005.\n\n\n\nAll RIG equipped trailers are CMVSS 223 compliant.', 'NSM application in process 4-Nov-2002. Request proceeded by S. Lalime', 'No more new ambulances, adaptation dissable transportation, special vehicles. All altered vehicles are 0 to 50 000km. 60% of total production used 40% new.', 'Oil Field trailers', 'Pup Dump trailers.', "RIG's are CMVSS 223 compliant", "RIG's are CMVSS 223 compliant.", 'Right-hand drive', "Steel RIG's are CMVSS 223 compliant.\n\n\n\nAluminum RIG's only to be fitted to tanker trailers.", 'TRUCKS:\n\nFront &amp; Rear Loader Garbage Trucks, Roll-offs.\n\n\n\nTRAILERS:\n\nRoll-offs, Pups, Frameless dumps.', 'They are an International Truck dealer', 'This company manufacturers and installs transfer seats in vehicles modified for persons with disabilities.', 'Trailers for transporting coiled wire.', 'Transformation of trucks, installation of equipment on heavy trucks. Extend or shorten  chassis. Box of trucks, tatters, deck, topple over dumpsters, snow shoveling systems , articulated common cranes, valve systems, spreaders.', 'Triple E Recreational Vehicles A Division of Triple E Canada Ltd.', 'Truck:  4000, MT 350 &amp; VT 650', 'Van and flat decks', 'Vehicles modified for physically challenged individuals.\n\nChrysler and GM Pontiac Montana mini-van, raised roof / dropped floor + extended doors.', 'Vendor permit number', 'Whelbase alteration, body/equipment installation, fifthwheel installation on International Class 8 7000 &amp; 8000, Volvo serie VHD, Sterling serie LT9500, Freightliner serie Colombia &amp; model M2, Peterbuilt serie 340, 365 &amp; 367, Western Star serie 4900, Kenworth model T800, Mack CT-713 &amp; CV-713', 'Windstar rear entry wheelchair accessible vans', 'all RIG equipped trailers are CMVSS 223 compliant', 'company has 3 WMI codes\n\n2HS - Truck Tractor\n\n2HT - Incomplete Straight Truck\n\n2HV - Incomplete Bux', 'mfg Water supply trailers.', 'see others', 'trailers manufactured are CMVSS 223 exempt']</t>
         </is>
@@ -718,18 +747,22 @@
       <c r="P5" t="n">
         <v>3521</v>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>camions incendie</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
         <v>31245</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>49</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>['5th Wheel et remorque plateforme.', "Anciennement connu sous Ningbo Winwin, fabrique des syst??mes de retenue pour enfants et des si??ges d'appoint en Chine pour l'importation au Canada par la compagnie 4187229 Canada Inc. dba Harmony Juvenile Products en vertu de la Marque nationale de s??curit?? X19", "Autoris?? ?y importer en vertu de la Marque nationale de s??curit?? X19 des syst??mes de retenue pour enfants et des si??ges d'appoint fabriqu??s en Chine par MAX-INF (Ningbo) Baby Product Co., Ltd. (anciennement connu sous Ningbo Winwin)", 'CAMIONS:\n\nCamions ?y d??chets ?y chargement avant et arri??re, Roll-offs.\n\n\n\nREMORQUES:\n\nRoll-offs, Pups, Frameless dumps.', "Camionnettes Windstar avec acc??s pour fauteuils roulants ?y l'arri??re", 'Camions de pompier', 'Caravanes 5th Wheel', "Cette compagnie s'occupe aussi de la conversion de  to??ts sur??lev??s.", 'Conduite du c??t?? droit', 'Demande de MNS en cours. 4-Nov-2002. Traitement de la demande fait par S. Lalime', 'Dispositifs de protection arri??re conformes ?y NSVAC 223.', 'Exempt?? de la norme NSVAC 223 (dispositif de protection arri??re)', 'Fabrique aussi des plateformes pour le transport de voitures.\n\nD.B. 19 juillet 2003.', "Fabrique des camions d'incendie.\n\nD.B. 30 septembre 2004.", 'Fabrique des plateformes de forage.', 'Fabrique des remorques ?y d??charge arri??re.', 'Fabrique des remorques ?y motocyclette.', 'Fabrique des remorques pour approvisionnement en eau', 'Fabrique des remorques pour motocyclettes.', 'Fabrique des remorques servant ?y la d??charge de gravier.', 'Fabrique des remorques utilis??es pour le chauffage des ??difices ou des tentes, dans le domaine de la construction.', 'Importateur pour les products Britax, BOB', 'Importateur pour les produits Apramo, Kukuxumusu, Sparco', 'Importateur pour les produits Chicco et Nuna', 'Importateur pour les produits Diono, Little Tikes, et anciennement Sunshine Kids', 'Importateur pour les produits Evenflo et Snugli', 'Importateur pour les produits Graco', 'Importateur pour les produits Safety 1st, Cosco, Eddie Bauer, Maxi-Cosi', 'Importateur pour les produits TeamTex (Ferrari, Barbie, Hot Wheels) et UPPABaby', 'Installe des r??servoirs de p??trole', 'Les dispositifs de protection arri??re sont conformes ?y NSVAC 223.', "Les remorques ??quip??es d'un dispositif de protection arri??re sont conformes ?y la norme NSVAc 223.", 'Les remorques fabriqu??es sont exemptes de NSVAC 223.', "Les remorques munies d'un dispositif de protection arri??re en acier sont conformes ?y NSVAC 223.\n\n\n\nSeules les remorques citernes peuvent ?|tre munies d'un dispositif de protection arri??re en aluminium.", "Les remorques munies d'un dispositif de protection arri??re sont conformes ?y NSVAC 223.", 'Mahadev se sp??cialise dans la modification de v??hicules complets et conformes aux NSVAC en v??hicules accessibles pour les fauteuils roulants.', "Modification d'empattement, installation de bo??te et equipements, installation de sellette d'attelage sur International Class 8 7000 &amp; 8000, Volvo serie VHD, Sterling serie LT9500, Freightliner serie Colombia &amp; modele M2, Peterbuilt serie 340, 365 &amp; 367, Western Star serie 4900, Kenworth modele T800, Mack CT-713 &amp; CV-713", 'Modification de v??hicules\n\npour personnes handicap??es, Chrysler, GM, Pontiac Montana mini-van, toit sur??lev?? / planchers abaiss??s + portes agrandies.', 'Remorques "5th wheel". SR', 'Remorques ?y bas chassis - exemptes de NSVAC 223.', "Remorques de r??servoir de boue\n\nDB 21 juin, 2005.\n\n\n\nToutes les remorques munies d'un dispositif de protection arri??re sont conformes ?y NSVAC 223.", 'Remorques pour transporter des rouleaux de fil ??lectrique.', "Toutes les remorques ??quip??es d'un dispositif de protection arri??re sont conformes ?y la norme NSVAC 223.", "Toutes les remorques ??quip??es d'un dispositif de protection arri??re sont conformes ?y la norme NSVAC 223.\n\n\n\nCodes WMI:\n\n2R9 144 - remorques\n\n2J9 037 - camions\n\n2A9 138 - chariots de conversion", "Toutes les remorques munies d'un dispositif de protection arri??re sont conformes ?y NSVAC 223.", "Transformation de camions, installation d'??quippement sur camions lourds. Allonge ou raccourci chassis. Bo??te de camions, haillons, plate-forme, Bennes basculantes, syst. de pelle ?y neige, grues articul??es, syst??mes de valves, ??pandeuses.", 'V??hicules ?y basse vitesse.', "V??hicules Astro / Safari ??quip??s d'un levier int??gr?? au plancher.\n\n\n\nV??hicules Kino ?y to??t sur??lev??", 'camions incendie']</t>
         </is>
@@ -788,18 +821,26 @@
       <c r="P6" t="n">
         <v>10</v>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>site 13, Box 11, RR#1</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>1715 Britannia Road East</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
         <v>72056</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>1617</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>['#1 - 2720 12th Street N.E.', '#1 - 7861 Hwy 97N', '#1 7884-49 Avenue', '#1 Cardinal Street', '#1 Greengage Road', '#1 Legacy Junction, Hwy 13/56', '#1 Silversage Road', '#1, 1915 - 30th Avenue North East', '#10 Forwell Road', '#107-20693 Langley Bypass', '#12, 3939 54th Avenue S.E.', '#120, 10569 - 42th Street SE', '#170 Hwy 83 North', '#30, 53016 Hwy# 60', '#301 26730 56th Avenue', '#306-5327-192nd  Street', '#4 - 7187 Honeyman Street', '#4 4440-75Ave. SE', '#5-7880-128 Street', '#54 - 37337 Burnt Lake Trail', '#7 - 1231 - 36th Avenue N.E.', '#7-3815 - 61St Avenue South East', '#8, 4 Erickson Crescent', '#9 - 1065 Herring Gull Way', '#9 Laut Cres Box 602', '#Bay 101, 4528 - 6A Street North East', '#NAME?', '07 Robinson Road  RR# 1', '1  Norpark Drive RR#4', '1 1/2 miles east of Hwy 21/595 jct near Delburne', '1 Av. Premier', '1 Elmvalley Road', '1 Lower Malpeque Road', '1 Quai Mgr Blanche, hangar no. 6', '1 Reed Avenue', '1 Royales Avenue', '1 Schenk Industrial Road', '1 Solvay Drive', '1 rue Du Parc', '1, rue Pinat', '1-1340 Stevens Road', "10 Boul. de L'Artisan", '10 Chemin de la Grande-Carriere', '10 Herritage RD', '10 Miles W. On Hwy #2', '10 Montana St', '10 Sicard St.', '10-B Li??bert', '100 - 10500, 48 Street S.E.', '100 Blvd. Real Caouette', '100 Burland Crescent', '100 Canola Ave.', '100 East Beaver Creek Road', '100 Pierrot', '100 Shirley Avenue', '100 Street', '100, rue Cormier', '1000 6th Avenue N.E.', '1000 boul. Industriel', '1000, rue Industrielle', '1001 Coutts Way', '1002 - 15 Ave Nisku', '1005 Pattullo Avenue, R.R. 8', '1006 Principale', '1007 South Service Road', '1008, Rte Mgr.-Bourget', '101 Columbus', '101 Marius Warnet', '101 Oakdale Road, Unit 10', '101 Place G??rard-Poirier, Complexe S.D.B.J.', '1018 Lansdowne St.', '102 - 485 Warren Ave. East', '102 Dawson Road, P.O. Box 3003', '102, rue du Menuisier', '102, rue du Parc Industriel, Case postale 70', '1020 17th Street West', '1020 Rue Craig Nord', '10240 Bl. L??vesque', '1026 Western Dr. Box 830', '1028 Laut Avenue', '103 - 3141 Gill Avenue', '103 Avenue', '103 Paramount Rd', '1030 Fernand-Dufour', '1035 Falconbridge Road', '1035, Rte. 219', '1038, Commerciale', '1040 Degurse Drive', '10401 Boul. Parkway', '1041 rue Nobel', '1043 rue Renault', '1047, rue Capri', '10498 17 Street', '105  MacDonald Street North', '1051 Heritage Road', '1053 Brock Road South', '1055 Line 3 South', '1056 hwy 6 North', '10571 - 178th Street', '106 Avenue', '106 Avenue South East', '106-6249 205th Street', '10620-205 Street', '1064, boul. Mgr-de-Laval', '10647 McSween Road', '1069 Route 133', '107 - 2707 Progressive Way', '1070 Gorham St', '1071 Hwy 7 East RR# 7', '1077 Hwy 26', '10774 - 42nd St SE', '1080, Chemin des Prairies', '10816 Plank Road R.R. #1', '1084, Rue L??vis', '10847 Scott Road', '1090 South Service Road East, Unit A', '1091 Manitoba Street', '1091, rue Principale', '10920 - 87 Avenue', '1093 Lorimar Drive', '1093 Smithers Road', '1095 St-Albert Road', '1096, L??vis , unit?? #3', '11 500, 57 ieme Avenue', '11 Queensway', '11, Rue Dupuis', '110 Boul. Desjardins', '110 Lowson Crescent', '110 Street', '110 route du lac St-Francois', '110, 41 Royal Viste Drive North West', '1100 Aviation Avenue', '1100 Fairville Blvd.', '1100 Rue Deschaillons', '1100 Rue Norman', '1100 Wall Street', "1100 de l'Industrie", '11003 - 97 Avenue', '11025 184 Street N.W', '1106 Broughton Street', '1114 Route 138', '1115 Cushman Road, Unit 46', '1116, rue Durance', '1119 -48th Street SE', '112 Avenue NW', '112 route 155', '1120 Industrial Drive P.O. Box 1271', '1121 Heritage Road', '1121 Heritage Road.', '1123 Lorimar Drive', '11313 - 170th Street', '114 Thomas Maher', '11416 Winterburn rd.', '1143 Route 500 West', '11434 154 St. NW', '115, St-Georges', '11500, 55e Avenue', '11520 - 2 Street N.W.', '11525 - 42 Street SE', '11525 - 42nd Street South East', '1155 rue George-H-Boulay', '1159 Des Pionniers', '116 Sunterra Heights', '116 Thorne Ave', '11634 - 156 Street', '11634 - 7th Street', '11635 6e avenue', '11650 - 156 Street NW', '1169 Pettit Rd.', '11700 Boul. St-Jean- Baptiste', '11740 Phillipe-Panneton', '1180 Aerowood Drive', '1184 Middlegate Rd.', '1185 Roland Street', '1186 route 321 Nord', '11860 Machrina Way', '11938 Imperial Road, R.R. #4', '119A 39015 Highway 2A', '11th Street', '12 Chelsea Lane', '12 McGregor Ave', '12 Norbett Drive, Units 2 &amp; 3', '12, Rang St-Andre', '120 boul. Industriel', '1200 McIntyre Street', '1200 McIntyre Street`', '1200, rue Nationale', '1201 Route 329 Nord', '1202 8th Street, Bay 18', '12020 - 101 Avenue', '12031 Vulcan Way', '1205B - 36th Street North', '1206, du pacifique', '121 B, rue Principale', '12145 - 156 Street', '12145 Dorchester Rd. (RR #7)', '12145 Meridian St', '1215 Victoria', '1220 Franklin Blvd.', '1222 58th Avenue SE', '12235 William Short Road', '1225 64TH Ave N.E.', '122nd Avenue, South East', '123 Old Highway 11 North', '123 Princess Street', "1234, rue de l'??glise", '12343A - 104th Avenue', '123rd Avenue North West', '12404-107th Street', '1245, rue Labadie', '12455, rue April', '1250 Gorham Street', '1250, Notre-Dame', '1250, boulevard V??zina', '126 Wheeler Street', '126, boul. Notre-Dame', '12605 - 66 Street', '1265 McDonald Street', '1266 Sharpe Line', '12731 Hwy #48', '12747 Hwy 16 E.', '129 Oakwood Street', '12A 2337 Townline Road', '130 Canada St, PO Box 2008', '130 Millwick Drive', '130 route 335', '1301 Jackson Side Road', '1304 rue Principale', '131 Staffern Drive', '13105 rue Jean-Grou', '1312 Plank Road', '1313 rue de Saint-Jovite', '13143 Country Road 16', '1318 rue Principale', '132 Montee Grande Ligne', '133, Industrial Park Road', '1330 Riverside Road', '1345 Franklin Street', '1345 Industrial Rd., Westside Industrial Park', '135 6th East', '135 Canada Street', '135 McNarmara Drive', '1351 Ampere Local-0', '1351 Ampere, Suite 1', '1351 Lionel-Boulet', '13594 Sabo Road', '136 Highway 33, R.R. #3', '1360 Bloor Street West', '1360 Rang 6 Nord', '1365 Alberni Highway', '1365 Border Street', '1365 Midland Avenue, Unit 90', '1368 Rymal Rd E', '139 Laird Drive', '13920 Tecumseh Road R.R. #5', '1395 Route 139', '1399 Waterton Avenue', '14 Ferry Road', '14 Hallett Crescent', '14 Mont??e Petite C??te', '14 ch. Grande Ligne', '1405 - 41 Street North', '1405 - 41st Street North', '1407 Colborne Street East', '1415 39 Street North', '1417 Notre Dame Drive  RR#1', '143, Route 108', '14355 - 120 Avenue', '1439, Rang 1', '144 Henderson Drive', '1440 1??re Avenue', '1445 Graham-Bell', '145 Damasse-Breton', '145 Falcon Street', '145 Roe Avenue', '1451, boulevard Industriel', '1461 Star Top Rd.', '14650-118th Ave.', '1467 Spitfire Place', '1470 Star Top Road', '1470 Willson Place', '14701 14 Ave Crowsnest Pass', '1475 Clarence Avenue', '149 Bentley Avenue', '1498 Midland Avenue', '15 Ilsley Avenue', '15 Iris Crescent', '15 Johnson Cres.', '15 Kenyon Street', '15 Robbins Drive', '15 rue Dutilly', '150 Cree Crescent', '150 route 112', '150, rue Edward-Assh', '1503 Petrolia Line RR#1', '151 Bullis Road', '151 Thornhill Drive', '1511 Sparrow Drive', '1511 rue J??rome-Hamel', '1520 Charles Street', '15210 Yellowhead Trail', '1523 Ross Ave.', '1525 County Road 42, RR#2', '152b Oakdale Rd', '153 Autumnwood Drive', '15303-94 Street', '1540 Saskatchewan Avenue', '15410 Yellowhead Trail', '1548 County Road 34', '155 Dawson Road', '155 Glenn Avenue', '155, Marie-Victorin', '1550 Highway 39 East', '156 Berryman Ave', '157, rue Principale', '1571 Liverpool Court', "15790 Robin's Hill Road", '158 Old Vernon Road', '15816 - 111 Avenue', '1588 King Edward Street', '15935A 118th Avenue', '1596 Vella Road', '16 Estate Drive', '160, rue Savard', '160, rue des Routiers', '1600 Springfield Road', '1602 Western Street', '16079, boul. Cure-Labelle (route 117)', '161 Deerhide Crescent Unit #3', '161 rue Sylvestre', '16105 Hwy #27 PO Box 209', '1616 Meridian Road N.E.', '162 Boulevard Mercier', '16230 188th Ave. NW', '1630 Matheson Blvd E, Unit 4', '1630, Route Kennedy', '16320, rang St-Dominique', '1634 Stittsville Main Street', '164, Mgr. Martin', '1640 Enterprise Road', '16440 130th Ave', '165 Magill Street', '165 Thames East', '1650 The Queensway', '1651 - 12th Street', '1655 Hymus Blvd.', '1655 boulevard de Port Royal', '166 North Murry Street - Box 682', '166 rue Sylvestre', '166 rue du Carrefour', '16615 Post Rd', '16657 - 111 Avenue', '16703 - 110 Avenue North West', '16715 114th Avenue', '16830 111th Avenue', '1690 rue Eiffel', '16A Second Street', '17 - 199 Omands Creek', '17 rue des Pins', '17-1-15 NE', '170 Joseph Zatzman Drive, Unit 18', '1715 Britannia Road East', '1718 - Hwy. #6 North, R.r. #2', '1720 boulevard St-Charles', '1730 rue Atmec', '17303 - 114 Avenue', '175 Gordon Baker Road', '175 Pinedale Avenue', '175 Route 104', '175, route du Pont', '1750 Brown Road', '1750 West 75th Avenue', '1755 rue Janelle', '1759 Trafalgar Street', '176 McGovern Drive, R.R. #32', '17604 105th Avenue', '1772 Broadway Street', '1775 Drew Road', '1781 Bresse', '17817 Leslie Street, Unit 16', '1783 Oxford Street, Unit #5', "18 Dundee Avenue Suite #1 (Donovan's Ind. Park)", '18 Mountshannon Dr.', '180 Hodsman Rd.', '180 Honda Blvd.', '1801 Bleams Rd', '18020 - 118 Avenue', '1803 Ryan Road East', '1805-10 Avenue SW', '181 Bay Street', '18110 - 118 Avenue', '182 Darling Drive', '182 Morin', '1825, rue Power', '1830A Cage Court', '1831 Barton St.', '1836, 3e avenue', '1839 Seymour St. Site 9, Comp. 11, RR# 3', '1840 Gage Court', '1840 Kryczka Place', '18410-118a Avenue North West', '18412 96th Ave', '1845 route 122', '1850 Derry Road East', '1855 boul. Queen Victoria', '18550 - 96 Avenue', '186 Main Street', '18688 96th Avenue', '1895, Boul. Frontenac Est', '18th Ave', '19 Industrial Street', '19, Gaston-Dumoulin', '19, rue C??t??', '190 Commercial Place', '1900-800 - 5th Avenue S.W.', '1904 4th street', '1908 Colonel Sam Drive', '191 Dalton Avenue', '1911 East Bypass Road', '1914 Glover Road', "1915 boul. de L'Industrie", '1919 - 84th Ave', '19315 96 Ave', '1940 Albion Road', '19405 Enterprise Way', '19439 94th Avenue', '19470 - 96th Avenue', '195 Citation Dr.', '1951 Wilfert road', '19548 - 96 Avenue', '1955 Caribou Street West', '1955 West Trans. Canada Hwy.', '196 Armand Bombardier', '1960 Barton Street East', '1963 Kingsway Avenue', '1995 Merivale Road', '19992 Fraser Hwy, Unit 102', '1??re rue', '1st Street South, P.O. Box 1124', '2 - 418 South Railway Street South', '2 Arrowsmith Road', '2 McIlveen Drive', '2 Robert Speck Parkway, Ste. 765', '2, boulevard Marie-Victorin', '2, rue du Parc', '2-331 Parkdale Road', '20 Alness Street', '200 Ellis Drive, Acheson Industrial Park', '200 Horsman Road', '200 Moulinette Road', '200 Street', '200 Waydom Drive', '200 mont??e Industrielle', '200 rue Damasse Breton', '200, rue Savard, C.P. 6', '2000 Boul. Ste Sophie', '2000 Langstaff Road', '2000, avenue M??thot, C.P. 333', '2001 1st Avenue', '201 Woodlawn Road', '201 blvd Labb?? N # 6', '201-1492 Admirals Road', '2010 Riverside Drive', '20141 Logan Ave', '20165 Logan Avenue', '202, 26229 TWP 531 A (Zone 2 Industrial Area)', '2020 Bantree St.', '2025 Lechatelier', '2028 Dundas Street', '2035 Bedell', '205 Boulevard Saint-Sacrement', '205 Konrad', '205 Miner', '205 rue Commerciale', '2054 Birch Crescent S.E.', '2066 Henry Avenue West', '2070 Concord Avenue', '20701 Unit 211 Langley Bypass', '2089 Rte. 132', '2091 Baseline Road', '20940 - 107 Ave.', '20th Avenue SE', '21 Antares #205', '21 rue Gauthier', '21 rue Notre Dame', '210 Tank St.', '2101, rue Chicoine', '21010-108 Avenue North West', '2106 Francis-Hugues', '2107 6th avenue', '2107 E Turvey Road', '2111 - 9th Avenue S.W.', '2119 Tramway', '2120 95ieme rue', '2124 Robinson Street', '213 Charlesworth Ave.', '2142 Country Road #16', '215 Tecumseh Street', '215 Terr Riopel', '2168 Springfield Road', '2170 Winston Park Drive', '2177 Plains Road East', '2180 Yonge St.', '22 Chemin Milton', '220 Patillu Road. RR #1', '2202 Hanselman Ave.', '2204-84 Ave', '221 Route du Village', '2215 8th avenue', '2215 Ave. Francis Hughes', '2215 Midland Avenue', '2223 Drummond Line', '223 Bodia Ave', '2230 McCullough Road', '22321 Labonte Ave.', '225 Nugget Avenue, Unit 14', '225 Oxford', '225 route 265 N.', '225, Ave. St-Sacrement', '2250 rue St-Jean', '226 Lesmill Rd.', '2275 Rue Canadien', '2275, 107 i??me Rue', '229 11th Avenue, North East', '2290 rang Versaille', '23 Boivin', '230 King St. East', '230 Yorktech Drive', '2300 Haines Road', '2307 Kings Rd', '231 Highway 17 East', '231, St-Antoine Nord', '2311 Highway 28, RR7', '2315 Boul. Wallberg', '2315 Douglas Road', '232 South Service Rd', '2324 Place Du Gala', '232A Woolwich Street, South', '2337 Bowman Street', '234 Glenarm Road', '235 - 3rd avenue', '235 Rue Principale', '2359 Boul. Fiset', '236, rue St-Calixte', '2380 Rue Dalton', '2390 South Service Road West', '24 Peet Street PO Box 8340, Stn A', '24 Yvon Provost', '24 du Village', '240 Chemin de la Forge', '240-103rd Street', '2400 Kirby Road', '2400A Autoroute Transcanadienne', '2401 Gottselig Rd.', '241 Bluewater Road', '242 NE 5-9-9W', '2430 Principale', '2435 Eagle Street North', '2439 Riverside drive', '244 Lake Avenue', '2441 rue Lupien', '245 Transport Road P.O. Box 4, Group 582, RR #5', '2450 Cohen Street', '2453 Chemin de Chambly', '2458 Highway 11', "246 Cooper's Road", '2490 Baseline Road, RR#8', '2492 Cedar Creek Road R.R. #1', '2499 Industrial Street', '25 - #8 Centennial Road', '25 Chemin De La Minerve', '25 Heritage Road', '25 Slack Rd', '250 West 70th Ave.', '250 rue Industrielle, local 10', '250, 2i??me Avenue', '2500 Boulevard  McWatters', '2500 Georges Street', '25084 Highway #3 East', '251, Rg St-Jean-Baptiste', '252 Saratoga Road', '2521 Inkster Boulevard', '2523 Fire Route O', '2525 Inkster Blvd.', '2525, rue Watt', '253 rue Principale', '2541 Country Court', '255 Rutherford Road South', '2590 Blackwell Street', '25975 Woodbine Ave.', '260 Dunkirk Road', '2607 North Yorke river road', '261 Binnington Court', '261 Bowes Road', '2612 Robison Rd.', '26162 30A Ave.', '26180 31B Avenue', '26230TH Avenue', '2625 Meadowpine Blvd.', '2628 Edinburgh Place', '2633 Bath Street', '26416 TWP RD 531A', '265 Rue Etienne-Dubreuil', '2651 Markham Road', '268, St-Antoine', '2680 B Boulevard Hamel Ouest', '2699 5ieme Ave., Boite Grouper 14', '270 Lacerte', '2705, Boulevard Wilfrid-Laurier', '27137 S. Hwy 33', '2717 rue Watt, Parc Colbert', '272 Oak Point Service', '2725 Belisle Drive', '273 County Rd #29', '273 Highway 29', '27360 - 58th Crescent', '2749 Thompson Road P.O. box 918', '275 Boul Industriel Est C.P. 443', '275 Carrier Drive', '275 Clarence Street', '275 Waterloo Ave.', '2753 Simcoe Road #27', '2759 Lancaster Road', '279 East 1st Street, Box 1158', '279 Norseman Street', '279, Route 204', '2793 Carp Road', '28 Boul. Richelieu', '2801-84th Ave', '28055-D de la cote Nord', '281 Main St. Hwy # 3, Box 401', '2814 Barton Street Est', '2820 84th Avenue', '282020 Grand Valley Road', '2827 - 30th Avenue', '28419 Ranch Avenue', '285 Boul. Edouard VII', '2865 Rte 112', '287 Mountain Road', '289 McLean Avenue', '29, rue Laroche', '2901 Rue Watt', '2903 Shuttle St.', '2909 Rue Bergman', '291 Young Road, R.R. # 8', '2920 Concession 21, R.R. #2', '2930 Pasqua St N', '2945 Millar Avenue', '295 Pinebush Road', '295, Rte. 165', '2957, boulevard P??re-Leli??vre', '2e Rang', '3 King Streeet West', '3 Main Street', '3 Marconi Court', '3-1140 Sheppard Ave. West', '30 Alpine Court', '30 Hanbury Street', '300 Doepker Avenue', '300 Rue Du Parc', '300 St-Fran??ois-Xavier', '300, rue Alexis-Poirier', '300, rue Quennville C.P. 759', '300,rue des Pins Ouest,', '300-19325-96 Avenue', '3000 Ament Line', '3000 rue Girardin', '301 Aqueduct Street', '301 Roblin Blvd', '301 chemin Lavaltrie C.P. 27', '302 Mill Street', '302 Portage Avenue', '3024 49 Avenue S.E.', '3025 Sandhill Road', '3025 Sandhills Road', '303 20630 Mufford Cresent', '303 Dunlop Street', '303 Station Road', '3044 Sawmill Rd', '305 Enford Road', '3050 Kilpatrick Road', '3050, rue Anderson', '30686-A Matsqui Place', '3074 Sawmill Road', '308 River View Cresent', '30817 Zone Road #8', '3091 Albion road', '31 Torbarrie Road', '310 rue Metivier #110', '3100 Boul. Jean-Jacques Cossette', '3104 Hampton Street', '3111  Shepard Place South East', '312 St George Avenue', '3128 Hope Place, R.R. #1', '313 Princess Street', '314 Lake Avenue North', '315 Park Avenue East', '3175 Mccallum Road', '3175 boulevard du Royaume', '3183 rue Harvey', '319 St. Jaques', '32 rue Industrielle', '3210 Swansea Cres. #6', '322 Rue Principale', '322 Totom Court', '325 Line 13 North RR #1', '325 Mud Street, R.R. #3', '325 Welland Avenue, Unit #8', '325 Weston Road, Unit 2D', '325, boul. Industriel', '3250  46th Avenue S.E.', '3255, Rue Picard', '327 Julien Street', '328, rue Adam', '3280 Wharton Way', '33 Maplecrete Road', '330 Saulteaux Crescent', '330 South Service Road', '3306,boul des entreprises', '331 Highway 12 North', '3311 B Millar Ave.', '3323 Hart Highway', '333 10th Street', '333 Bay Street, Suite 2400', '3332 - F River Rd.', '3348 Harvester Road', '335 Broadway Street, P.O. Box 189', '336 Birch Avenue', '336 Kenora Ave.', '3377 Gershaw Drive South West', '34 Golden Gate Court, Unit #10', '340, 12e Rue', '340, Marie Currie', '342, Henry - Bessemer', '3423 Millar Avenue', '3429 Hawthorne Road', '344 Fruitland Road', '3444 rue du Transport', '3445 Miners Ave.', '345 Finchdene Square', '345 Hwy 20, R.R. #3', '3455 Pembina Hwy', '3455 Wolfedale Road', '34640 Currie Place', '34709 Talbot Line', '35 Hale Road', '35 Standford Flemming Drive', '35 Sunnyhurst Avenue, Unit 8', '35 rue Beaulac Inc.', '35, De La B??tonni??re', '35, De Montgolfier', '350 Allen Avenue', '3500 Cite des Jeunes', '3543 Rue Principale', '3543 rue Principale', '356 Industrial Drive', '358 Rte 138', '36 Street SE', '3600, boul. Industriel', '3624 Hwy 209 (P.O. Box 35)', '3632 Boulevard des H?|tres', '3660 - 50th Avenue SE', '367 Boul. Chabot', '368 Main Street', '369 Quebec Street', '37 Raglin Place', '37 Sylvan Way', '370 Ecclestone Drive PO Box 870', '3705 route 108 Est', '37089 Talbot Line R.R. 3', '371, Grand Bernier Nord', '3731, Route 111 Est', '3737 Boulevard Lite', '375, Rue T??miscouata, C.P. 998', '3751 Highway 97', '38 Main St.', '38 Rue St-Anne', '38, boulevard Bernard', '38, rue Thibault', '3800 Boulevard Gene-H.-Kruger', '3805, La V??rendrye', '38207 Regional Road 25-1', '3850, Boulevard Leman', '38547 Huron Street West, R.R. #2', '3855, 5e Avenue', '3855, rue Georges-Corbeil', '386 Park Avenue', '389 rue Notre-Dame', '3904 - 78 Avenue', '3904-78 Avenue', '391 Alliance Avenue', '391 St. Jean Baptiste Nord', '3914 81st avenue', '3915 - 52 Street Close', '3965, rue Qu??bec Central', '3995, 2 Avenue North', '39E Avenue', '3rd Avenue South', '4 Blackmore Avenue', '4 Progress Drive', '4, chemin De Vimy', '4-7621 Edgar Industrial Drive', '40 Automatic Road', '40 Commerce Crescent', '40 Nixon Road', '40 Oswald Drive', '400 Dunlop Street West', '4000, quatri??me Rue', '401 - 18th Avenue', '401 9th St North Box 179', '401 Pido Road', '4013 Boileau Road', '4015 rue Carpentier', '402 MULOCK DR', '4024 Charles Street', '404 Meridian Road NE', '4040 Brandon Street South East', "4049 St. Margaret's Bay Road", '405 Van Buren St.', '407 - 22 Avenue', '407 Farnham Road', '407568 Grey Road 4   RR 1', '41 Carmella Drive', '41 Claireville Drive', '41 Granger Avenue', '4102 - 44th Avenue', '4110 - 76 Avenue', '4114 Crozier Road', '4115 18th Avenue North', '412-1, 3e Rue', '4131 Morris Drive', '4144 Christophe Colomb', '415 Monument Place SE', '4153 Hwy 38', '4164 New Street', '42 Avenue', '42 James Street, Unit #15', '42 Merit Crescent, Unit #2', '42 Newcombe Crescent', '42 des Entreprises', '4200 Sladeview Cres', '4200, des Castors', '4205 Voie de Desserte Est, Autoroute 13', '422 Lake Road, South Industrial Park', '423 Dakota Road', '42nd Avenue', '430 NEAVE COURT', '430, rue Cantin', '4303 - 69 Avenue', '431 Henry Street', '4313 76 Avenue NW', '433 58 Ave SE', '4342, Boulevard Bourque', '43841 Talbot Line RR #3', '4397 Wellington Street South', '44 Aaron Trail', '44 Poneida Road', '44 Trial', '4410 50 STREET', '4420 76 Avenue', '4425 76th Avenue', '44467 Yale Rd.', '445, boul. Industriel', '448 CR 34 East, R.R. #2', '4490, Av. des Industries', '450 1 Avenue', '450 Desautels Street P.O. Box 792', '450 Talbot Street', '450 rue de Vernon', '451 Kennedy Road', '451 Route 116 Est', '4514 - 46 Ave.', '4515 6A Street NE', '4523 - 50 Street', '4528 6A street N.E., bay 105', '455 Main Street South', '45681 Yale Road W.', '4575 Powell Road', '4580, Mont??e Gagnon', '459 Industrial Road', '460, St-Isidore', '4612 19th Avenue North West', '4618 Boulevard St. Joseph', '465 Bloor Street West', '465 Second Line East', '4680 boulevard Frontenac Est', '46th Street', '47 Bleams Road', '47 Canada Avenue', '470, Route 116 est', '4715 76th avenue South-East', '4715 Christie Drive', '4721, 50th Street, Suite #1', '4731 78A STREET CLOSE', '475 Prince Charles Drive South', '475 avenue Pruneau, porte 8', '475 rang St-Joseph', '476 Haut de la Chute', '476, rang 2-3 Ouest', '477 Aspdin Road', '48 Ardelt Ave', '48 Avenue', '480 - 7 Stree N.E.', '4800-27th Street S.E.', '4802 - 57th Avenue', '4807 82nd Avenue', '481 Madison Street', '4811 - 51 Avenue', '483 Rennie Street', '4841 - 78 Street', '485 Chemin Rivard', '487 rue Principale', '4870, rue de Courval', '488 Rue St. Pierre', '4880 Walker Road', '489 Abelard-Savoie Boulevard', '490 Highway 17', '4900 Golf Course Road', '4909-48 Street', '4910 - 80 th Avenue S.E.', '4919, Marie-Victorin', "492 de L'Esplanade", '4924 - 49th Street', '493 St. Amable', '4975 8th Concession Road', '4985 - 72 Avenue SE', '4985 Polkey Road', '499 Manitoba Road', '5 Tangiers Road', '50 Industrial Street', '50 Main Street', '50 McKenzie Road', '50 Northland Road, suite 400', '50 St-Jude Sud', '50, chemin du Tremblay', '500 Rte 220', '500 Waydom Drive', '501 - 24 Avenue', '5013 48th Street', '502 23A Avenue', '5024, 47th Avenue', '505 Kenora', '5075 De La Plaisance', '51 Street South East', '510 Whissel', '5112-49 Street', '5125 De la Plaisance', '5125 Harvester Road, Unit 7', '5135, Domville', '515 Hespler Avenue', '5151 Hwy 17 West', '5151 Simcoe St North', '5171 Thimens', '5172 route 3 Central Argyle', '5183 Route Domaine du Lac', '51st Street', '52 Ellisview Road', '52 TWP RD 524', '52 Wright Ave.', '5200 Dixie Road, Unit #46', '521 Achray Road', '521 Rue Principale', '5218 - 62th Street', '5227 Highway 17', '525 Hill Avenue', '526 rue Lanaudiere, Suite 109', '5280 Fairway', '5285 - 192 Street', '5290 Orbitor Drive', '53 Arthur Street North', '53 Jamieson Drive, R.R. #1, Forest Home Ind. Park', '530 Providence', '5300 Rue St-Roch', '53016 Hwy #60', '531 Admiral Drive', '5320-B 48th Avenue South East', '5329 72nd Avenue S.E.', '533, 71st Avenue S.E.', '5350, Armand-Frappier', '5351 46th Avenue S.E.', '53521 Range Rd 271', '5360 rue St. Roch', '537 rue Principale', "54 rue de l'Eglise", '54-5359 Timberlea Blvd.', "541, rue de l'Harricana", '5411 Chemin du Lac', '55 - 10 Avenue S.E.', '55 Crockford Blvd.', '55 Isnor Drive', '55 Marsh Street', '55 Steeles Avenue East', '55 White Street', '550 George Avenue', '550 McGeachie Drive', '5500 North Service Road', '5502 56th Avenue S.E.', '5505 64th Avenue', '551 Crestwood Drive', '5511 - 6 Street S.E.', '5521, chemin de l"Aeroport', '554 Rg Haut-St-Amable', '555 Cassell Drive, General Delivery', '555 St-Louis', '556 Hwy 77', '55780 Third Street', '56 Beach Road', '56 Boul. Industriel', '56 Churchill Drive, Unit 14', '560 Suffolk Court', '5600A Cancross Court', '5603-54 Street N.W.', '5604 Len Thomson Drive', '5606-55 st.', '563 Montee Princepale', '565 Marjorie Street', '566 - 2nd Ave', '5674 Production Way', '56th Street South East', '57 Durand Road', '5701 Warner Drive', '5705 - 76th Avenue', '5705 Place Kubota', '5734 103rd Street South', '575 Page Avenue', '5769 - Production Way, Unit# 103', '577 Route 535', '5770 Place Kubota', '578 McTavish Street', '5785 Place Turcot', '58 Cowansview Rd', '580, Lionel Boulet', '581 McGeachie Drive', '581 Wright Avenue', '581 avenue Lepine', '5810 - 50th Street', '583, St-Ovide', '585 Granite Court', '59 Commerce Drive', '59 Elm Ave', '59 Maitland Avenue, R.R. #4', '5901 - 48 Avenue', '5909 - 90th Street', '5909-6th Street SE', '591 Chester Road', '591 Chester Road, Annacis Business Park', '591 Rymal Road West', '5925 Hemingway', '593 Rte 219', '595 Lanaudiere', '5982 Main street', '5th Street', '6 Edmondson Street, P.O. Box 368', '6 Ragged Lake Drive', '6 Ridgeview', '60 Northline Road', '60-8 Bristol Road East. Suite 506', '600 Pandora Avenue West', '606 Highway Drive', '6060, 86th Avenue S.E.', '607-15 Avenue', '609 rue Principale', '6095 Austin Street', '61 Avenue SE', '61 Avenue South East, Bay #9', '6100 Chemin St-Francois', '6101, boulevard Talbot', '6115 - 30th Street', '6120 Route 101', '615 Kenmount Road', '62 Street', '620 Garyray Drive', '620 Moraine Road N.E.', '620 Nairn Avenue', '620 Stewart St', '6200 Henri-Bourassa Ouest', '6210 - 50 Avenue, Box 7324', '6214 50th Avenue', '6218 - 54 Avenue', "625 rue d l'Argon", '6250 Trans Canada Highway N.E.', '62nd Avenue', '63 Millroad, Box 6', '630 Adams Court', '633 Rang 9', '6333 Pacific Street', '6345 Dixie Road, Unit 1', '635 Farewell Avenue', '637 Miller Street', '638 A Great Northen Road, Unit 1', '638 Fortune Cres.', '64 Bartor Road, Unit 5', '64 Chemin des Patriotes E', '64 Signet Drive', '64 Springbank Ave. South', '640 Rink Avenue', '6418 Courtright Line R#1', '643 rue De Quen', '645 Athlone Place', '65 Rue Prevost', '65 Winder Street', '650 Cargill Rd.', '650 Hardwick Road', '650, 5e Rang', '651-25th Ave SE', '655 - 30 Street North', '655 boulevard de la Montagne', '66 Ave', '66 Fernstaff Court', '660 Riverside Road', '665 Millway Ave, Unit 57', '6701 Financial Drive, Suite 100', '6702 Golden West Ave.', '6706 - 44 Ave.', '6711 Mississauga Rd. N 3rd Floor', '6727 - 68 Avenue', '6730 Golden West Avenue, P.O. Box 540', '6739, 67 Avenue', '6740 - 65 Avenue', '6749 65th Ave', '675 Trotter Street', '6759 Hwy #62 North', '675A Davenport Road', '676 Main Street', '6760 65th Avenue', '6761 67 Avenue', '6771 84 Street S.E.', '680, Rue Des C??dres', '681 Route 143', '682 Okanagan Avenue East', '6820 - 52 Avenue', '686 Talbot Street West', '6900 rue Bombardier', '692 - 5th Concession West, R.R. #2', '6935 Farrell Road S.E.', '6943 Highway 38', '6961 Highway 3', '6970 Kenderry Gate', '6981 Boul. Bourque', '7 Industrial Ave', '7 Petersburg Circle', '7, Inrepid Court', '7, Rang St-Francois Est', '70 3rd Avenue Box 1790', '70 Burwell Road', '70 Line Road', '70 Mount Hope Street', '700 Finley Avenue, Unit 5', '700 Franklin Blvd., P.O. Box 98', '700 Richmond Street', '700, rue Jean-Marchand', '701 St-Pierre', '701-11 Ave', '702 - 1st  Avenue North West', '7035 Pacific Circle', '706 - 19 Avenue', '7076 Country Road West Hwy #124 South', '7079 Wellington Road 124', '707D McDOnald Street', '71 Liberty Rd', '7127 Honeyman St', '713, Route 219', '715, 5 Ave North', '7188 Vantage Way', '720 Wilson Road South', '7202, 98 Street', '7245 West Industrial Loop', '726, St-Joseph', '73 Brydon Drive', '732 Old Sackville Road', '733 Front Street', '7337 Trans Canada Highway', '735 Douglas Fir Road', '7375 Buller Street', '740 Grand Avenue East', '742 Casey Rd.', '743 William Street', '747 Bloor Street West', '747 Notre Dame Blvd', '75 Frontenac Drive', '75 Rue Hector C.P. 90', '75 Street', '750 Industrial Rd.', '7500 Trans-Canadienne', '7507- 40th St. S.E.', '75836 London Road', '7612 - 43 Street', '762 Conception Bay South Highway, Unit 1', '7640, Boul. Ste-Anne', '766 Route 700', '767 Old Sambro Road', '77 Grant Timmins Drive', '77 RUE MAINVILLE', '770 Lakeside', '770 Ross Avenue', '7700, rg St-Andr??', '7739 Edgar Industrial Way', '775 Lemire', '7760 18th Street', '7762 - 47 Avenue Close', '777 Bayly Street West', '7793 Young Street', '7809 102 Ave.', '7824 f?? 56 Street South East', '783 rue Mo?(r)ller', '78th Avenue', '79 rue principale', '79, 1i??re Rue Nord', '790 Montrichard Avenue', '7905 Enterprise Drive', '791, Route Principale', '7910 rue des PME', '7911 Edgar Industrial Drive', '7923 54th Street South East', '793-A Riviere Nord, Route 339', '7947 Edgar Industrial Dr.', "7985 boul. L'Ormi??re", '80 Clarke Street S., Unit 2', '80 High Street, Unit 2', '80 Saramia Crescent', '800 South Railway Ave', '800, Chemin Olivier', '800-47th Street East', '80042 - 475 Avenue East', '8007-39th Street', '801 - 50 Street E', '8010-44th Street SE', '8019 - 54 Street S.E.', '803 - 46th Street East', '8046 Edgar Industrial Crescent', '805 51st Street East', '8124 Davies Road', '8135 Wagner Road', '815 Trillium Drive', '8155 -128 Street', '818 - 43rd Street East', '81Tannery Road', '81st SE', '82 Ave', '820 Garyray Drive', '821 Du Parc', '821 Fairweather Place', '822 Bellevue Ouest', '826, boul. Guimond', '83 Caledonia Road, R.R.#4', '83 Old Onondaga Road West', '830 Edgeley Blvd.', '8300 Edison', '831 Nipissing Road', '8326 St. George Street', '8332 Haldibrook Road', '835 Mission Street', '8350 Boulevard Industriel', '841 Oakpoint Box 64 GRP 200 RR2', '843 rue Charest', '8442 Lisa Lane', '847 - 60th Street East', '847 Central St.', '84th Avenue North West', '85 Northland Road', '8505 Lafrenaie', '853 Route 111', '855 Algonquin Blvd East', '855 Industrial Avenue, Unit 1-4', '855 Matheson Blvd E Unit 9', '8580 River Road', '859 Station Avenue', '86 Boulder Blvd.', '8600 - 92nd Street', '865 Bradford Street', '865 Range Papineau', '866 Derwent Way', '866, route St-Joseph', '868 Blackwoods Avenue', "8685 Champ D'eau", '87 Ashgrove Crescent, Box 654', '87 Elora Street', '873 Hodge', '88 Forest St.', '88 Kenmount Road', '88 Route 158', '88 rue des Routiers', '880 rue Lucien Leclerc', '8803 - 60th Ave', '882 5th Street East', '8824 101 Street', '8825 126th Avenue', '8860, Croissant 5e', '89 Rue du Parc Industriel', '89 ch. Thibodeau', '8900, 25 i??me Avenue', '8901-150 Ave.', '896 Lakeshore Ct.', '897 Stremel Road', '8A Street', '9', '9 Union Street', '90 Enterprise Dr.', '9000 Boulevard Parent', '9000, boulevard Industriel', '905 rang 11', '90th Avenue South East', '91 Chemin Des Patriotes', '91, rue Ontario, P.O. Box 460', '910 Saskatchewan Avenue East', '9111-41st Avenue', '9115 -52nd Street SE', '915 Walsh St. W.', '9189 National Place', '92 Boulevard Est', '920 Champlain Court', '920 Denison Street Unit 11', '920, Cur??-Boivin', '9200 22 Avenue', '921 Gonczy Avenue, Box 1780', '921 chemin de la Rivi??re du Nord', '923 - 46 Avenue S.E.', '927 - 48 Avenue SE', '927 Gaudette', '927, Route 111 Ouest', '930, chemin Vanier', '9301 -102 Street', '9305 - 27 Avenue', '9312 - 110A Street', '933 Boul. Simard', '9345 25ieme Avenue, Parc Industriel', '940 Winston Churchill Blvd.', '944109 Partridge Place South West', '9475 - 192 Street', '9502 - 87th Avenue', '9532 - 27th Avenue', '955 Maginot Street', '955 Woodlawn Road W.', '9550 10E Avenue', '96 Principale', '9604 - 112 Street', '9620-62nd Ave', '9624- 35 Avenue', '9625 48th Street SE', '967 Trunk Rd.', '96th Avenue, Unit #1', '97 Hounslow Drive N.W.', '970 Boul. Pierre-Roux Est', '970, Avenue Bombardier', '98 Cougle Road', '9808 Park Lane', '981, Boul. Hamel', '9834 - 179th Street', '9835 - 199 A Street', '9880 McGrath Road', '990 Pays-Brule', '991 Jarvis Avenue', '9th Street', 'Alness Street', 'Aspen Road', 'Atlantic Drive', 'Aut. Chomedey', 'B 1st Avenue', 'B 39207 RR271', 'BAY A Barlow Trail SE', 'BCE Place - Suite 4400 Bay Wellington Tower', 'Bag No. 2019', 'Bay 10, 4216 12th Street NE', 'Bay 3 #2 Erickson Crescent', 'Bay 33 - 820 51st Street East', 'Bay 5, 3925 Avenue S.E.', 'Bay F-298-28042 Hwy 11', 'Bay K 8816 44th street SE', 'Bay L 8616 44th Street SE', 'Belich Crescent', 'Bleams Road RR#2', 'Boul Ren?? Est', 'Boulder', 'Boulevard Industriel', 'Bowes Rd. Unit 3', 'Bowman Street', 'Box 11', 'Box 118', 'Box 1205', 'Box 133, Eastside hwy 20', 'Box 1594', 'Box 176', 'Box 218', 'Box 22, Group 60, R.R. #1', 'Box 2738, Station "B"', 'Box 310', 'Box 310, Elevator Road', 'Box 317', 'Box 33, Group 6A, R.R.#1B', 'Box 332', 'Box 490', 'Box 511', 'Box 5396', 'Box 609', 'Box 617', 'Box 72036, Ottewell P.O.', 'Box 748', 'Box 8029 61317 RR 452 South Hwy 28 East', 'Box 88', 'Box 988', 'Box 99', 'Box 990', 'Breithaupt Street', 'Brier Park Cres. NW Unit 3', 'Brookside Branch Road', 'Bruce Road 86, RR # 3', 'CHILES INDUSTRIAL PARK 39015 HWY 2A', 'Carman Road', 'Cedar Creek Road', 'Centennial Road, Unit #9', 'Challenger Cr.', 'Chemin Grand Bernier', 'Chemin Oliver #5', 'Chemin du Grand Rang', 'Chemin du Tremblay', 'Chrislind', 'Cimarron Estates Manor', 'Corporate Drive', 'Country Energy Park</t>
         </is>
@@ -858,18 +899,26 @@
       <c r="P7" t="n">
         <v>10</v>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Yarmouth County</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Edmonton</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
         <v>34602</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>714</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>['9', 'ACHESON', 'Abbotsford', 'Abotsford', 'Acheson', 'Acton Vale', 'Adstock', 'Advocate harbor', 'Airdrie', 'Ajax', 'Aldergrove', 'Aldersyde', 'Allanburg', 'Alma', 'Altona', 'Amos', 'Anjou', 'Annaheim', 'Anola', 'Apple Hill', 'Arborg', 'Ardossan', 'Armstrong', 'Arnprior', 'Aroostook', 'Arundel', 'Asbestos', 'Auburn Hills', 'Austin', 'Aylmer', 'Ayr', 'Azilda', 'B??cancour', 'Baden', 'Baie St. Paul', 'Barrie', 'Beamsville', 'Beausejour', 'Bedford', 'Belleville', 'Bellevue', 'Beloeil', 'Benito', 'Bentley', 'Berthierville', 'Bethune', 'Bic', "Bishop's Falls", 'Blackfalds', 'Blainville', 'Blenheim', 'Bois-des-Filion', 'Boisbriand', 'Bolton', 'Bond Head', 'Bonnyville', 'Bothwell', 'Boucherville', 'Bourget', 'Bowmanville', 'Bracebridge', 'Brampton', 'Brandon', 'Brantford', 'Breslau', 'Brighton', 'Bromhead', 'Brooks', 'Brookside', 'Brougham', 'Brucefield', 'Burlington', 'Burnaby', 'Calahoo', 'Caledonia', 'Calgary', 'Cambridge', 'Cambrige', 'Campbell River', 'Camrose', 'Candiac', 'Canfield', 'Cap Pele', 'Cap Sant??', 'Cap St. Ignace', 'Cardigan', 'Cardston', 'Cargary', 'Carignan', 'Carleton Place', 'Carman', 'Carp', 'Carthwright', 'Cartier', 'Cartwright', 'Carvel', 'Casselman', 'Cassleman', 'Cavan', 'Central Butte', 'Centralia', 'Centreville', 'Chambly', 'Chambord', 'Charlesbourg', 'Charlottetown', 'Chateau-Richer', 'Chateauguay', 'Chatham', 'Chelsea', 'Chemainus', 'Cherhill', 'Chesterville', 'Chicoutimi', 'Chillawack', 'Chilliwack', 'Claimont', 'Clairmont', 'Clarenville', 'Claresholm', 'Clifford', 'Coaldale', 'Cobourg', 'Cochrane', 'Colborne', 'Cold Lake', 'Coleman', 'Collingwood', 'Comox', 'Concord', 'Cookshire', 'Coquitlam', 'Corner Brook', 'Cornwall', 'Corunna', 'Courtland', 'Cowansville', 'Craik', 'Cranford', 'Crediton', 'Cromer', 'Crooked Creek', 'Crossfield', 'Cutknife', 'Cypress River', 'Darmouth', 'Darthmouth', 'Dartmouth', 'Daveluyville', 'Dawson Creek', 'Daysland', 'Debert', 'Delburne', 'Delhi', 'Delson', 'Delta', 'Deschambault', 'Dieppe', 'Disraeli', 'Dolbeau-Mistassini', 'Donnacona', 'Dorval', 'Downsview', 'Drake', 'Drayton Valley', 'Drumheller', 'Drummondville', 'Duncan', 'Dundalk', 'Dundas', 'Dunham', 'Dunnville', 'East Broughton', 'Eden', 'Edmonton', 'Elmira', 'Elora', 'Embrun', 'Errington', 'Essex', 'Estates Onoway', 'Esterhazy', 'Etobicoke', 'Exeter', 'Fenwick', 'Flesherton', 'Fort Erie', 'Fort St-John', 'Frankville', 'Freelton', 'Gander', 'Gatineau', 'Gerald', 'Glenboro', 'Goderich', 'Gormley', 'Gorrie', 'Granby', 'Grand Falls', 'Grand Mere', 'Grand Prairie', 'Grand-Mere', 'Grande Prairie', 'Grassie', 'Gravelbourg', 'Gretna', 'Grimsby', 'Grunthal', 'Guelph', 'HJuntsville', 'Hagen', 'Halifax', 'Hamilton', 'Hampton', 'Harrison Mills', 'Harrowsmith', 'Hartland', 'Hawkestone', 'Hay River', 'Hayter', 'Headingley', 'Hearst', 'Heidelberg', 'Hellier', 'Hemmingford', 'High River', 'Hillsborough', 'Hillsdale', 'Hodgson', 'Howie Center', 'Hoyt', 'Hubley', 'Hudson Bay', 'Humboldt', 'Iberville', 'Ingersoll', 'Innisfil', 'Inwood', 'Iroquois', 'Joliette', 'Joly', 'Jonqui??re', 'Jonquiere', 'Kakabeka Falls', 'Kamloops', 'Kelligrews', 'Kelowna', 'Kelvington', 'Kemptville', 'Keswick', 'Kincardine', 'Kingston', 'Kitchener', 'Kleinburg', 'L??vis', 'La Minerve', 'La Plaine', 'La Pr??sentation', 'La Sarre', 'Labelle', 'Lac Brome', 'Lac La Hache', 'Lac M??gantic', 'Lac St-Joseph', 'Lachenaie', 'Lachine', 'Lacombe', 'Lacombe County', 'Lafleche', 'Lafontaine', 'Lambton', 'Langley', 'Lanoraie', 'Lantzville', 'Lashburn', 'Laterri??re', 'Laval', 'Lavaltrie', 'Leader', 'Leamington', 'Leduc', 'Lennoxville', 'Leslieville', 'Lethbridge', 'Linden', 'Lindsay', 'Lislet', 'Listowel', 'Lively', 'Lloydminister', 'Lloydminster', 'London', 'Long Sault', 'Longueuil', 'Louiseville', 'Lower Sackville', 'Lucknow', 'Lunenburg', 'MONT-Laurier', 'Maderia Park', 'Maidstone', 'Mallaig', 'Manotick', 'Maple', 'Markham', 'Marmora', 'Martensville', 'Maskinong??', 'Matane', 'Mattawa', 'Maxville', 'McWatters', 'Medecine Hat', 'Medicine Hat', 'Melfort', 'Melville', 'Mercier', 'Millbrook', 'Millet', 'Milton', 'Milton Station', 'Mirabel', 'Miscouche', 'Mission', 'Mississauga', 'Moncton', 'Mont-Lebel', 'Mont-Tremblant', 'Montmagny', 'Montr??al', 'Montreal', 'Moose Jaw', 'Morden', 'Morinville', 'Morris', 'Mount Forest', 'Mount Pearl', 'NOT ENTERED', 'Naicam', 'Nanaimo', 'Napierville', 'Neepawa', 'Neerlandia', 'Nelson', 'Nepean', 'Neufchatel', 'Neuville', 'New Liskeard', 'New Lowell', 'Newmarket', 'Nipawin', 'Nisku', 'Niverville', 'Noranda', 'North Battleford', 'North Bay', 'North York', 'Norwich', 'Norwood', 'Notre-Dame', 'Notre-Dame de Lourdes', 'Notre-Dame-Du-Bon-Conseil', 'Notre-Dame-du-Laus', 'Notre-Dame-du-Nord', "O'Leary", 'Oakville', 'Odessa', 'Ohaton', 'Oil Springs', 'Okahumpka', 'Okotoks', 'Olds', 'Oliver', 'Orangeville', 'Orillia', 'Oro Station', 'Orrillia', 'Oshawa', 'Ottawa', 'Palmarolle', 'Paradize', 'Parksville', 'Parry Sound', 'Peace River', 'Pembroke', 'Pentiction', 'Penticton', 'Perth', 'Peterborough', 'Petersburg', 'Petite-Rivi??re St-Francoi', 'Petrolia', 'Pickering', 'Picton', 'Pierreville', 'Pincher Creek', 'Plantagenet', 'Plessisville', 'Plessiville', 'Pohenegamook', 'Pointe-Claire', 'Pointes-aux-Trembles', 'Ponoka', 'Pont-Rouge', 'Port Colbourne', 'Port Coquitlam', 'Port Rowan', 'Port au Choix', 'Portage La Prairie', 'Portage la Prairie', 'Prince Albert', 'Prince George', 'Princeton', 'Princeville', 'Puslinch', 'Qu??bec', 'Quebec', 'Quesnel', 'Radisson', 'Rapid City', 'Rathwell', 'Rawdon', 'Raymore', 'Red Deer', 'Red Deer County', 'Regina', 'Renfrew', 'Repentigny', 'Rexdale', 'Rexton', 'Richmond', 'Richmond Hill', 'Ridgetown', 'Riding Mountain', 'Rigaud', 'Rimouski', 'Rivi??re-du-Loup', 'Riviere-du-Loup', 'Rocky Mountain House', 'Rodney', 'Rolling Hills', 'Rosedale', 'Rosenort', 'Russell', 'Ruthven', 'SAINT-GERMAIN-DE-GRANTHAM', 'SAINT-Hilarion', 'Saint John', 'Saint-??variste', 'Saint-Amable', 'Saint-C??saire', 'Saint-Casimir', 'Saint-F??licien', 'Saint-Ferdinand', 'Saint-Georges', 'Saint-Gerard-Majella', 'Saint-Hubert', 'Saint-Hyacinthe', 'Saint-Jean-Sur-Richelieu', 'Saint-Jean-sur-Richelieu', 'Saint-Joseph de Coleraine', 'Saint-Lambert', 'Saint-Lambert-de-Lauzon', 'Saint-Laurent', 'Saint-Lin', 'Saint-Marc du Lac Long', 'Saint-Pierre-Baptiste', 'Saint-Romain', 'Sainte M??lanie', 'Sainte-Agathe-des-Monts', 'Sainte-Brigitte-des-Sault', 'Sainte-Eulalie', 'Sainte-Foy', 'Sainte-Rosalie', 'Sallaberry De Valeyfield', 'Salmo', 'Salmon Arm', 'Saltcoats', 'Sarnia', 'Saskatoon', 'Sault Ste. Marie', 'Scarborough', 'Schomberg', 'Scott Jonction', 'Seguin', 'Sept-iles', 'Shallow Lake', 'Shanty Bay', 'Shawinigan', 'Shawinigan Sud', 'Shawnigan Lake', 'Shedden', 'Sherbrooke', 'Sherwood Park', 'Shreveport', 'Sidney', 'Smith Falls', 'Smithville', 'Sorel-Tracy', 'South Huron', 'Sparewood', 'Spruce Grove', "St John's", 'St- Paul', 'St-Agapit', 'St-Amable', 'St-Andre Avelin', 'St-Andre-de-Kamouraska', 'St-Antoine, Mirabel', 'St-Antoine-De-Tilly', 'St-Armand', 'St-Augustin', 'St-Autonin', 'St-Barnab??-Sud', 'St-Benoit-Labre', 'St-Bonaventure', 'St-C??me', 'St-Catherines', 'St-Celestin', 'St-Charles-de-Drummond', 'St-Chrysostome', 'St-Damien-de-Brandon', 'St-Dominique', "St-Elie D'Orford", 'St-Elie-de-Caxton', 'St-Ephrem', 'St-Eustache', 'St-F??licien', 'St-Ferdinand', 'St-Fr??d??ric', 'St-Francois du Lac', 'St-Francois-du-Lac', 'St-Gabriel de Brandon', 'St-Georges', 'St-Georges Est-beauce', 'St-Georges de Beauce', 'St-Germain-de Grantham', 'St-Hubert', 'St-Hyacinthe', 'St-Isidore', 'St-J??r??me', 'St-Jean Chrysostome', 'St-Jean-Chrysostome', 'St-Jean-Sur-Richelieu', 'St-Jean-sur-Richelieu', 'St-John', "St-John's", 'St-Joseph de Levy', 'St-L??onard', 'St-Laurent', 'St-Lazare', 'St-Leonard', 'St-Lin', 'St-Mathias', 'St-Mathieu', 'St-Mathieu-de-Beloeil', 'St-Nicolas', 'St-Odilon de Cranbourne', 'St-Pascal', "St-Paul D'Abbotsford", "St-Paul-de-l'??le-aux-noix", 'St-Pie', 'St-Quentin', 'St-R??mi-de-Tingwick', "St-Roch de l'Achigan", "St-Roch-De-L'achigan", 'St-Romuald', 'St-Sim??on', 'St-Stanislas', 'St-Thomas', 'St-Ubalde', 'St-Urbain', 'St-Valerien', 'St-Victor', 'St. Agatha', 'St. Albert', 'St. Andrews', 'St. Barnabe Sud', 'St. Brieux', 'St. Bruno', 'St. Catharines', 'St. Catherines', 'St. Clements', 'St. Damase', 'St. Francois Xavier', 'St. George', 'St. Gervais', 'St. J??r??me', 'St. Jacobs', 'St. Jacques', "St. John's", 'St. Laurent', "St. Mary's", 'St. Marys', "St. Paul d'Abbotsford", 'St. Philippe', 'St. Raymond', 'St. Thomas', 'St.-Anseime', 'Ste Sophie', 'Ste Therese', 'Ste- Gertrude Abitibi', "Ste-??m??lie-de-l'??nergie", 'Ste-Agathe', 'Ste-Ang??le-de-Pr??mont', 'Ste-Anne de Kent', 'Ste-Anne des Plaines', 'Ste-Cath-de-la-Jq-Cartier', 'Ste-Catherine', 'Ste-Foy', 'Ste-Germaine Boul??', 'Ste-Julie', 'Ste-Melanie', 'Ste-Rose-de-Watford', 'Ste-Sophie-de-L??vard', 'Ste-Sophie-de-Levrard', 'Ste-Th??r??se', 'Ste. Claire', 'Ste. Marguerite', 'Ste. Rose', 'Steinbach', 'Stettler', 'Stittsville', 'Stoney Creek', 'Stony Plain', 'Stouffville', 'Straffordville', 'Strathroy', 'Sturgeon County', 'Sturgeon Falls', 'Sudbury', 'Sullivan', 'Summerland', 'Summerside', 'Sundre', 'Sunset Point', 'Surrey', 'Sussex Corner', 'Sutton', 'Swan River', 'Sylvan Lake', 'Taber', 'Tangier', 'Tappen', 'Taschereau', 'Tecumseh', 'Terrace', 'Terrebonne', 'The Nation', 'Thedford', 'Thetford Mines', 'Thunder Bay', 'Tilbury', 'Tillsonburg', 'Timmins', 'Toronta', 'Toronto', 'Treherne', 'Trenton', 'Trois Rivieres', 'Trois-Rivi??res', 'Two Hills', 'Uxbridge', 'V. de St-Georges', 'Val Caron', "Val D'Or", "Val-D'Or", 'Valcourt', 'Vanastra', 'Vancouver', 'Vanderhoof', 'Vanier', 'Varennes', 'Vaudreuil', 'Vernon', 'Vernon Bridge', 'Verona', 'Victoria', 'Victoriaville', 'Ville de St-Georges', 'Wallenstien', 'Warburg', 'Warminster', 'Warren', 'Warwick', 'Waterdown', 'Waterloo', 'Waubaushene', 'Wawanesa', 'Welland', 'West Kelowna', 'West St. Paul', 'Westbury', 'Westfield', 'Westlock', 'Wetaskiwin', 'Weyburn', 'Whitby', 'White Lakes', 'Whitemouth', 'Wiarton', 'Wickham', 'Windsor', 'Winkler', 'Winnipeg', 'Winnpeg', 'Woodlands', 'Woodrow', 'Woodstock', 'Woodville', 'Wyebridge', 'Yarker', 'Yarmouth', 'Yarmouth County']</t>
         </is>
@@ -928,18 +977,26 @@
       <c r="P8" t="n">
         <v>10</v>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Saskatchewan</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Ontario</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
         <v>30341</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>15</v>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>['9', 'Alberta', 'British Columbia', 'Florida', 'Louisiana', 'Manitoba', 'Michigan', 'New Brunswick', 'Newfoundland and Labrador', 'Northwest Territories', 'Nova Scotia', 'Ontario', 'Prince Edward Island', 'Quebec', 'Saskatchewan']</t>
         </is>
@@ -998,18 +1055,26 @@
       <c r="P9" t="n">
         <v>11</v>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>X0E 0R6</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
         <v>26364</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>1458</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>['34762', '48326', '5N5H 2R3', '71129', 'A0H 1C0', 'A0K 4C0', 'A1B 3N7', 'A1B 3P9', 'A1B 3R1', 'A1B 4C5', 'A1L 0A7', 'A1N 4R7', 'A1V 1W8', 'A1X 3A7', 'A2B 1K9', 'A2H 5M7', 'A5A 1B8', 'B0J 2C0', 'B0J 3H0', 'B0M 1A0', 'B0M 1G0', 'B0W 1W0', 'B1L 1C2', 'B2W 3T7', 'B3B 0H6', 'B3B 1G7', 'B3B 1L3', 'B3B 1L9', 'B3B 1M7', 'B3B 1N6', 'B3B 1S2', 'B3B 1Z2', 'B3B 2A6', 'B3S 1S4', 'B3T 1W1', 'B3V 1A3', 'B3V 1A4', 'B3Z 1C2', 'B4B 1H1', 'B4C 2K3', 'B5A 4B3', 'B6L 2A7', 'C0A 1G0', 'C0A 2E0', 'C0B 1H0', 'C0B 1T0', 'C0B 1V0', 'C1E 1R4', 'C1E 1Z4', 'C1N 4J9', 'E1A 7E7', 'E1A 9A3', 'E1E 0E8', 'E1H 2E6', 'E2J 0E8', 'E2J 4Y7', 'E2L 9Z9', 'E2M 5T6', 'E4E 2S5', 'E4H 4W5', 'E4S 1G5', 'E4V 1Z5', 'E4V 2K4', 'E4W 2B1', 'E5K 3N8', 'E5L 2A1', 'E7B 1S9', 'E7H 2Z6', 'E7K 2E8', 'E7K 3E9', 'E7P 2K7', 'E8A 1W1', 'G0A 1L0', 'G0A 1N0', 'G0A 1S0', 'G0A 2L0', 'G0A 2R0', 'G0A 3L0', 'G0A 3V0', 'G0A 4L0', 'G0C 3A0', 'G0K 1J0', 'G0L 1B0', 'G0L 1J0', 'G0L 1T0', 'G0L 2J0', 'G0L 3Y0', 'G0L4H0', 'G0M 1H0', 'G0M 1P0', 'G0M 1R0', 'G0M 1S0', 'G0M 2B0', 'G0N 1B0', 'G0N 1E0', 'G0N 1G0', 'G0N 1N0', 'G0N 1P0', 'G0N 1S0', 'G0P 1E0', 'G0P 1J0', 'G0R 2C0', 'G0R 2N0', 'G0R 2V0', 'G0R 4G0', 'G0R3C0', 'G0S 1M0', 'G0S 1T0', 'G0S 2A0', 'G0S 2C0', 'G0S 2S0', 'G0S 2W0', 'G0S 2X0', 'G0S 3A0', 'G0S 3G0', 'G0S 3H0', 'G0W 1G0', 'G0W 2L0', 'G0X 2N0', 'G0X 3C0', 'G0Y 1L0', 'G0Z 1C0', 'G0Z 1E0', 'G0Z 1Z0', 'G1L 3A7', 'G1M 2J8', 'G1M 2T7', 'G1M 2Y3', 'G1M 3K6', 'G1N 3X5', 'G1N 3X8', 'G1P 2H9', 'G1P 2J1', 'G1P 2X9', 'G1P 3T2', 'G1P 3X1', 'G1P 3X3', 'G1X 3W1', 'G2C 1B9', 'G2G 2V2', 'G2N 1X2', 'G2N 2G7', 'G3A 2V5', 'G3H 1L5', 'G3H 3K7', 'G3L 1R5', 'G3M 2X5', 'G3N 0A1', 'G3N 1A1', 'G3Z 2W9', 'G4R 5P3', 'G4W 3M9', 'G4W 3N1', 'G5L 8J9', 'G5M 1A5', 'G5R 3Z5', 'G5R 4C9', 'G5V 3S6', 'G5Y 8G6', 'G5Y 8J3', 'G5Y 8J8', 'G6A 1K5', 'G6A 1L1', 'G6B 2C8', 'G6G 6P6', 'G6H 4G5', 'G6L 1S2', 'G6L 2Y4', 'G6L 2Y8', 'G6P 1A7', 'G6P 6T2', 'G6P 7E4', 'G6P 7E6', 'G6T 1K3', 'G6T 2H6', 'G6V 6N4', 'G6V 9G6', 'G6W 5M6', 'G6Z 1B6', 'G6Z 1T2', 'G6Z 3H5', 'G7A 2N1', 'G7A 2T3', 'G7H 5B1', 'G7N 1V9', 'G7X 0B5', 'G7X 7V3', 'G7X 9H3', 'G8B 6T3', 'G8B 7A1', 'G8K 1W1', 'G8K 2R4', 'G8L 1K3', 'G8L 3M5', 'G8L 5M6', 'G8V 1W2', 'G9A 3C2', 'G9A 4M3', 'G9A 5E1', 'G9A 5J3', 'G9A 5J9', 'G9H 1X7', 'G9H2E5', 'G9N 4Y6', 'G9P 1R8', 'G9T 5K7', 'GOP 1K0', 'GOX 3E0', 'H1A 3N6', 'H1A 3V1', 'H1B5L8', 'H1C 2J3', 'H1E 1R8', 'H1E 2K1', 'H1E 4B6', 'H1E 4G4', 'H1J 1R4', 'H1J 1S8', 'H1J1A2', 'H1P 2B3', 'H1P 3B8', 'H1P 3K5', 'H4C 1V9', 'H4N 2B1', 'H4R 1C3', 'H4R 2N6', 'H4R 3C6', 'H4S 1B7', 'H4S 1C5', 'H4T 1A5', 'H4T 1L1', 'H4T 1N8', 'H7A 4C6', 'H7C 1A2', 'H7E 4P7', 'H7E 4X8', 'H7L 3Y5', 'H7L 4R9', 'H7L 5B3', 'H7P 0A8', 'H7R 6E9', 'H7S 1N5', 'H7S 1N7', 'H7W 3V3', 'H7X 1C4', 'H8S 1A6', 'H8T 1C2', 'H9P 1J5', 'H9P 2R2', 'H9R 2P2', 'H9R 4K3', 'J0A 1C0', 'J0A 1K0', 'J0A 1M0', 'J0B 1M0', 'J0B 1R0', 'J0B 2S0', 'J0C 1A0', 'J0C 1C0', 'J0C 1E0', 'J0C 1K0', 'J0C 1S0', 'J0E 1A0', 'J0E 1M0', 'J0E 1R0', 'J0E 1Y0', 'J0E 2L0', 'J0E 2N0', 'J0G 1J0', 'J0G 1M0', 'J0H 1A0', 'J0H 1B0', 'J0H 1G0', 'J0H 1W0', 'J0H 1X0', 'J0H 2B0', 'J0H1L0', 'J0J 1G0', 'J0J 1L0', 'J0J 1T0', 'J0K 1A0', 'J0K 1E0', 'J0K 1H0', 'J0K 1N0', 'J0K 1R0', 'J0K 2B0', 'J0K 2E0', 'J0K 2K0', 'J0K 2N0', 'J0K 3A0', 'J0K 3H0', 'J0K 3L0', 'J0K 3P0', 'J0L 1E0', 'J0L 1H0', 'J0L 1N0', 'J0L 1T0', 'J0P 1P0', 'J0S 1R0', 'J0S 1Y0', 'J0T 1A0', 'J0T 1H0', 'J0V 1W0', 'J0X 2M0', 'J0Y 2L0', 'J0Y 2N0', 'J0Y 2X0', 'J0Z 1M0', 'J0Z 3B0', 'J0Z 3C0', 'J0Z 3N0', 'J1C 0H9', 'J1G 1X7', 'J1H 2G5', 'J1J 4N8', 'J1M 1Z4', 'J1N 1S3', 'J1N 3K4', 'J1T 4V4', 'J2B 6V4', 'J2B 8B3', 'J2C 4Z5', 'J2C 5S5', 'J2C 5X4', 'J2C 7V9', 'J2C 8N6', 'J2E 0A1', 'J2G 6N6', 'J2G 9H9', 'J2G 9L5', 'J2J 0P2', 'J2J 2N4', 'J2K 2M5', 'J2K 3Y5', 'J2S 1H3', 'J2S 8B1', 'J2X 2L2', 'J2X 4J5', 'J2X 5G4', 'J2X 5P9', 'J3B 4S2', 'J3B 6Y8', 'J3B 7M3', 'J3B 7S7', 'J3B 8J8', 'J3B 8X7', 'J3E 1Z4', 'J3G 4N5', 'J3G 4S5', 'J3L 4B7', 'J3L 4N4', 'J3L 4X3', 'J3L 6A1', 'J3P 5K2', 'J3X 1P7', 'J3X 1S5', 'J3Y 3T7', 'J3Y1Y2', 'J3Z 1J2', 'J4B 1V5', 'J4B 2X2', 'J4B 5Z5', 'J4B 6A1', 'J4B 6Z5', 'J4B 7W1', 'J4B 8C4', 'J4G 1R9', 'J4G 1T5', 'J4G 2P8', 'J4H 3V8', 'J4N 1E2', 'J5B 1Y1', 'J5J 2V2', 'J5M 2C1', 'J5M 2V1', 'J5T 3S5', 'J5T 4A9', 'J5V 2J7', 'J5V1A6', 'J6A 7N1', 'J6A 8G5', 'J6E 3Z1', 'J6J 4Z2', 'J6R 2B9', 'J6S 6N7', 'J6W 4L1', 'J6W 6C1', 'J6X 4J5', 'J6X 4J8', 'J6Y 1J4', 'J6Y 1W1', 'J6Z 0J8', 'J6Z 4S7', 'J7C 5P9', 'J7C 6B4', 'J7E 1C8', 'J7E 2V2', 'J7E 4H5', 'J7E 4K9', 'J7G 2A7', 'J7J 2G6', 'J7M 2A4', 'J7N 1T6', 'J7R 5A5', 'J7T 3E7', 'J7V 5V5', 'J7V 8P2', 'J7Y 4B9', 'J7Y 4H8', 'J7Y 5G2', 'J8C 2W5', 'J8C 2Z8', 'J8E 3J9', 'J8P 8A9', 'J8R 3Y4', 'J9B 1L9', 'J9H 5E1', 'J9J 3J3', 'J9L 0H6', 'J9P 6Y6', 'J9P 7A9', 'J9T 1P8', 'J9T 2P3', 'J9T 3A1', 'J9X 5B7', 'J9Z 2X5', 'JOL 1H0', 'JOL 2H0', 'JON 1HO', 'K0A 1E0', 'K0A 1L0', 'K0A 1M0', 'K0A 1W0', 'K0B 1L0', 'K0C 1B0', 'K0C 1P0', 'K0C 1T0', 'K0C 2B0', 'K0E 1H0', 'K0E 1K0', 'K0G 1J0', 'K0H 1V0', 'K0H 2H0', 'K0H 2W0', 'K0K 1H0', 'K0K 1S0', 'K0K 2J0', 'K0K 2M0', 'K0K 2T0', 'K0K 3N0', 'K0L 2V0', 'K0M 2T0', 'K1B 3W5', 'K1B 4L1', 'K1B 4V7', 'K1B 4V8', 'K1B 5A4', 'K1B 5M1', 'K1B 5R1', 'K1G 3W4', 'K1G 4L4', 'K1V 9V9', 'K2E 6T7', 'K2E 7T8', 'K2G 0B7', 'K2G 1G1', 'K2J 4B6', 'K2S 1A2', 'K4M 1B4', 'K6H 5V2', 'K7A 5K3', 'K7C 3V7', 'K7H 3C7', 'K7K 6C2', 'K7L 4W5', 'K7M 2T3', 'K7M 8N3', 'K7M 9H2', 'K7S 3G7', 'K7V 1Y6', 'K8A 7M5', 'K8H 6W7', 'K8K 4Z5', 'K8N 4Z2', 'K8N 4Z5', 'K8N 4Z6', 'K8V 5P6', 'K8V 5W6', 'K9A 3A7', 'K9J 1Z9', 'K9J 6X7', 'K9J 6X8', 'K9J 6X9', 'K9V 5G4', 'KIG 4G2', 'L0A 1C0', 'L0A 1G0', 'L0B 1J0', 'L0E 1R0', 'L0G 1B0', 'L0G AT0', 'L0H 1A0', 'L0H 1G0', 'L0J 1C0', 'L0K 2C0', 'L0K 2E0', 'L0K 2G0', 'L0L 1V0', 'L0L 2E0', 'L0L 2L0', 'L0M 1N0', 'L0R 1B0', 'L0R 1K0', 'L0R 1M0', 'L0R 2A0', 'L0R 2H2', 'L0R1B1', 'L0S 1A0', 'L0S 1C0', 'L1C 3K3', 'L1C 4P8', 'L1H 6E8', 'L1H 7K4', 'L1H 7L3', 'L1H 8P7', 'L1J 5Y5', 'L1J 5Y6', 'L1N 5K9', 'L1S 3Z2', 'L1S 7G7', 'L1W 3K1', 'L1W 3T7', 'L2A 5A2', 'L2M 6S9', 'L2R 1C9', 'L2R 2R2', 'L2R 3X1', 'L2R 7K6', 'L3B 3X1', 'L3B 6G4', 'L3C 1C9', 'L3K 5V4', 'L3M 4E7', 'L3P 1M3', 'L3R 3K5', 'L3R 6H2', 'L3R 8T9', 'L3V 6H1', 'L3Y 8C6', 'L3Y 8W4', 'L3Y 9B9', 'L4A 1C4', 'L4A 7X5', 'L4B 1J6', 'L4C 3E9', 'L4K 1A5', 'L4K 1H8', 'L4K 1J5', 'L4K 2R2', 'L4K 2Y8', 'L4K 3B5', 'L4K 3L6', 'L4K 3T8', 'L4K 3Z8', 'L4K 4X1', 'L4M 6C8', 'L4N 1C1', 'L4N 1C2', 'L4N 8Z5', 'L4P 3E9', 'L4W 1E4', 'L4W 1H3', 'L4W 1T7', 'L4W 1Y4', 'L4W 1Y5', 'L4W 2A3', 'L4W 2X8', 'L4W 4L6', 'L4W 4N5', 'L4W 4Z5', 'L4W1A1', 'L4X 2C5', 'L4Y 1Y6', 'L4Z 1H8', 'L4Z 3K8', 'L5C 1V8', 'L5L 5Z2', 'L5M 5M1', 'L5N 2W3', 'L5N 7J7', 'L5N 7K5', 'L5R 3E6', 'L5R 3E9', 'L5R 4J7', 'L5S 1J5', 'L5S 1M5', 'L5S 1S2', 'L5S 1Y6', 'L5T 2A8', 'L5T 2E6', 'L5T 2S7', 'L5W 4L4', 'L6A 4R6', 'L6C 0H8', 'L6G 1A6', 'L6H 5R1', 'L6J 2X8', 'L6J 5E4', 'L6J 7X5', 'L6L 5M9', 'L6L 6R3', 'L6S 5N8', 'L6T 3T4', 'L6T 3Y4', 'L6W 3J7', 'L6W 3J9', 'L6W 3R3', 'L6Z 3H8', 'L7E 1H3', 'L7E 5R5', 'L7E 5T2', 'L7E 5T4', 'L7L 1T2', 'L7L 4Y1', 'L7L 5H7', 'L7L 5L5', 'L7L 5R3', 'L7L 6A2', 'L7M 1A6', 'L7N 3M8', 'L7P 1A6', 'L7R 3R3', 'L7S 1A2', 'L7S 1W3', 'L8E 2J9', 'L8E 2N9', 'L8E 2R2', 'L8E 2R4', 'L8E 2W2', 'L8E 3A2', 'L8E 5M8', 'L8E 5M9', 'L8E4H8', 'L8H  3R6', 'L8H 2Y6', 'L8H 2Y7', 'L8H 3P6', 'L8H 7L5', 'L8L 8B7', 'L8L 8K3', 'L8N 2Z7', 'L8N2Z7', 'L8S 1M5', 'L8W 3N1', 'L9B 1B7', 'L9P 1R1', 'L9S 1S8', 'L9S 3V6', 'L9T 1X9', 'L9T 3L5', 'L9T 3Y5', 'L9T 4Z4', 'L9T 5C4', 'L9W 1N1', 'L9W 1P9', 'L9W 2Z3', 'L9Y 4V6', 'L9Y 5A6', 'LOL 1T0', 'LOL 2E0', 'M1H 1H9', 'M1H 2Z1', 'M1K 3K9', 'M1P 3B9', 'M1P 3E7', 'M1P 4M8', 'M1R 3B7', 'M1S 3L2', 'M1V 0C1', 'M1X 1B9', 'M1X 1M4', 'M2H 2N7', 'M3B 2T5', 'M3J 1Y8', 'M3J 2B1', 'M3J 2E2', 'M3J 3H4', 'M3K 2A2', 'M3L 1G5', 'M3N 1W1', 'M3N 1W3', 'M4B', 'M4G 1Y9', 'M4G 1Z2', 'M4G 3V6', 'M4P 2V8', 'M5H 2T6', 'M5H2T6', 'M5J 2T3', 'M6H 1P2', 'M6N 2J1', 'M6N 4Z9', 'M8Z 1X1', 'M8Z 2R4', 'M9L 1R1', 'M9L 1X1', 'M9L 1Y6', 'M9L 2T4', 'M9M 2G5', 'M9M 2Z2', 'M9W 4N3', 'M9W 5T2', 'M9W 5Y8', 'M9W 5Z7', 'N/A', 'N0A 1C0', 'N0B 1E0', 'N0B 1M0', 'N0B 1S0', 'N0B 1Y0', 'N0B 2H0', 'N0B 2J0', 'N0B 2L0', 'N0B 2M0', 'N0B 2N0', 'N0B 2S0', 'N0C 1B0', 'N0C 1E0', 'N0E 1N0', 'N0E1M0', 'N0G 1M0', 'N0G 1X0', 'N0G 2H0', 'N0H 2K0', 'N0H 2T0', 'N0J 1E0', 'N0J 1H0', 'N0J 1P0', 'N0J 1V0', 'N0J 1Y0', 'N0L 2E0', 'N0M 1J0', 'N0M 1L0', 'N0M 1M0', 'N0M 1S3', 'N0M 1Y0', 'N0M 2N0', 'N0N 1G0', 'N0N 1K0', 'N0N 1P0', 'N0P 1A0', 'N0P 1C0', 'N0P 2C0', 'N0P 2G0', 'N0P 2L0', 'N0R 1K0', 'N1A 2W1', 'N1A 2W7', 'N1H 1A4', 'N1H 1B8', 'N1H 6J2', 'N1H 6J3', 'N1H 6K3', 'N1K 1G7', 'N1R 5S9', 'N1R 7J2', 'N1R 7N3', 'N1R 8B7', 'N1T 1B2', 'N2B 2E1', 'N2B 3E1', 'N2B 3E7', 'N2C 2C9', 'N2C 2G1', 'N2E 2M7', 'N2E 3X9', 'N2H 5H3', 'N2R 1J9', 'N2S 4B3', 'N2V 1N3', 'N2V 1Y8', 'N2V 2E3', 'N2Z 2N3', 'N3A 3B8', 'N3B 2Z7', 'N3H 4R7', 'N3H 4V9', 'N3H 4W3', 'N3S 7V6', 'N3T 5M1', 'N3T 5M6', 'N3T 5M7', 'N3T 5N3', 'N3W 1Y1', 'N3W 2G8', 'N4B 2W6', 'N4G 4G7', 'N4P 3S7', 'N4S 7V8', 'N4S 7W5', 'N4S 7Z2', 'N4S 8Y7', 'N4V 1E2', 'N4W 3G8', 'N4W 3G9', 'N4X 1C9', 'N5C 3J7', 'N5H 2R6', 'N5H 2R8', 'N5H 2R9', 'N5P 3R7', 'N5V 0A4', 'N5V 1R2', 'N5V 2Z6', 'N5V 2Z8', 'N5V 4J5', 'N5V 4L6', 'N5V 4N8', 'N5W 1X4', 'N5W 4Z2', 'N6A 5J6', 'N6E 2Z8', 'N6K 1Y1', 'N6N 1A8', 'N7A 3Y1', 'N7A 3Y2', 'N7G 3H7', 'N7M 5K5', 'N7M 5K8', 'N7T 7H8', 'N7T 7J2', 'N8H 3V8', 'N8M 3G6', 'N8N 2L9', 'N8W 5B5', 'N9A 6J3', 'N9C 4H5', 'NOG 2L0', 'NOL 2C0', 'NOM 1K0', 'NON 1R0', 'P0H 1V0', 'P0H 2G0', 'P0J 1P0', 'P0L 1N0', 'P0M  1B0', 'P0M 1B0', 'P0T 1W0', 'P1A 0B5', 'P1B 2M4', 'P1B 8G4', 'P1B 8G8', 'P1H 1Y4', 'P1L 1T8', 'P1L 1V1', 'P2A 0B6', 'P2A 2W8', 'P3A 2N5', 'P3A 2T2', 'P3A 4M9', 'P3B 2Z3', 'P3N 1B3', 'P3Y 1K6', 'P4N 7C3', 'P4N 7H9', 'P4R 1M9', 'P6A 3T4', 'P6B 4K2', 'P6B 5A1', 'P6C 3W7', 'P7B 3X5', 'P7B 5M5', 'P7B 5X5', 'P7E 4X5', 'P7K 0C6', 'P7X 3G7', 'R0A 0R0', 'R0A 1E0', 'R0C 0A0', 'R0C 1N0', 'R0C 3E0', 'R0C 3H0', 'R0E 0A0', 'R0E 0C0', 'R0E 2G0', 'R0G 0B0', 'R0G 0J0', 'R0G 0V0', 'R0G 1K0', 'R0G 1S0', 'R0G 1W0', 'R0G 2V0', 'R0H 0C0', 'R0H 0Y0', 'R0H 1L0', 'R0J 0M0', 'R0J 1H0', 'R0J 1T0', 'R0K 0L0', 'R0K 0P0', 'R0K 1W0', 'R0K 2G0', 'R0L 0C0', 'R0L 1S0', 'R0L 1Z0', 'R0M OJ0', 'R1A 3N9', 'R1N 3C5', 'R2C 2Z2', 'R2C 3T4', 'R2C 5G4', 'R2H 1R7', 'R2J 0A4', 'R2J 0Z7', 'R2J 3T1', 'R2J 3T6', 'R2JOE6', 'R2L 0X3', 'R2P 2W5', 'R2R 1V1', 'R2R 1V9', 'R2R 2B9', 'R2X 0A1', 'R2X 2W5', 'R3C 2E6', 'R3C 2N5', 'R3C 4A3', 'R3E 1C6', 'R3E 2R9', 'R3E 3S4', 'R3H 0G7', 'R3H 0N1', 'R3H 0N6', 'R3H 0R5', 'R3H 0S8', 'R3J 1J2', 'R3J 3T2', 'R3J 3W1', 'R3P 2H8', 'R3T 1T5', 'R3T 3N9', 'R3V 1A4', 'R3X 1G9', 'R4A 5A9', 'R4H 1B8', 'R4K 1B2', 'R4L 1N6', 'R5G 1T8', 'R5G 1W1', 'R5G 2C4', 'R6M 1Y4', 'R6M 2G2', 'R6W 1A1', 'R6W 4A1', 'R6W 4A5', 'R6W 4A7', 'R6W 4A9', 'R6W 4B1', 'R6W 4B7', 'R6W 4C3', 'R6W 4C4', 'R7A  7A4', 'R7A 7A8', 'R7A 7L1', 'R7C 1A4', 'RC3 2E6', 'ROJ1W0', 'ROK 0W0', 'S0A 0X0', 'S0A 1B0', 'S0A 1V0', 'S0A 2P0', 'S0A 3J0', 'S0A 3R0', 'S0C 0N0', 'S0E 0Y0', 'S0E 1A0', 'S0E 1E0', 'S0G 0H0', 'S0G 0V0', 'S0H 0T0', 'S0H 1X0', 'S0H 2K0', 'S0H 4M0', 'S0J 1B0', 'S0K 0G0', 'S0K 1H0', 'S0K 2A0', 'S0K 2T0', 'S0K 2Z0', 'S0K 3V0', 'S0M 0N0', 'S0M 1H0', 'S0N 1H0', 'S4H 2J9', 'S4H 2L2', 'S4N 3M3', 'S4N 3W1', 'S4N 5A1', 'S4N 5A6', 'S4N 5M2', 'S4N 5P7', 'S4N 5W2', 'S4N 5X4', 'S4N 7E5', 'S4P 3E2', 'S4P 3H1', 'S4R 2M6', 'S4R 8R7', 'S4T 2P7', 'S4T 7M3', 'S6H 4P2', 'S6H 4P6', 'S6H 4P8', 'S6V 6G1', 'S7J 4C6', 'S7J0R1', 'S7K 0X1', 'S7K 0X4', 'S7K 0X7', 'S7K 0X8', 'S7K 3J8', 'S7K 3P5', 'S7K 3S2', 'S7K 3V1', 'S7K 3Y5', 'S7K 5Z1', 'S7K 5Z7', 'S7K 6J4', 'S7K 6N3', 'S7K 6P6', 'S7L 6A4', 'S7M 1E3', 'S7M 3Z7', 'S7N 1Y7', 'S7N 1Z3', 'S7P 0A9', 'S7P 0B2', 'S9A 3M1', 'S9V 1R6', 'SOH 1X0', 'SOK 3V0', 'T0A 0V1', 'T0A 2K0', 'T0A 3A0', 'T0B 1A0', 'T0B 1X0', 'T0B 3P0', 'T0B 4K0', 'T0C 0J0', 'T0C 1Z0', 'T0C 2L0', 'T0C 2T0', 'T0E 0A0', 'T0E 0H0', 'T0E 0J0', 'T0E 1V0', 'T0G 0J0', 'T0G 1R0', 'T0H 0W0', 'T0J 0Y0', 'T0J 2S0', 'T0K 0C0', 'T0K 0K0', 'T0K 0R0', 'T0K 1W0', 'T0L 0A0', 'T0L 0T0', 'T0M 0J0', 'T0M 0S0', 'T0M 0V0', 'T0M 1H0', 'T0M 1J0', 'T0M 1X0', 'T1A 5P7', 'T1A 8G7', 'T1A 8M9', 'T1B 3N2', 'T1C 1T9', 'T1G 0B7', 'T1G 2E1', 'T1G 2J4', 'T1H 0C8', 'T1H 5G1', 'T1H 5G5', 'T1H 6G3', 'T1H 6L5', 'T1H 7A6', 'T1J 4P4', 'T1M 1N1', 'T1R 1B5', 'T1R 1E1', 'T1S 0J8', 'T1S 1A1', 'T1V 1E6', 'T1V 1M3', 'T1V 1M6', 'T2A 1X4', 'T2A 2N6', 'T2A 2P1', 'T2A 2P3', 'T2B 1P4', 'T2B 2X4', 'T2B 3K7', 'T2B 3M4', 'T2B 3N9', 'T2C 0L5', 'T2C 0Y4', 'T2C 1V5', 'T2C 1Z6', 'T2C 2B8', 'T2C 2E4', 'T2C 2H5', 'T2C 2H8', 'T2C 2J1', 'T2C 2L2', 'T2C 2P6', 'T2C 2R4', 'T2C 2R5', 'T2C 2X3', 'T2C 3H3', 'T2C 4L2', 'T2C 4L7', 'T2C 4M6', 'T2C 4M9', 'T2C 4P1', 'T2C 4R7', 'T2C 4S9', 'T2C 4T6', 'T2C 4X5', 'T2C 4Z6', 'T2C 5B9', 'T2C 5H4', 'T2C 5J8', 'T2E 4B2', 'T2E 4B3', 'T2E 6K9', 'T2E 6N6', 'T2E 6Z5', 'T2E 7N4', 'T2E 8C2', 'T2E 8P9', 'T2G 2A5', 'T2G 2A7', 'T2G 4A8', 'T2G 4R5', 'T2H 1C2', 'T2H 1L6', 'T2H 1X1', 'T2H 2G7', 'T2H 2Y2', 'T2H0P5', 'T2K 2E6', 'T2L 2X1', 'T2P 2P9', 'T2Z 4K4', 'T2Z 4V3', 'T3R 0H9', 'T3S 0A1', 'T3Z 3M2', 'T4B 2B4', 'T4C 1B4', 'T4C 1W7', 'T4H 1V1', 'T4J 1J8', 'T4J 1R3', 'T4L 1X4', 'T4L 2C6', 'T4L 2N1', 'T4L 2N2', 'T4N 4L1', 'T4N 5G1', 'T4N 5H3', 'T4P 1A5', 'T4P 1A7', 'T4P 1A8', 'T4P 1K3', 'T4P 1N5', 'T4P 1X5', 'T4P 2G9', 'T4P 2J9', 'T4P 2R2', 'T4P 3R2', 'T4P 3R3', 'T4P-3R2', 'T4R 2P7', 'T4S 1P5', 'T4S 1S6', 'T4S 1S8', 'T4S 1X6', 'T4S 2A3', 'T4S 2B3', 'T4S 2J8', 'T4S 2J9', 'T4S 2K5', 'T4S 2L4', 'T4S 2M4', 'T4S2A8', 'T4T 2A3', 'T4V 1L9', 'T4V 1X4', 'T4V 4B9', 'T4V 4E7', 'T4V 4W3', 'T5B 0X3', 'T5B 1C6', 'T5B 1G8', 'T5B 1K5', 'T5B 2B7', 'T5G 2S7', 'T5L 2M8', 'T5L 2R8', 'T5L 2T3', 'T5M 2R8', 'T5M 2S4', 'T5M 2S6', 'T5M 2V7', 'T5M 3P5', 'T5M 3R4', 'T5M 3T5', 'T5P 1G8', 'T5S 0A6', 'T5S 1G4', 'T5S 1J4', 'T5S 1W1', 'T5S 1X2', 'T5S 1X4', 'T5S 1Z1', 'T5S 2G2', 'T5S 2K4', 'T5S 2M3', 'T5S 2R9', 'T5S 2Y3', 'T5V 1A1', 'T5V 1B7', 'T5V 1J8', 'T5V 1N4', 'T6B 0A3', 'T6B 0A5', 'T6B 0A7', 'T6B 0E5', 'T6B 2H7', 'T6B 2P1', 'T6B 2S1', 'T6B 2V2', 'T6B 2W4', 'T6B 3A7', 'T6B 3C4', 'T6B 3E3', 'T6E 0E2', 'T6E 4N2', 'T6E 4N6', 'T6E 5S6', 'T6E 6C2', 'T6E 6L9', 'T6E 6M5', 'T6H 2H5', 'T6N 1A3', 'T6N 1B2', 'T6N 1C9', 'T6P 1J8', 'T6P 1K1', 'T6P 1K2', 'T6P 1P7', 'T6P 1V8', 'T6P 1Y6', 'T6S 1B9', 'T6S 1G1', 'T7A 1S1', 'T7A 1S4', 'T7A 1S5', 'T7P 2M2', 'T7P 2M4', 'T7P 2P5', 'T7X 3A5', 'T7X 3L8', 'T7X 5A3', 'T7X 5A4', 'T7X 5A5', 'T7X 5A7', 'T7Z 1L7', 'T7Z 1V6', 'T7Z 1V7', 'T7Z 1W4', 'T8E 2J3', 'T8H 1N7', 'T8H 2J6', 'T8H 2V2', 'T8N 2G3', 'T8R 1K6', 'T8R 1Y2', 'T8S 1M6', 'T8V 4H4', 'T8V 7S3', 'T8V 8B1', 'T8V 8K4', 'T8W 1M3', 'T8W 5J1', 'T8X 0L2', 'T9A 0T8', 'T9E 0B3', 'T9E 0C3', 'T9E 0R3', 'T9E 7E8', 'T9E 7M1', 'T9E 7N6', 'T9E 7R2', 'T9E 7R5', 'T9E 7S5', 'T9E 7T7', 'T9E 7T8', 'T9E 7W1', 'T9E 7W9', 'T9E 7X2', 'T9E 7X8', 'T9E 8G2', 'T9E 8H9', 'T9E 8P2', 'T9E7T5', 'T9M 1P3', 'T9N 2J3', 'T9V 2C2', 'T9V 2E4', 'T9V 3A7', 'TB6 3G8', 'TX8 0B1', 'V0B 2G0', 'V0E 1B6', 'V0E 2X0', 'V0G 1Z0', 'V0H 1Z1', 'V0J 3A0', 'V0J 3A1', 'V0K 1T0', 'V0M 1L0', 'V0R 1K4', 'V0R 1V0', 'V0R 2H0', 'V0R 2H1', 'V0R 2W3', 'V0X 1X0', 'V1B 3E4', 'V1B 3R9', 'V1B 3S1', 'V1E 1X2', 'V1E 4N3', 'V1G 4R8', 'V1J 5K5', 'V1J 7H2', 'V1L 6Z2', 'V1M 2X7', 'V1M 36A', 'V1S 1J6', 'V1S 1S4', 'V1T 8T9', 'V1V 2M2', 'V1X 4R2', 'V1X 5E6', 'V1X 5W6', 'V1X 7S2', 'V1Y 1M3', 'V1Z 1G2', 'V1Z 1G4', 'V2A 3H7', 'V2A 3K7', 'V2A 3M3', 'V2A 6P3', 'V2B 6B1', 'V2C 5P2', 'V2J 5Z2', 'V2K 1M8', 'V2K 3A1', 'V2L 2Z1', 'V2L 4V4', 'V2N 1X2', 'V2N 4T6', 'V2N 5S3', 'V2N 5T1', 'V2P 2N1', 'V2P 6H5', 'V2R 4H2', 'V2R 5N8', 'V2S 4N7', 'V2S 6B7', 'V2S 7M2', 'V2S 7M6', 'V2S 7T1', 'V2T 0A7', 'V2T 6G1', 'V2T 7L4', 'V2V 5X4', 'V2Y 1N7', 'V2Y 2S9', 'V2Y 2V9', 'V3A 4E3', 'V3A 4L5', 'V3A 4N4', 'V3A 4N5', 'V3A 5E8', 'V3C 1S9', 'V3C 2M8', 'V3C 6L4', 'V3G 1M1', 'V3K 5S9', 'V3M 5R1', 'V3M 6G7', 'V3S 4N9', 'V3S 8E5', 'V3T 5J4', 'V3V 3H2', 'V3V 4G8', 'V3W 4E8', 'V4G 1B5', 'V4G 1E2', 'V4G 1K7', 'V4N 2S1', 'V4N 3P5', 'V4N 3P8', 'V4N 3P9', 'V4N 3R7', 'V4N 4C2', 'V4N 4C3', 'V4N 4C4', 'V4N 4E6', 'V4S 0A1', 'V4W 2W5', 'V4W 2Z8', 'V4W 3A8', 'V4W 3W7', 'V4W 3X5', 'V4X 1C8', 'V5C 5A9', 'V5J 4S6', 'V5X 2X1', 'V6A 2X2', 'V6G 2B2', 'V6P 6G2', 'V6V 1J7', 'V6X 1T3', 'V6X 1X3', 'V6X 1X5', 'V6X 1Y4', 'V7A 4V1', 'V8G 5R5', 'V8L 5Y1', 'V9B 2S2', 'V9L 3X9', 'V9L 6B1', 'V9M 4C7', 'V9P 2B8', 'V9P 2B9', 'V9P 2C2', 'V9R 6W6', 'V9R 6Z5', 'V9S 3H6', 'V9S 4M8', 'V9W 3G2', 'X0E 0R6']</t>
         </is>
@@ -1068,18 +1133,26 @@
       <c r="P10" t="n">
         <v>11</v>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>UNITED STATES</t>
-        </is>
-      </c>
-      <c r="R10" t="n">
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>CANADA</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
         <v>22779</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>2</v>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>['CANADA', 'UNITED STATES']</t>
         </is>
@@ -1138,18 +1211,22 @@
       <c r="P11" t="n">
         <v>567</v>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>xxxx</t>
-        </is>
-      </c>
-      <c r="R11" t="n">
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>61305</v>
       </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
         <v>1331</v>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>['#1 - 2720 12th Street N.E.', '#1 - 7861 Hwy 97N', '#1 7884 49 Ave.', '#1 7884-49 Avenue', '#1 Cardinal Street', '#1 Greengage Road', '#1, 1915 - 30th Avenue North East', '#10 Forwell Road', '#107-20693 Langley Bypass', '#12, 3939 54th Avenue S.E.', '#120, 10569 - 42th Street SE', '#170 Hwy 83 North', '#301 26730 56th Avenue', '#306-5327-192nd  Street', '#4 4440-75Ave. SE', '#5-7880-128 Street', '#7 - 1231 36th Avenue N.E.', '#8, 4 Erickson Crescent', '#9 - 1065 Herring Gull Way', '#9 Laut Cres Box 602', "'A' Twp Rd 110", '07 Robinson Road  RR# 1', '1 Av. Premier', '1 Elmvalley Road', '1 Quai Mgr Blanche, hangar no. 6', '1 Royales Avenue', '1 Schenk Industrial Road', '1 rue Du Parc', '1, rue Pinat', "10 Boul. de L'Artisan", '10 Chemin de la Grande-Carriere', '10 Herritage RD', '10 Sicard St.', '10-B Li??bert', '100 - 10500, 48 Street S.E.', '100 Blvd. Real Caouette', '100 Canola Ave.', '100 East Beaver Creek Road', '100 Pierrot', '100 Shirley Avenue', '1000 6th Avenue N.E.', '1000 boul. Industriel', '1000, rue Industrielle, C.P. 279', '1001 Coutts Way', '1002 - 15 Ave Nisku', '1005 Pattullo Avenue, R.R. 8', '1006 Principale', '1008, Fte Mgr.-Bourget', '101 Marius Warnet', '102 Dawson Road, P.O. Box 3003', '102 Saliken Dr.', '102, rue du Menuisier', '102, rue du Parc Industriel, Case postale 70', '1020 17th Street West', '1020 Rue Craig Nord', '10240 Bl. L??vesque', '1026 Western Dr. Box 830', '1028 Laut Avenue', '103 Ave.', '103 Paramount Rd', '1030 Fernand-Dufour', '1035 Falconbridge Road', '1035, Rte. 219', '1038, Commerciale', '1040 Degurse Drive', '10401 Boul. Parkway', '1041 rue Nobel', '1043 rue Renault', '1047, rue Capri', '1049 The Queensway', '10498 17 Street', '105 MacDonald Street North', '1051 Heritage Road', '1053 Brock Road South', '10531 Gilmore Cr.', '10571 - 178th Street', '1064, boul. Mgr-de-Laval', '10647 McSween Road', '107 - 2707 Progressive Way', '1070 Gorham St', '10708-2nd Ave North West', '1071 Hwy 7 East RR# 7', '1077 Hwy 26', '10774 - 42nd St SE', '1084, Rue L??vis', '109 Erie Street South', '1090 South Service Road East, Unit A', '1091, rue Principale', '10920 - 87 Avenue', '1093 Lorimar Drive', '1093 Smithers Road', '1096, L??vis , unit?? #3', '11 500, 57 ieme Avenue', '11, Rue Dupuis', '110 Boul. Desjardins', '110 route du lac St-Francois', '110, 41 Royal Viste Drive North West', '1100 3ieme Ave.,', '1100 Aviation Avenue', '1100 Fairville Blvd.', '1100 Rue Deschaillons', '1100 Rue Norman', '1100 Wall Street', "1100 de l'Industrie", '11003 - 97 Avenue', '1114 Route 138', '112 route 155', '1120 Industrial Drive P.O. Box 1271', '1121 Heritage Road', '1121 Heritage Road.', '1123 Lorimar Drive', '11313 - 170th Street', '115 Cushman Road, Unit #46', '115, St-Georges', '11500, 55e Avenue', '11520 - 2 Street N.W.', '11525 - 42 Street SE', '11525 - 42nd Street South East', '1159 Des Pionniers', '116 Sunterra Heights', '116 Thorne Ave', '11634 - 156 Street', '11634 - 7th Street', '11635 6e avenue', '11650 - 156 Street NW', '1169 Pettit Rd.', '1170 Boulevard Lebourgneuf', '1170, boulevard Lebourgneuf, bureau 110', '11700 Boul. St-Jean- Baptiste', '11740 Phillipe-Panneton', '1185 Roland Street', '11860 Machrina Way', '11938 Imperial Road, R.R. #4', '12 Chelsea Lane', '12 McGregor Ave', '12 Norbett Drive, Units 2 &amp; 3', '12, Rang St-Andre', '1200 McIntyre Street', '1200 McIntyre Street`', '1200, rue Nationale', '1201 Route 329 Nord', '1202 8th Street, Bay 18', '12020 - 101 Avenue', '12031 Vulcan Way', '1205 36th Street', '1206, du pacifique', '121 B, rue Principale, C.P. 249', '12145 - 156 Street', '12145 Dorchester Rd. (RR #7)', '12145 Meridian St', '1215 Victoria', '12180 Industrial Rd.', '1220 Franklin Blvd.', '1225 64th Avenue N.E.', '123 Old Highway 11 North', '123 Princess Street', "1234, rue de l'eglise", '12343A - 104th Avenue', '124 St-Regis Crescent South, Unit 1', '12404-107th Street', '1245, rue Labadie', '12455, rue April', '1250 Gorham Street', '1250, Notre-Dame', '1250, boulevard V??zina', '12533 William Short Road Street', '126 Wheeler Street', '12603 GrandView Drive NW', '12605 - 66 Street', '12622 125th Street', '1266 Sharpe Line', '12731 Hwy #48', '12747 Hwy 16 E.', '129 Oakwood Street', '130 Canada St, PO Box 2008', '130 Millwick Drive', '130 route 335', '1301 Jackson Side Road', '1304 rue Principale', '131 Staffern Drive', '13105 rue Jean-Grou', '1312 Plank Road', '1313 rue de Saint-Jovite', '13143 Country Road 16', '1318 rue Principale', '132 Fletcher Creek', '132 Montee Grande Ligne', '133 Industrial Park Road', '1330 Riverside Road', '1345 Industrial Rd., Westside Industrial Park', '135 6th East', '135 McNarmara Drive', '1350 The Queensway', '1351 Ampere Local-0', '1351 Ampere, Suite 1', '1351 Lionel-Boulet', '13594 Sabo Road', '136 Highway 33, R.R. #3', '1360 Bloor Street West', '1360 Rang 6 Nord', '1360Champlain Street', '1367 Station Rd.  P.O. Box 581', '139 Laird Drive', '13920 Tecumseh Road R.R. #5', '1395 Route 139', '1399 Waterton Avenue', '14 Ferry Road', '14 Hallett Crescent', '14 Mont??e Petite C??te', '14 ch. Grande Ligne', '1405 - 41 Street North', '1405 - 41st Street North', '1407 Colborne Street East', '1415 39 Street North', '1417 Notre Dame Drive  RR#1', '143, Route 108', '14355 - 120 Avenue', '1439, Rang 1', '144 Henderson Drive', '1440 1??re Avenue', '145 Falcon Street', '1461 Star Top Rd.', '14650-118th Avenue', '1467 Spitfire Place', '1470 Star Top Road', '14701 14 Ave Crowsnest Pass', '1475 Clarence Avenue', '149 Bentley Avenue', '15 Iris Crescent', '15 Kenyon Street', '15 Robbins Drive', '150 Cree Crescent', '150, rue Edward-Assh', '1503 Petrolia Line RR#1', '151 Bullis Road', '151 Thornhill Drive', '1511 Sparrow Drive', '1511 rue J??rome-Hamel', '1520 Charles Street', '15210 Yellowhead Trail', '1525 County Road 42, RR#2', '152b Oakdale Rd', '153 Autumnwood Drive', '1540 Kal Lake Road', '1540 Saskatchewan Avenue', '15410 Yellowhead Trail', '1548 County Road 34', '155 Dawson Road', '155, Marie-Victorin', '1550 Highway 39 East', '156 Berryman Ave', '157, rue Principale', '1570 Hwy #7 At Brook Road', '1571 Liverpool Court', "15790 Robin's Hill Road", '158 Old Vernon Road', '15816 - 111 Avenue', '15935A 118th Avenue', '1596 Vella Road', '16 Estate Drive', '16 Second Street', '160, rue Savard, CP 188', '160, rue des Routiers', '1602 Western Street', '1607 S. Campus Ave', '16079, boul. Cure-Labelle (route 117)', '161 Deerhide Crescent Unit #3', '161 rue Sylvestre', '16105 Hwy #27 PO Box 209', '1616 Meridian Road N.E.', '162 Boulevard Mercier', '1621 Michael Street', '1630, Route Kennedy', '16304 - 117 Avenue', '16320 rang St-Dominique', '16333-130 Avenue', '164, Msg. Martin', '1640 Enterprise Road', '1641 De Gascogne', '165 Magill Street', '165 Thames E.', '1651 - 12th Street', '1655 Hymus Blvd.', '1655 boulevard de Port Royal', '166 North Murray - PO Box 682', '166 rue Sylvestre', '166 rue du Carrefour', '16615 Post Rd', '16703 - 110 Avenue North West', '16715 114th Avenue', '1690 rue Eiffel', '17 - 199 Omands Creek', '17 rue des Pins', '17-1-15 NE', '170 Joseph Zatzman Drive, Unit 18', '1715 Britannia Road East', '1718 - Hwy. #6 North, R.r. #2', '172 St-Laurent Blvd.', '1720 boulevard St-Charles', '1730 rue Atmec', '17303 - 114 Avenue', '175 Gordon Baker Road', '175 Pinedale Avenue', '175 Route 104', '175, route du Pont', '1750 Brown Road', '1750 West 75th Avenue', '1759 Trafalgar Street', '176 McGovern Drive, R.R. #32', '17604 105th Avenue', '1775 Drew Road', '1781 Bresse', '17817 Leslie Street, Unit 16', '1783 Oxford Street, Unit #5', "18 Dundee Avenue Suite #1 (Donovan's Ind. Park)", '180 Hodsman Rd.', '180 Honda Blvd.', '18020 - 118 Avenue', '1803 Ryan Road East', '1805-10 Avenue SW', '1809 Main Street', '18110 - 118 Avenue', '182 Darling Drive', '1830A Cage Court', '1836, 3e avenue', '1839 Seymour St. Site 9, Comp. 11, RR# 3', '1840 Gage Court', '1840 Kryczka Pl', '18412 96th Ave', '1845 route 122', '1850 Derry Road East', '1855 boul. Queen Victoria', '18550 - 96th Avenue', '186 Main Street', '18688 96th Avenue', '18th Ave', '19 Industrial Street', '19 Wheatland Avenue', '19, Gaston-Dumoulin', '19, rue C??t??', '190 Commercial Place', '1900-800 5th Avenue S.W.', '1904 4th street', '1908 Colonel Sam Drive', '191 Dalton Avenue', '1914 Glover Road', "1915 boul. de L'Industrie", '1940 Albion Road', '1940 Eglinton Avenue East', '19405 Enterprise Way', '19439 94th Avenue', '19470 - 96th Avenue', '19470 f?? 96th Avenue', '195 Citation Dr.', '195 Fyffe Road S.E.', '1951 Wilfert road', '19548 - 96 Avenue', '1955 Caribou Street West', '1955 West Trans. Canada Hwy.', '196 Armand Bombardier', '1963 Kingsway Avenue', '1995 Merivale Road', '1995, rue Frank-Carrel, bureau 90', '1st Street South, P.O. Box 1124', '2 - 418 South Railway Street South', '2 Arrowsmith Road', '2, boulevard Marie-Victorin', '2, rue du Parc', '2-331 Parkdale Road', '20 Alness Street', '200 - 53016 Highway 60', '200 Hempstead Drive, Unit 6', '200 Waydom Drive', '200 mont??e Industrielle', '200 rue Damasse Breton', '200, rue Savard, C.P. 6', '2000 Boul. Ste Sophie', '2000 Langstaff Road', '2000, avenue M??thot, C.P. 333', '2001 1st Avenue', '201 Woodlawn Road', '201 blvd Labb?? N # 6', '201-1492 Admirals Road', '2010 Riverside Drive', '20165 Logan Avenue', '202, 26229 TWP 531 A (Zone 2 Industrial Area)', '2020 Bantree St.', '2025 Lechatelier', '2028 Dundas Street', '2035 Bedell', '205 Boulevard Saint-Sacrement', '205 Konrad', '205 Miner', '205 rue Commerciale', '2054 Birch Crescent S.E.', '2060, 55e Avenue', '2066 Henry Avenue West', '2070 Concord Avenue', '2089 Rte. 132', '209, Joseph-Carrier', '2091 Baseline Road', '20940 - 107 Ave.', '21 Antares #205', '21 rue Gauthier', '21 rue Notre Dame', '2101, rue Chicoine', '2107 6th avenue', '2111 - 9th Avenue S.W.', '2119 Tramway', '2120 95ieme rue', '2124 Robinson Street', '2142 Country Road #16', '215 Tecumseh Street', '215 Terr Riopel', '2170 Winston Park Drive', '2177 Plains Road East', '22 Chemin Milton', '2202 Hanselman Ave.', '2204-84 Ave', '221 Route du Village', '2215 Ave. Francis Hughes', '2215 Midland Avenue', '2223 Drummond Line', '2223 Sentinel Road', '223 Bodia Ave', '2230 McCullough Road', '225 Nugget Avenue, Unit 14', '225 Oxford', '225 route 265 N.', '225, Ave. St-Sacrement', '2250 rue St-Jean', '226 Lesmill Rd.', '2275 Rue Canadien', '2275, 107i??me Rue, C.P. 490', '229 11th Avenue, North East', '2290 rang Versaille', '23 Boivin', '230 King St. East', '2307 Kings Rd', '231 Highway 17 East, P.O. Box 1181', '231, St-Antoine Nord', '2311 Highway 28, RR7', '2315 Boul. Wallberg', '232 South Service Rd', '2324 Place Du Gala', '232A Woolwich Street, South', '2337 Bowman Street', '235 Rue Principale', '2359 Boul. Fiset', '2380 Rue Dalton', '2390 S. Service Rd. W.', '24 Peet Street PO Box 8340, Stn A', '24 Yvon Provost', '240 Route 285', '240-103rd Street', '2400 Kirby Road', '241 Bluewater Road', '2430 Principale, CP 160', '2435 Eagle Street North', '2439 Riverside drive', '2450 Cohen Street', '2453 Chemin de Chambly', '2458 Highway 11', "246 Cooper's Road", '2490 Baseline Road, RR#8', '2492 Cedar Creek Road R.R. #1', '2499 Industrial Street', '25 - #8 Centennial Road', '25 Chemin De La Minerve', '25 Heritage Road', '250 West 70th Ave.', '250 rue Industrielle, local 10', '250, 2i??me Avenue', '2500 Boulevard McWatters', '2500 Georges Street', '25084 Highway #3 East', '251, Rg St-Jean-Baptiste', '252 Saratoga Road', '2521 Inkster Boulevrd', '2523 Fire Route O', '2525 Inkster Blvd.', '2525, rue Watt', '2565 Binder Crescent', '2590 Blackwell Street', '260 Dunkirk Road', '261 Bowes Road', '2612 Robison Rd.', '26162 30A Ave.', '26180 31B Avenue', '2625 Meadowpine Blvd.', '2628 Edinburgh Place', '2633 Bath Street', '2645-D, Boul. Terra-Jet', '265 Rue Etienne-Dubreuil', '2651 Markham Road', '2660 Sabourin', '268, St-Antoine', '2680 B Boulevard Hamel Ouest', '270 Lacerte', '2703 Henderson Highway', '2705, Boulevard Wilfrid-Laurier', '27137 S. Hwy 33', '2717 rue Watt, Parc Colbert', '272 Oak Point Service', '2725 Belisle Drive', '273 Highway 29', '273 Hwy. #29', '275 Boul Industriel Est C.P. 443', '275 Carrier Drive', '275 Clarence Street', '275 Waterloo Ave.', '2759 Lancaster Road', '279 East 1st Street, Box 1158', '279 Norseman Street', '279, Route 204', '2793 Carp Road', '28 Boul. Richelieu', '2801-84th Ave', '281 Main St. Hwy # 3, Box 401', '2810 Matheson Blvd East, Suite 200', '2820 84th Ave', '28419 Ranch Avenue', '287 Mountain Road', '29, rue Laroche', '2901 Rue Watt', '2903 Shuttle St.', '2909 Rue Bergman', '291 Young Road, R.R. # 8', '2920 Concession 21, R.R. 2', '2930 Pasqua St N', '2945 Millar Avenue', '295 Pinebush Road', '295, Rte. 165', '2957, boulevard P??re-Leli??vre', '299, St-Isidore', '3 Marconi Court', '3-1140 Sheppard Ave. West', '3-79 Eagle Drive', '30 Alpine Court', '300 Doepker Avenue', '300 Rue Du Parc', '300 St-Fran??ois-Xavier', '300, rue Alexis-Poirier', '300, rue Quennville C.P. 759', '300, rue des Pins Ouest,', '3000 Ament Line', '3000 rue Girardin', '301 Aqueduct Street', '301 chemin Lavaltrie C.P. 27', '302 Mill Street', '302 Portage Avenue, Sub 18', '303 20630 Mufford Crescent', '303 Station Road', '3044 Sawmill Rd', '305 Enford Road', '3050 Kilpatrick Road', '3050, rue Anderson', '30686-A Matsqui Place', '3074 Sawmill Road P.O Box 520', '308 River View Cresent', '3091, Albion road', '30th Street', '31 Torbarrie Road', '310 rue Metivier #110', '3104 Hampton Street', '3111  Shepard Place South East', '312 St George Avenue', '3128 Hope Place, R.R. #1', '313 Princess Street', '314 Lake Avenue North', '315 Park Avenue East', '3175 boulevard du Royaume', '3183 rue Harvey', '319 St. Jacques', '32 rue Industrielle', '3201 - 84 Avenue', '322 Rue Principale', '322 Totom Court', '325 Line 13 North RR #1', '325 Mud Street, R.R. #3', '325 Welland Avenue, Unit #8', '325 Weston Road, Unit 2D', '325, boul. Industriel', '3250  46th Avenue S.E.', '3255, Rue Picard', '326 Kenora Ave.', '327 Julien Street', '328, rue Adam', '329 Park Dale Avenue', '330 Saulteaux Crescent', '330 South Service Road', '331 Highway 12 North', '3311 B Millar Ave.', '3323 Hart Highway', '333 10th Street', '333 Bay Street, Suite 2400', '3332 - F River Rd.', '336 Birch Avenue', '34 Golden Gate Court, Unit #10', '340, 12e Rue', '3423 Millar Avenue', '3429 Hawthorne Road', '344 Fruitland Road', '345 Hwy 20, R.R. #3', '3455 Wolfedale Road', '34640 Currie Place', '34709 Talbot Line', '35 Boulevard Gagnon', '35 Hale Road', '35 Standford Flemming Drive', '35 Sunnyhurst Avenue, Unit 8', '35, De Montgolfier', '350 Parkdale Avenue North', '3500 Cite des Jeunes', '3513 Bay "F", 78th Ave', '3543 rue Principale, C.P. 333', '356 Industrial Drive', '3600, boul. Industriel', '3624 Hwy 209 (P.O. Box 35)', '3632 Boulevard des H?|tres', '3660 - 50th Avenue SE', '367 Boul. Chabot', '369 Quebec Street', '37 Raglin Place', '37 Sylvan Way', '37, De La B??tonni??re', '3705 route 108 Est', '37089 Talbot Line R.R. 3', '371, Grand Bernier Nord', '3731, Route 111 Est', '3737 Boulevard Lite', '375, Rue T??miscouata, C.P. 998', '3751 Highway 97', "3785 Hwy 316, RR#2 Larry's River", '38 Main St.', '38 Rue St-Anne', '3805, La V??rendrye', '3850, Boulevard Leman', '38547 Huron Street West, R.R. #2', '3855, 5e Avenue', '3855, rue Georges-Corbeil', '3875 Rue Georges Corbeil', '39 Bellevue Road', '3904 - 78 Avenue', '3904-78 Avenue', '391 Alliance Avenue', '391 St. Jean Baptiste Nord', '3914 81st avenue', '3915 - 52 Street Close P.O. Box 2148', '3965, rue Quebec Central', '3995, 2 Avenue North', '4, chemin De Vimy C.P 2027', '40 Automatic Road', '40 Oswald Drive PO Box 3156', '400 Dunlop Street West', '4000, quatri??me Rue', '401 9th Street North, Box 179', '401 Pido Road', '4013 Boileau Road', '4015 rue Carpentier', '4024 Charles Street', '404 Meridian Road NE', '4040 Brandon Street S.E.', "4049 St. Margaret's Bay Road", '405 Van Buren St.', '407 - 22 Avenue', '407 Farnham Road', '407568 Grey Road 4   RR 1', '41 Carmella Drive', '41 Claireville Drive', '41 Granger Avenue', '4110 - 76 Avenue', '4115 18th Avenue North', '4131 Morris Drive', '4140 Pleasant Road', '4144 Christophe Colomb', '4153 Hwy 38', '4164 New Street', '42 Merit Crescent, Unit #2', '42 Newcombe Crescent', '42 des Entreprises', '4200 Sladeview Crescent', '422 Lake Road, South Industrial Park', '430, rue Cantin', '4303 - 69 Avenue', '431 Henry Street', '4342, Boulevard Bourque', '43841 Talbot Line RR #3', '44 Aaron Trail', '44 Poneida Road', '4420 76 Avenue', '4425 76th Avenue', '445, boul. Industriel', '4451 - 54 Avenue SE', '448 CR 34 East, R.R. #2', '4490, Av. des Industries', '450 Desautels Street P.O. Box 792', '450 rue de Vernon', '4500 Boul Thimens, Suite 100', '4506 - 46 Avenue, Box 4831', '451 Route 116 Est', '4514 - 46 Ave.', '4515 6A Street NE', '4523 - 50 Street', '455 Main Street South', '45681 Yale Road W.', '4575 Powell Road', '4580, Mont??e Gagnon', '459 Industrial Road, P.O. Box 490', '459 Wellington Street', '4600, boulevard Henri-Bourassa, suite 234', '4612 19th Avenue North West', '4618 Boulevard St. Joseph', '465 Bloor Street West', '465 Second Line East', '4680 boulevard Frontenac Est', '47 Canada Avenue', '470, Route 116 est', '4715 76th avenue South-East', '4721, 50th Street, Suite #1', '4731 78A STREET CLOSE', '475 Prince Charles Drive South', '475 rang St-Joseph', '476 Haut de la Chute', '476, rang 2-3 Ouest', '477 Aspdin Road', '48 Ardelt Ave', '480 - 7 Stree N.E.', '4807 82nd Avenue', '481 Madison Street', '4811 - 51 Avenue', '483 Rennie Street', '4841 - 78 Street', '485 - 6th Avenue East', '485 Chemin Rivard', '487 rue Principale', '4870, rue de Courval', '488 Rue St. Pierre', '4880 Walker Road', '489 Abelard-Savoie Boulevard', '490 Highway 17', '4900 Golf Course Road', '4910 - 80 th Avenue S.E.', '4919, Marie-Victorin', "492 de L'Esplanade", '493 St. Amable', '4975 8th Concession Road', '4985 Polkey Road', '5 Borden Street', '5 Tangiers Road', '50 Industrial Street', '50 Main Street', '50 McKenzie Road', '50 Northland Road, suite 400', '50 St-Jude Sud', '50, chemin du Tremblay', '500 Rte 220', '500 Waydom Drive', '501 - 24 Avenue', '5013 48th Street', '505 Kenora Avenue, Unit #8', '5075 De La Plaisance', '5091 rue Noel', '510 Whissell', '5125 De la Plaisance', '5125 Harvester Road, Unit 7', '5135, Domville', '5140 Halford Drive', '5151 Hwy 17 West', '5151 Simcoe Street', '5171 Thimens', '5172 route 3 Central Argyle', '5183 Route Domaine du Lac', '52 Ellisview Road', '5200 Dixie Road, Unit #46', '521 Achray Road', '521 Rue Principale', '5218 - 62th Street', '5221-46 Street', '5227 Highway 17', '526 rue Lanaudiere, Suite 104', '5280 Fairway', '5285 - 192 Street', '5290 Orbitor Drive', '53 Jamieson Drive, R.R. #1, Forest Home Ind. Park', '530 Providence', '531 Admiral Drive', '5320-B 48th Avenue South East', '5329 72nd Avenue S.E., Box 70', '533, 71st Avenue S.E.', '5350, Armand-Frappier', '5351 46th Avenue S.E.', '5360 rue St. Roch', "54 rue de l'Eglise", '54-5359 Timberlea Blvd.', "541, rue de l'Harricana", '5411 Chemin du Lac', '5439 McKinley Ave.', '5450 Rue St-Roch', '55 - 10 Avenue S.E.', '55 Crockford Blvd.', '55 Isnor Drive', '55 Steeles Avenue East', '55 White Street, Box 2', '550 George Avenue', '550 McGeachie Drive', '5500 North Service Road', '5502 56th Avenue S.E.', '551 Crestwood Drive', '5511 - 6 Street S.E.', '5521, chemin de l"Aeroport', '554 Rg Haut-St-Amable', '555 Cassell Drive, General Delivery', '555 St-Louis', '55780 Third Street, P.O. BOX', '56 Beach Road', '56 Boul. Industriel', '56 Churchill Drive', '560 Suffolk Court', '563 Montee Princepale', '565 Marjorie Street', '566', '5674 Production Way', '57 Durand Road', '5701 Warner Drive', '5705 - 76th Avenue', '5723 198th Street', '5734 103rd Street South', '577 Route 535', '5770 Place Kubota', '5785 Place Turcot', '58 Cowansview Rd', '580, Lionel Boulet', '581 McGeachie Drive', '581 avenue Lepine', '5810 - 50th Street', '583, St-Ovide', '585 Granite Court', '59 Elm Ave', '59 Maitland Avenue, R.R. #4', '5901 - 48 Avenue', '5909 - 90th Street', '5909-6th Street SE', '591 Chester Road', '591 Chester Road, Annacis Business Park', '591 Rymal Road West', '5925 Hemingway', '593 Rte 219', '595 Lanaudiere', '5982 Main Street', '6 Edmondson Street, P.O. Box 368', '6 Ragged Lake Drive', '60 Northline Road', '60-8 Bristol Road East, Suite 506', '6025 - 12 Street SE', '606 Highway Drive', '6060, 86th Avenue S.E.', '607-15 Avenue', '609 rue Principale', '6095 Austin Street', '6100 Chemin St-Francois', '6101, boulevard Talbot', '6115 - 30th Street', '6120 Route 101', '620 Garyray Drive', '620 Moraine Road N.E.', '620 Nairn Avenue', '620 Stewart St', '6200 Henri-Bourassa', '6210 - 50 Avenue, Box 7324', '6218 - 54 Avenue', '622 Dundas Street, suite 416', "625 rue d l'Argon", '63 Millroad, Box 6', '630 Adams Court', '633 Rang 9', '638 Fortune Cres.', '64 Bartor Road, Unit 5', '64 Signet Drive', '64 Springbank Ave. South', '6418 Courtright Line R#1', '643 rue De Quen', '6439 Netherhart Road', '6444 - 67 Street', '645 Athlone Place', '6490 Vipond Drive', '65 Reive Blvd.', '65 Winder Street', '650 Cargill Rd.', '650 Hardwick Road', '650, 5e Rang', '655 - 30 Street North', '65906 State Road 19 PO Box 585', '66 Fernstaff Court', '660 Riverside Road', '665 Arvin Avenue', '6701 Financial Drive, Suite 100', '6702 Golden West Ave.', '6706 - 44 Ave.', '6711 Mississauga Rd. N.', '6727 - 68 Avenue', '6730 Golden West Avenue, P.O. Box 540', '6739, 67 Avenue', '6740 - 65 Avenue', '675 Trotter Street', '675A Davenport Road', '676 Main Street', '6760 65th Avenue', '6761 67 Avenue', '6771 84 Street S.E.', '680, Rue Des C??dres', '6809 42 Avenue', '682 Okanagan Avenue East', '686 Talbot Street West', '692 - 5th Concession West, R.R. #2', '6943 Highway 38', '6961 Highway 3', '6970 Kenderry Gate', '6981 Boul. Bourque', '7 - 35th Avenue', '7 Hattfield Place', '7 Industrial Ave', '7 Petersburg Circle', '7, Rang St-Francois Est', '70 3rd Avenue Box 1790', '70 Mount Hope Street', '700 Finley Avenue, Unit 5', '700 Franklin Blvd., P.O. Box 98', '700 Richmond Street', '700, rue Jean-Marchand', '7035 Pacific Circle', '706 - 19 Avenue', '7079 Wellington Road 124', '7111 Russell Street', '7127 Honeyman St', '713, Route 219', '7188 Vantage Way', '720 Wilson Road South', '7202, 98 Street', '7245 West Industrial Loop', '726, Saint-Joseph', '73 Brydon Drive', '732 Old Sackville Road', '7337 Trans Canada Highway', '7350 72nd Avenue', '742 Casey Rd.', '747 Bloor Street West', '7475 - 51 Street S.E', '75 Frontenac Drive', '75 Rue Hector C.P. 90', '750 Industrial Rd.', '7500 Trans-Canadienne', '7501 Wilkes Ave.', '7525-51st St. SE', '75836 London Road', '7605 Louis-Quilico', '762 Conception Bay South Highway, Unit 1', '7640, Boul. Ste-Anne', '766 Route 700', '767 Old Sambro Road', '77 RUE MAINVILLE', '770 Lakeside', '770 Ross Avenue', '7700 St-Patrick', '7700, rg St-Andr??', '7739 Edgar Industrial Way', '775 Lemire', '7760 18th Street', '7762 - 47 Avenue Close', '7793 Young Street', '783 rue Mo?(r)ller', '79 rue principale', '79, 1i??re Rue Nord, C.P. 277', '7905 Enterprise Drive', '791, Route Principale', '7910 rue des PME', '7911 Edgar Industrial Drive', '7923 54th Street S.E.', '793-A Riviere Nord, Route 339', "7985 boul. L'Ormi??re", '80 Clarke Street S., Unit 2', '80 Commerce Pl', '80 High Street, Unit 2', '80 Saramia Crescent', '800 South Railway Ave', '800, Chemin Olivier', '800-47th Street East', '8007-39th Street', '8010-44th Street S.E.', '8019 - 54 Street S.E.', '803 - 46th Street East', '8046 Edgar Industrial Crescent', '811 Steeles Avenue East', '8124 Davies Road', '8135 Wagner Road', '8155 -128 Street', '818 - 43rd Street East', '81Tannery Road', '820 Garyray Drive', '821 Du Parc', '821 Fairweather Place', '822 Bellevue Ouest', '826, boul. Guimond', '83 Caledonia Road, R.R.#4', '8300 Edison', '831 Nipissing Road', '8332 Haldibrook Road', '835 Mission Street', '8350 Boulevard Industriel', '843 rue Charest', '847 - 60th Street East', '85 Northland Road', '853 Route 111, C.P. 214', '855 Matheson Blvd E Unit 9', '8580 River Road', '859 Station Avenue', '8600 - 92 Street', '8600 - 92nd Street', '865 Bradford Street', '865 Rang Papineau', '866 Derwent Way', '866, route St-Joseph', '868 Blackwoods Avenue', "8685 Champ D'Eau", '87 Ashgrove Crescent, Box 654', '87 Elora Street', '87 Southwest Drive S.W.', '873 Hodge', '88 Kenmount Road', '88 Route 158', '88 rue des Routiers', '880 Desaulniers, bureau 11', '880 rue Lucien Leclerc', '8803 - 60th Ave', '882 5th Street East', '8825 126th Avenue', '89 Rue du Parc Industriel', '89 ch. Thibodeau', '8900, 25 i??me Avenue', '8901-150 Ave.', '896 Lakeshore Ct.', '90 Enterprise Dr.', '9000 Boulevard Parent', '9000, boulevard Industriel', '91 Chemin Des Patriotes', '910 Saskatchewan Avenue East', '9111-41st Avenue', '9115 -52nd Street SE', '918, 16th Avenue N.W. suite 4020', '9189 National Place', '92 Boulevard Est', '920 Denison Street Unit 11', '920, Cur??-Boivin', '9200 22 Avenue', '921 chemin de la Rivi??re du Nord', '923 - 46 Avenue S.E.', '927 - 48 Avenue SE', '927 Gaudette', '927, Route 111 Ouest', '9301 -102 Street', '9305 - 27 Avenue', '9312 - 110A Street', '933 Boul. Simard', '9345 25ieme Avenue Est, Parc Industriel', '940 Winston Churchill Blvd.', '9475 - 192 Street', '9475 Pascal -Gagnon', '9502 - 87th Avenue', '9532 - 27th Avenue', '955 Maginot Street', '955 Woodlawn Road W.', '9550 10E Avenue', '96 Principale', '9604 - 112 Street', '9620-62nd Ave', '967 Trunk Rd.', '97 Hounslow Drive N.W.', '970 Boul. Industriel Est', '970, Avenue Bombardier', '981, Boul. Hamel', '9834 - 179th Street', '9835 - 199 A Street', '9880 McGrath Road', '990 Pays-Brule', 'BOX 291', 'Bag No. 2019', 'Barfield Road', 'Bay 162, 6660 64th Avenue', 'Bay 3 #2 Erickson Crescent', 'Bay 33 - 820 51st Street East', 'Bay 5, 3925 Avenue S.E.', 'Bay F-298-28042 Hwy 11', 'Bay K 8816 44th street', 'Bay L 8616 44th Street SE', 'Box 1003', 'Box 1050 401 - 22nd Street East', 'Box 11', 'Box 117', 'Box 1205', 'Box 129', 'Box 1300', 'Box 133, Eastside hwy 20', 'Box 1343', 'Box 1360', 'Box 1408', 'Box 1594', 'Box 176', 'Box 1780', 'Box 1840', 'Box 187', 'Box 22, Group 60, R.R. #1', 'Box 225', 'Box 2308', 'Box 247', 'Box 269', 'Box 2738, Station "B"', 'Box 280', 'Box 30', 'Box 310', 'Box 310, Elevator Road', 'Box 317', 'Box 388', 'Box 393', 'Box 4, Group 582, R.R. # 5', 'Box 4, site 3, RR2', 'Box 4101, 30 Alberta Avenue', 'Box 430', 'Box 45', 'Box 478', 'Box 490', 'Box 511', 'Box 539', 'Box 5396', 'Box 5501', 'Box 56, Group 525, R.R. 5', 'Box 576', 'Box 617', 'Box 671', 'Box 72036, Ottewell P.O.', 'Box 748', 'Box 8029', 'Box 88', 'Box 89', 'Box 9025', 'Box 934', 'Box 94', 'Box 990', 'Box C-5, Pringle Road', 'Breithaupt Street', 'Burbank Industrial Park Box 1628, 27121-13 Hwy 597', 'C.P. 155', 'C.P. 1801', 'C.P. 189', 'C.P. 3503', 'C.P. 460', 'C.P. 5040', 'C.P. 540', 'C.P. 698', 'Carman Road', 'Coleraine Drive', 'Creditview Road, Unit #2', 'D-825 Laval Crescent', 'East St', 'Exit 13, Hwy. 102, P.O. Box 1229', 'Farewell Road', 'Grace Cresent', 'Grassmere Road, Unit 10', 'Highway #2 South', 'Highway 875', 'Horton Road South West', 'Hunter Rd.', 'Hunter Road', 'Ilsley Avenue', 'Keystone Colony Farms Ltd. Box 7', 'Lot 110 Crystal Lake', 'Main Road', 'Marine Parade Dr.', 'Midland Avenue', 'Montrichard Avenue', 'Muskoka Road #4', 'NE-3-3-25  P.O. Box 2579', 'NW 28 16 15 W', 'NW-28-26-18-W2nd, P.O. Box 547', 'North Industrial Drive', 'One Toyota Place', 'P.O BOX  1922', 'P.O BOX 218', 'P.O BOX 549', 'P.O Box 340', 'P.O Box 607', 'P.O. 248', 'P.O. BOX 1120', 'P.O. BOX 1131 Station Main', 'P.O. Box 10', 'P.O. Box 100', 'P.O. Box 1055', 'P.O. Box 1146', 'P.O. Box 1150', 'P.O. Box 116', 'P.O. Box 12, 2753 Highway 27', 'P.O. Box 1230', 'P.O. Box 129', 'P.O. Box 130', 'P.O. Box 1300', 'P.O. Box 1370', 'P.O. Box 1419', 'P.O. Box 1530', 'P.O. Box 156', 'P.O. Box 16', 'P.O. Box 160', 'P.O. Box 17', 'P.O. Box 1799', 'P.O. Box 1871', 'P.O. Box 19', 'P.O. Box 1900', 'P.O. Box 209', 'P.O. Box 218', 'P.O. Box 245', 'P.O. Box 249', 'P.O. Box 26575, Markville Postal Outlet 26575', 'P.O. Box 273, 2000 16th Sideroad', 'P.O. Box 278', 'P.O. Box 279', 'P.O. Box 285', 'P.O. Box 328', 'P.O. Box 332', 'P.O. Box 3488, Station C', 'P.O. Box 359', 'P.O. Box 360 - McLean Avenue', 'P.O. Box 365', 'P.O. Box 368', 'P.O. Box 376', 'P.O. Box 4', 'P.O. Box 406', 'P.O. Box 420,', 'P.O. Box 422', 'P.O. Box 46', 'P.O. Box 486, 88 Forest Street', 'P.O. Box 509', 'P.O. Box 532', 'P.O. Box 535', 'P.O. Box 54', 'P.O. Box 586', 'P.O. Box 6,', 'P.O. Box 600', 'P.O. Box 607', 'P.O. Box 609', 'P.O. Box 67 Station T', 'P.O. Box 717', 'P.O. Box 73', 'P.O. Box 75', 'P.O. Box 770, Station K', 'P.O. Box 8', 'P.O. Box 820', 'P.O. Box 8238 Stn A', "P.O. Box 9136, Station `E'", 'P.O. Box 938', 'P.O. Box 96', 'P.O. Box 988', 'P.O. Box 99', 'P.O. Box 99, 55 Marsh Street', 'P.O.Box 185', 'PO BOX 5933', 'PO BOX 7162', 'PO Box 10676', 'PO Box 1197', 'PO Box 2100 Station M', 'PO Box 3715', 'PO Box 487', 'PO Box 616 1184 Middlegate Rd.', 'PO Box 64', 'PO Box 656', 'PO box', 'PO box 69', 'PO box 989', 'Pinewood Close', 'Po box', 'Production Way, Unit #103', 'R.R. #1', 'R.R. #1, Box 56', 'R.R. #2', 'R.R. #2 - 561 Ofield Road North', 'R.R. #2, 580 Maple Road', 'R.R. #2, Woodbine Ave.', 'R.R. #3', 'R.R. #3, Central Bedeque', 'R.R. #3, Site 9, Box 12', 'R.R. #4', 'R.R. #5', 'R.R. #7, Junction Station Road', 'R.R. #8, Site 26, Comp. 4', 'R.R. 1, 6915 Wellington Road 7', 'R.R. 1, Box 328, Group 25', 'R.R. 2 Site 7 Box 5', 'R.R. 2, Box 4015', 'R.R. 3, P.O. Box 6', 'R.R. 8-6-17', 'R.R.#1', 'R.R.#2', 'R.R.#3, Highway No. 3', 'R.R.#4', 'R.R.#4, James St. South,', 'R.R.#5, 5656 Highway 6 North', 'RR #3', 'RR 1, 12 Holland Rd W', 'RR 1, Site 12, 28016B Secondary hwy 633, PO Box 5', 'RR 6', 'RR 7 (3rd Line, Amaranth)', 'RR#2 Wiarton 462120', 'RR#3 60 Dedrick Road', 'RR#5, Site 501, Box 11', 'Rd 64  RR3', 'Rhodes Drive', 'River Road', 'Route 15', 'S.E. 16391W5 or 5.6 km on Hwy 20 from hwy 11', 'Sec Hwy 834', 'Site 13, Box 11, R.R. #1', 'Skyway Road', 'Solvay Drive', 'Suite 242 (300 -8120 Beddington Blvd. N.W.)', 'Suite 300 - 8120 Beddingtom Blvd. N.W.', 'The Canadian Road', 'Unit #150 - 7280 River Road', 'Unit 130 12855 Clarke Place', 'Unit 54-3347 262nd Street', 'Unit 6 - 1343 Alberni Highway', 'Unity Road West And Hwy. 6', 'n/a', 'unkown', 'xxxx']</t>
         </is>
@@ -1208,18 +1285,22 @@
       <c r="P12" t="n">
         <v>568</v>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Yarmouth County</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="n">
         <v>29395</v>
       </c>
-      <c r="S12" t="n">
+      <c r="U12" t="n">
         <v>643</v>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>['Abbotsford', 'Abotsford', 'Acheson', 'Acton Vale', 'Adstock', 'Advocate harbor', 'Airdrie', 'Ajax', 'Aldergrove', 'Aldersyde', 'Allanburg', 'Alma', 'Altona', 'Amos', 'Anjou', 'Annaheim', 'Anola', 'Arborg', 'Ardossan', 'Arnprior', 'Aroostook', 'Asbestos', 'Auburn Hills', 'Aylmer', 'Ayr', 'Azilda', 'B??cancour', 'Baie St. Paul', 'Barrie', 'Beamsville', 'Beausejour', 'Bedford', 'Belleville', 'Bellevue', 'Beloeil', 'Benito', 'Berthierville', 'Bethune', 'Bic', "Bishop's Falls", 'Blackfalds', 'Blainville', 'Blenheim', 'Boisbriand', 'Bolton', 'Bond Head', 'Bonnyville', 'Bothwell', 'Boucherville', 'Bourget', 'Bowmanville', 'Bracebridge', 'Brampton', 'Brandon', 'Brantford', 'Breslau', 'Brighton', 'Bromhead', 'Brooks', 'Brookside', 'Brougham', 'Brucefield', 'Burlington', 'Burnaby', 'Calahoo', 'Caledonia', 'Calgary', 'Cambridge', 'Cambrige', 'Camrose', 'Candiac', 'Canfield', 'Cap Pele', 'Cap Sant??', 'Cap St. Ignace', 'Cardigan', 'Cardston', 'Carignan', 'Carleton Place', 'Carman', 'Carp', 'Carthwright', 'Cartier', 'Cartwright', 'Carvel', 'Casselman', 'Cassleman', 'Cavan', 'Central Butte', 'Centreville', 'Chambly', 'Chambord', 'Charlesbourg', 'Chateau-Richer', 'Chateauguay', 'Chatham', 'Chelsea', 'Chemainus', 'Cherhill', 'Chesterville', 'Chicoutimi', 'Chilliwack', 'Claimont', 'Clairmont', 'Claresholm', 'Clifford', 'Coaldale', 'Cochrane', 'Colborne', 'Cold Lake', 'Coleman', 'Collingwood', 'Comox', 'Concord', 'Cookshire', 'Coombs', 'Coquitlam', 'Cornwall', 'Corunna', 'Courtland', 'Cowansville', 'Craik', 'Cranford', 'Crediton', 'Cromer', 'Crooked Creek', 'Crossfield', 'Cutknife', 'Cypress River', 'Darmouth', 'Dartmouth', 'Daveluyville', 'Dawson Creek', 'Daysland', 'Debert', 'Delburne', 'Delhi', 'Delson', 'Delta', 'Deschambault', 'Dieppe', 'Dolbeau-Mistassini', 'Donnacona', 'Dorval', 'Downsview', 'Drake', 'Drayton Valley', 'Drumheller', 'Drummondville', 'Duncan', 'Dundalk', 'Dundas', 'Dunham', 'Dunnville', 'East Broughton', 'Eden', 'Edmonton', 'Elmira', 'Elora', 'Embrun', 'Errington', 'Estates Onoway', 'Esterhazy', 'Etobicoke', 'Exeter', 'Fenwick', 'Flesherton', 'Fort Erie', 'Fort Mill', 'Fort St-John', 'Frankville', 'Freelton', 'Gatineau', 'Gerald', 'Glenboro', 'Goderich', 'Gormley', 'Gorrie', 'Granby', 'Grand Mere', 'Grand Prairie', 'Grand-Mere', 'Grande Prairie', 'Grassie', 'Gravelbourg', 'Gretna', 'Grimsby', 'Grunthal', 'Guelph', 'HJuntsville', 'Hagen', 'Halifax', 'Hamilton', 'Hampton', 'Harrison Mills', 'Harrowsmith', 'Hartland', 'Hawkestone', 'Hayter', 'Headingley', 'Hearst', 'Heidelberg', 'Hellier', 'Hemmingford', 'High River', 'Hillsborough', 'Hillsdale', 'Hodgson', 'Howie Center', 'Hoyt', 'Hubley', 'Hudson Bay', 'Humboldt', 'Iberville', 'Ingersoll', 'Innisfil', 'Inwood', 'Iroquois', 'Joliette', 'Joly', 'Jonquiere', 'Kakabeka Falls', 'Kamloops', 'Kelligrews', 'Kelowna', 'Kelvington', 'Kemptville', 'Keswick', 'Kincardine', 'Kingston', 'Kitchener', 'L??vis', 'La Minerve', 'La Plaine', 'La Sarre', 'Labelle', 'Lac Brome', 'Lac La Hache', 'Lac M??gantic', 'Lachenaie', 'Lachine', 'Lacombe', 'Lacombe County', 'Lafleche', 'Lafontaine', 'Langley', 'Lanoraie', 'Lashburn', 'Laterri??re', 'Laval', 'Lavaltrie', 'Leader', 'Leamington', 'Leduc', 'Lennoxville', 'Leslieville', 'Lethbridge', 'Linden', 'Lindsay', 'Lislet', 'Listowel', 'Lively', 'Lloydminster', 'London', 'Long Sault', 'Longueuil', 'Louiseville', 'Lower Sackville', 'Lunenburg', 'Mallaig', 'Manotick', 'Maple', 'Markham', 'Marmora', 'Martensville', 'Maskinong??', 'Matane', 'Mattawa', 'Maxville', 'McWatters', 'Medicine Hat', 'Melfort', 'Melville', 'Mercier', 'Millbrook', 'Millet', 'Milton', 'Milton Station', 'Mirabel', 'Miscouche', 'Mission', 'Mississauga', 'Moncton', 'Mont-Lebel', 'Mont-Tremblant', 'Montmagny', 'Montr??al', 'Montreal', 'Moose Jaw', 'Morden', 'Morinville', 'Morris', 'Mount Forest', 'Mount Pearl', 'NOT ENTERED', 'Naicam', 'Nanaimo', 'Napierville', 'Neepawa', 'Nelson', 'Nepean', 'Neufchatel', 'Neuville', 'New Lowell', 'Newmarket', 'Nipawin', 'Nisku', 'Niverville', 'Noranda', 'North Battleford', 'North Bay', 'North York', 'Norwich', 'Norwood', 'Notre-Dame', 'Notre-Dame de Lourdes', 'Notre-Dame-Du-Bon-Conseil', 'Notre-Dame-du-Laus', 'Notre-Dame-du-Nord', "O'Leary", 'Oakville', 'Odessa', 'Ohaton', 'Oil Springs', 'Okahumpka', 'Okotoks', 'Olds', 'Oliver', 'Ontario', 'Orangeville', 'Orillia', 'Oro Station', 'Oshawa', 'Ottawa', 'Palmarolle', 'Paradize', 'Parksville', 'Parry Sound', 'Peace River', 'Pembroke', 'Pentiction', 'Penticton', 'Perth', 'Peterborough', 'Petite-Rivi??re St-Francoi', 'Petrolia', 'Pickering', 'Pierreville', 'Pincher Creek', 'Plantagenet', 'Plessisville', 'Plessiville', 'Pohenegamook', 'Pointe-Claire', 'Ponoka', 'Port Colbourne', 'Port Coquitlam', 'Port Rowan', 'Port au Choix', 'Portage La Prairie', 'Portage la Prairie', 'Prince Albert', 'Prince George', 'Princeton', 'Princeville', 'Qu??bec', 'Quebec', 'Quesnel', 'Radisson', 'Rapid City', 'Rathwell', 'Rawdon', 'Raymore', 'Red Deer', 'Red Deer County', 'Regina', 'Renfrew', 'Repentigny', 'Rexdale', 'Rexton', 'Richmond', 'Richmond Hill', 'Ridgetown', 'Riding Mountain', 'Rigaud', 'Rimouski', 'Rivi??re-du-Loup', 'Riviere-du-Loup', 'Rocky Mountain House', 'Rodney', 'Rolling Hills', 'Rosedale', 'Rosenort', 'Russell', 'Ruthven', 'SAINT-GERMAIN-DE-GRANTHAM', 'Saint John', 'Saint-??variste', 'Saint-Amable', 'Saint-Ferdinand', 'Saint-Georges', 'Saint-Gerard-Majella', 'Saint-Hubert', 'Saint-Hyacinthe', 'Saint-Jean-Sur-Richelieu', 'Saint-Jean-sur-Richelieu', 'Saint-Joseph de Coleraine', 'Saint-Lambert-de-Lauzon', 'Saint-Laurent', 'Saint-Lin', 'Saint-Marc du Lac Long', 'Saint-Pierre-Baptiste', 'Sainte M??lanie', 'Sainte-Brigitte-des-Sault', 'Sainte-Eulalie', 'Sainte-Foy', 'Sainte-Rosalie', 'Sallaberry De Valeyfield', 'Salmo', 'Salmon Arm', 'Saltcoats', 'Sarnia', 'Saskatoon', 'Sault Ste. Marie', 'Scarborough', 'Schomberg', 'Scott Jonction', 'Sept-iles', 'Shallow Lake', 'Shanty Bay', 'Shawinigan', 'Shawinigan Sud', 'Shedden', 'Sherbrooke', 'Sherwood Park', 'Shreveport', 'Sidney', 'Smith Falls', 'Smithville', 'Sorel-Tracy', 'South Huron', 'Sparewood', 'Spruce Grove', 'St- Paul', 'St-Agapit', 'St-Amable', 'St-Andre Avelin', 'St-Andre-de-Kamouraska', 'St-Antoine, Mirabel', 'St-Antoine-De-Tilly', 'St-Autonin', 'St-Barnab??-Sud', 'St-C??me', 'St-Catherines', 'St-Celestin', 'St-Charles-de-Drummond', 'St-Chrysostome', 'St-Dominique', "St-Elie D'Orford", 'St-Elie-de-Caxton', 'St-Eustache', 'St-F??licien', 'St-Ferdinand', 'St-Fr??d??ric', 'St-Francois du Lac', 'St-Francois-du-Lac', 'St-Gabriel de Brandon', 'St-Georges', 'St-Georges Est-beauce', 'St-Georges de Beauce', 'St-Germain-de Grantham', 'St-Hubert', 'St-Hyacinthe', 'St-Isidore', 'St-J??r??me', 'St-Jean Chrysostome', 'St-Jean-Chrysostome', 'St-Jean-Sur-Richelieu', 'St-Jean-sur-Richelieu', 'St-John', "St-John's", 'St-Joseph de Levy', 'St-L??onard', 'St-Laurent', 'St-Lazare', 'St-Leonard', 'St-Lin', 'St-Mathias', 'St-Mathieu', 'St-Mathieu-de-Beloeil', 'St-Nicolas', 'St-Odilon de Cranbourne', 'St-Pascal', "St-Paul D'Abbotsford", "St-Paul-de-l'??le-aux-noix", 'St-Quentin', 'St-R??mi-de-Tingwick', "St-Roch de l'Achigan", 'St-Sim??on', 'St-Stanislas', 'St-Thomas', 'St-Ubalde', 'St-Urbain', 'St-Valerien', 'St-Victor', 'St. Agatha', 'St. Albert', 'St. Andrews', 'St. Barnabe Sud', 'St. Brieux', 'St. Bruno', 'St. Catharines', 'St. Catherines', 'St. Clements', 'St. Damase', 'St. Francois Xavier', 'St. George', 'St. Gervais', 'St. J??r??me', 'St. Jacobs', 'St. Jacques', "St. John's", 'St. Laurent', "St. Mary's", 'St. Marys', "St. Paul d'Abbotsford", 'St. Philippe', 'St. Raymond', 'Ste Sophie', 'Ste Therese', 'Ste- Gertrude Abitibi', "Ste-??m??lie-de-l'??nergie", 'Ste-Agathe', 'Ste-Anne des Plaines', 'Ste-Cath-de-la-Jq-Cartier', 'Ste-Catherine', 'Ste-Foy', 'Ste-Germaine Boul??', 'Ste-Julie', 'Ste-Melanie', 'Ste-Rose-de-Watford', 'Ste-Sophie-de-L??vard', 'Ste-Sophie-de-Levrard', 'Ste-Th??r??se', 'Ste. Claire', 'Ste. Marguerite', 'Ste. Rose', 'Steinbach', 'Stettler', 'Stittsville', 'Stoney Creek', 'Stony Plain', 'Stouffville', 'Straffordville', 'Strathroy', 'Sturgeon Falls', 'Sudbury', 'Sullivan', 'Summerland', 'Summerside', 'Sundre', 'Sunset Point', 'Surrey', 'Sutton', 'Swan River', 'Sylvan Lake', 'Taber', 'Tangier', 'Tappen', 'Taschereau', 'Tecumseh', 'Terrace', 'Terrebonne', 'The Nation', 'Thedford', 'Thetford Mines', 'Thunder Bay', 'Tilbury', 'Tillsonburg', 'Timmins', 'Toronta', 'Toronto', 'Treherne', 'Trenton', 'Trois Rivieres', 'Trois-Rivi??res', 'Two Hills', 'Uxbridge', 'V. de St-Georges', 'Val Caron', "Val-D'Or", 'Valcourt', 'Vancouver', 'Vanderhoof', 'Vanier', 'Varennes', 'Vaudreuil', 'Vernon', 'Vernon Bridge', 'Verona', 'Victoria', 'Victoriaville', 'Ville de St-Georges', 'Wallenstien', 'Warburg', 'Warminster', 'Warren', 'Warwick', 'Waterdown', 'Waterloo', 'Waubaushene', 'Wawanesa', 'Welland', 'West St. Paul', 'Westbury', 'Westfield', 'Westlock', 'Wetaskiwin', 'Weyburn', 'White Lakes', 'Whitemouth', 'Wiarton', 'Wickham', 'Windsor', 'Winkler', 'Winnipeg', 'Woodrow', 'Woodstock', 'Woodville', 'Wyebridge', 'Yarker', 'Yarmouth', 'Yarmouth County']</t>
         </is>
@@ -1278,18 +1359,26 @@
       <c r="P13" t="n">
         <v>574</v>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>South Carolina</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Ontario</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
         <v>25751</v>
       </c>
-      <c r="S13" t="n">
+      <c r="U13" t="n">
         <v>17</v>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>['573', 'Alberta', 'British Columbia', 'California', 'Florida', 'Indiana', 'Louisiana', 'Manitoba', 'Michigan', 'New Brunswick', 'Newfoundland and Labrador', 'Nova Scotia', 'Ontario', 'Prince Edward Island', 'Quebec', 'Saskatchewan', 'South Carolina']</t>
         </is>
@@ -1348,18 +1437,22 @@
       <c r="P14" t="n">
         <v>567</v>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="R14" t="n">
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
         <v>22560</v>
       </c>
-      <c r="S14" t="n">
+      <c r="U14" t="n">
         <v>1256</v>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>['29708', '34762', '46573', '48326', '566', '5N5H 2R3', '71129', '91761', ':2R 2R2', 'A0A 0X0', 'A0H 1C0', 'A0K 4C0', 'A1B 3N7', 'A1B 3R1', 'A1B 4C5', 'A1L 0A7', 'A1N 4R7', 'A1X 3A7', 'B0H 1T0', 'B0J 2C0', 'B0J 3H0', 'B0M 1A0', 'B0M 1G0', 'B0W 1W0', 'B1L 1C2', 'B2N 5N2', 'B2W 3T7', 'B3B 1L5', 'B3B 1L9', 'B3B 1N6', 'B3B 1S2', 'B3B 1Z2', 'B3B 2A6', 'B3K 5L9', 'B3N 2V6', 'B3S 1S4', 'B3T 1W1', 'B3V 1A3', 'B3Z 1C2', 'B4B 1H1', 'B4C 2K3', 'B5A 4B3', 'C0A 1G0', 'C0A 2E0', 'C0B 1H0', 'C0B 1T0', 'C0B 1V0', 'C1A 7M8', 'C1N 4J9', 'E01 1N0', 'E0A 1J0', 'E0J 1H0', 'E1A 1R1', 'E1A 7E7', 'E1A 9A3', 'E1E 1H5', 'E1H 2E6', 'E2M 5T6', 'E4H 4W5', 'E4V 2K4', 'E4W 2B1', 'E5K 3N8', 'E5L 2A1', 'E7B 1S9', 'E7H 2Z6', 'E7K 2E8', 'E8A 1W1', 'G0A 1L0', 'G0A 1N0', 'G0A 1S0', 'G0A 2R0', 'G0A 4L0', 'G0C 3A0', 'G0K 1J0', 'G0L 1B0', 'G0L 1J0', 'G0L 1T0', 'G0L 2J0', 'G0L 3Y0', 'G0L4H0', 'G0M 1S0', 'G0M 2B0', 'G0N 1B0', 'G0N 1G0', 'G0N 1N0', 'G0N 1P0', 'G0N 1S0', 'G0P 1E0', 'G0P 1J0', 'G0R 1H0', 'G0R 2C0', 'G0R 2V0', 'G0R 3C0', 'G0R 4G0', 'G0S 1M0', 'G0S 1T0', 'G0S 2A0', 'G0S 2C0', 'G0S 2S0', 'G0S 2W0', 'G0S 2X0', 'G0S 2Z0', 'G0S 3A0', 'G0S 3G0', 'G0S 3H0', 'G0W 1G0', 'G0W 2L0', 'G0X 2N0', 'G0X 3C0', 'G0Z 1C0', 'G0Z 1E0', 'G0Z 1Z0', 'G1H 3A5', 'G1L 3A7', 'G1M 2T7', 'G1M 2Y3', 'G1M 3K6', 'G1N 3X5', 'G1N 3X8', 'G1N 3Z2', 'G1N4H9', 'G1P 2H9', 'G1P 2J1', 'G1P 2X9', 'G1P 3T2', 'G1P 3X3', 'G1S 2W3', 'G1X 3W1', 'G2C 1B9', 'G2G 2V2', 'G2K 2E3', 'G2N 2G7', 'G3M 2X5', 'G3N 1A1', 'G3Z 2W9', 'G4R 5P3', 'G4W 3M9', 'G4W 3N1', 'G5L 8J9', 'G5M 1A5', 'G5R 3Z5', 'G5R 4C9', 'G5V 3S8', 'G5Y 7R6', 'G5Y 8G6', 'G5Y 8J3', 'G5Y 8J8', 'G6A 1K5', 'G6A 1L1', 'G6B 2C8', 'G6H 4G5', 'G6L 2Y4', 'G6L 2Y8', 'G6P 1A7', 'G6P 6T2', 'G6P 7E4', 'G6P 7E6', 'G6T 2H6', 'G6V 6N4', 'G6V 9G6', 'G6Z 1B6', 'G6Z 1T2', 'G6Z 3H5', 'G7A 2N1', 'G7H 5B1', 'G7N 1V9', 'G7X 7V3', 'G8B 6T3', 'G8B 7A1', 'G8K 2R4', 'G8L 1K3', 'G8L 3M5', 'G8L 5M6', 'G8V 1W2', 'G9A 3C2', 'G9A 5E1', 'G9A 5J3', 'G9A 5J9', 'G9H 1X7', 'G9N 4Y6', 'G9P 1R8', 'G9T 5K7', 'G9T 7A5', 'GOP 1K0', 'GOX 3E0', 'H1A 3N6', 'H1B5L8', 'H1C 2J3', 'H1E 1R8', 'H1E 2K1', 'H1E 4B6', 'H1E 4G4', 'H1J 1R4', 'H1J 1S8', 'H1P 3B8', 'H1P1Z4', 'H1S 3E4', 'H4C 1V9', 'H4N 2B1', 'H4R 1C3', 'H4R 2N6', 'H4R 2P2', 'H4R 3C6', 'H4S 1B7', 'H4S 1M2', 'H4T 1A5', 'H4T 1L1', 'H7A 4C6', 'H7C 1A2', 'H7E 1A1', 'H7E 4X8', 'H7L 3Y5', 'H7L 4R9', 'H7L 5B3', 'H7N 6C4', 'H7S 1N5', 'H7W 3S6', 'H7X 1C4', 'H8N 1V1', 'H8S 1A6', 'H8T 1C2', 'H9J 1T9', 'H9P', 'H9P 1H1', 'H9P 1J5', 'J0A 1C0', 'J0A 1K0', 'J0A 1M0', 'J0B 1M0', 'J0B 1R0', 'J0B 2S0', 'J0C 1A0', 'J0C 1E0', 'J0C 1G0', 'J0C 1K0', 'J0C 1S0', 'J0E 1A0', 'J0E 1M0', 'J0E 1R0', 'J0E 1Y0', 'J0E 2L0', 'J0E 2N0', 'J0G 1J0', 'J0G 1M0', 'J0H 1A0', 'J0H 1G0', 'J0H 1J0', 'J0H 1X0', 'J0H 2B0', 'J0H1L0', 'J0J 1G0', 'J0J 1L0', 'J0K 1A0', 'J0K 1E0', 'J0K 1H0', 'J0K 1N0', 'J0K 1S0', 'J0K 2B0', 'J0K 2K0', 'J0K 2N0', 'J0K 3A0', 'J0K 3H0', 'J0K 3L0', 'J0K 3P0', 'J0L 1E0', 'J0L 1H0', 'J0L 1N0', 'J0L 2K0', 'J0P 1P0', 'J0R 1C0', 'J0S 1R0', 'J0S 1Y0', 'J0T 1H0', 'J0T 1S0', 'J0V 1W0', 'J0X 2M0', 'J0Y 2L0', 'J0Y 2N0', 'J0Y 2X0', 'J0Z 1M0', 'J0Z 3B0', 'J0Z 3C0', 'J0Z 3N0', 'J1C 0H9', 'J1G 1X7', 'J1H 2G5', 'J1J 4N8', 'J1M 1Z4', 'J1N 1S3', 'J1N 3K4', 'J1T 4V4', 'J1Z 1B3', 'J2B 6V4', 'J2B 6Z3', 'J2B 8B3', 'J2C 4Z5', 'J2C 7V9', 'J2E 0A1', 'J2G 9H9', 'J2G 9L5', 'J2J 0P2', 'J2J 2N4', 'J2K 2M5', 'J2K 3Y5', 'J2S 1H3', 'J2S 8B1', 'J2T 1L7', 'J2X 4J5', 'J2X 5G4', 'J3A 1B1', 'J3B 4S2', 'J3B 7M3', 'J3B 7S7', 'J3B 8J8', 'J3B 8X7', 'J3E 1Z4', 'J3G 4N5', 'J3G 4S5', 'J3L 4B7', 'J3L 4N4', 'J3L 4X3', 'J3L 6A1', 'J3P 5K2', 'J3X 1P7', 'J3X 1S5', 'J3Y 3T7', 'J3Y1Y2', 'J3Z 1J2', 'J4B 1V5', 'J4B 5Z5', 'J4B 6Z5', 'J4B 7W1', 'J4B 8C4', 'J4G 1T5', 'J4H 3V8', 'J4L 2B5', 'J4N 1E2', 'J5B 1Y1', 'J5J 2V2', 'J5M 2C1', 'J5T 3S5', 'J5T 4A9', 'J5V 2J7', 'J6A 7N1', 'J6A 8G5', 'J6E 3Z1', 'J6J 4Z2', 'J6R 2B9', 'J6S 6N7', 'J6W 4L1', 'J6W 6C1', 'J6X 4J5', 'J6Y 1J4', 'J6Y 1W1', 'J6Z 2E3', 'J7C 5P9', 'J7C 6B4', 'J7E 1C8', 'J7E 2V2', 'J7E 4K9', 'J7G 2A7', 'J7J 2G6', 'J7M 2A4', 'J7N 1T6', 'J7R 5A5', 'J7T 3E7', 'J7V 5V5', 'J7V 8P2', 'J7Y 4B9', 'J7Y 4H8', 'J7Y 5G2', 'J8C 2Z8', 'J8E 3J9', 'J8P 2G7', 'J8R 3Y4', 'J9B 1L9', 'J9H 5E1', 'J9P 7A9', 'J9T 1P8', 'J9T 2P3', 'J9T 3A1', 'J9X 5B7', 'J9X 5C6', 'J9Z 2X5', 'JK0K 3A0', 'JOL 1H0', 'JOL 2H0', 'JON 1HO', 'JON 1NO', 'K0A 1E0', 'K0A 1L0', 'K0A 1M0', 'K0A 1W0', 'K0B 1L0', 'K0C 1P0', 'K0C 1T0', 'K0C 2B0', 'K0E 1H0', 'K0E 1K0', 'K0G 1J0', 'K0H 1V0', 'K0H 2H0', 'K0H 2W0', 'K0K 1H0', 'K0K 1S0', 'K0K 2J0', 'K0K 2M0', 'K0K 3N0', 'K0L 2V0', 'K0M 2T0', 'K1B 3T6', 'K1B 3W5', 'K1B 4L1', 'K1B 4V7', 'K1B 4V8', 'K1B 5A4', 'K1B 5M1', 'K1B 5R1', 'K1G 4G2', 'K1K 2Y7', 'K1V 9V9', 'K2E 6T7', 'K2E 7T8', 'K2G 1G1', 'K2M 2L2', 'K2S 1A2', 'K4M 1B4', 'K4P 1A1', 'K6H 5V2', 'K7C 3V7', 'K7H 3C7', 'K7K 6C2', 'K7P 2T3', 'K7S 3G7', 'K7V 1Y6', 'K8A 7M5', 'K8H 6W7', 'K8N 4Z2', 'K8N 4Z5', 'K8N 4Z6', 'K8V 5P6', 'K8V 5W6', 'K9J 6X7', 'K9J 6X8', 'K9J 6X9', 'K9J 6Y5', 'K9V 5G4', 'L0A 1C0', 'L0A 1G0', 'L0B 1J0', 'L0C 1K0', 'L0E 1R0', 'L0G 1B0', 'L0G AT0', 'L0H 1A0', 'L0H 1G0', 'L0K 2C0', 'L0K 2E0', 'L0K 2G0', 'L0L 1L0', 'L0L 1V0', 'L0L 2E0', 'L0M 1N0', 'L0R 1B0', 'L0R 1K0', 'L0R 1M0', 'L0R 2A0', 'L0R 2H2', 'L0S 1A0', 'L0S 1C0', 'L1C 3K3', 'L1C 4P8', 'L1H 6E8', 'L1H 6N2', 'L1H 7K4', 'L1H 8P7', 'L1J 5Y5', 'L1J 5Y6', 'L1S 3Z2', 'L1W 3K1', 'L1W 3T7', 'L2A 5A2', 'L2M 6S9', 'L2R 3X1', 'L2R 7K6', 'L2S 0B3', 'L3B 3X1', 'L3B 6G4', 'L3C 1C9', 'L3K 5V4', 'L3M 4E7', 'L3M4G1', 'L3P 1M3', 'L3R 0M4', 'L3R 3K5', 'L3R 6H2', 'L3R 8T9', 'L3V 6H1', 'L3Y 8C6', 'L3Y 8W4', 'L4A 1C4', 'L4A 7X5', 'L4B 1J6', 'L4C 3E9', 'L4K 1B4', 'L4K 1H8', 'L4K 2R2', 'L4K 2Y8', 'L4K 3B5', 'L4K 3L6', 'L4K 3Z8', 'L4M 6C8', 'L4N 1C2', 'L4N 8Z5', 'L4N 9S8', 'L4P 3E9', 'L4W 1E4', 'L4W 2A3', 'L4W 4L6', 'L4W 4N5', 'L4W 4X7', 'L4W 4Z5', 'L4Z 3K8', 'L5C 1V8', 'L5L 5Z2', 'L5M 5M1', 'L5N 2W3', 'L5N 7J7', 'L5N 7K5', 'L5N 8E9', 'L5S 1J5', 'L5S 1M5', 'L5S 1S2', 'L5S 1Y6', 'L5T 1C3', 'L5T 1W8', 'L5T 2A8', 'L5T 2S7', 'L5W 4L4', 'L6A 4R6', 'L6C 0H9', 'L6H 5R1', 'L6J 2X8', 'L6J 4Z2', 'L6J 5E4', 'L6L 5M9', 'L6S 5N8', 'L6T 3Y4', 'L6W 3J9', 'L6W 3R3', 'L6X 4V3', 'L6Z 3H8', 'L7B 1A6', 'L7E 1H3', 'L7E 3B6', 'L7E 5R5', 'L7E 5T4', 'L7L 1T2', 'L7L 4Y1', 'L7L 5H7', 'L7L 5L5', 'L7L 6A2', 'L7P 1A6', 'L7R 3R3', 'L7S 1A2', 'L8E  3P3', 'L8E 2N9', 'L8E 2R4', 'L8E 2W2', 'L8E 3A2', 'L8E 5M8', 'L8E 5M9', 'L8E 5R2', 'L8E4H8', 'L8H 3P6', 'L8H 5Y3', 'L8H 7L5', 'L8L 8B7', 'L8L 8K3', 'L8N 2Z7', 'L8S 1M5', 'L8W 2E8', 'L9B 1B7', 'L9H 4J7', 'L9H 5E2', 'L9S 1S8', 'L9S 3V6', 'L9T 1X9', 'L9T 3L5', 'L9T 3Y5', 'L9T 4Z4', 'L9T 5H3', 'L9W 1N1', 'L9W 2Z3', 'L9Y 4V6', 'L9Y 5A6', 'LOL 1T0', 'LOR 2A0', 'M1H 1H9', 'M1H 2Z1', 'M1K 3K9', 'M1L 2M2', 'M1P 3E7', 'M1P 4M8', 'M1R 3B7', 'M1S 3L2', 'M1X 1M4', 'M2H 2N7', 'M3B 2T5', 'M3J 1Y8', 'M3J 2B1', 'M3J 2E2', 'M3K 2A2', 'M3L 1G5', 'M3N 1W1', 'M4B', 'M4G 1Y9', 'M4G 1Z2', 'M4G 3V6', 'M4P 2V8', 'M5H 2T6', 'M6H 1P2', 'M6N 2J1', 'M6N 4Z9', 'M8V L4W', 'M8Z 1R1', 'M8Z 1S5', 'M8Z 2R4', 'M9L 1R1', 'M9L 1X1', 'M9L 1Y6', 'M9L 2T4', 'M9M 2G5', 'M9M 2Z2', 'M9M 5T2', 'M9W 4N3', 'M9W 5Y8', 'M9W 5Z7', 'N/A', 'N0A 1C0', 'N0B 1E0', 'N0B 1M0', 'N0B 1S0', 'N0B 1Y0', 'N0B 2L0', 'N0B 2M0', 'N0B 2N0', 'N0B 2S0', 'N0C 1B0', 'N0C 1E0', 'N0E 1N0', 'N0E1M0', 'N0G 1M0', 'N0G 1X0', 'N0G 2L0', 'N0H 2K0', 'N0H 2T0', 'N0J 1E0', 'N0J 1H0', 'N0J 1P0', 'N0J 1V0', 'N0J 1Y0', 'N0L 2C0', 'N0L 2E0', 'N0M 1J0', 'N0M 1M0', 'N0M 1S3', 'N0M 1Y0', 'N0M 2N0', 'N0N 1G0', 'N0N 1K0', 'N0N 1P0', 'N0P 1C0', 'N0P 2C0', 'N0P 2G0', 'N0P 2L0', 'N0R 1A0', 'N0R 1K0', 'N0R 1L0', 'N1A 2W1', 'N1A 2W7', 'N1H 1A4', 'N1H 1B8', 'N1H 6J2', 'N1H 6J3', 'N1H 6K9', 'N1K 1G7', 'N1R 5S9', 'N1R 7J2', 'N1R 7N3', 'N1R 8B7', 'N1T 1B2', 'N2B 3E1', 'N2B 3E7', 'N2C 2C9', 'N2C 2E1', 'N2E 2M7', 'N2H 5H3', 'N2S 4B3', 'N2V 1N3', 'N2V 1Y8', 'N2V 2E3', 'N2Z 2N3', 'N3B 2Z7', 'N3H 4R7', 'N3H 4V9', 'N3S 7V6', 'N3T 5M1', 'N3T 5M6', 'N3T 5M7', 'N3T 5N3', 'N3W 1Y1', 'N3W 2G8', 'N45 1E2', 'N4B 2W6', 'N4G 4G7', 'N4P 3S7', 'N4S 7V8', 'N4S 7W5', 'N4S 7Z2', 'N4S 8Y7', 'N4W 3G9', 'N4X 1B5', 'N4X 1C7', 'N5C 3J6', 'N5C 3J7', 'N5H 2R6', 'N5H 2R8', 'N5H 2V1', 'N5V 0A4', 'N5V 1R2', 'N5V 2Z6', 'N5V 4L6', 'N5W 1X4', 'N5W 4Z2', 'N6K 1Y1', 'N6N 1A8', 'N7A 3Y1', 'N7A 3Y2', 'N7G 3H7', 'N7M 5K5', 'N7M 5K8', 'N7T 1H7', 'N7T 7H8', 'N7T 7J2', 'N8H 3B5', 'N8W 5B5', 'N9A 6J3', 'P0B 1C0', 'P0H 1V0', 'P0H 2G0', 'P0L 1N0', 'P0M 1B0', 'P0T 1W0', 'P1B 8G4', 'P1H 1Y4', 'P1L 1T8', 'P2A 2W8', 'P3A 4M9', 'P3B 2Z3', 'P3N 1B3', 'P3Y 1K6', 'P4N 7W7', 'P4R 1M9', 'P6A 3T4', 'P6B 4K2', 'P7B 3X5', 'P7B 5M5', 'P7B 5X5', 'R0A 0R0', 'R0A 1E0', 'R0C 0A0', 'R0C 1N0', 'R0C 3E0', 'R0E 0A0', 'R0E 0C0', 'R0E 2G0', 'R0G 0B0', 'R0G 0J0', 'R0G 0V0', 'R0G 1K0', 'R0G 1M0', 'R0G 1S0', 'R0G 1W0', 'R0H 1L0', 'R0J 0M0', 'R0J 1H0', 'R0J 1T0', 'R0K 0L0', 'R0K 0P0', 'R0K 0W0', 'R0K 0X0', 'R0K 1G0', 'R0K 1W0', 'R0K 2G0', 'R0L 0C0', 'R0L 1S0', 'R0L 1Z0', 'R0M OJ0', 'R1A 3N9', 'R1N 0K2', 'R1N 3C5', 'R2C 2Z2', 'R2C 3T4', 'R2E 0C4', 'R2G 0H3', 'R2H 1R7', 'R2J 0A4', 'R2J 0Z7', 'R2J 3T1', 'R2J 3T6', 'R2L 0X3', 'R2P 2W5', 'R2R 1V1', 'R2R 1V9', 'R2R 2B9', 'R2X 2W5', 'R3C 2E6', 'R3C 2N5', 'R3E 1C6', 'R3E 2R9', 'R3E 3S4', 'R3H 0G7', 'R3H 0N6', 'R3H 0S8', 'R3J 1J2', 'R3J 3T2', 'R3J 3W1', 'R3T 1T5', 'R4A 1C4', 'R4A 5A9', 'R4H 1B8', 'R4K 1B2', 'R4L 1N6', 'R5G 1T8', 'R5G 2C4', 'R6M 1Y4', 'R6M 2G2', 'R6W 1A1', 'R6W 4A1', 'R6W 4A5', 'R6W 4A7', 'R6W 4B1', 'R6W 4B7', 'R6W 4C3', 'R6W 4C4', 'R7A 7A4', 'R7A 7L1', 'R7C 1A4', 'RC3 2E6', 'S0A 1B0', 'S0A 1V0', 'S0A 1W0', 'S0A 2P0', 'S0A 3J0', 'S0A 3R0', 'S0C 0N0', 'S0E 0Y0', 'S0E 1A0', 'S0E 1E0', 'S0G 0H0', 'S0G 0V0', 'S0H 0T0', 'S0H 1X0', 'S0H 2K0', 'S0H 4M0', 'S0J 1B0', 'S0K 0G0', 'S0K 1H0', 'S0K 2A0', 'S0K 2T0', 'S0K 2Z0', 'S0K 3V0', 'S0M 0N0', 'S0M 1H0', 'S0N 1H0', 'S4H 2J9', 'S4N 5A1', 'S4N 5A6', 'S4N 5P7', 'S4N 5W2', 'S4N 5X4', 'S4P 3E2', 'S4P 3H1', 'S4R 1K5', 'S4R 2M6', 'S4R 8R7', 'S4T 2P7', 'S4T 7M3', 'S5R 4J7', 'S6H 4P2', 'S6H 4P6', 'S6H 4P8', 'S6V 6G1', 'S7H 0H2', 'S7H 0Y0', 'S7K 0X1', 'S7K 0X4', 'S7K 0X8', 'S7K 3J8', 'S7K 3P5', 'S7K 3V1', 'S7K 5Z1', 'S7K 5Z7', 'S7K 6J4', 'S7K 6N3', 'S7K 6P6', 'S7L 6A4', 'S7M 1E3', 'S7N 1Y7', 'S7N 1Z3', 'S7P 0A9', 'S9A 3M1', 'S9V 1K5', 'S9V 1R6', 'T0A 0V1', 'T0A 2K0', 'T0A 3A0', 'T0B 1A0', 'T0B 1X0', 'T0B 3P0', 'T0B 4K0', 'T0C 1Z0', 'T0C 2L0', 'T0C 2T0', 'T0E 0A0', 'T0E 0H0', 'T0E 0J0', 'T0E 1V0', 'T0E 2G0', 'T0G 0J0', 'T0H 0W0', 'T0H 0Y0', 'T0J 0Y0', 'T0J 2M0', 'T0J 2S0', 'T0K 0C0', 'T0K 0K0', 'T0K 0R0', 'T0K 1W0', 'T0L 0A0', 'T0L 0T0', 'T0L 0W0', 'T0M 0J0', 'T0M 0S0', 'T0M 0V0', 'T0M 1H0', 'T0M 1J0', 'T0M 1X0', 'T1A 5P7', 'T1A 8E8', 'T1A 8G7', 'T1A 8M9', 'T1G 1W7', 'T1G 2E1', 'T1H 0C8', 'T1H 5G1', 'T1H 5G5', 'T1H 6G3', 'T1H 6L5', 'T1H 7A6', 'T1J 4P4', 'T1M 1N1', 'T1R 1B5', 'T1S 1A1', 'T1S 1B3', 'T1V 1E6', 'T1V 1M6', 'T2A 2N6', 'T2A 2P1', 'T2A 2P3', 'T2B 1P4', 'T2B 3K7', 'T2B 3N9', 'T2C 0L5', 'T2C 1J7', 'T2C 2A2', 'T2C 2B8', 'T2C 2E4', 'T2C 2H8', 'T2C 2L2', 'T2C 2P6', 'T2C 2R4', 'T2C 2X3', 'T2C 4A6', 'T2C 4L2', 'T2C 4L6', 'T2C 4L7', 'T2C 4M6', 'T2C 4P1', 'T2C 4R7', 'T2C 4T6', 'T2C 4X5', 'T2C 5B9', 'T2E 4B2', 'T2E 4B3', 'T2E 6N6', 'T2E 6Z5', 'T2E 7N4', 'T2E 8P9', 'T2G 2A5', 'T2G 2A7', 'T2G 4C8', 'T2H 1C2', 'T2H 1L6', 'T2H 1L8', 'T2H 2G7', 'T2H 2K1', 'T2H 2Y2', 'T2K 2A8', 'T2K 2E6', 'T2L 2X1', 'T2M 0K3', 'T2P 2G6', 'T2P 2M5', 'T2P 2P9', 'T2Z 2X4', 'T2Z 4K4', 'T3B 0S3', 'T3R 0H9', 'T4B 2B2', 'T4C 1W7', 'T4H 1V1', 'T4J 1J8', 'T4J 1R3', 'T4L 1X4', 'T4L 2C6', 'T4L 2N2', 'T4N 5G1', 'T4N 5H3', 'T4P 1A1', 'T4P 1A5', 'T4P 1A8', 'T4P 1K1', 'T4P 1K3', 'T4P 1N5', 'T4P 1X5', 'T4P 1Y3', 'T4P 2G9', 'T4P 2J9', 'T4P 3R2', 'T4P 3R3', 'T4P-3R2', 'T4S 1P5', 'T4S 1S6', 'T4S 1S8', 'T4S 2B3', 'T4S 2J9', 'T4S 2L4', 'T4T 2A3', 'T4V 1L9', 'T4V 1X4', 'T4V 4C5', 'T5B 1G8', 'T5B 1K5', 'T5B 2B7', 'T5G 2S7', 'T5L 0X6', 'T5L 2M8', 'T5L 2R8', 'T5M 2R8', 'T5M 3P5', 'T5M 3P9', 'T5M 3T5', 'T5M 3W2', 'T5P 1G8', 'T5P 4K2', 'T5S 1G4', 'T5S 1X2', 'T5S 2G2', 'T5S 2K4', 'T5S 2R9', 'T5V 1A1', 'T5V 1B7', 'T5V 1K5', 'T5V 1N4', 'T6B 0A3', 'T6B 0A5', 'T6B 0A7', 'T6B 0E5', 'T6B 2P1', 'T6B 2V2', 'T6B 2W4', 'T6B 3A7', 'T6B 3C4', 'T6B 3E3', 'T6E 0E2', 'T6E 4N2', 'T6E 4N6', 'T6E 6C2', 'T6E 6L9', 'T6E 6M5', 'T6H 2H5', 'T6H 4K5', 'T6J 5G9', 'T6N 1B2', 'T6N 1C9', 'T6P 1J6', 'T6P 1J8', 'T6P 1K1', 'T6P 1K2', 'T6P 1P7', 'T6P 1V8', 'T6P 1Y6', 'T6S 1B9', 'T6S 1G1', 'T7A 1S1', 'T7A 1S4', 'T7A 1S5', 'T7P 2M2', 'T7P 2M4', 'T7P 2P5', 'T7X 3A5', 'T7X 5A4', 'T7X 5A7', 'T7Z 1L7', 'T7Z 1V7', 'T7Z 1W4', 'T8H 1N7', 'T8N 2G3', 'T8R 1K6', 'T8S 1M6', 'T8V 6W7', 'T8V 7S3', 'T8V 8B1', 'T8V 8K4', 'T9A 0T8', 'T9E 0B3', 'T9E 0C3', 'T9E 7M1', 'T9E 7N6', 'T9E 7S5', 'T9E 7T7', 'T9E 7T8', 'T9E 7W1', 'T9E 7X2', 'T9E 7X8', 'T9E 8H9', 'T9E 8P2', 'T9N 2J3', 'T9V 2E4', 'T9V 3A7', 'TX8 0B1', 'V0B 2G0', 'V0E 2X0', 'V0E 3B0', 'V0G 1Z0', 'V0H 1T0', 'V0H 1Z2', 'V0J 3A0', 'V0J 3A1', 'V0K 2Z0', 'V0M1A0', 'V0R 1K0', 'V0R 1M0', 'V0R 1V0', 'V0X 1T0', 'V0X 1X0', 'V1B 3R9', 'V1E 1X2', 'V1E 4N3', 'V1G 4R8', 'V1J 7H2', 'V1L 6Z2', 'V1M 2X7', 'V1M 3G5', 'V1S 1J6', 'V1S 1S4', 'V1T 6V2', 'V1T 8T9', 'V1X 4R2', 'V1X 5W6', 'V1X 7S2', 'V1Y 1M3', 'V1Z 1G4', 'V2A 3H7', 'V2A 3K6', 'V2A 7J3', 'V2A 8V6', 'V2C 5P2', 'V2J 5Z2', 'V2K 1M8', 'V2L 2Z1', 'V2L 4V4', 'V2N 4T6', 'V2N 5T1', 'V2P 2N1', 'V2P 6H5', 'V2R 5N8', 'V2S 4N7', 'V2S 5C9', 'V2S 6B7', 'V2S 7M2', 'V2S 7M6', 'V2S 7T1', 'V2T 0A7', 'V2T 6L4', 'V2V 5X4', 'V2Y 2V9', 'V3A 1G5', 'V3A 4L5', 'V3A 4N4', 'V3A 4N5', 'V3A 5E8', 'V3C 1S9', 'V3C 6L4', 'V3K 5S9', 'V3M 5R1', 'V3M 6G7', 'V3S 6J8', 'V3S 8E5', 'V3T 5J4', 'V3V 3H2', 'V3V 3R9', 'V3W 4E8', 'V3W 4G1', 'V4G 1B5', 'V4G 1E2', 'V4G 1K7', 'V4N 2S1', 'V4N 3P8', 'V4N 3P9', 'V4N 3R7', 'V4N 4C2', 'V4N 4C3', 'V4N 4E6', 'V4W 2W5', 'V4W 2Z8', 'V4W 3A8', 'V4W 3X5', 'V4X 1C8', 'V5J 4R8', 'V5X 2X1', 'V6A 2X2', 'V6P 6G2', 'V6V 1J7', 'V6V 2H9', 'V6X 1X5', 'V6X 1Y4', 'V6X1X3', 'V7A 4V1', 'V8G 5R5', 'V8L 5Y1', 'V9A 2R1', 'V9B 2S2', 'V9L 3X9', 'V9L 6B1', 'V9M 4C7', 'V9P 22C2', 'V9P 2B9', 'V9P 2G6', 'V9R 6W6', 'V9R 6Z5', 'V9S 3H6', 'V9S 4M8', 'unknown']</t>
         </is>
@@ -1418,18 +1511,26 @@
       <c r="P15" t="n">
         <v>568</v>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>UNITED STATES</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>CANADA</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
         <v>19521</v>
       </c>
-      <c r="S15" t="n">
+      <c r="U15" t="n">
         <v>3</v>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>['CANADA', 'NOT ENTERED', 'UNITED STATES']</t>
         </is>
@@ -1488,18 +1589,26 @@
       <c r="P16" t="n">
         <v>2</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>Truck Body</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="T16" t="n">
         <v>39034</v>
       </c>
-      <c r="S16" t="n">
+      <c r="U16" t="n">
         <v>13</v>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>['Bus', 'Chassis-Cab', 'Incomplete Vehicle', 'Low Speed Vehicle', 'MPV', 'Motorcycles', 'Passenger Car', 'Restraint Systems', 'Snowmobile', 'Three Wheeled Vehicle', 'Tire', 'Trailer', 'Truck Body']</t>
         </is>
@@ -1558,18 +1667,26 @@
       <c r="P17" t="n">
         <v>2</v>
       </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Vehicle Alterer GA/GVWR increases</t>
-        </is>
-      </c>
-      <c r="R17" t="n">
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Final Stage - Body and Equipment</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
         <v>124159</v>
       </c>
-      <c r="S17" t="n">
+      <c r="U17" t="n">
         <v>107</v>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>['Bus / City Bus &lt; 10k lbs', 'Bus / City Bus &gt;= 10k lbstest', 'Bus / Coach Bus &lt; 10k lbs', 'Bus / Coach Bus &gt;= 10k lbs', 'Bus / Disabled Access &lt; 10k lbs', 'Bus / Disabled Access &gt;=10k lbs', 'Bus / Limousine', 'Bus / School Bus &lt; 10k lbs', 'Bus / School Bus &gt;= 10k lbs', 'Bus / Shuttle Bus &lt; 10k lbs', 'Bus / Shuttle Bus &gt;= 10k lbs', 'CMVSS 213 - Child Restraint Systems', 'CMVSS 213.1 - Infant Restraint Systems', 'CMVSS 213.2 - Booster nSeats', 'CMVSS 213.3 - Restraint Systems for Disabled Persons', 'CMVSS 213.3 Restraint systems for disabled persons', 'CMVSS 213.5 - Restraint Systems for Infants with Special Needs', 'Chassis-Cab (&lt; 4536 kg)', 'Chassis-Cab (&gt;= 4536 kg)', 'Final Stage - Body and Equipment', 'Final Stage - GA/GVWR increases', 'Final Stage - Wheelbase Alterations', 'Intermediate Stage - Body and Equipment', 'Intermediate Stage - Fuel system instalations', 'Intermediate Stage - Wheelbase alterations', 'Intermediate Stage -- Body and Equipment', 'Intermediate Stage -- GA/GVWR increase', 'Intermediate Stage -- Wheelbase Alternation', 'Low Speed Vehicle', 'MPV / Ambulance (&lt; 4536 kg)', 'MPV / Ambulance (&gt;= 4536kg)', 'MPV / Class "B" Motor Home', 'MPV / Class "C" Motor Home &gt;=10k lbs', 'MPV / Disabled Access &lt; 10k lbs', 'MPV / Disabled Access &gt;= 10k lbs', 'MPV / Limousine', 'MPV / Motor Home', 'MPV / Motor Home / Class "A"', 'MPV / Van Conversion &lt; 10k lbs', 'MPV &lt; 10k lbs', 'MPV &gt;= 10k lbs', 'Miscellaneous Bus', 'Miscellaneous Chassis-Cab', 'Miscellaneous MPV', 'Miscellaneous SnowMobile', 'Miscellaneous Tires', 'Miscellaneous Trailer [Air]', 'Miscellaneous Trailer [Standard]', 'Miscellaneous Truck', 'Motorcycle / Limited Speed Motorcycle', 'Motorcycle / Motor Tricycle', 'Motorcycle/ Open Motorcycle', 'New Tires', 'Passenger Car / Limousine', 'Passenger Car, OEM', 'RUM  / All Terrain Vehicle', 'Restricted Use Motorcycle (RUM)', 'Retread', 'Shelf and Partition installer', 'Snowmobile', 'Tanker Truck', 'Three Wheeled Vehicle', 'Trailer - Auto Transporter [Air]', 'Trailer - Boat [Air]', 'Trailer - Boat [Standard]', 'Trailer - C Dolly [Air]', 'Trailer - Cable Reel', 'Trailer - Car Dolly [Standard]', 'Trailer - Cargo (Air)', 'Trailer - Cargo [Standard]', 'Trailer - Converter Dolly [Air]', 'Trailer - Dump [Standard]', 'Trailer - Final Stage [Standard]', 'Trailer - Final stage [Air]', 'Trailer - Flat Deck (Standard)', 'Trailer - Full (Air)', 'Trailer - Heavy Hauler [Air]', 'Trailer - Heavy Hauler [Standard]', 'Trailer - Horse/Stock [Standard]', 'Trailer - Incomplete [Air]', 'Trailer - Incomplete [Standard]', 'Trailer - Light Duty [Standard]', 'Trailer - Load Divider Dolly [Air Brake]', 'Trailer - Medium Duty [Standard]', 'Trailer - Motorcycle', 'Trailer - Pole [Air]', 'Trailer - Pole [Standard]', 'Trailer - Portable Generator [Standard]', 'Trailer - Portable equip, construction/other (Air)', 'Trailer - Portable equip, construction/other (Standard)', 'Trailer - Pulpwood (Air)', 'Trailer - Recreational RV [Standard]', 'Trailer - Semi Trailer [Air]', 'Trailer - Semi Trailer [Standard]', 'Trailer - Snowmobile', 'Trailer - Tank [Air]', 'Trailer - Utility [Standard]', 'Trailer - Vehicle Alterer', 'Trailer [Air]', 'Truck / Walk-in Van (&lt; 4536 kg)', 'Truck / Walk-in Van (&gt;= 4536 kg)', 'Truck OEM (&lt; 4536 kg)', 'Truck OEM (&gt;= 4536 kg)', 'Vehicle Alterer  - Body and Equipment', 'Vehicle Alterer - Fuel system conversion', 'Vehicle Alterer - Wheelbase alterations', 'Vehicle Alterer GA/GVWR increases']</t>
         </is>
@@ -1628,18 +1745,26 @@
       <c r="P18" t="n">
         <v>2</v>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>V??hicule de tourisme ?y usages multiple</t>
-        </is>
-      </c>
-      <c r="R18" t="n">
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Camion</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
         <v>50447</v>
       </c>
-      <c r="S18" t="n">
+      <c r="U18" t="n">
         <v>13</v>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>['Autobus', 'Camion', 'Ch?&gt;ssis-cabine', 'Incomplete Vehicle - not translated', 'Low Speed Vehicle - not translated', 'Motocyclette', 'Motoneige', 'Pneu', 'Remorque', 'Restraint Systems - not translated', 'Three Wheeled Vehicle - not translated', 'V??hicule de tourisme', 'V??hicule de tourisme ?y usages multiple']</t>
         </is>
@@ -1698,18 +1823,26 @@
       <c r="P19" t="n">
         <v>2</v>
       </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>v??hicule ?y trois roues()</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Fab. Finale - Carrosseries et ??quipements</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
         <v>164184</v>
       </c>
-      <c r="S19" t="n">
+      <c r="U19" t="n">
         <v>107</v>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>['??quipement portatif, construction/autre', '??quipement portatif, construction/autre (air)', 'Autobus / Autobus Ecolier (&lt;10,000 lbs)', 'Autobus / Autobus Ecolier (&gt;=10,000 lbs)', 'Autobus / Autobus a acces modifie (&gt;=10,000 lbs)', 'Autobus / Autobus de croisiere (&lt;10,000 lbs)', 'Autobus / Autobus de croisiere (&gt;=10,000 lbs)', 'Autobus / Autobus e acces modifie (&lt;10,000 lbs)', 'Autobus / Autobus navette &gt;= 10,000 lbs', 'Autobus / Autobus navette(&lt;10,000 lbs)', 'Autobus / Autobus urbain (&lt;10,000 lbs)', 'Autobus / Autobus urbain (&gt;=10,000 lbs)', 'Autobus / Limousine', 'Autre chassis-cabine', 'Autres Pneus', 'Autres VTUM', 'Autres autobus', 'Autres camions', 'Autres motoneiges', 'CMVSS 213.3 Ensemble de retenue pour pers. hand', 'Camion (&lt; 4536 kg)', 'Camion (&gt;= 4536 kg)', 'Camion / Fourgon ?y acces debout (&lt;4536 kg)', 'Camion / Fourgon ?y acces debout (&gt;= 4536kg )', 'Camion-citerne', 'Chariot de r??partition de charge, [frein a air]', 'Chariot derouleur', 'Chassis-cabine (&lt; 4536 kg)', 'Chassis-cabine (&gt;=4536 kg)', 'Fab. Finale - Augmentations du PNBE/PNBV', 'Fab. Finale - Carrosseries et ??quipements', "Fab. Finale - Modifications d'empattement", 'Fab. Intermediaire - Installations du systeme de carburant', "Fab. Intermediaire - Modifications d'empattement", 'Fab. Intermediarie - Carrosseries et ??quipements', 'Fabricant finale, [Standard]', 'Installateur de tablette et s??paration', 'Intermediate Stage -- Body and Equipment (not translated)', 'Intermediate Stage -- GA/GVWR increase (not translated)', 'Intermediate Stage -- Wheelbase Alternation (not translated)', "Modificateur de v??hicule -  Installation de carrosseries ou d'??quipements", 'Modificateur de v??hicule - Conversion du systeme de carburant', "Modificateur de v??hicule - Modifications d'empattement", 'Modificateur de v??hicule - augmentation du PNBE/PNBV', 'Motocyclette / Motocyclette a vitesse limitee', 'Motocyclette / Tricycle a moteur', 'Motocyclette /Motocyclette sans habitacle ferm??', 'Motocyclette a usage restraint', 'Motoneige', 'NSVAC 213 - Ensembles de retenue pour enfant', 'NSVAC 213.1 - Ensembles de retenue pour b??b??', "NSVAC 213.2 - Si??ge d'appoint", 'NSVAC 213.3 - Ens. de retenue pour pers. hand.', 'NSVAC 213.5 - Ens. de retenue speciaux -b??b??', 'Pneu rechapes', 'Pneu, nouveau', 'RUM / Vehicule tout-terrain', 'Remorque - Modificateur de v??hicule', 'Remorque ?y bateau [standard]', 'Remorque ?y motocyclette', 'Remorque Cargo [standard]', 'Remorque [Freins ?y air]', 'Remorque a bateau, [frein a air]', 'Remorque a charge longue, [frein a air]', 'Remorque a materiel lourd [Standard]', 'Remorque a materiel lourd, [frein a air]', 'Remorque a voiture, [Frein a air]', 'Remorque citerne, [frein a air]', 'Remorque de camping [standard]', 'Remorque incomplete, [frein a air]', 'Remorque incomplete, [standard]', 'Remorque legere [Standard]', 'Remorque motoneige', 'Remorque moyenne [Standard]', 'Remorque plate-forme (standard)', 'Remorque pour charges longues [Standard]', 'Remorque tombereau', 'Remorque utilitaire [standard]', 'Remorque, Fabricant Finale, [freins a air]', 'Remorque, chariot de conversion de type C, frein a air', 'Remorque, chariot de conversion, [Frein a air]', 'Remorque, generatrice portatif [standard]', 'Remorque, semi [standard]', 'Remorque, semi, [frein a air]', 'Remorque, standard, chariot df??panneur', 'Remorque, standard, pour chevaux/betails', 'Tous les remorques [standard]', 'Tous les remorques, [frein a air]', 'VTUM (&lt;10,000 lbs)', 'VTUM / Autocaravane', 'VTUM / Limousine', 'VTUM &gt;= 10,000 lbs', 'VTUM Ambulance (&lt;4536 kg)', 'VTUM a acces modifie', 'VTUM a acces modifie (&gt;=10,000 lbs)', 'VTUM ambulance (&gt;=4536kg)', 'VTUM autocaravane de class "A" (&gt;=10,000 lbs)', 'VTUM autocaravane de class "B" (&lt;10,000 lbs)', 'VTUM autocaravane de class "C" (&gt;=10,000 lbs)', 'VTUM modifie (&lt;10,000 lbs)', 'Vehicule ?y basse vitesse()', 'Voiture de tourisme', 'Voiture de tourisme, limousines', 'remorque cargo (air)', 'remorque compl??te', 'remorque pour bois ?y p?&gt;te', 'v??hicule ?y trois roues()']</t>
         </is>

--- a/examples/Canada OGD/vehicle manufacturers/profile.xlsx
+++ b/examples/Canada OGD/vehicle manufacturers/profile.xlsx
@@ -450,15 +450,20 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
+          <t>most_frequent_count</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -531,12 +536,15 @@
         </is>
       </c>
       <c r="T2" t="n">
+        <v>66</v>
+      </c>
+      <c r="U2" t="n">
         <v>112237</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>1549</v>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>['0782739 B.C. Ltd.', '1091736 Ontario Inc. o/a L.B. Welding', '1132290 Alberta Ltd. DBA Norseman Oilfield Mechanical Services', "1132682 Alberta Inc. d.b.a. Brown's Industrial Services", '1146592 Ontario Inc. d.b.a. S &amp; L Waste Tech', '1162928 Ontario Inc.', '1201363 Ontario Ltd., d.b.a. McBride Horse Trailers', '1246086 Alberta Ltd', '1263337 Ontario Inc.  o/a Burlington Krown', '1293550 Ontario Inc. d.b.a. D&amp;D Tow Truck Builder Inc.', '1389899 Ontario Inc. d.b.a. M&amp;S Equipment Sales &amp; Service', '1425893 Alberta Ltd. dba Big Wheels Equipment Emporium', '1433797 ALBERTA LTD. DBA INNOVATIVE SOLUTIONS', '1435741 Ontario Inc. o/a Excalibur Trailers', '1450384 Ont. Inc. dba A&amp;S Towing', '1462782 Alberta Ltd. o/a Dynamic Industrial Solutions', '1482271 Alberta Ltd. o/a Kamparoo Campers', '1515974 Ontario Inc. (Hitch Centre)', '1519786 Alberta Ltd. dba Foremost Fleet Outfitters', '1527490 Alberta Ltd. (d.b.a. Peerless Parts &amp; Service)', '1561660 Ontario Ltd. d.b.a. Surgenor Truck Centre', '1561660 Ontario Ltd. d.b.a. Surgenor Truck Centre (Ottawa, ON)', '1561660 Ontario Ltd. d.b.a. Surgenor Truck Centre(Ottawa, ON)', '1570621 ALBERTA LTD O/A R.J.Mobile Mechanical Services', '1628721 Ontario Inc. d.b.a. Northland Truck Centre', '1693382 ONT Inc. d.b.a. Lawson Trailers', '1708828 ONTARIO dba Horst Welding', '1719502 Ontario Inc. d.b.a. Apex2 Auto', '1742227 ONT Inc. d.b.a. Hyhills Trailers', '1746954 Ontario Limited (Operating as Northend Mobility)', '1792911 Alberta Ltd.', '1823741 ALBERTA LTD. (DBA. KWIK-FAB ENERGY SERVICES LTD.)', '2000007 ONT. INC. d.b.a Inkas', '2055495 Ontario Inc. d.b.a. Miska Trailer Factory', '2116602 Ontario Ltd.', '2193123 Ontario Limited o/a New Gen Trailers', '2213535 Ontario Inc. d.b.a. Vanfitters Inc.', '2231545 Ontario Inc. dba Matrixx Specialized Trailers', '2236697 Ontario Inc. O/A Delta Truck Equipment', '2550-2311 Qu??bec Inc. - Soudure Gerald Guibord 2000', '2747391 Canada Inc. o/a McCloskey Bros. Mfg', '3022331 Canada Inc', '30879076 Qu??bec Inc.', '3212921 Canada Inc. o/a Do It Industries', '3470148 Canada Inc. d.b.a. Fast T.R.A.C.', '3696660 Manitoba Ltd.', "3816410 Manitoba Ltd. d.b.a. Berg's Prep &amp; Paint", '3891721 Canada inc.', '3923932 Canada Inc. (o/a Remorque 3 Fronti??res)', '3963128 Canada inc. (Remorques AERO )', '401 Trucksource Inc.', '4187229 Canada Inc. dba Harmony Juvenile Products', '425723 Ontario Ltd. dba Holland Enterprises', '4843305 Manitoba Ltd. (o/a LTS Manufacturing)', '4WD Manufacturing Inc.', '510669 Ontario Limited d.b.a. Stainless Steel Technology', '5274398 Manitoba Ltd. d.b.a. Cross Country Manufacturing', '5274398 Manitoba Ltd. d.b.a. Cross Country Manufacturing Ltd. (Morden,ON)', '533438 Ontario Limited d.b.a. Northlander Industries', '5514 KM', '58952 Alberta Ltd dba Custom Energy Equipment Services', '611421 ONTARIO INC BAYWOOD ENTERPRISES', '6186433 Manitoba Ltd. d.b.a. Ironmen Industries', '626814 Alberta Ltd.', '6607578 Canada Ltd. D.B.A. Kangaroo Trailers', '662021 NB Inc. d.b.a. Coastal Aluminum Manufacturing', '686109 Alberta Ltd.', '727831 Ontario Limited d.b.a. Carmikel Canada', '7289235 CANADA INC. d.b.a Les ??quipements EDG', '731073 Ontario Inc. (d.b.a. Milano Trailers)', '732509 Alberta Ltd.', '749106 Alberta Ltd. c/o River Run Trailers', '771603 Alberta Ltd., o.a. Pressure Vessel Services', '77445 Alberta Ltd.', '823353 Ontario Limited o/a HD Equipment Sales &amp; Se', '830482 Alberta Ltd. o/a TFT Trailers', '853418 Ontario Ltd. d.b.a. Ratler Manufacturing', '862390 Ontario Inc. d.b.a. Nickel City International Truck Centre', '865593 Ontario Limited', '9000-2783 Quebec Inc., dba Garage Marcel Heon Enr.', '9006-5335 Qu??bec inc. (d.b.a. Ateliers Dufour &amp; Associ??)', '9019-8813 Quebec inc. o/a Machinerie Bromer', '9043 - 0851 Quebec Inc.', '9044-3433 Quebec Inc. dba Aluquip', '9054-9767 Qu??bec Inc. o/a Les Industries Danmare', '9060 - 6542 Quebec Inc.', '9066-7353 QU??BEC INC. o/a (Omnifab)', '9067-3708 Quebec Inc dba Technifab Industries', '9069-4654 Quebec inc. (Supervac 2000)', '9077-0223 Quebec Inc. dba. M??canique G??n??rale St-Thomas', '9081-0060 Quebec Inc. (Fourgons Elite)', '9102-2285 Qu??bec inc.', '9103-8034 Quebec Inc. d.b.a. Ginove', '91284182 Qu??bec Inc. o/a Les roulottes La Boheme', '9159-5181 QU??BEC INC. (REMORQUES LEWIS)', '9160 - 7531 Quebec Inc.', '9164-4419 QU??BEC INC. (DBA REMBEC)', '9175-3681 Qu??bec inc. o/a Amtech', '9197-5912 Qu??bec Inc. dba SM Suspension', '9299-5000 Qu??bec inc. (Raison sociale :  Remorques camping la bulle)', '930098 ONTARIO LTD. (FREIGHTLINER NORTH BAY)', '936244 Alberta Ltd. o/a Triple J Welding', '988951 Ontario Inc. o/a Wishing Well Fabricating', '??chelles Warwick Inc.', '??quipement Amos Lt??e', '??quipements SBI Inc.', 'A &amp; D Fabricating Ltd.', 'A. AMYOTTE &amp; SON WELDING LTD.', 'A.R.S. Trucking &amp; Welding Ltd.', 'ABC Mobilite Inc.', 'ABCO Industries Limited', 'ABS Remorques Inc.', 'ACCO TRAILER MANUFACTURING LTD.', 'ACTION CUSTOM TRUCK PARTS LTD.', 'AD Boivin Design Inc.', 'AG Shield mfg.', "AJJ's Trailers &amp; Welding", 'ALBERTA TANK TRUCK &amp; SUPPLY LTD.', 'ARCHER TRUCK CENTER (Welland) LIMITED', 'ARCHER TRUCK SERVICES LIMITED', 'ARW Truck Equipment Ltd.', 'ASL flameless heaters', 'AUTO TRUCK GROUP CANADA INC.', 'Abritech Inc.', 'Absolute Styling Limousine LTD', 'Accurate Guage Ltd.', 'Accusteel Inc.', 'Ace Custom Fabrication Ltd', 'Ace Machining &amp; Welding (P.R.) Ltd.', 'Acier Select Inc.', 'Acres Industries Inc.', 'Action Fiberglass &amp; Manufacturing Ltd. (CHARLETOWN)', 'Action Fiberglass &amp; Manufacturing Ltd. (Clarenville)', 'Action Fiberglass &amp; Manufacturing Ltd. (Corner Brook)', 'Action Fiberglass &amp; Manufacturing Ltd. (Dartmouth)', 'Action Fiberglass &amp; Manufacturing Ltd. (Gander)', 'Action Fiberglass &amp; Manufacturing Ltd. (Grand Falls)', 'Action Fiberglass &amp; Manufacturing Ltd. (Moncton)', 'Action Fiberglass &amp; Manufacturing Ltd. (Saint John)', "Action Fiberglass &amp; Manufacturing Ltd. (St John's)", 'Action Van &amp; Truck World Ltd. (Barrie)', 'Action Van &amp; Truck World Ltd. (Belleville)', 'Action Van &amp; Truck World Ltd. (Cobourg)', 'Action Van &amp; Truck World Ltd. (Collingwood)', 'Action Van &amp; Truck World Ltd. (Guelph)', 'Action Van &amp; Truck World Ltd. (Hamilton)', 'Action Van &amp; Truck World Ltd. (Kingston)', 'Action Van &amp; Truck World Ltd. (Kitchener)', 'Action Van &amp; Truck World Ltd. (London)', 'Action Van &amp; Truck World Ltd. (Mississauga)', 'Action Van &amp; Truck World Ltd. (Orillia)', 'Action Van &amp; Truck World Ltd. (Ottawa)', 'Action Van &amp; Truck World Ltd. (Pickering)', 'Action Van &amp; Truck World Ltd. (Regina)', 'Action Van &amp; Truck World Ltd. (Saskatoon)', 'Action Van &amp; Truck World Ltd. (Sault Ste Marie)', 'Action Van &amp; Truck World Ltd. (Scarborough)', 'Action Van &amp; Truck World Ltd. (Sudbury)', 'Action Van &amp; Truck World Ltd. (Timmins)', 'Action Van &amp; Truck World Ltd. (Whitby)', 'Action Van &amp; Truck World Ltd. (Winnipeg)', 'Acute Trailer Manufacturing Ltd.', "Adapt-Solutions #1 Lte?? (Centre de l'auto Saint-Lambert)", 'Admiral Drive Systems Inc.', 'Adriatic Machine and Tool Ltd.', 'Advance Engineered Products Ltd. (Calgary)', 'Advance Engineered Products Ltd. (Edmonton)', 'Advance Engineered Products Ltd. (Lloydminster)', 'Advance Engineered Products Ltd. (Regina)', 'Advance Engineered Products Ltd. (SURREY, B.C.)', 'Advance Manufacturing Ltd.', 'Advance Trailer Mfg.', 'Advantage Manufacturing Ltd.', 'Advocate Metal Works Inc.', 'Agri Plastics Mfg. A division of Polydome Ontario', 'Agrimetal Inc', 'Air Arc Manufacturing Ltd.', 'Air-V Design Inc.', 'Airland Manufacturing Inc.', 'Alantra Leasing Inc.', 'Alberta Flares Energy Services Ltd.', 'Alco Industrial Inc', 'Alcor Mat??riaux de Toiture Inc.', 'Alcraft industries Inc.', 'Alfab Manufacturing', 'All Seasons Equipment Manufacturing', 'All Trailer Repair Ltd', 'Allain Equipment Manufacturing Ltd.', 'Allan Fyfe Equipment Ltd.', 'Alliance Concrete Pumps Inc.', 'Alliance Custom Fabrication Ltd.', 'Allianz Madvac inc.', 'Alliston Equipment Ltd.', 'Alloy Truck Equipment Ltd.', 'Allstone Equipment Limited', 'Allweld Manufacturing Ltd.', 'Almas Custom Trailers', 'Alpine Shredders Limited', 'Alta Gear Distributing', 'Alta Vac Serices Ltd.', 'Altec Industries Ltd. (Milton)', 'Altec Industries Ltd. (Winnipeg)', 'Alternative Access &amp; Mobility Inc.', 'Alutrec Inc.', 'Alvan Truck Bodies Inc.', 'American Road Service Inc.', 'Andycap Mobility Services Inc.', 'Anra Manufacturing Ltd', 'Anser Manufacturing Ltd.', 'Ant Enterprises', 'Arctic Manufacturing Ltd.', 'Arfab Inc.', 'Armet Armored Vehicles Canada Inc.', "Arne's Welding Ltd. &amp; Trailer Sales 1986 Ltd.", "Arnold's Welding Regina Ltd.", 'Artic Therm International Ltd.', 'Aspectair Inc.', 'Aspen Custom Trailers', 'Asphodel Firetrucks Ltd', 'Associate Truck Bodies', 'Atelier Desgagnes Inc.', 'Atelier Despres Inc.', 'Atelier G??rard Beaulieu Inc.', 'Atelier Mobile No Problemo Inc.', 'Atelier Pli-Soude 2015 Inc.', 'Atelier Rosario Tremblay inc.', 'Atelier Ste-Emilie Inc.', "Atelier d'usinage R.R. enc", 'Atelier de Soudure Gino Isabel Inc.', 'Atelier de soudure R.S. inc.', 'Atlas Polar Company Limited', 'Auto Light Atlantic Limited', 'Autobus Lion Inc (Lion Bus)', 'Autobus Thomas Inc.', 'Automated Rig Technologies Ltd.', 'Automobile Rainville (1975) Inc.', 'Aventure DY inc.', 'Avenue Lawn &amp; Leisure', 'Award Recreational Vehicles Inc.', 'Awatec Industries Inc.', 'B.D.J. Menard', 'BECKNER &amp; SONS LTD.', 'BENOIT GILBERT', 'BLACKRAIN ENERGY SERVICES LTD', 'BMB Products Ltd.', 'BWS Manufacturing Ltd.', 'BXL Bulk Explosives Limited', 'Baby Trend Inc. c/o FMD Service (Ontario) Inc.', 'Back Motor Bodies Inc.', 'Backwoods Trailers', 'Badger Daylighting Inc', 'Badger Truck Decks &amp; Services', 'Bar T5 (BC) Agra Services Inc.', 'Bargin Wrecker Supply Ltd', 'Barton Truck Centre Ltd', 'Bayview Boats Inc.', 'Beck Industries Ltd.', 'Bedard Tankers Inc./Citernes Bedard Inc.', "Berk's Intertruck LTD.", 'Berkelmans Welding &amp; Manufacturing Inc.', 'Best 4 Less Trailers Inc.', 'Bigfoot Industries (2010) Inc.', 'Bik Hydraulics LTD.', 'Black Gear Products', 'Blue Hills Trailer &amp; Fabricating Ltd.', 'Blue Sky Trailer Manufacturing Inc.', 'Boden Fabricating &amp; Metal Products Ltd.', 'Body Company Industries(BCI)', 'Bombardier Recreational Products Inc. - BRP', 'Boss Trailers', 'Boulder Metal Industries (2002) Inc.', 'Bourdeau Entreprise', 'Bradvin Trailer Sales Ltd.', 'Brandt Engineered Products Ltd.', "Braun's Welding &amp; Repair Ltd.", 'Breda Machinery Limited', 'Brian McIntyre', 'Bridgeview Mfg. Inc.', 'Britax Child Safety, Ltd.', 'Brodex Industries Ltd.', 'Bruce Coach Inc.', 'Built Right Utility Bodies Ltd.', 'Built-Tuff Trailers', 'Burnaby Hitch Ltd.', 'Burncrest Industries LTD', 'C-Extrem Inc.', 'C-Max Transportation Equipment', 'C.D. Jabbco Sales Ltd', 'C.E.M. Heavy Equipment Ltd.', 'C.T. Soudure Inc.', 'CAMIONS EXCELLENCE PETERBILT INC.', 'CAMIONS EXCELLENCE PETERBILT INC. (DRUMMONDVILE)', 'CAMIONS EXCELLENCE PETERBILT INC. (LAVAL)', 'CAMIONS HELIE (2003) INC.', 'CCS Corporation d.b.a. Concord Well Servicing', "CENTRE DE GESTION DE L'EQUIPEMENT ROULANT (CGER)", 'CENTRE DE R??PARATION HYDRAULIQUE HYDREP INC.', 'CFO Calgary Fleet Outfitters &amp; Supply Inc.', 'CITY WRECKER MFG SERVICE INC.', 'CJAY Trailers Inc.', 'CJC 2000 Inc.', 'CLYDE COOPER ENTERPRISES LIMITED', 'COIL SOLUTIONS INC.', 'COMET WELDING LTD.', 'CONTINENTAL RAILWORKS TECHNOLOGY I INC.', 'CTS Automotive Truck Repair Ltd', 'CVA CANADA INC.', 'CW Manufacturing Ltd.', 'Cadman Power Equipment Limited', 'Calco Equipment (BC) Ltd - (Edmonton)', 'Calco Equipment (BC) Ltd. (Delta)', 'Calgary Aluminum Fabricating &amp; Distributing Ltd.', 'Calgary Box and Hoist Ltd.', 'California Immobilizer Int. Ltd.', 'Cam-Concept inc.', 'Camex Equipment Sales &amp; Rentals Inc.', 'Camion International West Island Inc.', 'Camions Carl Thibault inc.', 'Camions Freightliner M.B. Trois-Rivi??res Lt??e', 'Camions Freightliner Quebec Inc.', 'Camions Freightliner et Sterling Drummondville Inc', 'Camions Inter-Anjou Inc.', 'Camions International Elite Ltee', 'Camions Sterling Western Star Mauricie Inc.', 'Camrose Machine &amp; Welding Ltd.', 'Can Am Cruisers Inc.', 'Can American Stone Spreader Ltd', 'CanDig Mini Excavators Inc.', 'Canada Trailers Manufacturing Limited', 'Canadian Chassis Corporation', 'Canadian Electric Vehicles Ltd.', 'Canadian Range Trailers Ltd.', 'Canadian Tire Corporation Limited', 'Canadian Towing Equipment', 'Canadian Truck &amp; Trailer Inc.', 'Cancade Company Ltd.', 'Canuck Trailer Manufacturing Ltd.', 'Capital Disposal Equipment 2001 Limited', 'Capital Rig Repair Ltd.', 'Capital Truck Bodies', 'Capital Truck Body &amp; Equipment o/a 755968 Alberta Ltd', 'Carbec Inc.', 'Cardigan Bearing &amp; Steel', 'Care Industries Ltd.', 'Carrier Truck Center (London)', 'Carrier Truck Center (Windsor)', 'Carrier Truck Center Inc (Brantford)', 'Carrier Truck Center Inc. (Woodstock)', 'Carrier Truck Centre Inc. (Sarnia)', 'Carrovic Inc', 'CarryMor Industries Corp.', 'Cast Away Manufacturing Ltd.', 'Castleton Industries Ltd.', 'Catherwood Welding &amp; Boiler Service Inc.', 'Caytec Equipment Ltd.', 'Celtic Pride Manufacturing Ltd', 'Central Automation Control (2006) Limited', 'Central Automotive Services Limited d.b.a. Cambridge Mack', 'Central Automotive Services Limited d.b.a. Performance Equipment Body Shop', 'Central Mechanical Ltd.', 'Central Truck Body Co. Ltd.', 'Centre Auto De Duberger inc.', 'Centre Hydraulique GMB Inc', 'Centre de Suspension Routiers Inc', 'Centre de Transmission J.D.H. inc.', "Centre de gestion de l'equipement roulant (CGER) (Trois-Rivi??res)", 'Centre du Camion Acton-Vale inc.', 'Centre du Camion Beaudoin Inc.', 'Centre du Camion Gamache inc.', 'Centre du Camion Mabo Inc.', 'Centre du Camion Pro Cam Saguenay Inc', 'Centre du Camion R.B. enr., div. de 144778 Canada inc.', 'Centre du Camion U.T.R. Inc.', "Centre du Camion d'Amos inc.", 'Centre du camion Denis inc.', 'Certified Custom Trailers Ltd.', 'Certiflo inc.', 'Chagnon &amp; Fils Incorporee', 'Challenger Manufacturing Ltd.', 'Charest Automobile Ltee.', 'Charlton &amp; Hill Welding Ltd.', 'Chinook Manufacturing Partnership', 'Cirbin Inc. dba Campagna Motors', 'Citerne Almac Tank International Inc.', 'Citernes Girard et Coulombe Inc', 'Citernes Hebert &amp; Fils Inc.', 'City of Calgary Fleet Services', 'City of Vancouver', 'Classic Van Conversion &amp; Accessories', 'Clek, Inc.', 'Co-Up Garage &amp; Towing Service', 'Cobra Trailer Manufacturing Inc.', 'Collins Manufacturing Co. Ltd.', 'Colonial Railings (2000) LTD.', 'Columbia Remtec Manufacturing', 'Command Industries Inc.', 'Commander Industries Inc.', 'Commercial Body Builders Ltd.', 'Commercial Truck Equipment Corp (Calgary)', 'Commercial Truck Equipment Corp. (Calgary)', 'Commercial Truck Equipment Corp. (Delta Head Office)', 'Commercial Truck Equipment Corp. (Edmonton)', 'Commercial Truck Equipment Corp. (Regina)', 'Commercial Truck Equipment Corp. (Surrey)', 'Commercial Truck Equipment Corp. (Woodstock)', 'Compac Equip. Mfg. Inc.', 'Complete Auto Centre -Div. of National Energy Equipment', 'Complete Oilfield Manufacturing Inc.', 'Complete Truck Maintenance Ltd.', 'Comptank Corporation', 'Concept Truck &amp; Trailer Ltd.', 'Conception Metavic Inc.', 'Concord Elevator (Ottawa) Ltd.', 'Conqur', 'Consbec Inc.', 'Construction Mobilco Ltee.', 'Consultants F. Drapeau Inc.', 'Convey-All Industries Inc.', 'Convoyeurs B.M.G. inc.', 'Coral International Truck Equipment Ltd.', 'Coral Oilfield Services Inc.', "Corcoran's Farm Supply Ltd.", 'Corporation Micro Bird Inc.', 'Cottrill Heavy Equipment (1005422 Ontario Ltd.)', 'Country Trailers Sales (1999) Ltd', 'Courtland Mobility Services Inc.', 'Courtney Berg Industries Ltd.', 'Covax Tank Company Inc.', 'Cow Poke Trailers', 'Cramero Trailers', 'Creative Carriage Ltd.', 'Creative Enterprises Inc.', 'Crestline Coach Ltd.', 'Cropac Equipment Inc.', 'Cropper Motors Inc.', 'Cubex Ltd.', 'Cummins Hydraulics Ltd', 'Curtis Trailers Mfg.', 'Cusco Fabricators Ltd.', 'Custom Coachwork Inc.', 'Custom Gravel Box Ltd.', 'Custom Welding Services', 'Custom Welding and Fabricating Ltd.', 'Customvac Services Ltd.', 'Cycle-Mate', 'Cypress Industries Ltd', 'D &amp; G Box &amp; Hoist Ltd', 'D &amp; L Double Cut Sawmills Ltd.', 'D &amp; M Koch Enterprises Ltd.', 'D-Line Trailers/Division of 3-D Line Locating Ltd.', 'D. Murphy Sport Boats', 'DAIMLER TRUCKS CANADA LTD.', 'DESIGN ARMORIC INC.', 'DEW Engineering &amp; Development ULC.', 'DGC Trailer Manufacturing and Sales', 'DISTRIBUTIONS MARANDA INC.', 'DJT Corporation', 'DK Manufacturing Inc.', 'DML Soudure Inc', 'DNOW CANADA ULC (FULL TILT)', 'DRAGON ENERGY SALES AND SERVICE, LLC', 'DRD Fabrications Inc.', 'DSML Welding &amp; Fabricating', 'Dan Wilkinson Welding Ltd.', 'Danchuk Trailer 2000', 'Darco Industries', "Dave's Welding", 'Davidson Trailers', 'De Cloet Ltd.', 'DeCap Trailer Mfg. Ltd.', 'DeMonte Fabricating Ltd.', 'Debway 2000 Ltd. d.b.a. Debway Truck Body Mfg &amp; Repair', 'Decca Industries Ltd.', 'Defined Designs Inc', 'Deloupe Inc.', 'Deluxe Van &amp; Body (1988) Ltd.', "Demers, Ambulance Manufacturer Inc. (Demers, Manufacturier D'Ambulances Inc.)", 'Dentech Meters and Electronics Ltd.', 'Dependable Truck &amp; Tank Ltd. d.b.a Dependable Emergency Vehicles', 'Di-Mond Sales Inc.', 'Diemo Machine Works Inc.', 'Diesel Equipment Ltd. d.b.a. DEL (Burlington,ON)', 'Diesel Equipment Ltd. d.b.a. DEL (Moncton,NB)', 'Diesel Equipment Ltd. d.b.a. DEL (Port Coquitlam, BC)', 'Diesel Equipment Ltd. d.b.a. DEL (Regina,SK)', 'Diesel Equipment Ltd. d.b.a. DEL (Toronto,ON)', 'Diesel Equipment Ltee. d.b.a. DEL(Dorval,QC)', 'Diono Canada, ULC', 'Distribution Alumico', 'Distribution DFT Canada Inc', 'Distribution Raynald Bertrand DRB inc.', 'Distribution et Services R.G. inc.', 'Diversabody', 'Dock Rite Boat Lifts Ltd.', 'Doepker Industries Ltd. (Annaheim)', 'Doepker Industries Ltd. (Burlington)', 'Doepker Industries Ltd. (Moose Jaw)', 'Doepker Industries Ltd. (Saskatoon)', 'Dollman Welding Ltd.', 'Don Adams Welding Ltd.', 'Donore Holdings Ltd.', 'Dorel Juvenile Canada', 'Double Don Properties Ltd', 'Double S Enterprises', 'Dowler-Karn Limited', 'Doyle Manufacturing', "Drake's Truck Box Sales Limited", 'Drive Products Inc', 'Drivetec Manufacturing Inc.', 'DryAir 2000 Inc.', "Dueck's Mechanical", "Dumonceau's Trailers dba Dumonceau's Custom Trailers", 'Duncan Trailer Ltd.', 'Durabody Industries Limited', 'Dust Check Mfg.', 'DyTerra Corporation (Headingley, MB)', 'DyTerra Corporation (Saskatoon, SK)', 'DyTerra Corporation(Ayr, ON)', 'Dymark Industries Inc.', 'Dymech Engineering Inc', 'Dynacorp Fabricators Inc. (Calgary, AB)', 'Dynacorp Fabricators Inc. (Grande Prairie, AB)', 'Dynahyd Equipment Ltd.', 'Dynamic Fibre Lt??e', 'Dynamic Specialty Vehicles Ltd.', 'Dynawinch Industries Ltd.', 'Dyson Trailers &amp; R.V. Ltd.', 'E &amp; H Hitch Shop a Div. of Erik Jensen Ltd.', 'EDMONTON TRAILER SALES &amp; LEASING LTD', 'EMB Mfg. Inc.', 'ENVIROMECH INDUSTRIES INC.', 'Eagle Industries Ltd.', 'Eagle Iron Industries', 'Eagle RV Services Ltd', 'Eagle Trailers (829100 Ontario Limited)', 'Eaglemate Motorcycle Trailers Ltd.', "Earl Hoover's Machine &amp; Welding Ltd.", 'Eastgate Truck Centre', 'Eastway Tank, Pump And Meter Limited', 'Eastway911 Emergency Vehicles Ltd.', 'Echelles C.E. Thibault', 'Eddynet Inc.', 'Edmonton Trailer Manufacturing Ltd.', 'Egebjerg Green Farmline Ltd.', 'Elfe Juvenile Products', 'Elite Aluminum Inc.', 'Elite Trailer Sales', 'Ella Ventures Ltd. d.b.a. BC Upfitters', 'Eloquip Ltd.', 'Eltik Design', 'Empire International Service Rigs Inc.', 'Endeavor Manufacturing Ltd.', 'Enduron/Custom Inc.', 'Enercraft Silva-Saw Ltd.', 'Enerflow Industries Inc', 'Energy Savers Inc.', 'Enervac Corporation', 'Entreprise Jocelyn Baril inc.', 'Entreprise Ramec Inc', 'Equifab Inc.', 'Equinox Industries Ltd', 'Equipement Incendie Levasseur', 'Equipements F.D.S. INC.', 'Equipements Lourds Papineau Inc.', 'Equipements Ouellet Ltee', 'Equipements R. Poulin Inc.', 'Equipements Tremzac Inc.', 'Equipements Woody Inc', "Erv's Oilfield Service Ltd.", 'Escape Trailer Industries', 'Euroway Industrial Service Co. Ltd.', 'Eveley Alignment &amp; Spring Service Limited', 'Evenflo Canada, Inc.', 'Exact Enterprises Inc. d.b.a. Victory Rig Equipment Corp.', 'Excel Materiaux Composites Inc.', 'Expertec Van Systems Inc.', 'Express Custom Trailer Mfg. Inc.', 'F&amp;R Steelcraft Industries Inc.', 'F.A.S.T. Industries Ltd.', 'FABMASTER LTD.', 'FCA Canada Inc. (Chrysler)', 'FINISH LINE INDUSTRIES LTD', 'FRF Fabrication Inc.', 'FRP Manufacturing Inc o/a (Fiberglass Canada)', 'FUSION PRODUCTION SYSTEMS INC.', 'Fabal Fabrication Ltd.', 'Fabrication Damsen Inc.', 'Fabrication Delta inc.', 'Fabrications DALJI Inc.', 'Fabrimex Inc.', 'Fabrinord Ltee.', 'Fabrox Inc.', 'Falcon Equipment Ltd.', 'Fanotech Waste Equipement Inc.', 'Farmbro Inc.', 'Federated Co-operatives Ltd', 'Fer Plus Enr.', 'Ferguson Thresher Company', 'Fericar Inc.', 'Fiba Canning Inc.', 'Fibermax Systems Inc.', 'Fibro Concept ??volution Inc.', 'Fifties Trailers Inc.', 'First Choice Upholstery', 'First Truck Center Inc. d.b.a. FTC South', 'First Truck Centre Inc. (Edmonton, AB)', 'First Truck Centre Inc. d.b.a. FTC Vancouver', 'Firsttrax Snowplows Ind.', 'Flat Boy Trailers Inc', 'Flint Energy Services Ltd.', 'Flo-Back Rental and Fabrication Ltd.', 'Flow Specialties Inc.', 'Ford Motor Company Of Canada Ltd.', 'Foremost Equipment LP', 'Foremost Industries Ltd.', 'Fort Fabrication &amp; Welding Ltd', 'Fort Garry Fire Trucks Ltd.', 'Fort Garry Industries Ltd.', 'Fortress Tank Services Limited', 'Fourgons Leclair Inc', 'Freightliner of Red Deer Inc.', 'Frontier Fabrication Ltd.', 'Frontier Power Products Ltd.', 'Fullerton welding Ltd.', 'G &amp; D Tank and Trailer Inc.', 'G &amp; M Trailers Ltd.', 'G. Hansen 2007', 'G. Levesque Holdings Ltd', 'G.F. TRUCK BODY MFG. INC.', 'G.M.C. Truck Center', 'G.T. MANUFACTURING &amp; WELDING (ST.PAUL) LTD.', 'G.W. Anglin Manufacturing Limited', 'GARAGE ADANAC INC.', 'GARAGE REN?? BERTRAND INC.', 'GBM Trailer Service Ltd.', 'GCI Environnement inc.', 'GORMAN-RUPP OF CANADA LIMITED', 'GRAZIER CUSTOM MANUFACTURING LTD.', 'GROUPE CAMBLI INC.', 'Garage Desfonds inc.', 'Garage Georges Trudeau Ltee', 'Garage Lague Ltee', 'Gard Manufacturing', 'Gauthier Paul', 'Genax Metal Manufacturing Limited', 'General Body &amp; Equipment Ltd.', 'General Motors of Canada Company', 'George C. Doerr Body &amp; Trailer Company', 'Germain Jette Machineries Inc.', 'Germanic Mfg. Ltd.', 'Gilles Pelletier Artisan Soudeur Enr.', 'Gilmet Fabricated Products Ltd.', 'Gin-Cor Industries Inc o/a Gingras Corriveau', 'Glacier Hydraulics Ltd', 'Glendale Industries Ltd.', 'Global Service Rig and Repair (2005) Ltd.', 'Glover International Trucks Ltd.', "Goldec Hamm's Manufacturing Ltd.", 'Golden Mobility &amp; Rehab Ltd.', 'Goldline Mobility &amp; Conversions', 'Gortech Inc.', 'Grainmaster Manufacturing Ltd.', 'Grande West Transportation International Ltd.', 'Great Lakes Recreational Vehicles', 'Great West Kenworth Ltd. (Clairmont, AB)', 'Great West Kenworth Ltd. (Head Office)', 'Great West Kenworth Ltd. (Lethbridge, AB)', 'Great West Kenworth Ltd. (Red Deer, AB)', 'Great West Van Conversions Inc.', 'Greene Flyer Inc.', 'Greenweld', 'GreyHighlands Industrial Inc.', 'Groupe Environnemental Labrie inc.', 'Groupe FCM Inc.', 'Groupe J.L. Leclerc Inc.', 'Groupe R.Y. Beaudoin inc.', 'Grunthal Welding &amp; Supplies Ltd.', "Guido's Custom Trailers", 'Gypsy Trailers Inc.', 'H &amp; D Trailer Manufacturing', 'H. &amp; H. Care Ltd.', 'H.R. Runciman &amp; Company Limited', 'HARLEY-DAVIDSON CANADA LP', 'HORIZON TRUCK &amp; BODY LTD.', 'HSC Fabrication Ltd.', 'HYDRODIG LTD.', 'Harper Ontario Truck Centers Inc.', 'Harvest Services (1995) Ltd.', 'Harvey &amp; Company Limited', 'Haul-All Equipment Ltd.', "Hauser's Machinery Ltd.", 'Hay River Heavy Truck Sales Ltd.', 'Hayshed Trailers Ltd.', 'Hayworth Equipment Sales Inc.', 'Hazeland Manufacturing Inc.', 'Heartwood Saw Company Ltd.', 'Heat Design Equipment Inc.', 'Heat Innovations Inc.', 'Hi Q Fabrication Ltd.', 'Hi-Tec Fuel &amp; Auto Ltd.', 'Hi-Tec Trailers', 'Hickman Motors Limited', 'Highliner Trailers Ltd.', 'Highwood Global Manufacturing Inc.', 'Hillary Production Machining Ltd.', 'Hino Motors Canada, Ltd.', 'Hitchman Trailer by Lordale Ltd.', 'Hitchman Trailers and Supply Ltd.', 'Hocan Industries Ltd.', 'Honda Canada Inc.', 'Horizon Trailers Ltd.', 'Horseshoe Trailer Mfg.', 'Hub Fire Engines &amp; Equipment Ltd.', 'Hutchinson Industries Canada Inc', 'Hydra Nor International Ltd.', 'Hydraco Industries Ltd', 'Hydralfor Inc.', 'Hyduke Drilling Solutions Inc. d.b.a. Go Getter Welding Ltd.', 'Hyduke Well Service Solutions', 'Hyland Limited', 'Hymec inc', 'Hyundai Auto Canada', 'II M Welding &amp; Fabricating', 'INNOCAR INC.', 'INTERNATIONAL TRUCK BODY INC', 'IRS Truck &amp; Trailer Repair Inc.', 'ISSI Inc.', 'Icon Manufacturing', 'Ideal Cargo Inc.', 'Imex Marketing Inc.', 'Imperial Coach Trailers', 'Incendo Welding and Fabrication', 'Indian Custom Cargo Trailers', 'Industrial Engines Ltd.', 'Industries B. Rainville Inc.', 'Industries J.N.P. enr.', 'Industries Lafleur Inc.', 'Industries N.R.C. Inc.', 'Inline Industries Ltd.', 'Innotec Inc.', 'Innovation Industrielle Boivin Inc.', 'Innovative Trailer Design Industries Inc.', 'Insight Manufacturing Inc.', 'Inter-Boucherville inc.', 'Intercontinental Truck Body (B.C.) Inc.', 'Intercontinental Truck Body Ltd.(AB)', 'Interior R.V. Products Inc.', 'International Fabricating and Machining Inc.', 'Interprovincial Truck Body Corporation', 'Inventive Marine Products Ltd.', 'Irontech Rig Repair and Manufacturing Inc.', 'J. BOND &amp; SONS LTD.', 'J.C. Trailers And Equipment Ltd.', 'J.D.J. Trailer Manufacturers Inc.', 'J.R.W. Trailer Company', 'J.Z.K. Sales &amp; Service Ltd.', 'JEAN PAUL LECOURS LIMITED', 'JHG Metalworks', 'JJ Trailers Manufacturers and Sales Ltd.', "JP's Sales, Service &amp; Repair Ltd.", 'JSD TRUCK REPAIRS LTD.', 'JSW Manufacturing Inc.', 'JT Fabrication Ltd', 'Jackqueline Lockwood As Lockwood Trailer', 'Jacques Legault Welding Ltd.', 'Jamco Trailers a Division of MacLellan Welding Ltd', 'Jays Trailers', 'Jean-Marc Brissette inc.', 'Jensen Auto Body Inc. d.b.a. Jensen Trailer Sales &amp; Service', 'Jesler Enterprises Inc.', 'Joe Johnson Equipment Inc. (Head Office)', 'Joyride Lifts', 'Jroberts International Inc.', 'Junction RV Inc.', 'K-Line Maintenance &amp; Construction Limited', 'K-Line Trailers Ltd.', 'KAL TIRE (Alberta) LTD.', 'KID Trailer And Equipment', 'KRM Metal Products Ltd.', 'KSAD INC.', 'KSM Inc.', 'Kargo-Max Trailer Enclosures Ltd.', 'Kargotec Management Inc.', 'Kelly Trailers Inc.', 'Kemble Mountain Welding', 'Kente Enterprises Div. Of 349895 Ont.ltd', 'Kenworth Quebec inc.', 'Kerr Industries', 'Kevin Busque Inc', 'Kids Embrace c/o Trillium Sales &amp; Distribution Inc.', 'King Cobra Oilfield Services (Drumheller Ltd.)', 'Kingpin Trailers Ltd.', 'Kino Mobility Inc.', 'Kirby International Trucks Ltd. (Hamilton, ON) d.b.a. Altruck International Truck Centers', 'Kirby International Trucks Ltd. (Kitchener, ON) d.b.a. Altruck International Truck Centers', 'Knight Trailer Sales Inc.', 'Kruzer Motorcycle Trailers', 'Kwik Load Products Ltd.', 'L &amp; B Moore Co. Ltd.', 'L &amp; S Beck Enterprises', "L'Equipe Labrie Inc.", 'L. Asselin Inc.', 'L. Smith Industries Ltd.', 'L.E.S. Pro inc', 'L.T.S.  Enr.', 'LBC Contracting Ltd.', 'LES ??QUIPEMENTS POLYTEK INC.', 'LINK SUSPENSIONS OF CANADA, LIMITED PARTNERSHIP', 'LITE INDUSTRIES INC.', 'LITO GREEN MOTION', 'La Compagnie Normand Limitee', 'Lambton Fleet Maintenance Inc', "Landry's Truck Body Manufacturer Ltd.", 'Langfab Fabricators Ltd.', 'Larry Walsh', "Larry's Custom Trailer Manufacturing Inc.", 'Lazer Inox Inc.', 'Le Carrossier Rive-Sud Inc.', 'Le Centre Routier 1994 Inc', 'Le Centre du Camion (Amiante) inc.', 'Le Centre du Camion (Beauce) Inc.', 'Lejeune Engineering', 'Lennox Welding &amp; Supply Ltd.', 'Leo Lavoie &amp; Fils (1976) Ltee.', 'Les Ateliers FLPH Ltee', 'Les Ateliers MCG de Charlevoix Inc.', 'Les Ateliers Richard Tardif', 'Les Bras De Fer Gingras Inc', 'Les Camions Beaudoin Inc.', 'Les Contenants Durabac inc.', 'Les Distributions G.A.P. Inc.', 'Les Entreprises Damris inc.', 'Les Entreprises Ga??van Inc.', 'Les Entreprises H.M. Metal Inc.', 'Les Entreprises JGM Enr.', 'Les Entreprises Jo-He', 'Les Entreprises M. St-Hilaire Enr.', 'Les Entreprises M.C.R. Soudure Inc.', 'Les Equipements Decoste Inc.', 'Les Equipements Reka inc.', 'Les Equipements Twin (1980) Lt??e', 'Les Fabrications A.R.H. Ste-Melanie Inc.', 'Les Fabrications Daunais Inc.', 'Les Fourgons Nortech Inc.', 'Les Fourgons PME Ltee.', 'Les Fourgons Rive-Sud Inc.', 'Les Fourgons Transit Inc.', 'Les Industries Halrai Inc.', 'Les Industries Jack, Div. Auto-Decor Matane Inc.', 'Les Industries Wajax Limitee (Lachine)', 'Les Installations Am??Cam', 'Les Machineries St-Jovite inc.', 'Les Plastiques Flexibulb', 'Les Produits Denray Inc', 'Les Produits Fraco Ltee/Fraco Products Ltd.', 'Les Quais Beaulac Inc.', "Les Quais De L'Estrie Inc.", 'Les Remorques C.F.D.', 'Les Remorques Fleur-Maggs Enr.', 'Les Remorques Jelano', 'Les Remorques Megcass inc.', 'Les Remorques Pliantes DR Inc.', 'Les Ressorts Pour Vehicules Industriels Laval Inc.', 'Les Roulottes Prolite Engr.', 'Les Systemes Erin Ltee/Erin Systems Ltd.', 'Les Voitures Robert Inc.', 'Les modification de camions Tardif &amp; Fils Inc', 'Les remorques JD inc.', 'Les remorques TORX', 'Liberty Motor Company (The)', 'Linetech Design &amp; Mfg. Ltd.', "Linkletter's Welding Ltd.", 'Llomar Trailers 1998 Ltd.', 'Load Line Incorporated', 'London Machinery Inc.', 'Lonestar Welding', "Lorne's Welding &amp; Fabricating Ltd.", 'Lowey Enterprises Ltd.', 'Lucanus Mobility Aids', "Luke's Welding", 'Lyncorp Manufacturing Ltd.', 'M &amp; A Welding', 'M &amp; M Development Ltd.', 'M &amp; R Machines (2000) Ltd.', 'M-R-O RV Services Inc.', 'M. Tucci Construction Ltd.', 'M.G.H. Welding Ltd.', 'M??canique CGL inc.', 'M??cano Alca inc.', 'M??tallomax Inc.', 'MAX-INF (Ningbo) Baby Product Co., Ltd. (for Harmony Juvenile Products)', 'METRO FREIGHTLINER HAMILTON INC.', 'METRO TOW TRUCKS LTD.', 'MFTA Canada Inc (Mitsubishi Fuso Truck)', 'MICRON INDUSTRIES INC.', 'MID-COUNTRY SALES &amp; SUPPLY INC.', 'MID-ONTARIO DIESEL LIMITED', 'MID-ONTARIO TRUCK CENTER', 'MJS Fabricating', 'MORGAN CANADA CORPORATION', 'MRG Industries Inc.', 'MTB Mfg. Inc.', 'MUST Technologies Ltd.', 'MYSHAK SALES &amp; RENTALS LTD.', 'MacDonald Equipment Sales', 'Maccabee Tanks Ltd.', 'Machinerie Agricole Bois-Francs inc.', 'Machinerie Anderson', 'Machinerie G. Simard Inc.', 'Machinerie L??pine inc.', 'Machinerie Laurin Inc.', 'Mack Sales &amp; Service of Manitoba Ltd.', 'Mack Sales and Service of Stoney Creek Ltd.', 'Magma Welding Ltd.', 'Magnum Trailer &amp; Equipment Inc.', 'Mahadev Metal Works &amp; Fabrication', 'Main St. Woodworkers &amp; Marine Supply', 'Mainstream Manufacturing Inc.', 'Maisons SRM Blondeau Homes Inc.', 'Majestik Trailer', 'Malley Industries Inc.', 'Malmberg Truck Trailer Equipment Ltd.', 'Mammoth Trucks Corporation', 'Manac Inc.', 'Mar-Jo Welding &amp; Mechanical Services Ltd.', 'Marathon Equipment Inc.', 'Marboral Ltee', 'Marcep Manufacturing Ltd.', 'Marine Cradle Shop Inc.', 'Marion Trucking Ltd.', 'Mark Manley', 'Marl Technologies Inc.', 'Marshall Truck &amp; Trailer Repair Ltd.', 'Max Load Trailers Inc.', 'Max-Atlas Equipment International Inc.', 'Maxfield Inc', 'Maxi-Metal Inc.', 'Maxi-Roule Inc.', 'McCoy Corporation (Edmonton West end)', 'McCoy Corporation (Edmonton south side)', 'McCoy Corporation (Fort St-John)', 'McCoy Corporation (Red Deer)', 'McGrath Contracting LTD.', 'Medatech Engineering SVC. Ltd', 'Mega-Stage Inc.', 'MegaService R.G.', 'Meltrail (2002) Inc.', 'Mesures Calib-Tech inc.', 'Metal Grenier Ltee', 'Metal Laroche Inc.', 'Metalfab Ltd.', 'Metro Trailer Sales o/a Metro Centre Ltd', 'Micada Farm and Industrial Ltd.', 'Michel Gohier Ltee.', 'Midland Manufacturing Limited', 'Miklyn Mobile Service Inc.', 'Millcosteel', 'Miller Technology Inc.', 'Millroad Manufacturing &amp; Sales INc.', 'Millstone Heating &amp; Sheet Metal Ltd.', 'Milron Metal Fabricators Inc.', 'Minoru Truck Bodies Ltd.', 'Mobile Fibreglass Ltd.', 'Mobilift Inc.', 'Montreal Hydraulique 04 inc.', 'Morskate Manufacturing Ltd', 'Mory Inc.', 'Motor Coach Industries Limited (MCI Canada)', 'Motorises Star Suites Inc./Star Suites Motorhomes Inc.', 'Mountain Road Sales', 'Mowat Fabrication Ltd.', 'Muirhead Manufacturing Ltd.', 'Mulltech Industries Ltd.', 'Multi National Supply Canada Ltd.', 'Multivans Inc. (Bolton)', 'Mumby Manufacturing Ltd.', 'Mustang Trailers &amp; Welding', 'N &amp;  N Remorques Inc.', 'N.L.T. Fabrication', 'NOVILCO INC.', 'NRTC Inc.', 'Nahanni Industries Ltd.', "Nando's Trailer Mfg.", 'National Energy Equipment Inc (BC)', 'National Energy Equipment Inc (NS)', 'National Energy Equipment Inc (ON)', 'National Energy Equipment Inc (SK)', 'National Energy Equipment Inc. (MB)', 'National Energy Equipment Inc. (NB)', 'National Energy Equipment Inc. (NF)', 'National Oilwell/Hitec Systems and C</t>
         </is>
@@ -609,12 +617,15 @@
         </is>
       </c>
       <c r="T3" t="n">
+        <v>66</v>
+      </c>
+      <c r="U3" t="n">
         <v>11355</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>1428</v>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>['104', '11', '115', '117', '128', '132', '138', '14', '157', '158', '159', '163', '169', '171', '18', '180', '190', '199', '2', '201', '207', '214', '23', '232', '242', '249', '250', '252', '256', '271', '279', '28', '297', '3', '307', '309', '33', '330', '345', '346', '348', '38', '388', '394', '40', '402', '408', '417', '436', '439', '443', '461', '47', '471', '475', '477', '48', '485', '491', '501', '509', '51', '510', '532', '533', '543', '549', '561', '565', '567', '581', '582', '593', '598', '5HZ', '604', '627', '629', '63', '634', '655', '714', '715', '718', '729', '748', '771', '82', '821', '845', '863', '867', '885', '89', '896', '897', '901', '904', '912', '913', '927', '928', '930', '931', '933', '936', '942', '944', '950', '954', '961', '963', '964', '972', '975', '977', '979', '98', '981', '984', '985', '986', 'A05', 'A06', 'A13', 'A23', 'A26', 'A29', 'A35', 'A40', 'A49', 'A54', 'A56', 'A58', 'A67', 'A69', 'A74', 'A79', 'A82', 'A84', 'A87', 'A88', 'A95', 'B19', 'B23', 'B24', 'B25', 'B32', 'B42', 'B59', 'B61', 'B75', 'B77', 'B85', 'B88', 'B89', 'B94', 'B98', 'C03', 'C11', 'C30', 'C32', 'C37', 'C50', 'C51', 'C56', 'C57', 'C61', 'C64', 'C68', 'C72', 'C76', 'C78', 'C94', 'D04', 'D35', 'D50', 'D58', 'D76', 'D96', 'E08', 'E12', 'E14', 'E16', 'E18', 'E19', 'E25', 'E27', 'E31', 'E32', 'E38', 'E39', 'E40', 'E45', 'E61', 'E66', 'E69', 'E70', 'E75', 'E81', 'E82', 'E97', 'F01', 'F04', 'F06', 'F08', 'F18', 'F22', 'F27', 'F29', 'F31', 'F33', 'F34', 'F37', 'F39', 'F43', 'F44', 'F46', 'F49', 'F50', 'F52', 'F71', 'F76', 'F78', 'G03', 'G07', 'G09', 'G13', 'G17', 'G18', 'G25', 'G27', 'G34', 'G36', 'G45', 'G48', 'G49', 'G56', 'G57', 'G62', 'G63', 'G65', 'G71', 'G77', 'G83', 'G88', 'G89', 'G93', 'G96', 'G97', 'H01', 'H02', 'H04', 'H12', 'H13', 'H14', 'H16', 'H17', 'H19', 'H25', 'H28', 'H30', 'H33', 'H36', 'H37', 'H41', 'H45', 'H47', 'H55', 'H57', 'H60', 'H62', 'H63', 'H67', 'H68', 'H69', 'H71', 'H72', 'H73', 'H74', 'H76', 'H77', 'H78', 'H83', 'H85', 'H86', 'H89', 'H93', 'H94', 'H95', 'H96', 'H97', 'I02', 'I13', 'I15', 'I16', 'I20', 'I21', 'I23', 'I25', 'I27', 'I28', 'I32', 'I33', 'I34', 'I36', 'I37', 'I38', 'I40', 'I43', 'I44', 'I49', 'I51', 'I54', 'I56', 'I57', 'I59', 'I60', 'I64', 'I65', 'I66', 'I67', 'I68', 'I70', 'I71', 'I73', 'I74', 'I75', 'I76', 'I79', 'I80', 'I81', 'I83', 'I84', 'I87', 'I88', 'I89', 'I93', 'I95', 'I96', 'I97', 'I98', 'I99', 'J04', 'J08', 'J10', 'J11', 'J12', 'J13', 'J14', 'J15', 'J18', 'J20', 'J21', 'J24', 'J26', 'J27', 'J29', 'J30', 'J31', 'J32', 'J34', 'J35', 'J37', 'J39', 'J41', 'J43', 'J45', 'J47', 'J49', 'J51', 'J52', 'J53', 'J54', 'J55', 'J58', 'J63', 'J64', 'J65', 'J66', 'J67', 'J72', 'J73', 'J75', 'J76', 'J78', 'J80', 'J81', 'J82', 'J83', 'J85', 'J87', 'J89', 'J90', 'J91', 'J92', 'J93', 'J94', 'J95', 'J96', 'J97', 'J98', 'K01', 'K02', 'K03', 'K04', 'K07', 'K08', 'K09', 'K11', 'K12', 'K13', 'K15', 'K16', 'K18', 'K20', 'K22', 'K24', 'K28', 'K30', 'K31', 'K33', 'K35', 'K36', 'K37', 'K38', 'K42', 'K45', 'K46', 'K48', 'K49', 'K50', 'K52', 'K53', 'K54', 'K55', 'K56', 'K59', 'K60', 'K61', 'K62', 'K63', 'K67', 'K73', 'K78', 'K79', 'K80', 'K81', 'K82', 'K83', 'K87', 'K89', 'K92', 'K94', 'K95', 'K96', 'K97', 'K98', 'L04', 'L05', 'L06', 'L08', 'L12', 'L13', 'L14', 'L16', 'L17', 'L18', 'L22', 'L23', 'L24', 'L25', 'L27', 'L28', 'L30', 'L31', 'L32', 'L35', 'L36', 'L39', 'L42', 'L43', 'L44', 'L45', 'L46', 'L47', 'L49', 'L51', 'L55', 'L56', 'L57', 'L59', 'L61', 'L62', 'L66', 'L69', 'L71', 'L72', 'L74', 'L75', 'L77', 'L78', 'L80', 'L81', 'L82', 'L83', 'L84', 'L85', 'L86', 'L87', 'L89', 'L91', 'L94', 'L95', 'L96', 'L97', 'L98', 'L99', 'M01', 'M04', 'M07', 'M08', 'M09', 'M10', 'M11', 'M12', 'M13', 'M16', 'M19', 'M21', 'M23', 'M24', 'M25', 'M28', 'M29', 'M30', 'M33', 'M35', 'M36', 'M37', 'M38', 'M39', 'M41', 'M42', 'M43', 'M44', 'M45', 'M46', 'M47', 'M48', 'M49', 'M50', 'M51', 'M52', 'M55', 'M56', 'M57', 'M58', 'M60', 'M62', 'M63', 'M64', 'M65', 'M66', 'M67', 'M69', 'M70', 'M71', 'M73', 'M74', 'M75', 'M78', 'M79', 'M81', 'M82', 'M83', 'M84', 'M85', 'M86', 'M87', 'M88', 'M89', 'M90', 'M91', 'M92', 'M93', 'M94', 'M96', 'N01', 'N02', 'N03', 'N04', 'N06', 'N07', 'N08', 'N09', 'N11', 'N13', 'N14', 'N15', 'N17', 'N18', 'N20', 'N21', 'N23', 'N24', 'N25', 'N26', 'N28', 'N29', 'N30', 'N31', 'N32', 'N33', 'N35', 'N36', 'N37', 'N38', 'N40', 'N41', 'N42', 'N43', 'N44', 'N47', 'N48', 'N49', 'N50', 'N51', 'N53', 'N55', 'N56', 'N57', 'N59', 'N61', 'N62', 'N63', 'N64', 'N65', 'N66', 'N69', 'N70', 'N71', 'N73', 'N74', 'N75', 'N76', 'N77', 'N79', 'N80', 'N81', 'N82', 'N83', 'N84', 'N85', 'N86', 'N89', 'N90', 'N91', 'N93', 'N95', 'N96', 'N97', 'N99', 'P02', 'P03', 'P04', 'P05', 'P06', 'P08', 'P09', 'P12', 'P14', 'P15', 'P16', 'P17', 'P18', 'P22', 'P23', 'P24', 'P25', 'P28', 'P29', 'P30', 'P31', 'P35', 'P36', 'P37', 'P38', 'P39', 'P40', 'P41', 'P42', 'P44', 'P45', 'P46', 'P47', 'P48', 'P50', 'P51', 'P52', 'P53', 'P55', 'P56', 'P57', 'P60', 'P61', 'P62', 'P63', 'P66', 'P67', 'P68', 'P69', 'P70', 'P71', 'P72', 'P73', 'P74', 'P75', 'P76', 'P77', 'P79', 'P80', 'P81', 'P83', 'P84', 'P85', 'P86', 'P87', 'P88', 'P89', 'P91', 'P92', 'P94', 'P95', 'P96', 'P97', 'P98', 'P99', 'R01', 'R02', 'R04', 'R05', 'R06', 'R07', 'R08', 'R09', 'R10', 'R12', 'R13', 'R14', 'R15', 'R16', 'R18', 'R19', 'R20', 'R21', 'R22', 'R23', 'R24', 'R25', 'R26', 'R28', 'R29', 'R30', 'R31', 'R33', 'R34', 'R35', 'R36', 'R37', 'R38', 'R39', 'R40', 'R41', 'R42', 'R43', 'R44', 'R45', 'R47', 'R48', 'R49', 'R50', 'R51', 'R53', 'R54', 'R58', 'R59', 'R60', 'R61', 'R62', 'R63', 'R64', 'R65', 'R66', 'R68', 'R69', 'R70', 'R72', 'R73', 'R74', 'R75', 'R76', 'R77', 'R78', 'R79', 'R80', 'R81', 'R82', 'R83', 'R84', 'R85', 'R86', 'R87', 'R88', 'R89', 'R90', 'R91', 'R92', 'R93', 'R94', 'R95', 'R96', 'R97', 'R98', 'R99', 'T01', 'T02', 'T03', 'T04', 'T05', 'T06', 'T07', 'T08', 'T09', 'T10', 'T11', 'T12', 'T13', 'T20', 'T21', 'T22', 'T24', 'T25', 'T28', 'T30', 'T31', 'T32', 'T33', 'T34', 'T35', 'T38', 'T41', 'T42', 'T44', 'T45', 'T47', 'T48', 'T49', 'T50', 'T51', 'T52', 'T53', 'T54', 'T56', 'T57', 'T58', 'T59', 'T60', 'T62', 'T65', 'T66', 'T67', 'T69', 'T70', 'T71', 'T72', 'T73', 'T74', 'T75', 'T76', 'T77', 'T78', 'T79', 'T81', 'T82', 'T83', 'T85', 'T86', 'T87', 'T88', 'T89', 'T90', 'T92', 'T93', 'T95', 'T96', 'T97', 'T99', 'U01', 'U02', 'U03', 'U07', 'U09', 'U10', 'U11', 'U12', 'U13', 'U14', 'U15', 'U16', 'U18', 'U19', 'U20', 'U21', 'U22', 'U23', 'U24', 'U25', 'U26', 'U29', 'U30', 'U31', 'U32', 'U33', 'U34', 'U36', 'U37', 'U38', 'U40', 'U41', 'U42', 'U43', 'U44', 'U45', 'U46', 'U47', 'U48', 'U49', 'U50', 'U51', 'U52', 'U53', 'U55', 'U56', 'U57', 'U58', 'U59', 'U61', 'U62', 'U63', 'U65', 'U66', 'U67', 'U68', 'U69', 'U71', 'U72', 'U73', 'U74', 'U75', 'U76', 'U77', 'U78', 'U79', 'U80', 'U81', 'U82', 'U83', 'U84', 'U85', 'U86', 'U87', 'U88', 'U89', 'U90', 'U91', 'U92', 'U93', 'U94', 'U95', 'U96', 'U97', 'U98', 'U99', 'V01', 'V02', 'V03', 'V04', 'V07', 'V08', 'V09', 'V10', 'V11', 'V12', 'V13', 'V14', 'V15', 'V16', 'V17', 'V18', 'V20', 'V21', 'V22', 'V23', 'V24', 'V25', 'V27', 'V28', 'V29', 'V30', 'V31', 'V32', 'V33', 'V34', 'V35', 'V36', 'V37', 'V38', 'V39', 'V40', 'V41', 'V42', 'V44', 'V45', 'V46', 'V47', 'V48', 'V49', 'V50', 'V51', 'V52', 'V53', 'V54', 'V56', 'V57', 'V58', 'V59', 'V60', 'V62', 'V63', 'V65', 'V66', 'V67', 'V68', 'V69', 'V70', 'V71', 'V72', 'V73', 'V74', 'V75', 'V76', 'V77', 'V78', 'V79', 'V81', 'V82', 'V83', 'V84', 'V85', 'V86', 'V87', 'V88', 'V89', 'V90', 'V91', 'V92', 'V93', 'V94', 'V95', 'V96', 'V97', 'V98', 'V99', 'W01', 'W03', 'W04', 'W05', 'W06', 'W07', 'W08', 'W10', 'W11', 'W12', 'W13', 'W14', 'W16', 'W18', 'W19', 'W20', 'W21', 'W22', 'W23', 'W24', 'W25', 'W26', 'W27', 'W28', 'W29', 'W30', 'W31', 'W32', 'W33', 'W34', 'W35', 'W36', 'W37', 'W38', 'W39', 'W40', 'W41', 'W42', 'W43', 'W44', 'W45', 'W46', 'W47', 'W48', 'W49', 'W50', 'W51', 'W52', 'W53', 'W54', 'W55', 'W56', 'W57', 'W58', 'W59', 'W60', 'W61', 'W62', 'W63', 'W64', 'W65', 'W66', 'W67', 'W68', 'W69', 'W70', 'W71', 'W72', 'W73', 'W74', 'W75', 'W76', 'W77', 'W78', 'W79', 'W80', 'W81', 'W82', 'W83', 'W84', 'W85', 'W86', 'W87', 'W88', 'W89', 'W90', 'W91', 'W92', 'W93', 'W94', 'W96', 'W97', 'W98', 'W99', 'X01', 'X02', 'X03', 'X04', 'X05', 'X06', 'X07', 'X08', 'X09', 'X10', 'X11', 'X12', 'X13', 'X14', 'X15', 'X16', 'X17', 'X18', 'X19', 'X21', 'X22', 'X23', 'X24', 'X25', 'X26', 'X27', 'X28', 'X29', 'X30', 'X31', 'X32', 'X33', 'X34', 'X35', 'X36', 'X37', 'X38', 'X40', 'X41', 'X43', 'X44', 'X45', 'X46', 'X47', 'X48', 'X49', 'X50', 'X51', 'X52', 'X53', 'X54', 'X55', 'X56', 'X57', 'X58', 'X59', 'X60', 'X61', 'X62', 'X63', 'X64', 'X65', 'X66', 'X67', 'X68', 'X70', 'X71', 'X72', 'X73', 'X74', 'X75', 'X76', 'X77', 'X78', 'X79', 'X80', 'X81', 'X82', 'X83', 'X84', 'X85', 'X86', 'X87', 'X88', 'X89', 'X90', 'X91', 'X92', 'X93', 'X94', 'X95', 'X96', 'X97', 'Y03', 'Y04', 'Y05', 'Y06', 'Y07', 'Y08', 'Y09', 'Y10', 'Y11', 'Y12', 'Y13', 'Y14', 'Y15', 'Y16', 'Y17', 'Y18', 'Y19', 'Y20', 'Y21', 'Y22', 'Y23', 'Y24', 'Y25', 'Y26', 'Y27', 'Y28', 'Y29', 'Y30', 'Y31', 'Y32', 'Y34', 'Y35', 'Y36', 'Y37', 'Y38', 'Y39', 'Y40', 'Y41', 'Y42', 'Y43', 'Y44', 'Y45', 'Y47', 'Y48', 'Y49', 'Y50', 'Y51', 'Y52', 'Y53', 'Y54', 'Y55', 'Y56', 'Y57', 'Y58', 'Y59', 'Y60', 'Y61', 'Y62', 'Y63', 'Y64', 'Y65', 'Y66', 'Y68', 'Y69', 'Y70', 'Y71', 'Y72', 'Y73', 'Y74', 'Y75', 'Y76', 'Y77', 'Y78', 'Y80', 'Y81', 'Y82', 'Y84', 'Y85', 'Y86', 'Y87', 'Y88', 'Y89', 'Y90', 'Y92', 'Y93', 'Y94', 'Y95', 'Y96', 'Y97', 'Y98', 'Z01', 'Z02', 'Z03', 'Z05', 'Z06', 'Z07', 'Z08', 'Z10', 'Z11', 'Z12', 'Z13', 'Z14', 'Z15', 'Z16', 'Z17', 'Z18', 'Z19', 'Z20', 'Z21', 'Z22', 'Z23', 'Z24', 'Z25', 'Z26', 'Z27', 'Z28', 'Z29', 'Z30', 'Z31', 'Z32', 'Z33', 'Z34', 'Z35', 'Z36', 'Z37', 'Z38', 'Z39', 'Z40', 'Z41', 'Z42', 'Z43', 'Z44', 'Z45', 'Z46', 'Z47', 'Z48', 'Z49', 'Z50', 'Z51', 'Z52', 'Z53', 'Z54', 'Z55', 'Z56', 'Z57', 'Z58', 'Z60', 'Z61', 'Z62', 'Z63', 'Z64', 'Z65', 'Z66', 'Z67', 'Z68', 'Z69', 'Z70', 'Z71', 'Z72', 'Z73', 'Z74', 'Z75', 'Z76', 'Z77', 'Z79', 'Z81', 'v61']</t>
         </is>
@@ -683,12 +694,15 @@
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
+        <v>3391</v>
+      </c>
+      <c r="U4" t="n">
         <v>22302</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>76</v>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>['2007 - GSR 400, GSR 600, GSRPT- service rigs &amp; pump truck', '3390', '5th Wheel trailers', '5th Wheel, flatdeck', '5th wheel trailers.  SR', 'All RIG  equipped trailers are CMVSS 223 compliant.', 'All RIG equipped trailers are CMVSS 223 compliant', 'All RIG equipped trailers are CMVSS 223 compliant\n\n\n\nWMI Codes:\n\n2R9 144 - trailers\n\n2J9 037 - trucks\n\n2A9 138 - trailer conv dollies', 'All RIG equipped trailers are CMVSS 223 compliant.', 'All RIG equipped trailers are CMVSS 223-RIG compliant - CTEA generic RIG program.', 'All RIG equipped trailers are CMVSs 223 compliant.', 'All trailers that Haultec manufacturers are wheels back.', 'Also Mfg flat deck car haulers DB July 19, 2003.', 'Armored vehicles', 'Astro/Safari infloor lift;\n\nRaised roofs by Kino;', 'Authorized to import under National Safety Mark X19 child restraint systems and booster seats manufactured in China by MAX-INF (Ningbo) Baby Product Co., Ltd. (formerly Ningbo Winwin)', 'CMVSS 223 - RIG exempt', 'CMVSS 223 EXEMPT AS PER SECTION 2(C)', 'CMVSS 223 compliant', 'Cadillac XTS conversions 7", 24", 44", 70"\n\nLincoln MKT conversions 44", 70", 120"', 'Chrysler mini-vans raised roof back from the "B" pillar, in floor lift, taxi.', 'Company is also performing "raised roof" conversions.', 'Drill rigs from the ground up and air brake trailers for the oil field. DB', 'Fire Trucks', 'Fire truck', 'Flat decks on chassis.', 'Flatbeds and service bodies.', 'Ford travel van conversions', 'Formerly o/a Ningbo Winwin, manufactures child restraint systems and booster seats in China for importation into Canada by 4187229 Canada Inc. dba Harmony Juvenile Products under National Safety Mark X19', 'Importer for Apramo, Kukuxumusu, Sparco products', 'Importer for Britax, BOB products', 'Importer for Chicco and Nuna products', 'Importer for Diono, Little Tikes, and formerly Sunshine Kids products', 'Importer for Evenflo and Snugli products', 'Importer for Graco products', 'Importer for Safety 1st, Cosco, Eddie Bauer, Maxi-Cosi products', 'Importer for TeamTex (Fisher Price, Ferrari, Barbie, Hot Wheels) and UPPABaby products', 'Installs Winter maintenance equipment (Snowplows, Sidewing, V-Box, Sander, Dump bodies, PTO) DB', 'Installs petroleum tanks', 'LSV', 'Low chassis trailers - CMVSS 223 - RIG exempt.', 'Mahadev is an alterer specializing in the modification of completed/compliant vehicles so as to render them wheelchair accessible.', 'Manufactures boat, snowmobile and small tent trailers. DB (from RDIM) July 16, 03.', 'Manufactures drilling rigs', 'Manufactures motorcycle trailers.', 'Member of CTEA generic RIG program.', 'Mfg firetrucks D.B. Sept 30, 2004', 'Mfg rear dump trailers', 'Mfg trailers that are used to heat buildings or tents for construction', 'Mfg, gravel dump trailers', 'Mud tank trailers. DB June 21, 2005.\n\n\n\nAll RIG equipped trailers are CMVSS 223 compliant.', 'NSM application in process 4-Nov-2002. Request proceeded by S. Lalime', 'No more new ambulances, adaptation dissable transportation, special vehicles. All altered vehicles are 0 to 50 000km. 60% of total production used 40% new.', 'Oil Field trailers', 'Pup Dump trailers.', "RIG's are CMVSS 223 compliant", "RIG's are CMVSS 223 compliant.", 'Right-hand drive', "Steel RIG's are CMVSS 223 compliant.\n\n\n\nAluminum RIG's only to be fitted to tanker trailers.", 'TRUCKS:\n\nFront &amp; Rear Loader Garbage Trucks, Roll-offs.\n\n\n\nTRAILERS:\n\nRoll-offs, Pups, Frameless dumps.', 'They are an International Truck dealer', 'This company manufacturers and installs transfer seats in vehicles modified for persons with disabilities.', 'Trailers for transporting coiled wire.', 'Transformation of trucks, installation of equipment on heavy trucks. Extend or shorten  chassis. Box of trucks, tatters, deck, topple over dumpsters, snow shoveling systems , articulated common cranes, valve systems, spreaders.', 'Triple E Recreational Vehicles A Division of Triple E Canada Ltd.', 'Truck:  4000, MT 350 &amp; VT 650', 'Van and flat decks', 'Vehicles modified for physically challenged individuals.\n\nChrysler and GM Pontiac Montana mini-van, raised roof / dropped floor + extended doors.', 'Vendor permit number', 'Whelbase alteration, body/equipment installation, fifthwheel installation on International Class 8 7000 &amp; 8000, Volvo serie VHD, Sterling serie LT9500, Freightliner serie Colombia &amp; model M2, Peterbuilt serie 340, 365 &amp; 367, Western Star serie 4900, Kenworth model T800, Mack CT-713 &amp; CV-713', 'Windstar rear entry wheelchair accessible vans', 'all RIG equipped trailers are CMVSS 223 compliant', 'company has 3 WMI codes\n\n2HS - Truck Tractor\n\n2HT - Incomplete Straight Truck\n\n2HV - Incomplete Bux', 'mfg Water supply trailers.', 'see others', 'trailers manufactured are CMVSS 223 exempt']</t>
         </is>
@@ -757,12 +771,15 @@
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
+        <v>3521</v>
+      </c>
+      <c r="U5" t="n">
         <v>31245</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>49</v>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>['5th Wheel et remorque plateforme.', "Anciennement connu sous Ningbo Winwin, fabrique des syst??mes de retenue pour enfants et des si??ges d'appoint en Chine pour l'importation au Canada par la compagnie 4187229 Canada Inc. dba Harmony Juvenile Products en vertu de la Marque nationale de s??curit?? X19", "Autoris?? ?y importer en vertu de la Marque nationale de s??curit?? X19 des syst??mes de retenue pour enfants et des si??ges d'appoint fabriqu??s en Chine par MAX-INF (Ningbo) Baby Product Co., Ltd. (anciennement connu sous Ningbo Winwin)", 'CAMIONS:\n\nCamions ?y d??chets ?y chargement avant et arri??re, Roll-offs.\n\n\n\nREMORQUES:\n\nRoll-offs, Pups, Frameless dumps.', "Camionnettes Windstar avec acc??s pour fauteuils roulants ?y l'arri??re", 'Camions de pompier', 'Caravanes 5th Wheel', "Cette compagnie s'occupe aussi de la conversion de  to??ts sur??lev??s.", 'Conduite du c??t?? droit', 'Demande de MNS en cours. 4-Nov-2002. Traitement de la demande fait par S. Lalime', 'Dispositifs de protection arri??re conformes ?y NSVAC 223.', 'Exempt?? de la norme NSVAC 223 (dispositif de protection arri??re)', 'Fabrique aussi des plateformes pour le transport de voitures.\n\nD.B. 19 juillet 2003.', "Fabrique des camions d'incendie.\n\nD.B. 30 septembre 2004.", 'Fabrique des plateformes de forage.', 'Fabrique des remorques ?y d??charge arri??re.', 'Fabrique des remorques ?y motocyclette.', 'Fabrique des remorques pour approvisionnement en eau', 'Fabrique des remorques pour motocyclettes.', 'Fabrique des remorques servant ?y la d??charge de gravier.', 'Fabrique des remorques utilis??es pour le chauffage des ??difices ou des tentes, dans le domaine de la construction.', 'Importateur pour les products Britax, BOB', 'Importateur pour les produits Apramo, Kukuxumusu, Sparco', 'Importateur pour les produits Chicco et Nuna', 'Importateur pour les produits Diono, Little Tikes, et anciennement Sunshine Kids', 'Importateur pour les produits Evenflo et Snugli', 'Importateur pour les produits Graco', 'Importateur pour les produits Safety 1st, Cosco, Eddie Bauer, Maxi-Cosi', 'Importateur pour les produits TeamTex (Ferrari, Barbie, Hot Wheels) et UPPABaby', 'Installe des r??servoirs de p??trole', 'Les dispositifs de protection arri??re sont conformes ?y NSVAC 223.', "Les remorques ??quip??es d'un dispositif de protection arri??re sont conformes ?y la norme NSVAc 223.", 'Les remorques fabriqu??es sont exemptes de NSVAC 223.', "Les remorques munies d'un dispositif de protection arri??re en acier sont conformes ?y NSVAC 223.\n\n\n\nSeules les remorques citernes peuvent ?|tre munies d'un dispositif de protection arri??re en aluminium.", "Les remorques munies d'un dispositif de protection arri??re sont conformes ?y NSVAC 223.", 'Mahadev se sp??cialise dans la modification de v??hicules complets et conformes aux NSVAC en v??hicules accessibles pour les fauteuils roulants.', "Modification d'empattement, installation de bo??te et equipements, installation de sellette d'attelage sur International Class 8 7000 &amp; 8000, Volvo serie VHD, Sterling serie LT9500, Freightliner serie Colombia &amp; modele M2, Peterbuilt serie 340, 365 &amp; 367, Western Star serie 4900, Kenworth modele T800, Mack CT-713 &amp; CV-713", 'Modification de v??hicules\n\npour personnes handicap??es, Chrysler, GM, Pontiac Montana mini-van, toit sur??lev?? / planchers abaiss??s + portes agrandies.', 'Remorques "5th wheel". SR', 'Remorques ?y bas chassis - exemptes de NSVAC 223.', "Remorques de r??servoir de boue\n\nDB 21 juin, 2005.\n\n\n\nToutes les remorques munies d'un dispositif de protection arri??re sont conformes ?y NSVAC 223.", 'Remorques pour transporter des rouleaux de fil ??lectrique.', "Toutes les remorques ??quip??es d'un dispositif de protection arri??re sont conformes ?y la norme NSVAC 223.", "Toutes les remorques ??quip??es d'un dispositif de protection arri??re sont conformes ?y la norme NSVAC 223.\n\n\n\nCodes WMI:\n\n2R9 144 - remorques\n\n2J9 037 - camions\n\n2A9 138 - chariots de conversion", "Toutes les remorques munies d'un dispositif de protection arri??re sont conformes ?y NSVAC 223.", "Transformation de camions, installation d'??quippement sur camions lourds. Allonge ou raccourci chassis. Bo??te de camions, haillons, plate-forme, Bennes basculantes, syst. de pelle ?y neige, grues articul??es, syst??mes de valves, ??pandeuses.", 'V??hicules ?y basse vitesse.', "V??hicules Astro / Safari ??quip??s d'un levier int??gr?? au plancher.\n\n\n\nV??hicules Kino ?y to??t sur??lev??", 'camions incendie']</t>
         </is>
@@ -835,12 +852,15 @@
         </is>
       </c>
       <c r="T6" t="n">
+        <v>14</v>
+      </c>
+      <c r="U6" t="n">
         <v>72056</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>1617</v>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>['#1 - 2720 12th Street N.E.', '#1 - 7861 Hwy 97N', '#1 7884-49 Avenue', '#1 Cardinal Street', '#1 Greengage Road', '#1 Legacy Junction, Hwy 13/56', '#1 Silversage Road', '#1, 1915 - 30th Avenue North East', '#10 Forwell Road', '#107-20693 Langley Bypass', '#12, 3939 54th Avenue S.E.', '#120, 10569 - 42th Street SE', '#170 Hwy 83 North', '#30, 53016 Hwy# 60', '#301 26730 56th Avenue', '#306-5327-192nd  Street', '#4 - 7187 Honeyman Street', '#4 4440-75Ave. SE', '#5-7880-128 Street', '#54 - 37337 Burnt Lake Trail', '#7 - 1231 - 36th Avenue N.E.', '#7-3815 - 61St Avenue South East', '#8, 4 Erickson Crescent', '#9 - 1065 Herring Gull Way', '#9 Laut Cres Box 602', '#Bay 101, 4528 - 6A Street North East', '#NAME?', '07 Robinson Road  RR# 1', '1  Norpark Drive RR#4', '1 1/2 miles east of Hwy 21/595 jct near Delburne', '1 Av. Premier', '1 Elmvalley Road', '1 Lower Malpeque Road', '1 Quai Mgr Blanche, hangar no. 6', '1 Reed Avenue', '1 Royales Avenue', '1 Schenk Industrial Road', '1 Solvay Drive', '1 rue Du Parc', '1, rue Pinat', '1-1340 Stevens Road', "10 Boul. de L'Artisan", '10 Chemin de la Grande-Carriere', '10 Herritage RD', '10 Miles W. On Hwy #2', '10 Montana St', '10 Sicard St.', '10-B Li??bert', '100 - 10500, 48 Street S.E.', '100 Blvd. Real Caouette', '100 Burland Crescent', '100 Canola Ave.', '100 East Beaver Creek Road', '100 Pierrot', '100 Shirley Avenue', '100 Street', '100, rue Cormier', '1000 6th Avenue N.E.', '1000 boul. Industriel', '1000, rue Industrielle', '1001 Coutts Way', '1002 - 15 Ave Nisku', '1005 Pattullo Avenue, R.R. 8', '1006 Principale', '1007 South Service Road', '1008, Rte Mgr.-Bourget', '101 Columbus', '101 Marius Warnet', '101 Oakdale Road, Unit 10', '101 Place G??rard-Poirier, Complexe S.D.B.J.', '1018 Lansdowne St.', '102 - 485 Warren Ave. East', '102 Dawson Road, P.O. Box 3003', '102, rue du Menuisier', '102, rue du Parc Industriel, Case postale 70', '1020 17th Street West', '1020 Rue Craig Nord', '10240 Bl. L??vesque', '1026 Western Dr. Box 830', '1028 Laut Avenue', '103 - 3141 Gill Avenue', '103 Avenue', '103 Paramount Rd', '1030 Fernand-Dufour', '1035 Falconbridge Road', '1035, Rte. 219', '1038, Commerciale', '1040 Degurse Drive', '10401 Boul. Parkway', '1041 rue Nobel', '1043 rue Renault', '1047, rue Capri', '10498 17 Street', '105  MacDonald Street North', '1051 Heritage Road', '1053 Brock Road South', '1055 Line 3 South', '1056 hwy 6 North', '10571 - 178th Street', '106 Avenue', '106 Avenue South East', '106-6249 205th Street', '10620-205 Street', '1064, boul. Mgr-de-Laval', '10647 McSween Road', '1069 Route 133', '107 - 2707 Progressive Way', '1070 Gorham St', '1071 Hwy 7 East RR# 7', '1077 Hwy 26', '10774 - 42nd St SE', '1080, Chemin des Prairies', '10816 Plank Road R.R. #1', '1084, Rue L??vis', '10847 Scott Road', '1090 South Service Road East, Unit A', '1091 Manitoba Street', '1091, rue Principale', '10920 - 87 Avenue', '1093 Lorimar Drive', '1093 Smithers Road', '1095 St-Albert Road', '1096, L??vis , unit?? #3', '11 500, 57 ieme Avenue', '11 Queensway', '11, Rue Dupuis', '110 Boul. Desjardins', '110 Lowson Crescent', '110 Street', '110 route du lac St-Francois', '110, 41 Royal Viste Drive North West', '1100 Aviation Avenue', '1100 Fairville Blvd.', '1100 Rue Deschaillons', '1100 Rue Norman', '1100 Wall Street', "1100 de l'Industrie", '11003 - 97 Avenue', '11025 184 Street N.W', '1106 Broughton Street', '1114 Route 138', '1115 Cushman Road, Unit 46', '1116, rue Durance', '1119 -48th Street SE', '112 Avenue NW', '112 route 155', '1120 Industrial Drive P.O. Box 1271', '1121 Heritage Road', '1121 Heritage Road.', '1123 Lorimar Drive', '11313 - 170th Street', '114 Thomas Maher', '11416 Winterburn rd.', '1143 Route 500 West', '11434 154 St. NW', '115, St-Georges', '11500, 55e Avenue', '11520 - 2 Street N.W.', '11525 - 42 Street SE', '11525 - 42nd Street South East', '1155 rue George-H-Boulay', '1159 Des Pionniers', '116 Sunterra Heights', '116 Thorne Ave', '11634 - 156 Street', '11634 - 7th Street', '11635 6e avenue', '11650 - 156 Street NW', '1169 Pettit Rd.', '11700 Boul. St-Jean- Baptiste', '11740 Phillipe-Panneton', '1180 Aerowood Drive', '1184 Middlegate Rd.', '1185 Roland Street', '1186 route 321 Nord', '11860 Machrina Way', '11938 Imperial Road, R.R. #4', '119A 39015 Highway 2A', '11th Street', '12 Chelsea Lane', '12 McGregor Ave', '12 Norbett Drive, Units 2 &amp; 3', '12, Rang St-Andre', '120 boul. Industriel', '1200 McIntyre Street', '1200 McIntyre Street`', '1200, rue Nationale', '1201 Route 329 Nord', '1202 8th Street, Bay 18', '12020 - 101 Avenue', '12031 Vulcan Way', '1205B - 36th Street North', '1206, du pacifique', '121 B, rue Principale', '12145 - 156 Street', '12145 Dorchester Rd. (RR #7)', '12145 Meridian St', '1215 Victoria', '1220 Franklin Blvd.', '1222 58th Avenue SE', '12235 William Short Road', '1225 64TH Ave N.E.', '122nd Avenue, South East', '123 Old Highway 11 North', '123 Princess Street', "1234, rue de l'??glise", '12343A - 104th Avenue', '123rd Avenue North West', '12404-107th Street', '1245, rue Labadie', '12455, rue April', '1250 Gorham Street', '1250, Notre-Dame', '1250, boulevard V??zina', '126 Wheeler Street', '126, boul. Notre-Dame', '12605 - 66 Street', '1265 McDonald Street', '1266 Sharpe Line', '12731 Hwy #48', '12747 Hwy 16 E.', '129 Oakwood Street', '12A 2337 Townline Road', '130 Canada St, PO Box 2008', '130 Millwick Drive', '130 route 335', '1301 Jackson Side Road', '1304 rue Principale', '131 Staffern Drive', '13105 rue Jean-Grou', '1312 Plank Road', '1313 rue de Saint-Jovite', '13143 Country Road 16', '1318 rue Principale', '132 Montee Grande Ligne', '133, Industrial Park Road', '1330 Riverside Road', '1345 Franklin Street', '1345 Industrial Rd., Westside Industrial Park', '135 6th East', '135 Canada Street', '135 McNarmara Drive', '1351 Ampere Local-0', '1351 Ampere, Suite 1', '1351 Lionel-Boulet', '13594 Sabo Road', '136 Highway 33, R.R. #3', '1360 Bloor Street West', '1360 Rang 6 Nord', '1365 Alberni Highway', '1365 Border Street', '1365 Midland Avenue, Unit 90', '1368 Rymal Rd E', '139 Laird Drive', '13920 Tecumseh Road R.R. #5', '1395 Route 139', '1399 Waterton Avenue', '14 Ferry Road', '14 Hallett Crescent', '14 Mont??e Petite C??te', '14 ch. Grande Ligne', '1405 - 41 Street North', '1405 - 41st Street North', '1407 Colborne Street East', '1415 39 Street North', '1417 Notre Dame Drive  RR#1', '143, Route 108', '14355 - 120 Avenue', '1439, Rang 1', '144 Henderson Drive', '1440 1??re Avenue', '1445 Graham-Bell', '145 Damasse-Breton', '145 Falcon Street', '145 Roe Avenue', '1451, boulevard Industriel', '1461 Star Top Rd.', '14650-118th Ave.', '1467 Spitfire Place', '1470 Star Top Road', '1470 Willson Place', '14701 14 Ave Crowsnest Pass', '1475 Clarence Avenue', '149 Bentley Avenue', '1498 Midland Avenue', '15 Ilsley Avenue', '15 Iris Crescent', '15 Johnson Cres.', '15 Kenyon Street', '15 Robbins Drive', '15 rue Dutilly', '150 Cree Crescent', '150 route 112', '150, rue Edward-Assh', '1503 Petrolia Line RR#1', '151 Bullis Road', '151 Thornhill Drive', '1511 Sparrow Drive', '1511 rue J??rome-Hamel', '1520 Charles Street', '15210 Yellowhead Trail', '1523 Ross Ave.', '1525 County Road 42, RR#2', '152b Oakdale Rd', '153 Autumnwood Drive', '15303-94 Street', '1540 Saskatchewan Avenue', '15410 Yellowhead Trail', '1548 County Road 34', '155 Dawson Road', '155 Glenn Avenue', '155, Marie-Victorin', '1550 Highway 39 East', '156 Berryman Ave', '157, rue Principale', '1571 Liverpool Court', "15790 Robin's Hill Road", '158 Old Vernon Road', '15816 - 111 Avenue', '1588 King Edward Street', '15935A 118th Avenue', '1596 Vella Road', '16 Estate Drive', '160, rue Savard', '160, rue des Routiers', '1600 Springfield Road', '1602 Western Street', '16079, boul. Cure-Labelle (route 117)', '161 Deerhide Crescent Unit #3', '161 rue Sylvestre', '16105 Hwy #27 PO Box 209', '1616 Meridian Road N.E.', '162 Boulevard Mercier', '16230 188th Ave. NW', '1630 Matheson Blvd E, Unit 4', '1630, Route Kennedy', '16320, rang St-Dominique', '1634 Stittsville Main Street', '164, Mgr. Martin', '1640 Enterprise Road', '16440 130th Ave', '165 Magill Street', '165 Thames East', '1650 The Queensway', '1651 - 12th Street', '1655 Hymus Blvd.', '1655 boulevard de Port Royal', '166 North Murry Street - Box 682', '166 rue Sylvestre', '166 rue du Carrefour', '16615 Post Rd', '16657 - 111 Avenue', '16703 - 110 Avenue North West', '16715 114th Avenue', '16830 111th Avenue', '1690 rue Eiffel', '16A Second Street', '17 - 199 Omands Creek', '17 rue des Pins', '17-1-15 NE', '170 Joseph Zatzman Drive, Unit 18', '1715 Britannia Road East', '1718 - Hwy. #6 North, R.r. #2', '1720 boulevard St-Charles', '1730 rue Atmec', '17303 - 114 Avenue', '175 Gordon Baker Road', '175 Pinedale Avenue', '175 Route 104', '175, route du Pont', '1750 Brown Road', '1750 West 75th Avenue', '1755 rue Janelle', '1759 Trafalgar Street', '176 McGovern Drive, R.R. #32', '17604 105th Avenue', '1772 Broadway Street', '1775 Drew Road', '1781 Bresse', '17817 Leslie Street, Unit 16', '1783 Oxford Street, Unit #5', "18 Dundee Avenue Suite #1 (Donovan's Ind. Park)", '18 Mountshannon Dr.', '180 Hodsman Rd.', '180 Honda Blvd.', '1801 Bleams Rd', '18020 - 118 Avenue', '1803 Ryan Road East', '1805-10 Avenue SW', '181 Bay Street', '18110 - 118 Avenue', '182 Darling Drive', '182 Morin', '1825, rue Power', '1830A Cage Court', '1831 Barton St.', '1836, 3e avenue', '1839 Seymour St. Site 9, Comp. 11, RR# 3', '1840 Gage Court', '1840 Kryczka Place', '18410-118a Avenue North West', '18412 96th Ave', '1845 route 122', '1850 Derry Road East', '1855 boul. Queen Victoria', '18550 - 96 Avenue', '186 Main Street', '18688 96th Avenue', '1895, Boul. Frontenac Est', '18th Ave', '19 Industrial Street', '19, Gaston-Dumoulin', '19, rue C??t??', '190 Commercial Place', '1900-800 - 5th Avenue S.W.', '1904 4th street', '1908 Colonel Sam Drive', '191 Dalton Avenue', '1911 East Bypass Road', '1914 Glover Road', "1915 boul. de L'Industrie", '1919 - 84th Ave', '19315 96 Ave', '1940 Albion Road', '19405 Enterprise Way', '19439 94th Avenue', '19470 - 96th Avenue', '195 Citation Dr.', '1951 Wilfert road', '19548 - 96 Avenue', '1955 Caribou Street West', '1955 West Trans. Canada Hwy.', '196 Armand Bombardier', '1960 Barton Street East', '1963 Kingsway Avenue', '1995 Merivale Road', '19992 Fraser Hwy, Unit 102', '1??re rue', '1st Street South, P.O. Box 1124', '2 - 418 South Railway Street South', '2 Arrowsmith Road', '2 McIlveen Drive', '2 Robert Speck Parkway, Ste. 765', '2, boulevard Marie-Victorin', '2, rue du Parc', '2-331 Parkdale Road', '20 Alness Street', '200 Ellis Drive, Acheson Industrial Park', '200 Horsman Road', '200 Moulinette Road', '200 Street', '200 Waydom Drive', '200 mont??e Industrielle', '200 rue Damasse Breton', '200, rue Savard, C.P. 6', '2000 Boul. Ste Sophie', '2000 Langstaff Road', '2000, avenue M??thot, C.P. 333', '2001 1st Avenue', '201 Woodlawn Road', '201 blvd Labb?? N # 6', '201-1492 Admirals Road', '2010 Riverside Drive', '20141 Logan Ave', '20165 Logan Avenue', '202, 26229 TWP 531 A (Zone 2 Industrial Area)', '2020 Bantree St.', '2025 Lechatelier', '2028 Dundas Street', '2035 Bedell', '205 Boulevard Saint-Sacrement', '205 Konrad', '205 Miner', '205 rue Commerciale', '2054 Birch Crescent S.E.', '2066 Henry Avenue West', '2070 Concord Avenue', '20701 Unit 211 Langley Bypass', '2089 Rte. 132', '2091 Baseline Road', '20940 - 107 Ave.', '20th Avenue SE', '21 Antares #205', '21 rue Gauthier', '21 rue Notre Dame', '210 Tank St.', '2101, rue Chicoine', '21010-108 Avenue North West', '2106 Francis-Hugues', '2107 6th avenue', '2107 E Turvey Road', '2111 - 9th Avenue S.W.', '2119 Tramway', '2120 95ieme rue', '2124 Robinson Street', '213 Charlesworth Ave.', '2142 Country Road #16', '215 Tecumseh Street', '215 Terr Riopel', '2168 Springfield Road', '2170 Winston Park Drive', '2177 Plains Road East', '2180 Yonge St.', '22 Chemin Milton', '220 Patillu Road. RR #1', '2202 Hanselman Ave.', '2204-84 Ave', '221 Route du Village', '2215 8th avenue', '2215 Ave. Francis Hughes', '2215 Midland Avenue', '2223 Drummond Line', '223 Bodia Ave', '2230 McCullough Road', '22321 Labonte Ave.', '225 Nugget Avenue, Unit 14', '225 Oxford', '225 route 265 N.', '225, Ave. St-Sacrement', '2250 rue St-Jean', '226 Lesmill Rd.', '2275 Rue Canadien', '2275, 107 i??me Rue', '229 11th Avenue, North East', '2290 rang Versaille', '23 Boivin', '230 King St. East', '230 Yorktech Drive', '2300 Haines Road', '2307 Kings Rd', '231 Highway 17 East', '231, St-Antoine Nord', '2311 Highway 28, RR7', '2315 Boul. Wallberg', '2315 Douglas Road', '232 South Service Rd', '2324 Place Du Gala', '232A Woolwich Street, South', '2337 Bowman Street', '234 Glenarm Road', '235 - 3rd avenue', '235 Rue Principale', '2359 Boul. Fiset', '236, rue St-Calixte', '2380 Rue Dalton', '2390 South Service Road West', '24 Peet Street PO Box 8340, Stn A', '24 Yvon Provost', '24 du Village', '240 Chemin de la Forge', '240-103rd Street', '2400 Kirby Road', '2400A Autoroute Transcanadienne', '2401 Gottselig Rd.', '241 Bluewater Road', '242 NE 5-9-9W', '2430 Principale', '2435 Eagle Street North', '2439 Riverside drive', '244 Lake Avenue', '2441 rue Lupien', '245 Transport Road P.O. Box 4, Group 582, RR #5', '2450 Cohen Street', '2453 Chemin de Chambly', '2458 Highway 11', "246 Cooper's Road", '2490 Baseline Road, RR#8', '2492 Cedar Creek Road R.R. #1', '2499 Industrial Street', '25 - #8 Centennial Road', '25 Chemin De La Minerve', '25 Heritage Road', '25 Slack Rd', '250 West 70th Ave.', '250 rue Industrielle, local 10', '250, 2i??me Avenue', '2500 Boulevard  McWatters', '2500 Georges Street', '25084 Highway #3 East', '251, Rg St-Jean-Baptiste', '252 Saratoga Road', '2521 Inkster Boulevard', '2523 Fire Route O', '2525 Inkster Blvd.', '2525, rue Watt', '253 rue Principale', '2541 Country Court', '255 Rutherford Road South', '2590 Blackwell Street', '25975 Woodbine Ave.', '260 Dunkirk Road', '2607 North Yorke river road', '261 Binnington Court', '261 Bowes Road', '2612 Robison Rd.', '26162 30A Ave.', '26180 31B Avenue', '26230TH Avenue', '2625 Meadowpine Blvd.', '2628 Edinburgh Place', '2633 Bath Street', '26416 TWP RD 531A', '265 Rue Etienne-Dubreuil', '2651 Markham Road', '268, St-Antoine', '2680 B Boulevard Hamel Ouest', '2699 5ieme Ave., Boite Grouper 14', '270 Lacerte', '2705, Boulevard Wilfrid-Laurier', '27137 S. Hwy 33', '2717 rue Watt, Parc Colbert', '272 Oak Point Service', '2725 Belisle Drive', '273 County Rd #29', '273 Highway 29', '27360 - 58th Crescent', '2749 Thompson Road P.O. box 918', '275 Boul Industriel Est C.P. 443', '275 Carrier Drive', '275 Clarence Street', '275 Waterloo Ave.', '2753 Simcoe Road #27', '2759 Lancaster Road', '279 East 1st Street, Box 1158', '279 Norseman Street', '279, Route 204', '2793 Carp Road', '28 Boul. Richelieu', '2801-84th Ave', '28055-D de la cote Nord', '281 Main St. Hwy # 3, Box 401', '2814 Barton Street Est', '2820 84th Avenue', '282020 Grand Valley Road', '2827 - 30th Avenue', '28419 Ranch Avenue', '285 Boul. Edouard VII', '2865 Rte 112', '287 Mountain Road', '289 McLean Avenue', '29, rue Laroche', '2901 Rue Watt', '2903 Shuttle St.', '2909 Rue Bergman', '291 Young Road, R.R. # 8', '2920 Concession 21, R.R. #2', '2930 Pasqua St N', '2945 Millar Avenue', '295 Pinebush Road', '295, Rte. 165', '2957, boulevard P??re-Leli??vre', '2e Rang', '3 King Streeet West', '3 Main Street', '3 Marconi Court', '3-1140 Sheppard Ave. West', '30 Alpine Court', '30 Hanbury Street', '300 Doepker Avenue', '300 Rue Du Parc', '300 St-Fran??ois-Xavier', '300, rue Alexis-Poirier', '300, rue Quennville C.P. 759', '300,rue des Pins Ouest,', '300-19325-96 Avenue', '3000 Ament Line', '3000 rue Girardin', '301 Aqueduct Street', '301 Roblin Blvd', '301 chemin Lavaltrie C.P. 27', '302 Mill Street', '302 Portage Avenue', '3024 49 Avenue S.E.', '3025 Sandhill Road', '3025 Sandhills Road', '303 20630 Mufford Cresent', '303 Dunlop Street', '303 Station Road', '3044 Sawmill Rd', '305 Enford Road', '3050 Kilpatrick Road', '3050, rue Anderson', '30686-A Matsqui Place', '3074 Sawmill Road', '308 River View Cresent', '30817 Zone Road #8', '3091 Albion road', '31 Torbarrie Road', '310 rue Metivier #110', '3100 Boul. Jean-Jacques Cossette', '3104 Hampton Street', '3111  Shepard Place South East', '312 St George Avenue', '3128 Hope Place, R.R. #1', '313 Princess Street', '314 Lake Avenue North', '315 Park Avenue East', '3175 Mccallum Road', '3175 boulevard du Royaume', '3183 rue Harvey', '319 St. Jaques', '32 rue Industrielle', '3210 Swansea Cres. #6', '322 Rue Principale', '322 Totom Court', '325 Line 13 North RR #1', '325 Mud Street, R.R. #3', '325 Welland Avenue, Unit #8', '325 Weston Road, Unit 2D', '325, boul. Industriel', '3250  46th Avenue S.E.', '3255, Rue Picard', '327 Julien Street', '328, rue Adam', '3280 Wharton Way', '33 Maplecrete Road', '330 Saulteaux Crescent', '330 South Service Road', '3306,boul des entreprises', '331 Highway 12 North', '3311 B Millar Ave.', '3323 Hart Highway', '333 10th Street', '333 Bay Street, Suite 2400', '3332 - F River Rd.', '3348 Harvester Road', '335 Broadway Street, P.O. Box 189', '336 Birch Avenue', '336 Kenora Ave.', '3377 Gershaw Drive South West', '34 Golden Gate Court, Unit #10', '340, 12e Rue', '340, Marie Currie', '342, Henry - Bessemer', '3423 Millar Avenue', '3429 Hawthorne Road', '344 Fruitland Road', '3444 rue du Transport', '3445 Miners Ave.', '345 Finchdene Square', '345 Hwy 20, R.R. #3', '3455 Pembina Hwy', '3455 Wolfedale Road', '34640 Currie Place', '34709 Talbot Line', '35 Hale Road', '35 Standford Flemming Drive', '35 Sunnyhurst Avenue, Unit 8', '35 rue Beaulac Inc.', '35, De La B??tonni??re', '35, De Montgolfier', '350 Allen Avenue', '3500 Cite des Jeunes', '3543 Rue Principale', '3543 rue Principale', '356 Industrial Drive', '358 Rte 138', '36 Street SE', '3600, boul. Industriel', '3624 Hwy 209 (P.O. Box 35)', '3632 Boulevard des H?|tres', '3660 - 50th Avenue SE', '367 Boul. Chabot', '368 Main Street', '369 Quebec Street', '37 Raglin Place', '37 Sylvan Way', '370 Ecclestone Drive PO Box 870', '3705 route 108 Est', '37089 Talbot Line R.R. 3', '371, Grand Bernier Nord', '3731, Route 111 Est', '3737 Boulevard Lite', '375, Rue T??miscouata, C.P. 998', '3751 Highway 97', '38 Main St.', '38 Rue St-Anne', '38, boulevard Bernard', '38, rue Thibault', '3800 Boulevard Gene-H.-Kruger', '3805, La V??rendrye', '38207 Regional Road 25-1', '3850, Boulevard Leman', '38547 Huron Street West, R.R. #2', '3855, 5e Avenue', '3855, rue Georges-Corbeil', '386 Park Avenue', '389 rue Notre-Dame', '3904 - 78 Avenue', '3904-78 Avenue', '391 Alliance Avenue', '391 St. Jean Baptiste Nord', '3914 81st avenue', '3915 - 52 Street Close', '3965, rue Qu??bec Central', '3995, 2 Avenue North', '39E Avenue', '3rd Avenue South', '4 Blackmore Avenue', '4 Progress Drive', '4, chemin De Vimy', '4-7621 Edgar Industrial Drive', '40 Automatic Road', '40 Commerce Crescent', '40 Nixon Road', '40 Oswald Drive', '400 Dunlop Street West', '4000, quatri??me Rue', '401 - 18th Avenue', '401 9th St North Box 179', '401 Pido Road', '4013 Boileau Road', '4015 rue Carpentier', '402 MULOCK DR', '4024 Charles Street', '404 Meridian Road NE', '4040 Brandon Street South East', "4049 St. Margaret's Bay Road", '405 Van Buren St.', '407 - 22 Avenue', '407 Farnham Road', '407568 Grey Road 4   RR 1', '41 Carmella Drive', '41 Claireville Drive', '41 Granger Avenue', '4102 - 44th Avenue', '4110 - 76 Avenue', '4114 Crozier Road', '4115 18th Avenue North', '412-1, 3e Rue', '4131 Morris Drive', '4144 Christophe Colomb', '415 Monument Place SE', '4153 Hwy 38', '4164 New Street', '42 Avenue', '42 James Street, Unit #15', '42 Merit Crescent, Unit #2', '42 Newcombe Crescent', '42 des Entreprises', '4200 Sladeview Cres', '4200, des Castors', '4205 Voie de Desserte Est, Autoroute 13', '422 Lake Road, South Industrial Park', '423 Dakota Road', '42nd Avenue', '430 NEAVE COURT', '430, rue Cantin', '4303 - 69 Avenue', '431 Henry Street', '4313 76 Avenue NW', '433 58 Ave SE', '4342, Boulevard Bourque', '43841 Talbot Line RR #3', '4397 Wellington Street South', '44 Aaron Trail', '44 Poneida Road', '44 Trial', '4410 50 STREET', '4420 76 Avenue', '4425 76th Avenue', '44467 Yale Rd.', '445, boul. Industriel', '448 CR 34 East, R.R. #2', '4490, Av. des Industries', '450 1 Avenue', '450 Desautels Street P.O. Box 792', '450 Talbot Street', '450 rue de Vernon', '451 Kennedy Road', '451 Route 116 Est', '4514 - 46 Ave.', '4515 6A Street NE', '4523 - 50 Street', '4528 6A street N.E., bay 105', '455 Main Street South', '45681 Yale Road W.', '4575 Powell Road', '4580, Mont??e Gagnon', '459 Industrial Road', '460, St-Isidore', '4612 19th Avenue North West', '4618 Boulevard St. Joseph', '465 Bloor Street West', '465 Second Line East', '4680 boulevard Frontenac Est', '46th Street', '47 Bleams Road', '47 Canada Avenue', '470, Route 116 est', '4715 76th avenue South-East', '4715 Christie Drive', '4721, 50th Street, Suite #1', '4731 78A STREET CLOSE', '475 Prince Charles Drive South', '475 avenue Pruneau, porte 8', '475 rang St-Joseph', '476 Haut de la Chute', '476, rang 2-3 Ouest', '477 Aspdin Road', '48 Ardelt Ave', '48 Avenue', '480 - 7 Stree N.E.', '4800-27th Street S.E.', '4802 - 57th Avenue', '4807 82nd Avenue', '481 Madison Street', '4811 - 51 Avenue', '483 Rennie Street', '4841 - 78 Street', '485 Chemin Rivard', '487 rue Principale', '4870, rue de Courval', '488 Rue St. Pierre', '4880 Walker Road', '489 Abelard-Savoie Boulevard', '490 Highway 17', '4900 Golf Course Road', '4909-48 Street', '4910 - 80 th Avenue S.E.', '4919, Marie-Victorin', "492 de L'Esplanade", '4924 - 49th Street', '493 St. Amable', '4975 8th Concession Road', '4985 - 72 Avenue SE', '4985 Polkey Road', '499 Manitoba Road', '5 Tangiers Road', '50 Industrial Street', '50 Main Street', '50 McKenzie Road', '50 Northland Road, suite 400', '50 St-Jude Sud', '50, chemin du Tremblay', '500 Rte 220', '500 Waydom Drive', '501 - 24 Avenue', '5013 48th Street', '502 23A Avenue', '5024, 47th Avenue', '505 Kenora', '5075 De La Plaisance', '51 Street South East', '510 Whissel', '5112-49 Street', '5125 De la Plaisance', '5125 Harvester Road, Unit 7', '5135, Domville', '515 Hespler Avenue', '5151 Hwy 17 West', '5151 Simcoe St North', '5171 Thimens', '5172 route 3 Central Argyle', '5183 Route Domaine du Lac', '51st Street', '52 Ellisview Road', '52 TWP RD 524', '52 Wright Ave.', '5200 Dixie Road, Unit #46', '521 Achray Road', '521 Rue Principale', '5218 - 62th Street', '5227 Highway 17', '525 Hill Avenue', '526 rue Lanaudiere, Suite 109', '5280 Fairway', '5285 - 192 Street', '5290 Orbitor Drive', '53 Arthur Street North', '53 Jamieson Drive, R.R. #1, Forest Home Ind. Park', '530 Providence', '5300 Rue St-Roch', '53016 Hwy #60', '531 Admiral Drive', '5320-B 48th Avenue South East', '5329 72nd Avenue S.E.', '533, 71st Avenue S.E.', '5350, Armand-Frappier', '5351 46th Avenue S.E.', '53521 Range Rd 271', '5360 rue St. Roch', '537 rue Principale', "54 rue de l'Eglise", '54-5359 Timberlea Blvd.', "541, rue de l'Harricana", '5411 Chemin du Lac', '55 - 10 Avenue S.E.', '55 Crockford Blvd.', '55 Isnor Drive', '55 Marsh Street', '55 Steeles Avenue East', '55 White Street', '550 George Avenue', '550 McGeachie Drive', '5500 North Service Road', '5502 56th Avenue S.E.', '5505 64th Avenue', '551 Crestwood Drive', '5511 - 6 Street S.E.', '5521, chemin de l"Aeroport', '554 Rg Haut-St-Amable', '555 Cassell Drive, General Delivery', '555 St-Louis', '556 Hwy 77', '55780 Third Street', '56 Beach Road', '56 Boul. Industriel', '56 Churchill Drive, Unit 14', '560 Suffolk Court', '5600A Cancross Court', '5603-54 Street N.W.', '5604 Len Thomson Drive', '5606-55 st.', '563 Montee Princepale', '565 Marjorie Street', '566 - 2nd Ave', '5674 Production Way', '56th Street South East', '57 Durand Road', '5701 Warner Drive', '5705 - 76th Avenue', '5705 Place Kubota', '5734 103rd Street South', '575 Page Avenue', '5769 - Production Way, Unit# 103', '577 Route 535', '5770 Place Kubota', '578 McTavish Street', '5785 Place Turcot', '58 Cowansview Rd', '580, Lionel Boulet', '581 McGeachie Drive', '581 Wright Avenue', '581 avenue Lepine', '5810 - 50th Street', '583, St-Ovide', '585 Granite Court', '59 Commerce Drive', '59 Elm Ave', '59 Maitland Avenue, R.R. #4', '5901 - 48 Avenue', '5909 - 90th Street', '5909-6th Street SE', '591 Chester Road', '591 Chester Road, Annacis Business Park', '591 Rymal Road West', '5925 Hemingway', '593 Rte 219', '595 Lanaudiere', '5982 Main street', '5th Street', '6 Edmondson Street, P.O. Box 368', '6 Ragged Lake Drive', '6 Ridgeview', '60 Northline Road', '60-8 Bristol Road East. Suite 506', '600 Pandora Avenue West', '606 Highway Drive', '6060, 86th Avenue S.E.', '607-15 Avenue', '609 rue Principale', '6095 Austin Street', '61 Avenue SE', '61 Avenue South East, Bay #9', '6100 Chemin St-Francois', '6101, boulevard Talbot', '6115 - 30th Street', '6120 Route 101', '615 Kenmount Road', '62 Street', '620 Garyray Drive', '620 Moraine Road N.E.', '620 Nairn Avenue', '620 Stewart St', '6200 Henri-Bourassa Ouest', '6210 - 50 Avenue, Box 7324', '6214 50th Avenue', '6218 - 54 Avenue', "625 rue d l'Argon", '6250 Trans Canada Highway N.E.', '62nd Avenue', '63 Millroad, Box 6', '630 Adams Court', '633 Rang 9', '6333 Pacific Street', '6345 Dixie Road, Unit 1', '635 Farewell Avenue', '637 Miller Street', '638 A Great Northen Road, Unit 1', '638 Fortune Cres.', '64 Bartor Road, Unit 5', '64 Chemin des Patriotes E', '64 Signet Drive', '64 Springbank Ave. South', '640 Rink Avenue', '6418 Courtright Line R#1', '643 rue De Quen', '645 Athlone Place', '65 Rue Prevost', '65 Winder Street', '650 Cargill Rd.', '650 Hardwick Road', '650, 5e Rang', '651-25th Ave SE', '655 - 30 Street North', '655 boulevard de la Montagne', '66 Ave', '66 Fernstaff Court', '660 Riverside Road', '665 Millway Ave, Unit 57', '6701 Financial Drive, Suite 100', '6702 Golden West Ave.', '6706 - 44 Ave.', '6711 Mississauga Rd. N 3rd Floor', '6727 - 68 Avenue', '6730 Golden West Avenue, P.O. Box 540', '6739, 67 Avenue', '6740 - 65 Avenue', '6749 65th Ave', '675 Trotter Street', '6759 Hwy #62 North', '675A Davenport Road', '676 Main Street', '6760 65th Avenue', '6761 67 Avenue', '6771 84 Street S.E.', '680, Rue Des C??dres', '681 Route 143', '682 Okanagan Avenue East', '6820 - 52 Avenue', '686 Talbot Street West', '6900 rue Bombardier', '692 - 5th Concession West, R.R. #2', '6935 Farrell Road S.E.', '6943 Highway 38', '6961 Highway 3', '6970 Kenderry Gate', '6981 Boul. Bourque', '7 Industrial Ave', '7 Petersburg Circle', '7, Inrepid Court', '7, Rang St-Francois Est', '70 3rd Avenue Box 1790', '70 Burwell Road', '70 Line Road', '70 Mount Hope Street', '700 Finley Avenue, Unit 5', '700 Franklin Blvd., P.O. Box 98', '700 Richmond Street', '700, rue Jean-Marchand', '701 St-Pierre', '701-11 Ave', '702 - 1st  Avenue North West', '7035 Pacific Circle', '706 - 19 Avenue', '7076 Country Road West Hwy #124 South', '7079 Wellington Road 124', '707D McDOnald Street', '71 Liberty Rd', '7127 Honeyman St', '713, Route 219', '715, 5 Ave North', '7188 Vantage Way', '720 Wilson Road South', '7202, 98 Street', '7245 West Industrial Loop', '726, St-Joseph', '73 Brydon Drive', '732 Old Sackville Road', '733 Front Street', '7337 Trans Canada Highway', '735 Douglas Fir Road', '7375 Buller Street', '740 Grand Avenue East', '742 Casey Rd.', '743 William Street', '747 Bloor Street West', '747 Notre Dame Blvd', '75 Frontenac Drive', '75 Rue Hector C.P. 90', '75 Street', '750 Industrial Rd.', '7500 Trans-Canadienne', '7507- 40th St. S.E.', '75836 London Road', '7612 - 43 Street', '762 Conception Bay South Highway, Unit 1', '7640, Boul. Ste-Anne', '766 Route 700', '767 Old Sambro Road', '77 Grant Timmins Drive', '77 RUE MAINVILLE', '770 Lakeside', '770 Ross Avenue', '7700, rg St-Andr??', '7739 Edgar Industrial Way', '775 Lemire', '7760 18th Street', '7762 - 47 Avenue Close', '777 Bayly Street West', '7793 Young Street', '7809 102 Ave.', '7824 f?? 56 Street South East', '783 rue Mo?(r)ller', '78th Avenue', '79 rue principale', '79, 1i??re Rue Nord', '790 Montrichard Avenue', '7905 Enterprise Drive', '791, Route Principale', '7910 rue des PME', '7911 Edgar Industrial Drive', '7923 54th Street South East', '793-A Riviere Nord, Route 339', '7947 Edgar Industrial Dr.', "7985 boul. L'Ormi??re", '80 Clarke Street S., Unit 2', '80 High Street, Unit 2', '80 Saramia Crescent', '800 South Railway Ave', '800, Chemin Olivier', '800-47th Street East', '80042 - 475 Avenue East', '8007-39th Street', '801 - 50 Street E', '8010-44th Street SE', '8019 - 54 Street S.E.', '803 - 46th Street East', '8046 Edgar Industrial Crescent', '805 51st Street East', '8124 Davies Road', '8135 Wagner Road', '815 Trillium Drive', '8155 -128 Street', '818 - 43rd Street East', '81Tannery Road', '81st SE', '82 Ave', '820 Garyray Drive', '821 Du Parc', '821 Fairweather Place', '822 Bellevue Ouest', '826, boul. Guimond', '83 Caledonia Road, R.R.#4', '83 Old Onondaga Road West', '830 Edgeley Blvd.', '8300 Edison', '831 Nipissing Road', '8326 St. George Street', '8332 Haldibrook Road', '835 Mission Street', '8350 Boulevard Industriel', '841 Oakpoint Box 64 GRP 200 RR2', '843 rue Charest', '8442 Lisa Lane', '847 - 60th Street East', '847 Central St.', '84th Avenue North West', '85 Northland Road', '8505 Lafrenaie', '853 Route 111', '855 Algonquin Blvd East', '855 Industrial Avenue, Unit 1-4', '855 Matheson Blvd E Unit 9', '8580 River Road', '859 Station Avenue', '86 Boulder Blvd.', '8600 - 92nd Street', '865 Bradford Street', '865 Range Papineau', '866 Derwent Way', '866, route St-Joseph', '868 Blackwoods Avenue', "8685 Champ D'eau", '87 Ashgrove Crescent, Box 654', '87 Elora Street', '873 Hodge', '88 Forest St.', '88 Kenmount Road', '88 Route 158', '88 rue des Routiers', '880 rue Lucien Leclerc', '8803 - 60th Ave', '882 5th Street East', '8824 101 Street', '8825 126th Avenue', '8860, Croissant 5e', '89 Rue du Parc Industriel', '89 ch. Thibodeau', '8900, 25 i??me Avenue', '8901-150 Ave.', '896 Lakeshore Ct.', '897 Stremel Road', '8A Street', '9', '9 Union Street', '90 Enterprise Dr.', '9000 Boulevard Parent', '9000, boulevard Industriel', '905 rang 11', '90th Avenue South East', '91 Chemin Des Patriotes', '91, rue Ontario, P.O. Box 460', '910 Saskatchewan Avenue East', '9111-41st Avenue', '9115 -52nd Street SE', '915 Walsh St. W.', '9189 National Place', '92 Boulevard Est', '920 Champlain Court', '920 Denison Street Unit 11', '920, Cur??-Boivin', '9200 22 Avenue', '921 Gonczy Avenue, Box 1780', '921 chemin de la Rivi??re du Nord', '923 - 46 Avenue S.E.', '927 - 48 Avenue SE', '927 Gaudette', '927, Route 111 Ouest', '930, chemin Vanier', '9301 -102 Street', '9305 - 27 Avenue', '9312 - 110A Street', '933 Boul. Simard', '9345 25ieme Avenue, Parc Industriel', '940 Winston Churchill Blvd.', '944109 Partridge Place South West', '9475 - 192 Street', '9502 - 87th Avenue', '9532 - 27th Avenue', '955 Maginot Street', '955 Woodlawn Road W.', '9550 10E Avenue', '96 Principale', '9604 - 112 Street', '9620-62nd Ave', '9624- 35 Avenue', '9625 48th Street SE', '967 Trunk Rd.', '96th Avenue, Unit #1', '97 Hounslow Drive N.W.', '970 Boul. Pierre-Roux Est', '970, Avenue Bombardier', '98 Cougle Road', '9808 Park Lane', '981, Boul. Hamel', '9834 - 179th Street', '9835 - 199 A Street', '9880 McGrath Road', '990 Pays-Brule', '991 Jarvis Avenue', '9th Street', 'Alness Street', 'Aspen Road', 'Atlantic Drive', 'Aut. Chomedey', 'B 1st Avenue', 'B 39207 RR271', 'BAY A Barlow Trail SE', 'BCE Place - Suite 4400 Bay Wellington Tower', 'Bag No. 2019', 'Bay 10, 4216 12th Street NE', 'Bay 3 #2 Erickson Crescent', 'Bay 33 - 820 51st Street East', 'Bay 5, 3925 Avenue S.E.', 'Bay F-298-28042 Hwy 11', 'Bay K 8816 44th street SE', 'Bay L 8616 44th Street SE', 'Belich Crescent', 'Bleams Road RR#2', 'Boul Ren?? Est', 'Boulder', 'Boulevard Industriel', 'Bowes Rd. Unit 3', 'Bowman Street', 'Box 11', 'Box 118', 'Box 1205', 'Box 133, Eastside hwy 20', 'Box 1594', 'Box 176', 'Box 218', 'Box 22, Group 60, R.R. #1', 'Box 2738, Station "B"', 'Box 310', 'Box 310, Elevator Road', 'Box 317', 'Box 33, Group 6A, R.R.#1B', 'Box 332', 'Box 490', 'Box 511', 'Box 5396', 'Box 609', 'Box 617', 'Box 72036, Ottewell P.O.', 'Box 748', 'Box 8029 61317 RR 452 South Hwy 28 East', 'Box 88', 'Box 988', 'Box 99', 'Box 990', 'Breithaupt Street', 'Brier Park Cres. NW Unit 3', 'Brookside Branch Road', 'Bruce Road 86, RR # 3', 'CHILES INDUSTRIAL PARK 39015 HWY 2A', 'Carman Road', 'Cedar Creek Road', 'Centennial Road, Unit #9', 'Challenger Cr.', 'Chemin Grand Bernier', 'Chemin Oliver #5', 'Chemin du Grand Rang', 'Chemin du Tremblay', 'Chrislind', 'Cimarron Estates Manor', 'Corporate Drive', 'Country Energy Park</t>
         </is>
@@ -913,12 +933,15 @@
         </is>
       </c>
       <c r="T7" t="n">
+        <v>187</v>
+      </c>
+      <c r="U7" t="n">
         <v>34602</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>714</v>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>['9', 'ACHESON', 'Abbotsford', 'Abotsford', 'Acheson', 'Acton Vale', 'Adstock', 'Advocate harbor', 'Airdrie', 'Ajax', 'Aldergrove', 'Aldersyde', 'Allanburg', 'Alma', 'Altona', 'Amos', 'Anjou', 'Annaheim', 'Anola', 'Apple Hill', 'Arborg', 'Ardossan', 'Armstrong', 'Arnprior', 'Aroostook', 'Arundel', 'Asbestos', 'Auburn Hills', 'Austin', 'Aylmer', 'Ayr', 'Azilda', 'B??cancour', 'Baden', 'Baie St. Paul', 'Barrie', 'Beamsville', 'Beausejour', 'Bedford', 'Belleville', 'Bellevue', 'Beloeil', 'Benito', 'Bentley', 'Berthierville', 'Bethune', 'Bic', "Bishop's Falls", 'Blackfalds', 'Blainville', 'Blenheim', 'Bois-des-Filion', 'Boisbriand', 'Bolton', 'Bond Head', 'Bonnyville', 'Bothwell', 'Boucherville', 'Bourget', 'Bowmanville', 'Bracebridge', 'Brampton', 'Brandon', 'Brantford', 'Breslau', 'Brighton', 'Bromhead', 'Brooks', 'Brookside', 'Brougham', 'Brucefield', 'Burlington', 'Burnaby', 'Calahoo', 'Caledonia', 'Calgary', 'Cambridge', 'Cambrige', 'Campbell River', 'Camrose', 'Candiac', 'Canfield', 'Cap Pele', 'Cap Sant??', 'Cap St. Ignace', 'Cardigan', 'Cardston', 'Cargary', 'Carignan', 'Carleton Place', 'Carman', 'Carp', 'Carthwright', 'Cartier', 'Cartwright', 'Carvel', 'Casselman', 'Cassleman', 'Cavan', 'Central Butte', 'Centralia', 'Centreville', 'Chambly', 'Chambord', 'Charlesbourg', 'Charlottetown', 'Chateau-Richer', 'Chateauguay', 'Chatham', 'Chelsea', 'Chemainus', 'Cherhill', 'Chesterville', 'Chicoutimi', 'Chillawack', 'Chilliwack', 'Claimont', 'Clairmont', 'Clarenville', 'Claresholm', 'Clifford', 'Coaldale', 'Cobourg', 'Cochrane', 'Colborne', 'Cold Lake', 'Coleman', 'Collingwood', 'Comox', 'Concord', 'Cookshire', 'Coquitlam', 'Corner Brook', 'Cornwall', 'Corunna', 'Courtland', 'Cowansville', 'Craik', 'Cranford', 'Crediton', 'Cromer', 'Crooked Creek', 'Crossfield', 'Cutknife', 'Cypress River', 'Darmouth', 'Darthmouth', 'Dartmouth', 'Daveluyville', 'Dawson Creek', 'Daysland', 'Debert', 'Delburne', 'Delhi', 'Delson', 'Delta', 'Deschambault', 'Dieppe', 'Disraeli', 'Dolbeau-Mistassini', 'Donnacona', 'Dorval', 'Downsview', 'Drake', 'Drayton Valley', 'Drumheller', 'Drummondville', 'Duncan', 'Dundalk', 'Dundas', 'Dunham', 'Dunnville', 'East Broughton', 'Eden', 'Edmonton', 'Elmira', 'Elora', 'Embrun', 'Errington', 'Essex', 'Estates Onoway', 'Esterhazy', 'Etobicoke', 'Exeter', 'Fenwick', 'Flesherton', 'Fort Erie', 'Fort St-John', 'Frankville', 'Freelton', 'Gander', 'Gatineau', 'Gerald', 'Glenboro', 'Goderich', 'Gormley', 'Gorrie', 'Granby', 'Grand Falls', 'Grand Mere', 'Grand Prairie', 'Grand-Mere', 'Grande Prairie', 'Grassie', 'Gravelbourg', 'Gretna', 'Grimsby', 'Grunthal', 'Guelph', 'HJuntsville', 'Hagen', 'Halifax', 'Hamilton', 'Hampton', 'Harrison Mills', 'Harrowsmith', 'Hartland', 'Hawkestone', 'Hay River', 'Hayter', 'Headingley', 'Hearst', 'Heidelberg', 'Hellier', 'Hemmingford', 'High River', 'Hillsborough', 'Hillsdale', 'Hodgson', 'Howie Center', 'Hoyt', 'Hubley', 'Hudson Bay', 'Humboldt', 'Iberville', 'Ingersoll', 'Innisfil', 'Inwood', 'Iroquois', 'Joliette', 'Joly', 'Jonqui??re', 'Jonquiere', 'Kakabeka Falls', 'Kamloops', 'Kelligrews', 'Kelowna', 'Kelvington', 'Kemptville', 'Keswick', 'Kincardine', 'Kingston', 'Kitchener', 'Kleinburg', 'L??vis', 'La Minerve', 'La Plaine', 'La Pr??sentation', 'La Sarre', 'Labelle', 'Lac Brome', 'Lac La Hache', 'Lac M??gantic', 'Lac St-Joseph', 'Lachenaie', 'Lachine', 'Lacombe', 'Lacombe County', 'Lafleche', 'Lafontaine', 'Lambton', 'Langley', 'Lanoraie', 'Lantzville', 'Lashburn', 'Laterri??re', 'Laval', 'Lavaltrie', 'Leader', 'Leamington', 'Leduc', 'Lennoxville', 'Leslieville', 'Lethbridge', 'Linden', 'Lindsay', 'Lislet', 'Listowel', 'Lively', 'Lloydminister', 'Lloydminster', 'London', 'Long Sault', 'Longueuil', 'Louiseville', 'Lower Sackville', 'Lucknow', 'Lunenburg', 'MONT-Laurier', 'Maderia Park', 'Maidstone', 'Mallaig', 'Manotick', 'Maple', 'Markham', 'Marmora', 'Martensville', 'Maskinong??', 'Matane', 'Mattawa', 'Maxville', 'McWatters', 'Medecine Hat', 'Medicine Hat', 'Melfort', 'Melville', 'Mercier', 'Millbrook', 'Millet', 'Milton', 'Milton Station', 'Mirabel', 'Miscouche', 'Mission', 'Mississauga', 'Moncton', 'Mont-Lebel', 'Mont-Tremblant', 'Montmagny', 'Montr??al', 'Montreal', 'Moose Jaw', 'Morden', 'Morinville', 'Morris', 'Mount Forest', 'Mount Pearl', 'NOT ENTERED', 'Naicam', 'Nanaimo', 'Napierville', 'Neepawa', 'Neerlandia', 'Nelson', 'Nepean', 'Neufchatel', 'Neuville', 'New Liskeard', 'New Lowell', 'Newmarket', 'Nipawin', 'Nisku', 'Niverville', 'Noranda', 'North Battleford', 'North Bay', 'North York', 'Norwich', 'Norwood', 'Notre-Dame', 'Notre-Dame de Lourdes', 'Notre-Dame-Du-Bon-Conseil', 'Notre-Dame-du-Laus', 'Notre-Dame-du-Nord', "O'Leary", 'Oakville', 'Odessa', 'Ohaton', 'Oil Springs', 'Okahumpka', 'Okotoks', 'Olds', 'Oliver', 'Orangeville', 'Orillia', 'Oro Station', 'Orrillia', 'Oshawa', 'Ottawa', 'Palmarolle', 'Paradize', 'Parksville', 'Parry Sound', 'Peace River', 'Pembroke', 'Pentiction', 'Penticton', 'Perth', 'Peterborough', 'Petersburg', 'Petite-Rivi??re St-Francoi', 'Petrolia', 'Pickering', 'Picton', 'Pierreville', 'Pincher Creek', 'Plantagenet', 'Plessisville', 'Plessiville', 'Pohenegamook', 'Pointe-Claire', 'Pointes-aux-Trembles', 'Ponoka', 'Pont-Rouge', 'Port Colbourne', 'Port Coquitlam', 'Port Rowan', 'Port au Choix', 'Portage La Prairie', 'Portage la Prairie', 'Prince Albert', 'Prince George', 'Princeton', 'Princeville', 'Puslinch', 'Qu??bec', 'Quebec', 'Quesnel', 'Radisson', 'Rapid City', 'Rathwell', 'Rawdon', 'Raymore', 'Red Deer', 'Red Deer County', 'Regina', 'Renfrew', 'Repentigny', 'Rexdale', 'Rexton', 'Richmond', 'Richmond Hill', 'Ridgetown', 'Riding Mountain', 'Rigaud', 'Rimouski', 'Rivi??re-du-Loup', 'Riviere-du-Loup', 'Rocky Mountain House', 'Rodney', 'Rolling Hills', 'Rosedale', 'Rosenort', 'Russell', 'Ruthven', 'SAINT-GERMAIN-DE-GRANTHAM', 'SAINT-Hilarion', 'Saint John', 'Saint-??variste', 'Saint-Amable', 'Saint-C??saire', 'Saint-Casimir', 'Saint-F??licien', 'Saint-Ferdinand', 'Saint-Georges', 'Saint-Gerard-Majella', 'Saint-Hubert', 'Saint-Hyacinthe', 'Saint-Jean-Sur-Richelieu', 'Saint-Jean-sur-Richelieu', 'Saint-Joseph de Coleraine', 'Saint-Lambert', 'Saint-Lambert-de-Lauzon', 'Saint-Laurent', 'Saint-Lin', 'Saint-Marc du Lac Long', 'Saint-Pierre-Baptiste', 'Saint-Romain', 'Sainte M??lanie', 'Sainte-Agathe-des-Monts', 'Sainte-Brigitte-des-Sault', 'Sainte-Eulalie', 'Sainte-Foy', 'Sainte-Rosalie', 'Sallaberry De Valeyfield', 'Salmo', 'Salmon Arm', 'Saltcoats', 'Sarnia', 'Saskatoon', 'Sault Ste. Marie', 'Scarborough', 'Schomberg', 'Scott Jonction', 'Seguin', 'Sept-iles', 'Shallow Lake', 'Shanty Bay', 'Shawinigan', 'Shawinigan Sud', 'Shawnigan Lake', 'Shedden', 'Sherbrooke', 'Sherwood Park', 'Shreveport', 'Sidney', 'Smith Falls', 'Smithville', 'Sorel-Tracy', 'South Huron', 'Sparewood', 'Spruce Grove', "St John's", 'St- Paul', 'St-Agapit', 'St-Amable', 'St-Andre Avelin', 'St-Andre-de-Kamouraska', 'St-Antoine, Mirabel', 'St-Antoine-De-Tilly', 'St-Armand', 'St-Augustin', 'St-Autonin', 'St-Barnab??-Sud', 'St-Benoit-Labre', 'St-Bonaventure', 'St-C??me', 'St-Catherines', 'St-Celestin', 'St-Charles-de-Drummond', 'St-Chrysostome', 'St-Damien-de-Brandon', 'St-Dominique', "St-Elie D'Orford", 'St-Elie-de-Caxton', 'St-Ephrem', 'St-Eustache', 'St-F??licien', 'St-Ferdinand', 'St-Fr??d??ric', 'St-Francois du Lac', 'St-Francois-du-Lac', 'St-Gabriel de Brandon', 'St-Georges', 'St-Georges Est-beauce', 'St-Georges de Beauce', 'St-Germain-de Grantham', 'St-Hubert', 'St-Hyacinthe', 'St-Isidore', 'St-J??r??me', 'St-Jean Chrysostome', 'St-Jean-Chrysostome', 'St-Jean-Sur-Richelieu', 'St-Jean-sur-Richelieu', 'St-John', "St-John's", 'St-Joseph de Levy', 'St-L??onard', 'St-Laurent', 'St-Lazare', 'St-Leonard', 'St-Lin', 'St-Mathias', 'St-Mathieu', 'St-Mathieu-de-Beloeil', 'St-Nicolas', 'St-Odilon de Cranbourne', 'St-Pascal', "St-Paul D'Abbotsford", "St-Paul-de-l'??le-aux-noix", 'St-Pie', 'St-Quentin', 'St-R??mi-de-Tingwick', "St-Roch de l'Achigan", "St-Roch-De-L'achigan", 'St-Romuald', 'St-Sim??on', 'St-Stanislas', 'St-Thomas', 'St-Ubalde', 'St-Urbain', 'St-Valerien', 'St-Victor', 'St. Agatha', 'St. Albert', 'St. Andrews', 'St. Barnabe Sud', 'St. Brieux', 'St. Bruno', 'St. Catharines', 'St. Catherines', 'St. Clements', 'St. Damase', 'St. Francois Xavier', 'St. George', 'St. Gervais', 'St. J??r??me', 'St. Jacobs', 'St. Jacques', "St. John's", 'St. Laurent', "St. Mary's", 'St. Marys', "St. Paul d'Abbotsford", 'St. Philippe', 'St. Raymond', 'St. Thomas', 'St.-Anseime', 'Ste Sophie', 'Ste Therese', 'Ste- Gertrude Abitibi', "Ste-??m??lie-de-l'??nergie", 'Ste-Agathe', 'Ste-Ang??le-de-Pr??mont', 'Ste-Anne de Kent', 'Ste-Anne des Plaines', 'Ste-Cath-de-la-Jq-Cartier', 'Ste-Catherine', 'Ste-Foy', 'Ste-Germaine Boul??', 'Ste-Julie', 'Ste-Melanie', 'Ste-Rose-de-Watford', 'Ste-Sophie-de-L??vard', 'Ste-Sophie-de-Levrard', 'Ste-Th??r??se', 'Ste. Claire', 'Ste. Marguerite', 'Ste. Rose', 'Steinbach', 'Stettler', 'Stittsville', 'Stoney Creek', 'Stony Plain', 'Stouffville', 'Straffordville', 'Strathroy', 'Sturgeon County', 'Sturgeon Falls', 'Sudbury', 'Sullivan', 'Summerland', 'Summerside', 'Sundre', 'Sunset Point', 'Surrey', 'Sussex Corner', 'Sutton', 'Swan River', 'Sylvan Lake', 'Taber', 'Tangier', 'Tappen', 'Taschereau', 'Tecumseh', 'Terrace', 'Terrebonne', 'The Nation', 'Thedford', 'Thetford Mines', 'Thunder Bay', 'Tilbury', 'Tillsonburg', 'Timmins', 'Toronta', 'Toronto', 'Treherne', 'Trenton', 'Trois Rivieres', 'Trois-Rivi??res', 'Two Hills', 'Uxbridge', 'V. de St-Georges', 'Val Caron', "Val D'Or", "Val-D'Or", 'Valcourt', 'Vanastra', 'Vancouver', 'Vanderhoof', 'Vanier', 'Varennes', 'Vaudreuil', 'Vernon', 'Vernon Bridge', 'Verona', 'Victoria', 'Victoriaville', 'Ville de St-Georges', 'Wallenstien', 'Warburg', 'Warminster', 'Warren', 'Warwick', 'Waterdown', 'Waterloo', 'Waubaushene', 'Wawanesa', 'Welland', 'West Kelowna', 'West St. Paul', 'Westbury', 'Westfield', 'Westlock', 'Wetaskiwin', 'Weyburn', 'Whitby', 'White Lakes', 'Whitemouth', 'Wiarton', 'Wickham', 'Windsor', 'Winkler', 'Winnipeg', 'Winnpeg', 'Woodlands', 'Woodrow', 'Woodstock', 'Woodville', 'Wyebridge', 'Yarker', 'Yarmouth', 'Yarmouth County']</t>
         </is>
@@ -991,12 +1014,15 @@
         </is>
       </c>
       <c r="T8" t="n">
+        <v>1218</v>
+      </c>
+      <c r="U8" t="n">
         <v>30341</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>15</v>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>['9', 'Alberta', 'British Columbia', 'Florida', 'Louisiana', 'Manitoba', 'Michigan', 'New Brunswick', 'Newfoundland and Labrador', 'Northwest Territories', 'Nova Scotia', 'Ontario', 'Prince Edward Island', 'Quebec', 'Saskatchewan']</t>
         </is>
@@ -1069,12 +1095,15 @@
         </is>
       </c>
       <c r="T9" t="n">
+        <v>31</v>
+      </c>
+      <c r="U9" t="n">
         <v>26364</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>1458</v>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>['34762', '48326', '5N5H 2R3', '71129', 'A0H 1C0', 'A0K 4C0', 'A1B 3N7', 'A1B 3P9', 'A1B 3R1', 'A1B 4C5', 'A1L 0A7', 'A1N 4R7', 'A1V 1W8', 'A1X 3A7', 'A2B 1K9', 'A2H 5M7', 'A5A 1B8', 'B0J 2C0', 'B0J 3H0', 'B0M 1A0', 'B0M 1G0', 'B0W 1W0', 'B1L 1C2', 'B2W 3T7', 'B3B 0H6', 'B3B 1G7', 'B3B 1L3', 'B3B 1L9', 'B3B 1M7', 'B3B 1N6', 'B3B 1S2', 'B3B 1Z2', 'B3B 2A6', 'B3S 1S4', 'B3T 1W1', 'B3V 1A3', 'B3V 1A4', 'B3Z 1C2', 'B4B 1H1', 'B4C 2K3', 'B5A 4B3', 'B6L 2A7', 'C0A 1G0', 'C0A 2E0', 'C0B 1H0', 'C0B 1T0', 'C0B 1V0', 'C1E 1R4', 'C1E 1Z4', 'C1N 4J9', 'E1A 7E7', 'E1A 9A3', 'E1E 0E8', 'E1H 2E6', 'E2J 0E8', 'E2J 4Y7', 'E2L 9Z9', 'E2M 5T6', 'E4E 2S5', 'E4H 4W5', 'E4S 1G5', 'E4V 1Z5', 'E4V 2K4', 'E4W 2B1', 'E5K 3N8', 'E5L 2A1', 'E7B 1S9', 'E7H 2Z6', 'E7K 2E8', 'E7K 3E9', 'E7P 2K7', 'E8A 1W1', 'G0A 1L0', 'G0A 1N0', 'G0A 1S0', 'G0A 2L0', 'G0A 2R0', 'G0A 3L0', 'G0A 3V0', 'G0A 4L0', 'G0C 3A0', 'G0K 1J0', 'G0L 1B0', 'G0L 1J0', 'G0L 1T0', 'G0L 2J0', 'G0L 3Y0', 'G0L4H0', 'G0M 1H0', 'G0M 1P0', 'G0M 1R0', 'G0M 1S0', 'G0M 2B0', 'G0N 1B0', 'G0N 1E0', 'G0N 1G0', 'G0N 1N0', 'G0N 1P0', 'G0N 1S0', 'G0P 1E0', 'G0P 1J0', 'G0R 2C0', 'G0R 2N0', 'G0R 2V0', 'G0R 4G0', 'G0R3C0', 'G0S 1M0', 'G0S 1T0', 'G0S 2A0', 'G0S 2C0', 'G0S 2S0', 'G0S 2W0', 'G0S 2X0', 'G0S 3A0', 'G0S 3G0', 'G0S 3H0', 'G0W 1G0', 'G0W 2L0', 'G0X 2N0', 'G0X 3C0', 'G0Y 1L0', 'G0Z 1C0', 'G0Z 1E0', 'G0Z 1Z0', 'G1L 3A7', 'G1M 2J8', 'G1M 2T7', 'G1M 2Y3', 'G1M 3K6', 'G1N 3X5', 'G1N 3X8', 'G1P 2H9', 'G1P 2J1', 'G1P 2X9', 'G1P 3T2', 'G1P 3X1', 'G1P 3X3', 'G1X 3W1', 'G2C 1B9', 'G2G 2V2', 'G2N 1X2', 'G2N 2G7', 'G3A 2V5', 'G3H 1L5', 'G3H 3K7', 'G3L 1R5', 'G3M 2X5', 'G3N 0A1', 'G3N 1A1', 'G3Z 2W9', 'G4R 5P3', 'G4W 3M9', 'G4W 3N1', 'G5L 8J9', 'G5M 1A5', 'G5R 3Z5', 'G5R 4C9', 'G5V 3S6', 'G5Y 8G6', 'G5Y 8J3', 'G5Y 8J8', 'G6A 1K5', 'G6A 1L1', 'G6B 2C8', 'G6G 6P6', 'G6H 4G5', 'G6L 1S2', 'G6L 2Y4', 'G6L 2Y8', 'G6P 1A7', 'G6P 6T2', 'G6P 7E4', 'G6P 7E6', 'G6T 1K3', 'G6T 2H6', 'G6V 6N4', 'G6V 9G6', 'G6W 5M6', 'G6Z 1B6', 'G6Z 1T2', 'G6Z 3H5', 'G7A 2N1', 'G7A 2T3', 'G7H 5B1', 'G7N 1V9', 'G7X 0B5', 'G7X 7V3', 'G7X 9H3', 'G8B 6T3', 'G8B 7A1', 'G8K 1W1', 'G8K 2R4', 'G8L 1K3', 'G8L 3M5', 'G8L 5M6', 'G8V 1W2', 'G9A 3C2', 'G9A 4M3', 'G9A 5E1', 'G9A 5J3', 'G9A 5J9', 'G9H 1X7', 'G9H2E5', 'G9N 4Y6', 'G9P 1R8', 'G9T 5K7', 'GOP 1K0', 'GOX 3E0', 'H1A 3N6', 'H1A 3V1', 'H1B5L8', 'H1C 2J3', 'H1E 1R8', 'H1E 2K1', 'H1E 4B6', 'H1E 4G4', 'H1J 1R4', 'H1J 1S8', 'H1J1A2', 'H1P 2B3', 'H1P 3B8', 'H1P 3K5', 'H4C 1V9', 'H4N 2B1', 'H4R 1C3', 'H4R 2N6', 'H4R 3C6', 'H4S 1B7', 'H4S 1C5', 'H4T 1A5', 'H4T 1L1', 'H4T 1N8', 'H7A 4C6', 'H7C 1A2', 'H7E 4P7', 'H7E 4X8', 'H7L 3Y5', 'H7L 4R9', 'H7L 5B3', 'H7P 0A8', 'H7R 6E9', 'H7S 1N5', 'H7S 1N7', 'H7W 3V3', 'H7X 1C4', 'H8S 1A6', 'H8T 1C2', 'H9P 1J5', 'H9P 2R2', 'H9R 2P2', 'H9R 4K3', 'J0A 1C0', 'J0A 1K0', 'J0A 1M0', 'J0B 1M0', 'J0B 1R0', 'J0B 2S0', 'J0C 1A0', 'J0C 1C0', 'J0C 1E0', 'J0C 1K0', 'J0C 1S0', 'J0E 1A0', 'J0E 1M0', 'J0E 1R0', 'J0E 1Y0', 'J0E 2L0', 'J0E 2N0', 'J0G 1J0', 'J0G 1M0', 'J0H 1A0', 'J0H 1B0', 'J0H 1G0', 'J0H 1W0', 'J0H 1X0', 'J0H 2B0', 'J0H1L0', 'J0J 1G0', 'J0J 1L0', 'J0J 1T0', 'J0K 1A0', 'J0K 1E0', 'J0K 1H0', 'J0K 1N0', 'J0K 1R0', 'J0K 2B0', 'J0K 2E0', 'J0K 2K0', 'J0K 2N0', 'J0K 3A0', 'J0K 3H0', 'J0K 3L0', 'J0K 3P0', 'J0L 1E0', 'J0L 1H0', 'J0L 1N0', 'J0L 1T0', 'J0P 1P0', 'J0S 1R0', 'J0S 1Y0', 'J0T 1A0', 'J0T 1H0', 'J0V 1W0', 'J0X 2M0', 'J0Y 2L0', 'J0Y 2N0', 'J0Y 2X0', 'J0Z 1M0', 'J0Z 3B0', 'J0Z 3C0', 'J0Z 3N0', 'J1C 0H9', 'J1G 1X7', 'J1H 2G5', 'J1J 4N8', 'J1M 1Z4', 'J1N 1S3', 'J1N 3K4', 'J1T 4V4', 'J2B 6V4', 'J2B 8B3', 'J2C 4Z5', 'J2C 5S5', 'J2C 5X4', 'J2C 7V9', 'J2C 8N6', 'J2E 0A1', 'J2G 6N6', 'J2G 9H9', 'J2G 9L5', 'J2J 0P2', 'J2J 2N4', 'J2K 2M5', 'J2K 3Y5', 'J2S 1H3', 'J2S 8B1', 'J2X 2L2', 'J2X 4J5', 'J2X 5G4', 'J2X 5P9', 'J3B 4S2', 'J3B 6Y8', 'J3B 7M3', 'J3B 7S7', 'J3B 8J8', 'J3B 8X7', 'J3E 1Z4', 'J3G 4N5', 'J3G 4S5', 'J3L 4B7', 'J3L 4N4', 'J3L 4X3', 'J3L 6A1', 'J3P 5K2', 'J3X 1P7', 'J3X 1S5', 'J3Y 3T7', 'J3Y1Y2', 'J3Z 1J2', 'J4B 1V5', 'J4B 2X2', 'J4B 5Z5', 'J4B 6A1', 'J4B 6Z5', 'J4B 7W1', 'J4B 8C4', 'J4G 1R9', 'J4G 1T5', 'J4G 2P8', 'J4H 3V8', 'J4N 1E2', 'J5B 1Y1', 'J5J 2V2', 'J5M 2C1', 'J5M 2V1', 'J5T 3S5', 'J5T 4A9', 'J5V 2J7', 'J5V1A6', 'J6A 7N1', 'J6A 8G5', 'J6E 3Z1', 'J6J 4Z2', 'J6R 2B9', 'J6S 6N7', 'J6W 4L1', 'J6W 6C1', 'J6X 4J5', 'J6X 4J8', 'J6Y 1J4', 'J6Y 1W1', 'J6Z 0J8', 'J6Z 4S7', 'J7C 5P9', 'J7C 6B4', 'J7E 1C8', 'J7E 2V2', 'J7E 4H5', 'J7E 4K9', 'J7G 2A7', 'J7J 2G6', 'J7M 2A4', 'J7N 1T6', 'J7R 5A5', 'J7T 3E7', 'J7V 5V5', 'J7V 8P2', 'J7Y 4B9', 'J7Y 4H8', 'J7Y 5G2', 'J8C 2W5', 'J8C 2Z8', 'J8E 3J9', 'J8P 8A9', 'J8R 3Y4', 'J9B 1L9', 'J9H 5E1', 'J9J 3J3', 'J9L 0H6', 'J9P 6Y6', 'J9P 7A9', 'J9T 1P8', 'J9T 2P3', 'J9T 3A1', 'J9X 5B7', 'J9Z 2X5', 'JOL 1H0', 'JOL 2H0', 'JON 1HO', 'K0A 1E0', 'K0A 1L0', 'K0A 1M0', 'K0A 1W0', 'K0B 1L0', 'K0C 1B0', 'K0C 1P0', 'K0C 1T0', 'K0C 2B0', 'K0E 1H0', 'K0E 1K0', 'K0G 1J0', 'K0H 1V0', 'K0H 2H0', 'K0H 2W0', 'K0K 1H0', 'K0K 1S0', 'K0K 2J0', 'K0K 2M0', 'K0K 2T0', 'K0K 3N0', 'K0L 2V0', 'K0M 2T0', 'K1B 3W5', 'K1B 4L1', 'K1B 4V7', 'K1B 4V8', 'K1B 5A4', 'K1B 5M1', 'K1B 5R1', 'K1G 3W4', 'K1G 4L4', 'K1V 9V9', 'K2E 6T7', 'K2E 7T8', 'K2G 0B7', 'K2G 1G1', 'K2J 4B6', 'K2S 1A2', 'K4M 1B4', 'K6H 5V2', 'K7A 5K3', 'K7C 3V7', 'K7H 3C7', 'K7K 6C2', 'K7L 4W5', 'K7M 2T3', 'K7M 8N3', 'K7M 9H2', 'K7S 3G7', 'K7V 1Y6', 'K8A 7M5', 'K8H 6W7', 'K8K 4Z5', 'K8N 4Z2', 'K8N 4Z5', 'K8N 4Z6', 'K8V 5P6', 'K8V 5W6', 'K9A 3A7', 'K9J 1Z9', 'K9J 6X7', 'K9J 6X8', 'K9J 6X9', 'K9V 5G4', 'KIG 4G2', 'L0A 1C0', 'L0A 1G0', 'L0B 1J0', 'L0E 1R0', 'L0G 1B0', 'L0G AT0', 'L0H 1A0', 'L0H 1G0', 'L0J 1C0', 'L0K 2C0', 'L0K 2E0', 'L0K 2G0', 'L0L 1V0', 'L0L 2E0', 'L0L 2L0', 'L0M 1N0', 'L0R 1B0', 'L0R 1K0', 'L0R 1M0', 'L0R 2A0', 'L0R 2H2', 'L0R1B1', 'L0S 1A0', 'L0S 1C0', 'L1C 3K3', 'L1C 4P8', 'L1H 6E8', 'L1H 7K4', 'L1H 7L3', 'L1H 8P7', 'L1J 5Y5', 'L1J 5Y6', 'L1N 5K9', 'L1S 3Z2', 'L1S 7G7', 'L1W 3K1', 'L1W 3T7', 'L2A 5A2', 'L2M 6S9', 'L2R 1C9', 'L2R 2R2', 'L2R 3X1', 'L2R 7K6', 'L3B 3X1', 'L3B 6G4', 'L3C 1C9', 'L3K 5V4', 'L3M 4E7', 'L3P 1M3', 'L3R 3K5', 'L3R 6H2', 'L3R 8T9', 'L3V 6H1', 'L3Y 8C6', 'L3Y 8W4', 'L3Y 9B9', 'L4A 1C4', 'L4A 7X5', 'L4B 1J6', 'L4C 3E9', 'L4K 1A5', 'L4K 1H8', 'L4K 1J5', 'L4K 2R2', 'L4K 2Y8', 'L4K 3B5', 'L4K 3L6', 'L4K 3T8', 'L4K 3Z8', 'L4K 4X1', 'L4M 6C8', 'L4N 1C1', 'L4N 1C2', 'L4N 8Z5', 'L4P 3E9', 'L4W 1E4', 'L4W 1H3', 'L4W 1T7', 'L4W 1Y4', 'L4W 1Y5', 'L4W 2A3', 'L4W 2X8', 'L4W 4L6', 'L4W 4N5', 'L4W 4Z5', 'L4W1A1', 'L4X 2C5', 'L4Y 1Y6', 'L4Z 1H8', 'L4Z 3K8', 'L5C 1V8', 'L5L 5Z2', 'L5M 5M1', 'L5N 2W3', 'L5N 7J7', 'L5N 7K5', 'L5R 3E6', 'L5R 3E9', 'L5R 4J7', 'L5S 1J5', 'L5S 1M5', 'L5S 1S2', 'L5S 1Y6', 'L5T 2A8', 'L5T 2E6', 'L5T 2S7', 'L5W 4L4', 'L6A 4R6', 'L6C 0H8', 'L6G 1A6', 'L6H 5R1', 'L6J 2X8', 'L6J 5E4', 'L6J 7X5', 'L6L 5M9', 'L6L 6R3', 'L6S 5N8', 'L6T 3T4', 'L6T 3Y4', 'L6W 3J7', 'L6W 3J9', 'L6W 3R3', 'L6Z 3H8', 'L7E 1H3', 'L7E 5R5', 'L7E 5T2', 'L7E 5T4', 'L7L 1T2', 'L7L 4Y1', 'L7L 5H7', 'L7L 5L5', 'L7L 5R3', 'L7L 6A2', 'L7M 1A6', 'L7N 3M8', 'L7P 1A6', 'L7R 3R3', 'L7S 1A2', 'L7S 1W3', 'L8E 2J9', 'L8E 2N9', 'L8E 2R2', 'L8E 2R4', 'L8E 2W2', 'L8E 3A2', 'L8E 5M8', 'L8E 5M9', 'L8E4H8', 'L8H  3R6', 'L8H 2Y6', 'L8H 2Y7', 'L8H 3P6', 'L8H 7L5', 'L8L 8B7', 'L8L 8K3', 'L8N 2Z7', 'L8N2Z7', 'L8S 1M5', 'L8W 3N1', 'L9B 1B7', 'L9P 1R1', 'L9S 1S8', 'L9S 3V6', 'L9T 1X9', 'L9T 3L5', 'L9T 3Y5', 'L9T 4Z4', 'L9T 5C4', 'L9W 1N1', 'L9W 1P9', 'L9W 2Z3', 'L9Y 4V6', 'L9Y 5A6', 'LOL 1T0', 'LOL 2E0', 'M1H 1H9', 'M1H 2Z1', 'M1K 3K9', 'M1P 3B9', 'M1P 3E7', 'M1P 4M8', 'M1R 3B7', 'M1S 3L2', 'M1V 0C1', 'M1X 1B9', 'M1X 1M4', 'M2H 2N7', 'M3B 2T5', 'M3J 1Y8', 'M3J 2B1', 'M3J 2E2', 'M3J 3H4', 'M3K 2A2', 'M3L 1G5', 'M3N 1W1', 'M3N 1W3', 'M4B', 'M4G 1Y9', 'M4G 1Z2', 'M4G 3V6', 'M4P 2V8', 'M5H 2T6', 'M5H2T6', 'M5J 2T3', 'M6H 1P2', 'M6N 2J1', 'M6N 4Z9', 'M8Z 1X1', 'M8Z 2R4', 'M9L 1R1', 'M9L 1X1', 'M9L 1Y6', 'M9L 2T4', 'M9M 2G5', 'M9M 2Z2', 'M9W 4N3', 'M9W 5T2', 'M9W 5Y8', 'M9W 5Z7', 'N/A', 'N0A 1C0', 'N0B 1E0', 'N0B 1M0', 'N0B 1S0', 'N0B 1Y0', 'N0B 2H0', 'N0B 2J0', 'N0B 2L0', 'N0B 2M0', 'N0B 2N0', 'N0B 2S0', 'N0C 1B0', 'N0C 1E0', 'N0E 1N0', 'N0E1M0', 'N0G 1M0', 'N0G 1X0', 'N0G 2H0', 'N0H 2K0', 'N0H 2T0', 'N0J 1E0', 'N0J 1H0', 'N0J 1P0', 'N0J 1V0', 'N0J 1Y0', 'N0L 2E0', 'N0M 1J0', 'N0M 1L0', 'N0M 1M0', 'N0M 1S3', 'N0M 1Y0', 'N0M 2N0', 'N0N 1G0', 'N0N 1K0', 'N0N 1P0', 'N0P 1A0', 'N0P 1C0', 'N0P 2C0', 'N0P 2G0', 'N0P 2L0', 'N0R 1K0', 'N1A 2W1', 'N1A 2W7', 'N1H 1A4', 'N1H 1B8', 'N1H 6J2', 'N1H 6J3', 'N1H 6K3', 'N1K 1G7', 'N1R 5S9', 'N1R 7J2', 'N1R 7N3', 'N1R 8B7', 'N1T 1B2', 'N2B 2E1', 'N2B 3E1', 'N2B 3E7', 'N2C 2C9', 'N2C 2G1', 'N2E 2M7', 'N2E 3X9', 'N2H 5H3', 'N2R 1J9', 'N2S 4B3', 'N2V 1N3', 'N2V 1Y8', 'N2V 2E3', 'N2Z 2N3', 'N3A 3B8', 'N3B 2Z7', 'N3H 4R7', 'N3H 4V9', 'N3H 4W3', 'N3S 7V6', 'N3T 5M1', 'N3T 5M6', 'N3T 5M7', 'N3T 5N3', 'N3W 1Y1', 'N3W 2G8', 'N4B 2W6', 'N4G 4G7', 'N4P 3S7', 'N4S 7V8', 'N4S 7W5', 'N4S 7Z2', 'N4S 8Y7', 'N4V 1E2', 'N4W 3G8', 'N4W 3G9', 'N4X 1C9', 'N5C 3J7', 'N5H 2R6', 'N5H 2R8', 'N5H 2R9', 'N5P 3R7', 'N5V 0A4', 'N5V 1R2', 'N5V 2Z6', 'N5V 2Z8', 'N5V 4J5', 'N5V 4L6', 'N5V 4N8', 'N5W 1X4', 'N5W 4Z2', 'N6A 5J6', 'N6E 2Z8', 'N6K 1Y1', 'N6N 1A8', 'N7A 3Y1', 'N7A 3Y2', 'N7G 3H7', 'N7M 5K5', 'N7M 5K8', 'N7T 7H8', 'N7T 7J2', 'N8H 3V8', 'N8M 3G6', 'N8N 2L9', 'N8W 5B5', 'N9A 6J3', 'N9C 4H5', 'NOG 2L0', 'NOL 2C0', 'NOM 1K0', 'NON 1R0', 'P0H 1V0', 'P0H 2G0', 'P0J 1P0', 'P0L 1N0', 'P0M  1B0', 'P0M 1B0', 'P0T 1W0', 'P1A 0B5', 'P1B 2M4', 'P1B 8G4', 'P1B 8G8', 'P1H 1Y4', 'P1L 1T8', 'P1L 1V1', 'P2A 0B6', 'P2A 2W8', 'P3A 2N5', 'P3A 2T2', 'P3A 4M9', 'P3B 2Z3', 'P3N 1B3', 'P3Y 1K6', 'P4N 7C3', 'P4N 7H9', 'P4R 1M9', 'P6A 3T4', 'P6B 4K2', 'P6B 5A1', 'P6C 3W7', 'P7B 3X5', 'P7B 5M5', 'P7B 5X5', 'P7E 4X5', 'P7K 0C6', 'P7X 3G7', 'R0A 0R0', 'R0A 1E0', 'R0C 0A0', 'R0C 1N0', 'R0C 3E0', 'R0C 3H0', 'R0E 0A0', 'R0E 0C0', 'R0E 2G0', 'R0G 0B0', 'R0G 0J0', 'R0G 0V0', 'R0G 1K0', 'R0G 1S0', 'R0G 1W0', 'R0G 2V0', 'R0H 0C0', 'R0H 0Y0', 'R0H 1L0', 'R0J 0M0', 'R0J 1H0', 'R0J 1T0', 'R0K 0L0', 'R0K 0P0', 'R0K 1W0', 'R0K 2G0', 'R0L 0C0', 'R0L 1S0', 'R0L 1Z0', 'R0M OJ0', 'R1A 3N9', 'R1N 3C5', 'R2C 2Z2', 'R2C 3T4', 'R2C 5G4', 'R2H 1R7', 'R2J 0A4', 'R2J 0Z7', 'R2J 3T1', 'R2J 3T6', 'R2JOE6', 'R2L 0X3', 'R2P 2W5', 'R2R 1V1', 'R2R 1V9', 'R2R 2B9', 'R2X 0A1', 'R2X 2W5', 'R3C 2E6', 'R3C 2N5', 'R3C 4A3', 'R3E 1C6', 'R3E 2R9', 'R3E 3S4', 'R3H 0G7', 'R3H 0N1', 'R3H 0N6', 'R3H 0R5', 'R3H 0S8', 'R3J 1J2', 'R3J 3T2', 'R3J 3W1', 'R3P 2H8', 'R3T 1T5', 'R3T 3N9', 'R3V 1A4', 'R3X 1G9', 'R4A 5A9', 'R4H 1B8', 'R4K 1B2', 'R4L 1N6', 'R5G 1T8', 'R5G 1W1', 'R5G 2C4', 'R6M 1Y4', 'R6M 2G2', 'R6W 1A1', 'R6W 4A1', 'R6W 4A5', 'R6W 4A7', 'R6W 4A9', 'R6W 4B1', 'R6W 4B7', 'R6W 4C3', 'R6W 4C4', 'R7A  7A4', 'R7A 7A8', 'R7A 7L1', 'R7C 1A4', 'RC3 2E6', 'ROJ1W0', 'ROK 0W0', 'S0A 0X0', 'S0A 1B0', 'S0A 1V0', 'S0A 2P0', 'S0A 3J0', 'S0A 3R0', 'S0C 0N0', 'S0E 0Y0', 'S0E 1A0', 'S0E 1E0', 'S0G 0H0', 'S0G 0V0', 'S0H 0T0', 'S0H 1X0', 'S0H 2K0', 'S0H 4M0', 'S0J 1B0', 'S0K 0G0', 'S0K 1H0', 'S0K 2A0', 'S0K 2T0', 'S0K 2Z0', 'S0K 3V0', 'S0M 0N0', 'S0M 1H0', 'S0N 1H0', 'S4H 2J9', 'S4H 2L2', 'S4N 3M3', 'S4N 3W1', 'S4N 5A1', 'S4N 5A6', 'S4N 5M2', 'S4N 5P7', 'S4N 5W2', 'S4N 5X4', 'S4N 7E5', 'S4P 3E2', 'S4P 3H1', 'S4R 2M6', 'S4R 8R7', 'S4T 2P7', 'S4T 7M3', 'S6H 4P2', 'S6H 4P6', 'S6H 4P8', 'S6V 6G1', 'S7J 4C6', 'S7J0R1', 'S7K 0X1', 'S7K 0X4', 'S7K 0X7', 'S7K 0X8', 'S7K 3J8', 'S7K 3P5', 'S7K 3S2', 'S7K 3V1', 'S7K 3Y5', 'S7K 5Z1', 'S7K 5Z7', 'S7K 6J4', 'S7K 6N3', 'S7K 6P6', 'S7L 6A4', 'S7M 1E3', 'S7M 3Z7', 'S7N 1Y7', 'S7N 1Z3', 'S7P 0A9', 'S7P 0B2', 'S9A 3M1', 'S9V 1R6', 'SOH 1X0', 'SOK 3V0', 'T0A 0V1', 'T0A 2K0', 'T0A 3A0', 'T0B 1A0', 'T0B 1X0', 'T0B 3P0', 'T0B 4K0', 'T0C 0J0', 'T0C 1Z0', 'T0C 2L0', 'T0C 2T0', 'T0E 0A0', 'T0E 0H0', 'T0E 0J0', 'T0E 1V0', 'T0G 0J0', 'T0G 1R0', 'T0H 0W0', 'T0J 0Y0', 'T0J 2S0', 'T0K 0C0', 'T0K 0K0', 'T0K 0R0', 'T0K 1W0', 'T0L 0A0', 'T0L 0T0', 'T0M 0J0', 'T0M 0S0', 'T0M 0V0', 'T0M 1H0', 'T0M 1J0', 'T0M 1X0', 'T1A 5P7', 'T1A 8G7', 'T1A 8M9', 'T1B 3N2', 'T1C 1T9', 'T1G 0B7', 'T1G 2E1', 'T1G 2J4', 'T1H 0C8', 'T1H 5G1', 'T1H 5G5', 'T1H 6G3', 'T1H 6L5', 'T1H 7A6', 'T1J 4P4', 'T1M 1N1', 'T1R 1B5', 'T1R 1E1', 'T1S 0J8', 'T1S 1A1', 'T1V 1E6', 'T1V 1M3', 'T1V 1M6', 'T2A 1X4', 'T2A 2N6', 'T2A 2P1', 'T2A 2P3', 'T2B 1P4', 'T2B 2X4', 'T2B 3K7', 'T2B 3M4', 'T2B 3N9', 'T2C 0L5', 'T2C 0Y4', 'T2C 1V5', 'T2C 1Z6', 'T2C 2B8', 'T2C 2E4', 'T2C 2H5', 'T2C 2H8', 'T2C 2J1', 'T2C 2L2', 'T2C 2P6', 'T2C 2R4', 'T2C 2R5', 'T2C 2X3', 'T2C 3H3', 'T2C 4L2', 'T2C 4L7', 'T2C 4M6', 'T2C 4M9', 'T2C 4P1', 'T2C 4R7', 'T2C 4S9', 'T2C 4T6', 'T2C 4X5', 'T2C 4Z6', 'T2C 5B9', 'T2C 5H4', 'T2C 5J8', 'T2E 4B2', 'T2E 4B3', 'T2E 6K9', 'T2E 6N6', 'T2E 6Z5', 'T2E 7N4', 'T2E 8C2', 'T2E 8P9', 'T2G 2A5', 'T2G 2A7', 'T2G 4A8', 'T2G 4R5', 'T2H 1C2', 'T2H 1L6', 'T2H 1X1', 'T2H 2G7', 'T2H 2Y2', 'T2H0P5', 'T2K 2E6', 'T2L 2X1', 'T2P 2P9', 'T2Z 4K4', 'T2Z 4V3', 'T3R 0H9', 'T3S 0A1', 'T3Z 3M2', 'T4B 2B4', 'T4C 1B4', 'T4C 1W7', 'T4H 1V1', 'T4J 1J8', 'T4J 1R3', 'T4L 1X4', 'T4L 2C6', 'T4L 2N1', 'T4L 2N2', 'T4N 4L1', 'T4N 5G1', 'T4N 5H3', 'T4P 1A5', 'T4P 1A7', 'T4P 1A8', 'T4P 1K3', 'T4P 1N5', 'T4P 1X5', 'T4P 2G9', 'T4P 2J9', 'T4P 2R2', 'T4P 3R2', 'T4P 3R3', 'T4P-3R2', 'T4R 2P7', 'T4S 1P5', 'T4S 1S6', 'T4S 1S8', 'T4S 1X6', 'T4S 2A3', 'T4S 2B3', 'T4S 2J8', 'T4S 2J9', 'T4S 2K5', 'T4S 2L4', 'T4S 2M4', 'T4S2A8', 'T4T 2A3', 'T4V 1L9', 'T4V 1X4', 'T4V 4B9', 'T4V 4E7', 'T4V 4W3', 'T5B 0X3', 'T5B 1C6', 'T5B 1G8', 'T5B 1K5', 'T5B 2B7', 'T5G 2S7', 'T5L 2M8', 'T5L 2R8', 'T5L 2T3', 'T5M 2R8', 'T5M 2S4', 'T5M 2S6', 'T5M 2V7', 'T5M 3P5', 'T5M 3R4', 'T5M 3T5', 'T5P 1G8', 'T5S 0A6', 'T5S 1G4', 'T5S 1J4', 'T5S 1W1', 'T5S 1X2', 'T5S 1X4', 'T5S 1Z1', 'T5S 2G2', 'T5S 2K4', 'T5S 2M3', 'T5S 2R9', 'T5S 2Y3', 'T5V 1A1', 'T5V 1B7', 'T5V 1J8', 'T5V 1N4', 'T6B 0A3', 'T6B 0A5', 'T6B 0A7', 'T6B 0E5', 'T6B 2H7', 'T6B 2P1', 'T6B 2S1', 'T6B 2V2', 'T6B 2W4', 'T6B 3A7', 'T6B 3C4', 'T6B 3E3', 'T6E 0E2', 'T6E 4N2', 'T6E 4N6', 'T6E 5S6', 'T6E 6C2', 'T6E 6L9', 'T6E 6M5', 'T6H 2H5', 'T6N 1A3', 'T6N 1B2', 'T6N 1C9', 'T6P 1J8', 'T6P 1K1', 'T6P 1K2', 'T6P 1P7', 'T6P 1V8', 'T6P 1Y6', 'T6S 1B9', 'T6S 1G1', 'T7A 1S1', 'T7A 1S4', 'T7A 1S5', 'T7P 2M2', 'T7P 2M4', 'T7P 2P5', 'T7X 3A5', 'T7X 3L8', 'T7X 5A3', 'T7X 5A4', 'T7X 5A5', 'T7X 5A7', 'T7Z 1L7', 'T7Z 1V6', 'T7Z 1V7', 'T7Z 1W4', 'T8E 2J3', 'T8H 1N7', 'T8H 2J6', 'T8H 2V2', 'T8N 2G3', 'T8R 1K6', 'T8R 1Y2', 'T8S 1M6', 'T8V 4H4', 'T8V 7S3', 'T8V 8B1', 'T8V 8K4', 'T8W 1M3', 'T8W 5J1', 'T8X 0L2', 'T9A 0T8', 'T9E 0B3', 'T9E 0C3', 'T9E 0R3', 'T9E 7E8', 'T9E 7M1', 'T9E 7N6', 'T9E 7R2', 'T9E 7R5', 'T9E 7S5', 'T9E 7T7', 'T9E 7T8', 'T9E 7W1', 'T9E 7W9', 'T9E 7X2', 'T9E 7X8', 'T9E 8G2', 'T9E 8H9', 'T9E 8P2', 'T9E7T5', 'T9M 1P3', 'T9N 2J3', 'T9V 2C2', 'T9V 2E4', 'T9V 3A7', 'TB6 3G8', 'TX8 0B1', 'V0B 2G0', 'V0E 1B6', 'V0E 2X0', 'V0G 1Z0', 'V0H 1Z1', 'V0J 3A0', 'V0J 3A1', 'V0K 1T0', 'V0M 1L0', 'V0R 1K4', 'V0R 1V0', 'V0R 2H0', 'V0R 2H1', 'V0R 2W3', 'V0X 1X0', 'V1B 3E4', 'V1B 3R9', 'V1B 3S1', 'V1E 1X2', 'V1E 4N3', 'V1G 4R8', 'V1J 5K5', 'V1J 7H2', 'V1L 6Z2', 'V1M 2X7', 'V1M 36A', 'V1S 1J6', 'V1S 1S4', 'V1T 8T9', 'V1V 2M2', 'V1X 4R2', 'V1X 5E6', 'V1X 5W6', 'V1X 7S2', 'V1Y 1M3', 'V1Z 1G2', 'V1Z 1G4', 'V2A 3H7', 'V2A 3K7', 'V2A 3M3', 'V2A 6P3', 'V2B 6B1', 'V2C 5P2', 'V2J 5Z2', 'V2K 1M8', 'V2K 3A1', 'V2L 2Z1', 'V2L 4V4', 'V2N 1X2', 'V2N 4T6', 'V2N 5S3', 'V2N 5T1', 'V2P 2N1', 'V2P 6H5', 'V2R 4H2', 'V2R 5N8', 'V2S 4N7', 'V2S 6B7', 'V2S 7M2', 'V2S 7M6', 'V2S 7T1', 'V2T 0A7', 'V2T 6G1', 'V2T 7L4', 'V2V 5X4', 'V2Y 1N7', 'V2Y 2S9', 'V2Y 2V9', 'V3A 4E3', 'V3A 4L5', 'V3A 4N4', 'V3A 4N5', 'V3A 5E8', 'V3C 1S9', 'V3C 2M8', 'V3C 6L4', 'V3G 1M1', 'V3K 5S9', 'V3M 5R1', 'V3M 6G7', 'V3S 4N9', 'V3S 8E5', 'V3T 5J4', 'V3V 3H2', 'V3V 4G8', 'V3W 4E8', 'V4G 1B5', 'V4G 1E2', 'V4G 1K7', 'V4N 2S1', 'V4N 3P5', 'V4N 3P8', 'V4N 3P9', 'V4N 3R7', 'V4N 4C2', 'V4N 4C3', 'V4N 4C4', 'V4N 4E6', 'V4S 0A1', 'V4W 2W5', 'V4W 2Z8', 'V4W 3A8', 'V4W 3W7', 'V4W 3X5', 'V4X 1C8', 'V5C 5A9', 'V5J 4S6', 'V5X 2X1', 'V6A 2X2', 'V6G 2B2', 'V6P 6G2', 'V6V 1J7', 'V6X 1T3', 'V6X 1X3', 'V6X 1X5', 'V6X 1Y4', 'V7A 4V1', 'V8G 5R5', 'V8L 5Y1', 'V9B 2S2', 'V9L 3X9', 'V9L 6B1', 'V9M 4C7', 'V9P 2B8', 'V9P 2B9', 'V9P 2C2', 'V9R 6W6', 'V9R 6Z5', 'V9S 3H6', 'V9S 4M8', 'V9W 3G2', 'X0E 0R6']</t>
         </is>
@@ -1147,12 +1176,15 @@
         </is>
       </c>
       <c r="T10" t="n">
+        <v>3790</v>
+      </c>
+      <c r="U10" t="n">
         <v>22779</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>2</v>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>['CANADA', 'UNITED STATES']</t>
         </is>
@@ -1221,12 +1253,15 @@
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
+        <v>567</v>
+      </c>
+      <c r="U11" t="n">
         <v>61305</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>1331</v>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>['#1 - 2720 12th Street N.E.', '#1 - 7861 Hwy 97N', '#1 7884 49 Ave.', '#1 7884-49 Avenue', '#1 Cardinal Street', '#1 Greengage Road', '#1, 1915 - 30th Avenue North East', '#10 Forwell Road', '#107-20693 Langley Bypass', '#12, 3939 54th Avenue S.E.', '#120, 10569 - 42th Street SE', '#170 Hwy 83 North', '#301 26730 56th Avenue', '#306-5327-192nd  Street', '#4 4440-75Ave. SE', '#5-7880-128 Street', '#7 - 1231 36th Avenue N.E.', '#8, 4 Erickson Crescent', '#9 - 1065 Herring Gull Way', '#9 Laut Cres Box 602', "'A' Twp Rd 110", '07 Robinson Road  RR# 1', '1 Av. Premier', '1 Elmvalley Road', '1 Quai Mgr Blanche, hangar no. 6', '1 Royales Avenue', '1 Schenk Industrial Road', '1 rue Du Parc', '1, rue Pinat', "10 Boul. de L'Artisan", '10 Chemin de la Grande-Carriere', '10 Herritage RD', '10 Sicard St.', '10-B Li??bert', '100 - 10500, 48 Street S.E.', '100 Blvd. Real Caouette', '100 Canola Ave.', '100 East Beaver Creek Road', '100 Pierrot', '100 Shirley Avenue', '1000 6th Avenue N.E.', '1000 boul. Industriel', '1000, rue Industrielle, C.P. 279', '1001 Coutts Way', '1002 - 15 Ave Nisku', '1005 Pattullo Avenue, R.R. 8', '1006 Principale', '1008, Fte Mgr.-Bourget', '101 Marius Warnet', '102 Dawson Road, P.O. Box 3003', '102 Saliken Dr.', '102, rue du Menuisier', '102, rue du Parc Industriel, Case postale 70', '1020 17th Street West', '1020 Rue Craig Nord', '10240 Bl. L??vesque', '1026 Western Dr. Box 830', '1028 Laut Avenue', '103 Ave.', '103 Paramount Rd', '1030 Fernand-Dufour', '1035 Falconbridge Road', '1035, Rte. 219', '1038, Commerciale', '1040 Degurse Drive', '10401 Boul. Parkway', '1041 rue Nobel', '1043 rue Renault', '1047, rue Capri', '1049 The Queensway', '10498 17 Street', '105 MacDonald Street North', '1051 Heritage Road', '1053 Brock Road South', '10531 Gilmore Cr.', '10571 - 178th Street', '1064, boul. Mgr-de-Laval', '10647 McSween Road', '107 - 2707 Progressive Way', '1070 Gorham St', '10708-2nd Ave North West', '1071 Hwy 7 East RR# 7', '1077 Hwy 26', '10774 - 42nd St SE', '1084, Rue L??vis', '109 Erie Street South', '1090 South Service Road East, Unit A', '1091, rue Principale', '10920 - 87 Avenue', '1093 Lorimar Drive', '1093 Smithers Road', '1096, L??vis , unit?? #3', '11 500, 57 ieme Avenue', '11, Rue Dupuis', '110 Boul. Desjardins', '110 route du lac St-Francois', '110, 41 Royal Viste Drive North West', '1100 3ieme Ave.,', '1100 Aviation Avenue', '1100 Fairville Blvd.', '1100 Rue Deschaillons', '1100 Rue Norman', '1100 Wall Street', "1100 de l'Industrie", '11003 - 97 Avenue', '1114 Route 138', '112 route 155', '1120 Industrial Drive P.O. Box 1271', '1121 Heritage Road', '1121 Heritage Road.', '1123 Lorimar Drive', '11313 - 170th Street', '115 Cushman Road, Unit #46', '115, St-Georges', '11500, 55e Avenue', '11520 - 2 Street N.W.', '11525 - 42 Street SE', '11525 - 42nd Street South East', '1159 Des Pionniers', '116 Sunterra Heights', '116 Thorne Ave', '11634 - 156 Street', '11634 - 7th Street', '11635 6e avenue', '11650 - 156 Street NW', '1169 Pettit Rd.', '1170 Boulevard Lebourgneuf', '1170, boulevard Lebourgneuf, bureau 110', '11700 Boul. St-Jean- Baptiste', '11740 Phillipe-Panneton', '1185 Roland Street', '11860 Machrina Way', '11938 Imperial Road, R.R. #4', '12 Chelsea Lane', '12 McGregor Ave', '12 Norbett Drive, Units 2 &amp; 3', '12, Rang St-Andre', '1200 McIntyre Street', '1200 McIntyre Street`', '1200, rue Nationale', '1201 Route 329 Nord', '1202 8th Street, Bay 18', '12020 - 101 Avenue', '12031 Vulcan Way', '1205 36th Street', '1206, du pacifique', '121 B, rue Principale, C.P. 249', '12145 - 156 Street', '12145 Dorchester Rd. (RR #7)', '12145 Meridian St', '1215 Victoria', '12180 Industrial Rd.', '1220 Franklin Blvd.', '1225 64th Avenue N.E.', '123 Old Highway 11 North', '123 Princess Street', "1234, rue de l'eglise", '12343A - 104th Avenue', '124 St-Regis Crescent South, Unit 1', '12404-107th Street', '1245, rue Labadie', '12455, rue April', '1250 Gorham Street', '1250, Notre-Dame', '1250, boulevard V??zina', '12533 William Short Road Street', '126 Wheeler Street', '12603 GrandView Drive NW', '12605 - 66 Street', '12622 125th Street', '1266 Sharpe Line', '12731 Hwy #48', '12747 Hwy 16 E.', '129 Oakwood Street', '130 Canada St, PO Box 2008', '130 Millwick Drive', '130 route 335', '1301 Jackson Side Road', '1304 rue Principale', '131 Staffern Drive', '13105 rue Jean-Grou', '1312 Plank Road', '1313 rue de Saint-Jovite', '13143 Country Road 16', '1318 rue Principale', '132 Fletcher Creek', '132 Montee Grande Ligne', '133 Industrial Park Road', '1330 Riverside Road', '1345 Industrial Rd., Westside Industrial Park', '135 6th East', '135 McNarmara Drive', '1350 The Queensway', '1351 Ampere Local-0', '1351 Ampere, Suite 1', '1351 Lionel-Boulet', '13594 Sabo Road', '136 Highway 33, R.R. #3', '1360 Bloor Street West', '1360 Rang 6 Nord', '1360Champlain Street', '1367 Station Rd.  P.O. Box 581', '139 Laird Drive', '13920 Tecumseh Road R.R. #5', '1395 Route 139', '1399 Waterton Avenue', '14 Ferry Road', '14 Hallett Crescent', '14 Mont??e Petite C??te', '14 ch. Grande Ligne', '1405 - 41 Street North', '1405 - 41st Street North', '1407 Colborne Street East', '1415 39 Street North', '1417 Notre Dame Drive  RR#1', '143, Route 108', '14355 - 120 Avenue', '1439, Rang 1', '144 Henderson Drive', '1440 1??re Avenue', '145 Falcon Street', '1461 Star Top Rd.', '14650-118th Avenue', '1467 Spitfire Place', '1470 Star Top Road', '14701 14 Ave Crowsnest Pass', '1475 Clarence Avenue', '149 Bentley Avenue', '15 Iris Crescent', '15 Kenyon Street', '15 Robbins Drive', '150 Cree Crescent', '150, rue Edward-Assh', '1503 Petrolia Line RR#1', '151 Bullis Road', '151 Thornhill Drive', '1511 Sparrow Drive', '1511 rue J??rome-Hamel', '1520 Charles Street', '15210 Yellowhead Trail', '1525 County Road 42, RR#2', '152b Oakdale Rd', '153 Autumnwood Drive', '1540 Kal Lake Road', '1540 Saskatchewan Avenue', '15410 Yellowhead Trail', '1548 County Road 34', '155 Dawson Road', '155, Marie-Victorin', '1550 Highway 39 East', '156 Berryman Ave', '157, rue Principale', '1570 Hwy #7 At Brook Road', '1571 Liverpool Court', "15790 Robin's Hill Road", '158 Old Vernon Road', '15816 - 111 Avenue', '15935A 118th Avenue', '1596 Vella Road', '16 Estate Drive', '16 Second Street', '160, rue Savard, CP 188', '160, rue des Routiers', '1602 Western Street', '1607 S. Campus Ave', '16079, boul. Cure-Labelle (route 117)', '161 Deerhide Crescent Unit #3', '161 rue Sylvestre', '16105 Hwy #27 PO Box 209', '1616 Meridian Road N.E.', '162 Boulevard Mercier', '1621 Michael Street', '1630, Route Kennedy', '16304 - 117 Avenue', '16320 rang St-Dominique', '16333-130 Avenue', '164, Msg. Martin', '1640 Enterprise Road', '1641 De Gascogne', '165 Magill Street', '165 Thames E.', '1651 - 12th Street', '1655 Hymus Blvd.', '1655 boulevard de Port Royal', '166 North Murray - PO Box 682', '166 rue Sylvestre', '166 rue du Carrefour', '16615 Post Rd', '16703 - 110 Avenue North West', '16715 114th Avenue', '1690 rue Eiffel', '17 - 199 Omands Creek', '17 rue des Pins', '17-1-15 NE', '170 Joseph Zatzman Drive, Unit 18', '1715 Britannia Road East', '1718 - Hwy. #6 North, R.r. #2', '172 St-Laurent Blvd.', '1720 boulevard St-Charles', '1730 rue Atmec', '17303 - 114 Avenue', '175 Gordon Baker Road', '175 Pinedale Avenue', '175 Route 104', '175, route du Pont', '1750 Brown Road', '1750 West 75th Avenue', '1759 Trafalgar Street', '176 McGovern Drive, R.R. #32', '17604 105th Avenue', '1775 Drew Road', '1781 Bresse', '17817 Leslie Street, Unit 16', '1783 Oxford Street, Unit #5', "18 Dundee Avenue Suite #1 (Donovan's Ind. Park)", '180 Hodsman Rd.', '180 Honda Blvd.', '18020 - 118 Avenue', '1803 Ryan Road East', '1805-10 Avenue SW', '1809 Main Street', '18110 - 118 Avenue', '182 Darling Drive', '1830A Cage Court', '1836, 3e avenue', '1839 Seymour St. Site 9, Comp. 11, RR# 3', '1840 Gage Court', '1840 Kryczka Pl', '18412 96th Ave', '1845 route 122', '1850 Derry Road East', '1855 boul. Queen Victoria', '18550 - 96th Avenue', '186 Main Street', '18688 96th Avenue', '18th Ave', '19 Industrial Street', '19 Wheatland Avenue', '19, Gaston-Dumoulin', '19, rue C??t??', '190 Commercial Place', '1900-800 5th Avenue S.W.', '1904 4th street', '1908 Colonel Sam Drive', '191 Dalton Avenue', '1914 Glover Road', "1915 boul. de L'Industrie", '1940 Albion Road', '1940 Eglinton Avenue East', '19405 Enterprise Way', '19439 94th Avenue', '19470 - 96th Avenue', '19470 f?? 96th Avenue', '195 Citation Dr.', '195 Fyffe Road S.E.', '1951 Wilfert road', '19548 - 96 Avenue', '1955 Caribou Street West', '1955 West Trans. Canada Hwy.', '196 Armand Bombardier', '1963 Kingsway Avenue', '1995 Merivale Road', '1995, rue Frank-Carrel, bureau 90', '1st Street South, P.O. Box 1124', '2 - 418 South Railway Street South', '2 Arrowsmith Road', '2, boulevard Marie-Victorin', '2, rue du Parc', '2-331 Parkdale Road', '20 Alness Street', '200 - 53016 Highway 60', '200 Hempstead Drive, Unit 6', '200 Waydom Drive', '200 mont??e Industrielle', '200 rue Damasse Breton', '200, rue Savard, C.P. 6', '2000 Boul. Ste Sophie', '2000 Langstaff Road', '2000, avenue M??thot, C.P. 333', '2001 1st Avenue', '201 Woodlawn Road', '201 blvd Labb?? N # 6', '201-1492 Admirals Road', '2010 Riverside Drive', '20165 Logan Avenue', '202, 26229 TWP 531 A (Zone 2 Industrial Area)', '2020 Bantree St.', '2025 Lechatelier', '2028 Dundas Street', '2035 Bedell', '205 Boulevard Saint-Sacrement', '205 Konrad', '205 Miner', '205 rue Commerciale', '2054 Birch Crescent S.E.', '2060, 55e Avenue', '2066 Henry Avenue West', '2070 Concord Avenue', '2089 Rte. 132', '209, Joseph-Carrier', '2091 Baseline Road', '20940 - 107 Ave.', '21 Antares #205', '21 rue Gauthier', '21 rue Notre Dame', '2101, rue Chicoine', '2107 6th avenue', '2111 - 9th Avenue S.W.', '2119 Tramway', '2120 95ieme rue', '2124 Robinson Street', '2142 Country Road #16', '215 Tecumseh Street', '215 Terr Riopel', '2170 Winston Park Drive', '2177 Plains Road East', '22 Chemin Milton', '2202 Hanselman Ave.', '2204-84 Ave', '221 Route du Village', '2215 Ave. Francis Hughes', '2215 Midland Avenue', '2223 Drummond Line', '2223 Sentinel Road', '223 Bodia Ave', '2230 McCullough Road', '225 Nugget Avenue, Unit 14', '225 Oxford', '225 route 265 N.', '225, Ave. St-Sacrement', '2250 rue St-Jean', '226 Lesmill Rd.', '2275 Rue Canadien', '2275, 107i??me Rue, C.P. 490', '229 11th Avenue, North East', '2290 rang Versaille', '23 Boivin', '230 King St. East', '2307 Kings Rd', '231 Highway 17 East, P.O. Box 1181', '231, St-Antoine Nord', '2311 Highway 28, RR7', '2315 Boul. Wallberg', '232 South Service Rd', '2324 Place Du Gala', '232A Woolwich Street, South', '2337 Bowman Street', '235 Rue Principale', '2359 Boul. Fiset', '2380 Rue Dalton', '2390 S. Service Rd. W.', '24 Peet Street PO Box 8340, Stn A', '24 Yvon Provost', '240 Route 285', '240-103rd Street', '2400 Kirby Road', '241 Bluewater Road', '2430 Principale, CP 160', '2435 Eagle Street North', '2439 Riverside drive', '2450 Cohen Street', '2453 Chemin de Chambly', '2458 Highway 11', "246 Cooper's Road", '2490 Baseline Road, RR#8', '2492 Cedar Creek Road R.R. #1', '2499 Industrial Street', '25 - #8 Centennial Road', '25 Chemin De La Minerve', '25 Heritage Road', '250 West 70th Ave.', '250 rue Industrielle, local 10', '250, 2i??me Avenue', '2500 Boulevard McWatters', '2500 Georges Street', '25084 Highway #3 East', '251, Rg St-Jean-Baptiste', '252 Saratoga Road', '2521 Inkster Boulevrd', '2523 Fire Route O', '2525 Inkster Blvd.', '2525, rue Watt', '2565 Binder Crescent', '2590 Blackwell Street', '260 Dunkirk Road', '261 Bowes Road', '2612 Robison Rd.', '26162 30A Ave.', '26180 31B Avenue', '2625 Meadowpine Blvd.', '2628 Edinburgh Place', '2633 Bath Street', '2645-D, Boul. Terra-Jet', '265 Rue Etienne-Dubreuil', '2651 Markham Road', '2660 Sabourin', '268, St-Antoine', '2680 B Boulevard Hamel Ouest', '270 Lacerte', '2703 Henderson Highway', '2705, Boulevard Wilfrid-Laurier', '27137 S. Hwy 33', '2717 rue Watt, Parc Colbert', '272 Oak Point Service', '2725 Belisle Drive', '273 Highway 29', '273 Hwy. #29', '275 Boul Industriel Est C.P. 443', '275 Carrier Drive', '275 Clarence Street', '275 Waterloo Ave.', '2759 Lancaster Road', '279 East 1st Street, Box 1158', '279 Norseman Street', '279, Route 204', '2793 Carp Road', '28 Boul. Richelieu', '2801-84th Ave', '281 Main St. Hwy # 3, Box 401', '2810 Matheson Blvd East, Suite 200', '2820 84th Ave', '28419 Ranch Avenue', '287 Mountain Road', '29, rue Laroche', '2901 Rue Watt', '2903 Shuttle St.', '2909 Rue Bergman', '291 Young Road, R.R. # 8', '2920 Concession 21, R.R. 2', '2930 Pasqua St N', '2945 Millar Avenue', '295 Pinebush Road', '295, Rte. 165', '2957, boulevard P??re-Leli??vre', '299, St-Isidore', '3 Marconi Court', '3-1140 Sheppard Ave. West', '3-79 Eagle Drive', '30 Alpine Court', '300 Doepker Avenue', '300 Rue Du Parc', '300 St-Fran??ois-Xavier', '300, rue Alexis-Poirier', '300, rue Quennville C.P. 759', '300, rue des Pins Ouest,', '3000 Ament Line', '3000 rue Girardin', '301 Aqueduct Street', '301 chemin Lavaltrie C.P. 27', '302 Mill Street', '302 Portage Avenue, Sub 18', '303 20630 Mufford Crescent', '303 Station Road', '3044 Sawmill Rd', '305 Enford Road', '3050 Kilpatrick Road', '3050, rue Anderson', '30686-A Matsqui Place', '3074 Sawmill Road P.O Box 520', '308 River View Cresent', '3091, Albion road', '30th Street', '31 Torbarrie Road', '310 rue Metivier #110', '3104 Hampton Street', '3111  Shepard Place South East', '312 St George Avenue', '3128 Hope Place, R.R. #1', '313 Princess Street', '314 Lake Avenue North', '315 Park Avenue East', '3175 boulevard du Royaume', '3183 rue Harvey', '319 St. Jacques', '32 rue Industrielle', '3201 - 84 Avenue', '322 Rue Principale', '322 Totom Court', '325 Line 13 North RR #1', '325 Mud Street, R.R. #3', '325 Welland Avenue, Unit #8', '325 Weston Road, Unit 2D', '325, boul. Industriel', '3250  46th Avenue S.E.', '3255, Rue Picard', '326 Kenora Ave.', '327 Julien Street', '328, rue Adam', '329 Park Dale Avenue', '330 Saulteaux Crescent', '330 South Service Road', '331 Highway 12 North', '3311 B Millar Ave.', '3323 Hart Highway', '333 10th Street', '333 Bay Street, Suite 2400', '3332 - F River Rd.', '336 Birch Avenue', '34 Golden Gate Court, Unit #10', '340, 12e Rue', '3423 Millar Avenue', '3429 Hawthorne Road', '344 Fruitland Road', '345 Hwy 20, R.R. #3', '3455 Wolfedale Road', '34640 Currie Place', '34709 Talbot Line', '35 Boulevard Gagnon', '35 Hale Road', '35 Standford Flemming Drive', '35 Sunnyhurst Avenue, Unit 8', '35, De Montgolfier', '350 Parkdale Avenue North', '3500 Cite des Jeunes', '3513 Bay "F", 78th Ave', '3543 rue Principale, C.P. 333', '356 Industrial Drive', '3600, boul. Industriel', '3624 Hwy 209 (P.O. Box 35)', '3632 Boulevard des H?|tres', '3660 - 50th Avenue SE', '367 Boul. Chabot', '369 Quebec Street', '37 Raglin Place', '37 Sylvan Way', '37, De La B??tonni??re', '3705 route 108 Est', '37089 Talbot Line R.R. 3', '371, Grand Bernier Nord', '3731, Route 111 Est', '3737 Boulevard Lite', '375, Rue T??miscouata, C.P. 998', '3751 Highway 97', "3785 Hwy 316, RR#2 Larry's River", '38 Main St.', '38 Rue St-Anne', '3805, La V??rendrye', '3850, Boulevard Leman', '38547 Huron Street West, R.R. #2', '3855, 5e Avenue', '3855, rue Georges-Corbeil', '3875 Rue Georges Corbeil', '39 Bellevue Road', '3904 - 78 Avenue', '3904-78 Avenue', '391 Alliance Avenue', '391 St. Jean Baptiste Nord', '3914 81st avenue', '3915 - 52 Street Close P.O. Box 2148', '3965, rue Quebec Central', '3995, 2 Avenue North', '4, chemin De Vimy C.P 2027', '40 Automatic Road', '40 Oswald Drive PO Box 3156', '400 Dunlop Street West', '4000, quatri??me Rue', '401 9th Street North, Box 179', '401 Pido Road', '4013 Boileau Road', '4015 rue Carpentier', '4024 Charles Street', '404 Meridian Road NE', '4040 Brandon Street S.E.', "4049 St. Margaret's Bay Road", '405 Van Buren St.', '407 - 22 Avenue', '407 Farnham Road', '407568 Grey Road 4   RR 1', '41 Carmella Drive', '41 Claireville Drive', '41 Granger Avenue', '4110 - 76 Avenue', '4115 18th Avenue North', '4131 Morris Drive', '4140 Pleasant Road', '4144 Christophe Colomb', '4153 Hwy 38', '4164 New Street', '42 Merit Crescent, Unit #2', '42 Newcombe Crescent', '42 des Entreprises', '4200 Sladeview Crescent', '422 Lake Road, South Industrial Park', '430, rue Cantin', '4303 - 69 Avenue', '431 Henry Street', '4342, Boulevard Bourque', '43841 Talbot Line RR #3', '44 Aaron Trail', '44 Poneida Road', '4420 76 Avenue', '4425 76th Avenue', '445, boul. Industriel', '4451 - 54 Avenue SE', '448 CR 34 East, R.R. #2', '4490, Av. des Industries', '450 Desautels Street P.O. Box 792', '450 rue de Vernon', '4500 Boul Thimens, Suite 100', '4506 - 46 Avenue, Box 4831', '451 Route 116 Est', '4514 - 46 Ave.', '4515 6A Street NE', '4523 - 50 Street', '455 Main Street South', '45681 Yale Road W.', '4575 Powell Road', '4580, Mont??e Gagnon', '459 Industrial Road, P.O. Box 490', '459 Wellington Street', '4600, boulevard Henri-Bourassa, suite 234', '4612 19th Avenue North West', '4618 Boulevard St. Joseph', '465 Bloor Street West', '465 Second Line East', '4680 boulevard Frontenac Est', '47 Canada Avenue', '470, Route 116 est', '4715 76th avenue South-East', '4721, 50th Street, Suite #1', '4731 78A STREET CLOSE', '475 Prince Charles Drive South', '475 rang St-Joseph', '476 Haut de la Chute', '476, rang 2-3 Ouest', '477 Aspdin Road', '48 Ardelt Ave', '480 - 7 Stree N.E.', '4807 82nd Avenue', '481 Madison Street', '4811 - 51 Avenue', '483 Rennie Street', '4841 - 78 Street', '485 - 6th Avenue East', '485 Chemin Rivard', '487 rue Principale', '4870, rue de Courval', '488 Rue St. Pierre', '4880 Walker Road', '489 Abelard-Savoie Boulevard', '490 Highway 17', '4900 Golf Course Road', '4910 - 80 th Avenue S.E.', '4919, Marie-Victorin', "492 de L'Esplanade", '493 St. Amable', '4975 8th Concession Road', '4985 Polkey Road', '5 Borden Street', '5 Tangiers Road', '50 Industrial Street', '50 Main Street', '50 McKenzie Road', '50 Northland Road, suite 400', '50 St-Jude Sud', '50, chemin du Tremblay', '500 Rte 220', '500 Waydom Drive', '501 - 24 Avenue', '5013 48th Street', '505 Kenora Avenue, Unit #8', '5075 De La Plaisance', '5091 rue Noel', '510 Whissell', '5125 De la Plaisance', '5125 Harvester Road, Unit 7', '5135, Domville', '5140 Halford Drive', '5151 Hwy 17 West', '5151 Simcoe Street', '5171 Thimens', '5172 route 3 Central Argyle', '5183 Route Domaine du Lac', '52 Ellisview Road', '5200 Dixie Road, Unit #46', '521 Achray Road', '521 Rue Principale', '5218 - 62th Street', '5221-46 Street', '5227 Highway 17', '526 rue Lanaudiere, Suite 104', '5280 Fairway', '5285 - 192 Street', '5290 Orbitor Drive', '53 Jamieson Drive, R.R. #1, Forest Home Ind. Park', '530 Providence', '531 Admiral Drive', '5320-B 48th Avenue South East', '5329 72nd Avenue S.E., Box 70', '533, 71st Avenue S.E.', '5350, Armand-Frappier', '5351 46th Avenue S.E.', '5360 rue St. Roch', "54 rue de l'Eglise", '54-5359 Timberlea Blvd.', "541, rue de l'Harricana", '5411 Chemin du Lac', '5439 McKinley Ave.', '5450 Rue St-Roch', '55 - 10 Avenue S.E.', '55 Crockford Blvd.', '55 Isnor Drive', '55 Steeles Avenue East', '55 White Street, Box 2', '550 George Avenue', '550 McGeachie Drive', '5500 North Service Road', '5502 56th Avenue S.E.', '551 Crestwood Drive', '5511 - 6 Street S.E.', '5521, chemin de l"Aeroport', '554 Rg Haut-St-Amable', '555 Cassell Drive, General Delivery', '555 St-Louis', '55780 Third Street, P.O. BOX', '56 Beach Road', '56 Boul. Industriel', '56 Churchill Drive', '560 Suffolk Court', '563 Montee Princepale', '565 Marjorie Street', '566', '5674 Production Way', '57 Durand Road', '5701 Warner Drive', '5705 - 76th Avenue', '5723 198th Street', '5734 103rd Street South', '577 Route 535', '5770 Place Kubota', '5785 Place Turcot', '58 Cowansview Rd', '580, Lionel Boulet', '581 McGeachie Drive', '581 avenue Lepine', '5810 - 50th Street', '583, St-Ovide', '585 Granite Court', '59 Elm Ave', '59 Maitland Avenue, R.R. #4', '5901 - 48 Avenue', '5909 - 90th Street', '5909-6th Street SE', '591 Chester Road', '591 Chester Road, Annacis Business Park', '591 Rymal Road West', '5925 Hemingway', '593 Rte 219', '595 Lanaudiere', '5982 Main Street', '6 Edmondson Street, P.O. Box 368', '6 Ragged Lake Drive', '60 Northline Road', '60-8 Bristol Road East, Suite 506', '6025 - 12 Street SE', '606 Highway Drive', '6060, 86th Avenue S.E.', '607-15 Avenue', '609 rue Principale', '6095 Austin Street', '6100 Chemin St-Francois', '6101, boulevard Talbot', '6115 - 30th Street', '6120 Route 101', '620 Garyray Drive', '620 Moraine Road N.E.', '620 Nairn Avenue', '620 Stewart St', '6200 Henri-Bourassa', '6210 - 50 Avenue, Box 7324', '6218 - 54 Avenue', '622 Dundas Street, suite 416', "625 rue d l'Argon", '63 Millroad, Box 6', '630 Adams Court', '633 Rang 9', '638 Fortune Cres.', '64 Bartor Road, Unit 5', '64 Signet Drive', '64 Springbank Ave. South', '6418 Courtright Line R#1', '643 rue De Quen', '6439 Netherhart Road', '6444 - 67 Street', '645 Athlone Place', '6490 Vipond Drive', '65 Reive Blvd.', '65 Winder Street', '650 Cargill Rd.', '650 Hardwick Road', '650, 5e Rang', '655 - 30 Street North', '65906 State Road 19 PO Box 585', '66 Fernstaff Court', '660 Riverside Road', '665 Arvin Avenue', '6701 Financial Drive, Suite 100', '6702 Golden West Ave.', '6706 - 44 Ave.', '6711 Mississauga Rd. N.', '6727 - 68 Avenue', '6730 Golden West Avenue, P.O. Box 540', '6739, 67 Avenue', '6740 - 65 Avenue', '675 Trotter Street', '675A Davenport Road', '676 Main Street', '6760 65th Avenue', '6761 67 Avenue', '6771 84 Street S.E.', '680, Rue Des C??dres', '6809 42 Avenue', '682 Okanagan Avenue East', '686 Talbot Street West', '692 - 5th Concession West, R.R. #2', '6943 Highway 38', '6961 Highway 3', '6970 Kenderry Gate', '6981 Boul. Bourque', '7 - 35th Avenue', '7 Hattfield Place', '7 Industrial Ave', '7 Petersburg Circle', '7, Rang St-Francois Est', '70 3rd Avenue Box 1790', '70 Mount Hope Street', '700 Finley Avenue, Unit 5', '700 Franklin Blvd., P.O. Box 98', '700 Richmond Street', '700, rue Jean-Marchand', '7035 Pacific Circle', '706 - 19 Avenue', '7079 Wellington Road 124', '7111 Russell Street', '7127 Honeyman St', '713, Route 219', '7188 Vantage Way', '720 Wilson Road South', '7202, 98 Street', '7245 West Industrial Loop', '726, Saint-Joseph', '73 Brydon Drive', '732 Old Sackville Road', '7337 Trans Canada Highway', '7350 72nd Avenue', '742 Casey Rd.', '747 Bloor Street West', '7475 - 51 Street S.E', '75 Frontenac Drive', '75 Rue Hector C.P. 90', '750 Industrial Rd.', '7500 Trans-Canadienne', '7501 Wilkes Ave.', '7525-51st St. SE', '75836 London Road', '7605 Louis-Quilico', '762 Conception Bay South Highway, Unit 1', '7640, Boul. Ste-Anne', '766 Route 700', '767 Old Sambro Road', '77 RUE MAINVILLE', '770 Lakeside', '770 Ross Avenue', '7700 St-Patrick', '7700, rg St-Andr??', '7739 Edgar Industrial Way', '775 Lemire', '7760 18th Street', '7762 - 47 Avenue Close', '7793 Young Street', '783 rue Mo?(r)ller', '79 rue principale', '79, 1i??re Rue Nord, C.P. 277', '7905 Enterprise Drive', '791, Route Principale', '7910 rue des PME', '7911 Edgar Industrial Drive', '7923 54th Street S.E.', '793-A Riviere Nord, Route 339', "7985 boul. L'Ormi??re", '80 Clarke Street S., Unit 2', '80 Commerce Pl', '80 High Street, Unit 2', '80 Saramia Crescent', '800 South Railway Ave', '800, Chemin Olivier', '800-47th Street East', '8007-39th Street', '8010-44th Street S.E.', '8019 - 54 Street S.E.', '803 - 46th Street East', '8046 Edgar Industrial Crescent', '811 Steeles Avenue East', '8124 Davies Road', '8135 Wagner Road', '8155 -128 Street', '818 - 43rd Street East', '81Tannery Road', '820 Garyray Drive', '821 Du Parc', '821 Fairweather Place', '822 Bellevue Ouest', '826, boul. Guimond', '83 Caledonia Road, R.R.#4', '8300 Edison', '831 Nipissing Road', '8332 Haldibrook Road', '835 Mission Street', '8350 Boulevard Industriel', '843 rue Charest', '847 - 60th Street East', '85 Northland Road', '853 Route 111, C.P. 214', '855 Matheson Blvd E Unit 9', '8580 River Road', '859 Station Avenue', '8600 - 92 Street', '8600 - 92nd Street', '865 Bradford Street', '865 Rang Papineau', '866 Derwent Way', '866, route St-Joseph', '868 Blackwoods Avenue', "8685 Champ D'Eau", '87 Ashgrove Crescent, Box 654', '87 Elora Street', '87 Southwest Drive S.W.', '873 Hodge', '88 Kenmount Road', '88 Route 158', '88 rue des Routiers', '880 Desaulniers, bureau 11', '880 rue Lucien Leclerc', '8803 - 60th Ave', '882 5th Street East', '8825 126th Avenue', '89 Rue du Parc Industriel', '89 ch. Thibodeau', '8900, 25 i??me Avenue', '8901-150 Ave.', '896 Lakeshore Ct.', '90 Enterprise Dr.', '9000 Boulevard Parent', '9000, boulevard Industriel', '91 Chemin Des Patriotes', '910 Saskatchewan Avenue East', '9111-41st Avenue', '9115 -52nd Street SE', '918, 16th Avenue N.W. suite 4020', '9189 National Place', '92 Boulevard Est', '920 Denison Street Unit 11', '920, Cur??-Boivin', '9200 22 Avenue', '921 chemin de la Rivi??re du Nord', '923 - 46 Avenue S.E.', '927 - 48 Avenue SE', '927 Gaudette', '927, Route 111 Ouest', '9301 -102 Street', '9305 - 27 Avenue', '9312 - 110A Street', '933 Boul. Simard', '9345 25ieme Avenue Est, Parc Industriel', '940 Winston Churchill Blvd.', '9475 - 192 Street', '9475 Pascal -Gagnon', '9502 - 87th Avenue', '9532 - 27th Avenue', '955 Maginot Street', '955 Woodlawn Road W.', '9550 10E Avenue', '96 Principale', '9604 - 112 Street', '9620-62nd Ave', '967 Trunk Rd.', '97 Hounslow Drive N.W.', '970 Boul. Industriel Est', '970, Avenue Bombardier', '981, Boul. Hamel', '9834 - 179th Street', '9835 - 199 A Street', '9880 McGrath Road', '990 Pays-Brule', 'BOX 291', 'Bag No. 2019', 'Barfield Road', 'Bay 162, 6660 64th Avenue', 'Bay 3 #2 Erickson Crescent', 'Bay 33 - 820 51st Street East', 'Bay 5, 3925 Avenue S.E.', 'Bay F-298-28042 Hwy 11', 'Bay K 8816 44th street', 'Bay L 8616 44th Street SE', 'Box 1003', 'Box 1050 401 - 22nd Street East', 'Box 11', 'Box 117', 'Box 1205', 'Box 129', 'Box 1300', 'Box 133, Eastside hwy 20', 'Box 1343', 'Box 1360', 'Box 1408', 'Box 1594', 'Box 176', 'Box 1780', 'Box 1840', 'Box 187', 'Box 22, Group 60, R.R. #1', 'Box 225', 'Box 2308', 'Box 247', 'Box 269', 'Box 2738, Station "B"', 'Box 280', 'Box 30', 'Box 310', 'Box 310, Elevator Road', 'Box 317', 'Box 388', 'Box 393', 'Box 4, Group 582, R.R. # 5', 'Box 4, site 3, RR2', 'Box 4101, 30 Alberta Avenue', 'Box 430', 'Box 45', 'Box 478', 'Box 490', 'Box 511', 'Box 539', 'Box 5396', 'Box 5501', 'Box 56, Group 525, R.R. 5', 'Box 576', 'Box 617', 'Box 671', 'Box 72036, Ottewell P.O.', 'Box 748', 'Box 8029', 'Box 88', 'Box 89', 'Box 9025', 'Box 934', 'Box 94', 'Box 990', 'Box C-5, Pringle Road', 'Breithaupt Street', 'Burbank Industrial Park Box 1628, 27121-13 Hwy 597', 'C.P. 155', 'C.P. 1801', 'C.P. 189', 'C.P. 3503', 'C.P. 460', 'C.P. 5040', 'C.P. 540', 'C.P. 698', 'Carman Road', 'Coleraine Drive', 'Creditview Road, Unit #2', 'D-825 Laval Crescent', 'East St', 'Exit 13, Hwy. 102, P.O. Box 1229', 'Farewell Road', 'Grace Cresent', 'Grassmere Road, Unit 10', 'Highway #2 South', 'Highway 875', 'Horton Road South West', 'Hunter Rd.', 'Hunter Road', 'Ilsley Avenue', 'Keystone Colony Farms Ltd. Box 7', 'Lot 110 Crystal Lake', 'Main Road', 'Marine Parade Dr.', 'Midland Avenue', 'Montrichard Avenue', 'Muskoka Road #4', 'NE-3-3-25  P.O. Box 2579', 'NW 28 16 15 W', 'NW-28-26-18-W2nd, P.O. Box 547', 'North Industrial Drive', 'One Toyota Place', 'P.O BOX  1922', 'P.O BOX 218', 'P.O BOX 549', 'P.O Box 340', 'P.O Box 607', 'P.O. 248', 'P.O. BOX 1120', 'P.O. BOX 1131 Station Main', 'P.O. Box 10', 'P.O. Box 100', 'P.O. Box 1055', 'P.O. Box 1146', 'P.O. Box 1150', 'P.O. Box 116', 'P.O. Box 12, 2753 Highway 27', 'P.O. Box 1230', 'P.O. Box 129', 'P.O. Box 130', 'P.O. Box 1300', 'P.O. Box 1370', 'P.O. Box 1419', 'P.O. Box 1530', 'P.O. Box 156', 'P.O. Box 16', 'P.O. Box 160', 'P.O. Box 17', 'P.O. Box 1799', 'P.O. Box 1871', 'P.O. Box 19', 'P.O. Box 1900', 'P.O. Box 209', 'P.O. Box 218', 'P.O. Box 245', 'P.O. Box 249', 'P.O. Box 26575, Markville Postal Outlet 26575', 'P.O. Box 273, 2000 16th Sideroad', 'P.O. Box 278', 'P.O. Box 279', 'P.O. Box 285', 'P.O. Box 328', 'P.O. Box 332', 'P.O. Box 3488, Station C', 'P.O. Box 359', 'P.O. Box 360 - McLean Avenue', 'P.O. Box 365', 'P.O. Box 368', 'P.O. Box 376', 'P.O. Box 4', 'P.O. Box 406', 'P.O. Box 420,', 'P.O. Box 422', 'P.O. Box 46', 'P.O. Box 486, 88 Forest Street', 'P.O. Box 509', 'P.O. Box 532', 'P.O. Box 535', 'P.O. Box 54', 'P.O. Box 586', 'P.O. Box 6,', 'P.O. Box 600', 'P.O. Box 607', 'P.O. Box 609', 'P.O. Box 67 Station T', 'P.O. Box 717', 'P.O. Box 73', 'P.O. Box 75', 'P.O. Box 770, Station K', 'P.O. Box 8', 'P.O. Box 820', 'P.O. Box 8238 Stn A', "P.O. Box 9136, Station `E'", 'P.O. Box 938', 'P.O. Box 96', 'P.O. Box 988', 'P.O. Box 99', 'P.O. Box 99, 55 Marsh Street', 'P.O.Box 185', 'PO BOX 5933', 'PO BOX 7162', 'PO Box 10676', 'PO Box 1197', 'PO Box 2100 Station M', 'PO Box 3715', 'PO Box 487', 'PO Box 616 1184 Middlegate Rd.', 'PO Box 64', 'PO Box 656', 'PO box', 'PO box 69', 'PO box 989', 'Pinewood Close', 'Po box', 'Production Way, Unit #103', 'R.R. #1', 'R.R. #1, Box 56', 'R.R. #2', 'R.R. #2 - 561 Ofield Road North', 'R.R. #2, 580 Maple Road', 'R.R. #2, Woodbine Ave.', 'R.R. #3', 'R.R. #3, Central Bedeque', 'R.R. #3, Site 9, Box 12', 'R.R. #4', 'R.R. #5', 'R.R. #7, Junction Station Road', 'R.R. #8, Site 26, Comp. 4', 'R.R. 1, 6915 Wellington Road 7', 'R.R. 1, Box 328, Group 25', 'R.R. 2 Site 7 Box 5', 'R.R. 2, Box 4015', 'R.R. 3, P.O. Box 6', 'R.R. 8-6-17', 'R.R.#1', 'R.R.#2', 'R.R.#3, Highway No. 3', 'R.R.#4', 'R.R.#4, James St. South,', 'R.R.#5, 5656 Highway 6 North', 'RR #3', 'RR 1, 12 Holland Rd W', 'RR 1, Site 12, 28016B Secondary hwy 633, PO Box 5', 'RR 6', 'RR 7 (3rd Line, Amaranth)', 'RR#2 Wiarton 462120', 'RR#3 60 Dedrick Road', 'RR#5, Site 501, Box 11', 'Rd 64  RR3', 'Rhodes Drive', 'River Road', 'Route 15', 'S.E. 16391W5 or 5.6 km on Hwy 20 from hwy 11', 'Sec Hwy 834', 'Site 13, Box 11, R.R. #1', 'Skyway Road', 'Solvay Drive', 'Suite 242 (300 -8120 Beddington Blvd. N.W.)', 'Suite 300 - 8120 Beddingtom Blvd. N.W.', 'The Canadian Road', 'Unit #150 - 7280 River Road', 'Unit 130 12855 Clarke Place', 'Unit 54-3347 262nd Street', 'Unit 6 - 1343 Alberni Highway', 'Unity Road West And Hwy. 6', 'n/a', 'unkown', 'xxxx']</t>
         </is>
@@ -1295,12 +1330,15 @@
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
+        <v>568</v>
+      </c>
+      <c r="U12" t="n">
         <v>29395</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>643</v>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>['Abbotsford', 'Abotsford', 'Acheson', 'Acton Vale', 'Adstock', 'Advocate harbor', 'Airdrie', 'Ajax', 'Aldergrove', 'Aldersyde', 'Allanburg', 'Alma', 'Altona', 'Amos', 'Anjou', 'Annaheim', 'Anola', 'Arborg', 'Ardossan', 'Arnprior', 'Aroostook', 'Asbestos', 'Auburn Hills', 'Aylmer', 'Ayr', 'Azilda', 'B??cancour', 'Baie St. Paul', 'Barrie', 'Beamsville', 'Beausejour', 'Bedford', 'Belleville', 'Bellevue', 'Beloeil', 'Benito', 'Berthierville', 'Bethune', 'Bic', "Bishop's Falls", 'Blackfalds', 'Blainville', 'Blenheim', 'Boisbriand', 'Bolton', 'Bond Head', 'Bonnyville', 'Bothwell', 'Boucherville', 'Bourget', 'Bowmanville', 'Bracebridge', 'Brampton', 'Brandon', 'Brantford', 'Breslau', 'Brighton', 'Bromhead', 'Brooks', 'Brookside', 'Brougham', 'Brucefield', 'Burlington', 'Burnaby', 'Calahoo', 'Caledonia', 'Calgary', 'Cambridge', 'Cambrige', 'Camrose', 'Candiac', 'Canfield', 'Cap Pele', 'Cap Sant??', 'Cap St. Ignace', 'Cardigan', 'Cardston', 'Carignan', 'Carleton Place', 'Carman', 'Carp', 'Carthwright', 'Cartier', 'Cartwright', 'Carvel', 'Casselman', 'Cassleman', 'Cavan', 'Central Butte', 'Centreville', 'Chambly', 'Chambord', 'Charlesbourg', 'Chateau-Richer', 'Chateauguay', 'Chatham', 'Chelsea', 'Chemainus', 'Cherhill', 'Chesterville', 'Chicoutimi', 'Chilliwack', 'Claimont', 'Clairmont', 'Claresholm', 'Clifford', 'Coaldale', 'Cochrane', 'Colborne', 'Cold Lake', 'Coleman', 'Collingwood', 'Comox', 'Concord', 'Cookshire', 'Coombs', 'Coquitlam', 'Cornwall', 'Corunna', 'Courtland', 'Cowansville', 'Craik', 'Cranford', 'Crediton', 'Cromer', 'Crooked Creek', 'Crossfield', 'Cutknife', 'Cypress River', 'Darmouth', 'Dartmouth', 'Daveluyville', 'Dawson Creek', 'Daysland', 'Debert', 'Delburne', 'Delhi', 'Delson', 'Delta', 'Deschambault', 'Dieppe', 'Dolbeau-Mistassini', 'Donnacona', 'Dorval', 'Downsview', 'Drake', 'Drayton Valley', 'Drumheller', 'Drummondville', 'Duncan', 'Dundalk', 'Dundas', 'Dunham', 'Dunnville', 'East Broughton', 'Eden', 'Edmonton', 'Elmira', 'Elora', 'Embrun', 'Errington', 'Estates Onoway', 'Esterhazy', 'Etobicoke', 'Exeter', 'Fenwick', 'Flesherton', 'Fort Erie', 'Fort Mill', 'Fort St-John', 'Frankville', 'Freelton', 'Gatineau', 'Gerald', 'Glenboro', 'Goderich', 'Gormley', 'Gorrie', 'Granby', 'Grand Mere', 'Grand Prairie', 'Grand-Mere', 'Grande Prairie', 'Grassie', 'Gravelbourg', 'Gretna', 'Grimsby', 'Grunthal', 'Guelph', 'HJuntsville', 'Hagen', 'Halifax', 'Hamilton', 'Hampton', 'Harrison Mills', 'Harrowsmith', 'Hartland', 'Hawkestone', 'Hayter', 'Headingley', 'Hearst', 'Heidelberg', 'Hellier', 'Hemmingford', 'High River', 'Hillsborough', 'Hillsdale', 'Hodgson', 'Howie Center', 'Hoyt', 'Hubley', 'Hudson Bay', 'Humboldt', 'Iberville', 'Ingersoll', 'Innisfil', 'Inwood', 'Iroquois', 'Joliette', 'Joly', 'Jonquiere', 'Kakabeka Falls', 'Kamloops', 'Kelligrews', 'Kelowna', 'Kelvington', 'Kemptville', 'Keswick', 'Kincardine', 'Kingston', 'Kitchener', 'L??vis', 'La Minerve', 'La Plaine', 'La Sarre', 'Labelle', 'Lac Brome', 'Lac La Hache', 'Lac M??gantic', 'Lachenaie', 'Lachine', 'Lacombe', 'Lacombe County', 'Lafleche', 'Lafontaine', 'Langley', 'Lanoraie', 'Lashburn', 'Laterri??re', 'Laval', 'Lavaltrie', 'Leader', 'Leamington', 'Leduc', 'Lennoxville', 'Leslieville', 'Lethbridge', 'Linden', 'Lindsay', 'Lislet', 'Listowel', 'Lively', 'Lloydminster', 'London', 'Long Sault', 'Longueuil', 'Louiseville', 'Lower Sackville', 'Lunenburg', 'Mallaig', 'Manotick', 'Maple', 'Markham', 'Marmora', 'Martensville', 'Maskinong??', 'Matane', 'Mattawa', 'Maxville', 'McWatters', 'Medicine Hat', 'Melfort', 'Melville', 'Mercier', 'Millbrook', 'Millet', 'Milton', 'Milton Station', 'Mirabel', 'Miscouche', 'Mission', 'Mississauga', 'Moncton', 'Mont-Lebel', 'Mont-Tremblant', 'Montmagny', 'Montr??al', 'Montreal', 'Moose Jaw', 'Morden', 'Morinville', 'Morris', 'Mount Forest', 'Mount Pearl', 'NOT ENTERED', 'Naicam', 'Nanaimo', 'Napierville', 'Neepawa', 'Nelson', 'Nepean', 'Neufchatel', 'Neuville', 'New Lowell', 'Newmarket', 'Nipawin', 'Nisku', 'Niverville', 'Noranda', 'North Battleford', 'North Bay', 'North York', 'Norwich', 'Norwood', 'Notre-Dame', 'Notre-Dame de Lourdes', 'Notre-Dame-Du-Bon-Conseil', 'Notre-Dame-du-Laus', 'Notre-Dame-du-Nord', "O'Leary", 'Oakville', 'Odessa', 'Ohaton', 'Oil Springs', 'Okahumpka', 'Okotoks', 'Olds', 'Oliver', 'Ontario', 'Orangeville', 'Orillia', 'Oro Station', 'Oshawa', 'Ottawa', 'Palmarolle', 'Paradize', 'Parksville', 'Parry Sound', 'Peace River', 'Pembroke', 'Pentiction', 'Penticton', 'Perth', 'Peterborough', 'Petite-Rivi??re St-Francoi', 'Petrolia', 'Pickering', 'Pierreville', 'Pincher Creek', 'Plantagenet', 'Plessisville', 'Plessiville', 'Pohenegamook', 'Pointe-Claire', 'Ponoka', 'Port Colbourne', 'Port Coquitlam', 'Port Rowan', 'Port au Choix', 'Portage La Prairie', 'Portage la Prairie', 'Prince Albert', 'Prince George', 'Princeton', 'Princeville', 'Qu??bec', 'Quebec', 'Quesnel', 'Radisson', 'Rapid City', 'Rathwell', 'Rawdon', 'Raymore', 'Red Deer', 'Red Deer County', 'Regina', 'Renfrew', 'Repentigny', 'Rexdale', 'Rexton', 'Richmond', 'Richmond Hill', 'Ridgetown', 'Riding Mountain', 'Rigaud', 'Rimouski', 'Rivi??re-du-Loup', 'Riviere-du-Loup', 'Rocky Mountain House', 'Rodney', 'Rolling Hills', 'Rosedale', 'Rosenort', 'Russell', 'Ruthven', 'SAINT-GERMAIN-DE-GRANTHAM', 'Saint John', 'Saint-??variste', 'Saint-Amable', 'Saint-Ferdinand', 'Saint-Georges', 'Saint-Gerard-Majella', 'Saint-Hubert', 'Saint-Hyacinthe', 'Saint-Jean-Sur-Richelieu', 'Saint-Jean-sur-Richelieu', 'Saint-Joseph de Coleraine', 'Saint-Lambert-de-Lauzon', 'Saint-Laurent', 'Saint-Lin', 'Saint-Marc du Lac Long', 'Saint-Pierre-Baptiste', 'Sainte M??lanie', 'Sainte-Brigitte-des-Sault', 'Sainte-Eulalie', 'Sainte-Foy', 'Sainte-Rosalie', 'Sallaberry De Valeyfield', 'Salmo', 'Salmon Arm', 'Saltcoats', 'Sarnia', 'Saskatoon', 'Sault Ste. Marie', 'Scarborough', 'Schomberg', 'Scott Jonction', 'Sept-iles', 'Shallow Lake', 'Shanty Bay', 'Shawinigan', 'Shawinigan Sud', 'Shedden', 'Sherbrooke', 'Sherwood Park', 'Shreveport', 'Sidney', 'Smith Falls', 'Smithville', 'Sorel-Tracy', 'South Huron', 'Sparewood', 'Spruce Grove', 'St- Paul', 'St-Agapit', 'St-Amable', 'St-Andre Avelin', 'St-Andre-de-Kamouraska', 'St-Antoine, Mirabel', 'St-Antoine-De-Tilly', 'St-Autonin', 'St-Barnab??-Sud', 'St-C??me', 'St-Catherines', 'St-Celestin', 'St-Charles-de-Drummond', 'St-Chrysostome', 'St-Dominique', "St-Elie D'Orford", 'St-Elie-de-Caxton', 'St-Eustache', 'St-F??licien', 'St-Ferdinand', 'St-Fr??d??ric', 'St-Francois du Lac', 'St-Francois-du-Lac', 'St-Gabriel de Brandon', 'St-Georges', 'St-Georges Est-beauce', 'St-Georges de Beauce', 'St-Germain-de Grantham', 'St-Hubert', 'St-Hyacinthe', 'St-Isidore', 'St-J??r??me', 'St-Jean Chrysostome', 'St-Jean-Chrysostome', 'St-Jean-Sur-Richelieu', 'St-Jean-sur-Richelieu', 'St-John', "St-John's", 'St-Joseph de Levy', 'St-L??onard', 'St-Laurent', 'St-Lazare', 'St-Leonard', 'St-Lin', 'St-Mathias', 'St-Mathieu', 'St-Mathieu-de-Beloeil', 'St-Nicolas', 'St-Odilon de Cranbourne', 'St-Pascal', "St-Paul D'Abbotsford", "St-Paul-de-l'??le-aux-noix", 'St-Quentin', 'St-R??mi-de-Tingwick', "St-Roch de l'Achigan", 'St-Sim??on', 'St-Stanislas', 'St-Thomas', 'St-Ubalde', 'St-Urbain', 'St-Valerien', 'St-Victor', 'St. Agatha', 'St. Albert', 'St. Andrews', 'St. Barnabe Sud', 'St. Brieux', 'St. Bruno', 'St. Catharines', 'St. Catherines', 'St. Clements', 'St. Damase', 'St. Francois Xavier', 'St. George', 'St. Gervais', 'St. J??r??me', 'St. Jacobs', 'St. Jacques', "St. John's", 'St. Laurent', "St. Mary's", 'St. Marys', "St. Paul d'Abbotsford", 'St. Philippe', 'St. Raymond', 'Ste Sophie', 'Ste Therese', 'Ste- Gertrude Abitibi', "Ste-??m??lie-de-l'??nergie", 'Ste-Agathe', 'Ste-Anne des Plaines', 'Ste-Cath-de-la-Jq-Cartier', 'Ste-Catherine', 'Ste-Foy', 'Ste-Germaine Boul??', 'Ste-Julie', 'Ste-Melanie', 'Ste-Rose-de-Watford', 'Ste-Sophie-de-L??vard', 'Ste-Sophie-de-Levrard', 'Ste-Th??r??se', 'Ste. Claire', 'Ste. Marguerite', 'Ste. Rose', 'Steinbach', 'Stettler', 'Stittsville', 'Stoney Creek', 'Stony Plain', 'Stouffville', 'Straffordville', 'Strathroy', 'Sturgeon Falls', 'Sudbury', 'Sullivan', 'Summerland', 'Summerside', 'Sundre', 'Sunset Point', 'Surrey', 'Sutton', 'Swan River', 'Sylvan Lake', 'Taber', 'Tangier', 'Tappen', 'Taschereau', 'Tecumseh', 'Terrace', 'Terrebonne', 'The Nation', 'Thedford', 'Thetford Mines', 'Thunder Bay', 'Tilbury', 'Tillsonburg', 'Timmins', 'Toronta', 'Toronto', 'Treherne', 'Trenton', 'Trois Rivieres', 'Trois-Rivi??res', 'Two Hills', 'Uxbridge', 'V. de St-Georges', 'Val Caron', "Val-D'Or", 'Valcourt', 'Vancouver', 'Vanderhoof', 'Vanier', 'Varennes', 'Vaudreuil', 'Vernon', 'Vernon Bridge', 'Verona', 'Victoria', 'Victoriaville', 'Ville de St-Georges', 'Wallenstien', 'Warburg', 'Warminster', 'Warren', 'Warwick', 'Waterdown', 'Waterloo', 'Waubaushene', 'Wawanesa', 'Welland', 'West St. Paul', 'Westbury', 'Westfield', 'Westlock', 'Wetaskiwin', 'Weyburn', 'White Lakes', 'Whitemouth', 'Wiarton', 'Wickham', 'Windsor', 'Winkler', 'Winnipeg', 'Woodrow', 'Woodstock', 'Woodville', 'Wyebridge', 'Yarker', 'Yarmouth', 'Yarmouth County']</t>
         </is>
@@ -1373,12 +1411,15 @@
         </is>
       </c>
       <c r="T13" t="n">
+        <v>1043</v>
+      </c>
+      <c r="U13" t="n">
         <v>25751</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>17</v>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>['573', 'Alberta', 'British Columbia', 'California', 'Florida', 'Indiana', 'Louisiana', 'Manitoba', 'Michigan', 'New Brunswick', 'Newfoundland and Labrador', 'Nova Scotia', 'Ontario', 'Prince Edward Island', 'Quebec', 'Saskatchewan', 'South Carolina']</t>
         </is>
@@ -1447,12 +1488,15 @@
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
+        <v>567</v>
+      </c>
+      <c r="U14" t="n">
         <v>22560</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>1256</v>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>['29708', '34762', '46573', '48326', '566', '5N5H 2R3', '71129', '91761', ':2R 2R2', 'A0A 0X0', 'A0H 1C0', 'A0K 4C0', 'A1B 3N7', 'A1B 3R1', 'A1B 4C5', 'A1L 0A7', 'A1N 4R7', 'A1X 3A7', 'B0H 1T0', 'B0J 2C0', 'B0J 3H0', 'B0M 1A0', 'B0M 1G0', 'B0W 1W0', 'B1L 1C2', 'B2N 5N2', 'B2W 3T7', 'B3B 1L5', 'B3B 1L9', 'B3B 1N6', 'B3B 1S2', 'B3B 1Z2', 'B3B 2A6', 'B3K 5L9', 'B3N 2V6', 'B3S 1S4', 'B3T 1W1', 'B3V 1A3', 'B3Z 1C2', 'B4B 1H1', 'B4C 2K3', 'B5A 4B3', 'C0A 1G0', 'C0A 2E0', 'C0B 1H0', 'C0B 1T0', 'C0B 1V0', 'C1A 7M8', 'C1N 4J9', 'E01 1N0', 'E0A 1J0', 'E0J 1H0', 'E1A 1R1', 'E1A 7E7', 'E1A 9A3', 'E1E 1H5', 'E1H 2E6', 'E2M 5T6', 'E4H 4W5', 'E4V 2K4', 'E4W 2B1', 'E5K 3N8', 'E5L 2A1', 'E7B 1S9', 'E7H 2Z6', 'E7K 2E8', 'E8A 1W1', 'G0A 1L0', 'G0A 1N0', 'G0A 1S0', 'G0A 2R0', 'G0A 4L0', 'G0C 3A0', 'G0K 1J0', 'G0L 1B0', 'G0L 1J0', 'G0L 1T0', 'G0L 2J0', 'G0L 3Y0', 'G0L4H0', 'G0M 1S0', 'G0M 2B0', 'G0N 1B0', 'G0N 1G0', 'G0N 1N0', 'G0N 1P0', 'G0N 1S0', 'G0P 1E0', 'G0P 1J0', 'G0R 1H0', 'G0R 2C0', 'G0R 2V0', 'G0R 3C0', 'G0R 4G0', 'G0S 1M0', 'G0S 1T0', 'G0S 2A0', 'G0S 2C0', 'G0S 2S0', 'G0S 2W0', 'G0S 2X0', 'G0S 2Z0', 'G0S 3A0', 'G0S 3G0', 'G0S 3H0', 'G0W 1G0', 'G0W 2L0', 'G0X 2N0', 'G0X 3C0', 'G0Z 1C0', 'G0Z 1E0', 'G0Z 1Z0', 'G1H 3A5', 'G1L 3A7', 'G1M 2T7', 'G1M 2Y3', 'G1M 3K6', 'G1N 3X5', 'G1N 3X8', 'G1N 3Z2', 'G1N4H9', 'G1P 2H9', 'G1P 2J1', 'G1P 2X9', 'G1P 3T2', 'G1P 3X3', 'G1S 2W3', 'G1X 3W1', 'G2C 1B9', 'G2G 2V2', 'G2K 2E3', 'G2N 2G7', 'G3M 2X5', 'G3N 1A1', 'G3Z 2W9', 'G4R 5P3', 'G4W 3M9', 'G4W 3N1', 'G5L 8J9', 'G5M 1A5', 'G5R 3Z5', 'G5R 4C9', 'G5V 3S8', 'G5Y 7R6', 'G5Y 8G6', 'G5Y 8J3', 'G5Y 8J8', 'G6A 1K5', 'G6A 1L1', 'G6B 2C8', 'G6H 4G5', 'G6L 2Y4', 'G6L 2Y8', 'G6P 1A7', 'G6P 6T2', 'G6P 7E4', 'G6P 7E6', 'G6T 2H6', 'G6V 6N4', 'G6V 9G6', 'G6Z 1B6', 'G6Z 1T2', 'G6Z 3H5', 'G7A 2N1', 'G7H 5B1', 'G7N 1V9', 'G7X 7V3', 'G8B 6T3', 'G8B 7A1', 'G8K 2R4', 'G8L 1K3', 'G8L 3M5', 'G8L 5M6', 'G8V 1W2', 'G9A 3C2', 'G9A 5E1', 'G9A 5J3', 'G9A 5J9', 'G9H 1X7', 'G9N 4Y6', 'G9P 1R8', 'G9T 5K7', 'G9T 7A5', 'GOP 1K0', 'GOX 3E0', 'H1A 3N6', 'H1B5L8', 'H1C 2J3', 'H1E 1R8', 'H1E 2K1', 'H1E 4B6', 'H1E 4G4', 'H1J 1R4', 'H1J 1S8', 'H1P 3B8', 'H1P1Z4', 'H1S 3E4', 'H4C 1V9', 'H4N 2B1', 'H4R 1C3', 'H4R 2N6', 'H4R 2P2', 'H4R 3C6', 'H4S 1B7', 'H4S 1M2', 'H4T 1A5', 'H4T 1L1', 'H7A 4C6', 'H7C 1A2', 'H7E 1A1', 'H7E 4X8', 'H7L 3Y5', 'H7L 4R9', 'H7L 5B3', 'H7N 6C4', 'H7S 1N5', 'H7W 3S6', 'H7X 1C4', 'H8N 1V1', 'H8S 1A6', 'H8T 1C2', 'H9J 1T9', 'H9P', 'H9P 1H1', 'H9P 1J5', 'J0A 1C0', 'J0A 1K0', 'J0A 1M0', 'J0B 1M0', 'J0B 1R0', 'J0B 2S0', 'J0C 1A0', 'J0C 1E0', 'J0C 1G0', 'J0C 1K0', 'J0C 1S0', 'J0E 1A0', 'J0E 1M0', 'J0E 1R0', 'J0E 1Y0', 'J0E 2L0', 'J0E 2N0', 'J0G 1J0', 'J0G 1M0', 'J0H 1A0', 'J0H 1G0', 'J0H 1J0', 'J0H 1X0', 'J0H 2B0', 'J0H1L0', 'J0J 1G0', 'J0J 1L0', 'J0K 1A0', 'J0K 1E0', 'J0K 1H0', 'J0K 1N0', 'J0K 1S0', 'J0K 2B0', 'J0K 2K0', 'J0K 2N0', 'J0K 3A0', 'J0K 3H0', 'J0K 3L0', 'J0K 3P0', 'J0L 1E0', 'J0L 1H0', 'J0L 1N0', 'J0L 2K0', 'J0P 1P0', 'J0R 1C0', 'J0S 1R0', 'J0S 1Y0', 'J0T 1H0', 'J0T 1S0', 'J0V 1W0', 'J0X 2M0', 'J0Y 2L0', 'J0Y 2N0', 'J0Y 2X0', 'J0Z 1M0', 'J0Z 3B0', 'J0Z 3C0', 'J0Z 3N0', 'J1C 0H9', 'J1G 1X7', 'J1H 2G5', 'J1J 4N8', 'J1M 1Z4', 'J1N 1S3', 'J1N 3K4', 'J1T 4V4', 'J1Z 1B3', 'J2B 6V4', 'J2B 6Z3', 'J2B 8B3', 'J2C 4Z5', 'J2C 7V9', 'J2E 0A1', 'J2G 9H9', 'J2G 9L5', 'J2J 0P2', 'J2J 2N4', 'J2K 2M5', 'J2K 3Y5', 'J2S 1H3', 'J2S 8B1', 'J2T 1L7', 'J2X 4J5', 'J2X 5G4', 'J3A 1B1', 'J3B 4S2', 'J3B 7M3', 'J3B 7S7', 'J3B 8J8', 'J3B 8X7', 'J3E 1Z4', 'J3G 4N5', 'J3G 4S5', 'J3L 4B7', 'J3L 4N4', 'J3L 4X3', 'J3L 6A1', 'J3P 5K2', 'J3X 1P7', 'J3X 1S5', 'J3Y 3T7', 'J3Y1Y2', 'J3Z 1J2', 'J4B 1V5', 'J4B 5Z5', 'J4B 6Z5', 'J4B 7W1', 'J4B 8C4', 'J4G 1T5', 'J4H 3V8', 'J4L 2B5', 'J4N 1E2', 'J5B 1Y1', 'J5J 2V2', 'J5M 2C1', 'J5T 3S5', 'J5T 4A9', 'J5V 2J7', 'J6A 7N1', 'J6A 8G5', 'J6E 3Z1', 'J6J 4Z2', 'J6R 2B9', 'J6S 6N7', 'J6W 4L1', 'J6W 6C1', 'J6X 4J5', 'J6Y 1J4', 'J6Y 1W1', 'J6Z 2E3', 'J7C 5P9', 'J7C 6B4', 'J7E 1C8', 'J7E 2V2', 'J7E 4K9', 'J7G 2A7', 'J7J 2G6', 'J7M 2A4', 'J7N 1T6', 'J7R 5A5', 'J7T 3E7', 'J7V 5V5', 'J7V 8P2', 'J7Y 4B9', 'J7Y 4H8', 'J7Y 5G2', 'J8C 2Z8', 'J8E 3J9', 'J8P 2G7', 'J8R 3Y4', 'J9B 1L9', 'J9H 5E1', 'J9P 7A9', 'J9T 1P8', 'J9T 2P3', 'J9T 3A1', 'J9X 5B7', 'J9X 5C6', 'J9Z 2X5', 'JK0K 3A0', 'JOL 1H0', 'JOL 2H0', 'JON 1HO', 'JON 1NO', 'K0A 1E0', 'K0A 1L0', 'K0A 1M0', 'K0A 1W0', 'K0B 1L0', 'K0C 1P0', 'K0C 1T0', 'K0C 2B0', 'K0E 1H0', 'K0E 1K0', 'K0G 1J0', 'K0H 1V0', 'K0H 2H0', 'K0H 2W0', 'K0K 1H0', 'K0K 1S0', 'K0K 2J0', 'K0K 2M0', 'K0K 3N0', 'K0L 2V0', 'K0M 2T0', 'K1B 3T6', 'K1B 3W5', 'K1B 4L1', 'K1B 4V7', 'K1B 4V8', 'K1B 5A4', 'K1B 5M1', 'K1B 5R1', 'K1G 4G2', 'K1K 2Y7', 'K1V 9V9', 'K2E 6T7', 'K2E 7T8', 'K2G 1G1', 'K2M 2L2', 'K2S 1A2', 'K4M 1B4', 'K4P 1A1', 'K6H 5V2', 'K7C 3V7', 'K7H 3C7', 'K7K 6C2', 'K7P 2T3', 'K7S 3G7', 'K7V 1Y6', 'K8A 7M5', 'K8H 6W7', 'K8N 4Z2', 'K8N 4Z5', 'K8N 4Z6', 'K8V 5P6', 'K8V 5W6', 'K9J 6X7', 'K9J 6X8', 'K9J 6X9', 'K9J 6Y5', 'K9V 5G4', 'L0A 1C0', 'L0A 1G0', 'L0B 1J0', 'L0C 1K0', 'L0E 1R0', 'L0G 1B0', 'L0G AT0', 'L0H 1A0', 'L0H 1G0', 'L0K 2C0', 'L0K 2E0', 'L0K 2G0', 'L0L 1L0', 'L0L 1V0', 'L0L 2E0', 'L0M 1N0', 'L0R 1B0', 'L0R 1K0', 'L0R 1M0', 'L0R 2A0', 'L0R 2H2', 'L0S 1A0', 'L0S 1C0', 'L1C 3K3', 'L1C 4P8', 'L1H 6E8', 'L1H 6N2', 'L1H 7K4', 'L1H 8P7', 'L1J 5Y5', 'L1J 5Y6', 'L1S 3Z2', 'L1W 3K1', 'L1W 3T7', 'L2A 5A2', 'L2M 6S9', 'L2R 3X1', 'L2R 7K6', 'L2S 0B3', 'L3B 3X1', 'L3B 6G4', 'L3C 1C9', 'L3K 5V4', 'L3M 4E7', 'L3M4G1', 'L3P 1M3', 'L3R 0M4', 'L3R 3K5', 'L3R 6H2', 'L3R 8T9', 'L3V 6H1', 'L3Y 8C6', 'L3Y 8W4', 'L4A 1C4', 'L4A 7X5', 'L4B 1J6', 'L4C 3E9', 'L4K 1B4', 'L4K 1H8', 'L4K 2R2', 'L4K 2Y8', 'L4K 3B5', 'L4K 3L6', 'L4K 3Z8', 'L4M 6C8', 'L4N 1C2', 'L4N 8Z5', 'L4N 9S8', 'L4P 3E9', 'L4W 1E4', 'L4W 2A3', 'L4W 4L6', 'L4W 4N5', 'L4W 4X7', 'L4W 4Z5', 'L4Z 3K8', 'L5C 1V8', 'L5L 5Z2', 'L5M 5M1', 'L5N 2W3', 'L5N 7J7', 'L5N 7K5', 'L5N 8E9', 'L5S 1J5', 'L5S 1M5', 'L5S 1S2', 'L5S 1Y6', 'L5T 1C3', 'L5T 1W8', 'L5T 2A8', 'L5T 2S7', 'L5W 4L4', 'L6A 4R6', 'L6C 0H9', 'L6H 5R1', 'L6J 2X8', 'L6J 4Z2', 'L6J 5E4', 'L6L 5M9', 'L6S 5N8', 'L6T 3Y4', 'L6W 3J9', 'L6W 3R3', 'L6X 4V3', 'L6Z 3H8', 'L7B 1A6', 'L7E 1H3', 'L7E 3B6', 'L7E 5R5', 'L7E 5T4', 'L7L 1T2', 'L7L 4Y1', 'L7L 5H7', 'L7L 5L5', 'L7L 6A2', 'L7P 1A6', 'L7R 3R3', 'L7S 1A2', 'L8E  3P3', 'L8E 2N9', 'L8E 2R4', 'L8E 2W2', 'L8E 3A2', 'L8E 5M8', 'L8E 5M9', 'L8E 5R2', 'L8E4H8', 'L8H 3P6', 'L8H 5Y3', 'L8H 7L5', 'L8L 8B7', 'L8L 8K3', 'L8N 2Z7', 'L8S 1M5', 'L8W 2E8', 'L9B 1B7', 'L9H 4J7', 'L9H 5E2', 'L9S 1S8', 'L9S 3V6', 'L9T 1X9', 'L9T 3L5', 'L9T 3Y5', 'L9T 4Z4', 'L9T 5H3', 'L9W 1N1', 'L9W 2Z3', 'L9Y 4V6', 'L9Y 5A6', 'LOL 1T0', 'LOR 2A0', 'M1H 1H9', 'M1H 2Z1', 'M1K 3K9', 'M1L 2M2', 'M1P 3E7', 'M1P 4M8', 'M1R 3B7', 'M1S 3L2', 'M1X 1M4', 'M2H 2N7', 'M3B 2T5', 'M3J 1Y8', 'M3J 2B1', 'M3J 2E2', 'M3K 2A2', 'M3L 1G5', 'M3N 1W1', 'M4B', 'M4G 1Y9', 'M4G 1Z2', 'M4G 3V6', 'M4P 2V8', 'M5H 2T6', 'M6H 1P2', 'M6N 2J1', 'M6N 4Z9', 'M8V L4W', 'M8Z 1R1', 'M8Z 1S5', 'M8Z 2R4', 'M9L 1R1', 'M9L 1X1', 'M9L 1Y6', 'M9L 2T4', 'M9M 2G5', 'M9M 2Z2', 'M9M 5T2', 'M9W 4N3', 'M9W 5Y8', 'M9W 5Z7', 'N/A', 'N0A 1C0', 'N0B 1E0', 'N0B 1M0', 'N0B 1S0', 'N0B 1Y0', 'N0B 2L0', 'N0B 2M0', 'N0B 2N0', 'N0B 2S0', 'N0C 1B0', 'N0C 1E0', 'N0E 1N0', 'N0E1M0', 'N0G 1M0', 'N0G 1X0', 'N0G 2L0', 'N0H 2K0', 'N0H 2T0', 'N0J 1E0', 'N0J 1H0', 'N0J 1P0', 'N0J 1V0', 'N0J 1Y0', 'N0L 2C0', 'N0L 2E0', 'N0M 1J0', 'N0M 1M0', 'N0M 1S3', 'N0M 1Y0', 'N0M 2N0', 'N0N 1G0', 'N0N 1K0', 'N0N 1P0', 'N0P 1C0', 'N0P 2C0', 'N0P 2G0', 'N0P 2L0', 'N0R 1A0', 'N0R 1K0', 'N0R 1L0', 'N1A 2W1', 'N1A 2W7', 'N1H 1A4', 'N1H 1B8', 'N1H 6J2', 'N1H 6J3', 'N1H 6K9', 'N1K 1G7', 'N1R 5S9', 'N1R 7J2', 'N1R 7N3', 'N1R 8B7', 'N1T 1B2', 'N2B 3E1', 'N2B 3E7', 'N2C 2C9', 'N2C 2E1', 'N2E 2M7', 'N2H 5H3', 'N2S 4B3', 'N2V 1N3', 'N2V 1Y8', 'N2V 2E3', 'N2Z 2N3', 'N3B 2Z7', 'N3H 4R7', 'N3H 4V9', 'N3S 7V6', 'N3T 5M1', 'N3T 5M6', 'N3T 5M7', 'N3T 5N3', 'N3W 1Y1', 'N3W 2G8', 'N45 1E2', 'N4B 2W6', 'N4G 4G7', 'N4P 3S7', 'N4S 7V8', 'N4S 7W5', 'N4S 7Z2', 'N4S 8Y7', 'N4W 3G9', 'N4X 1B5', 'N4X 1C7', 'N5C 3J6', 'N5C 3J7', 'N5H 2R6', 'N5H 2R8', 'N5H 2V1', 'N5V 0A4', 'N5V 1R2', 'N5V 2Z6', 'N5V 4L6', 'N5W 1X4', 'N5W 4Z2', 'N6K 1Y1', 'N6N 1A8', 'N7A 3Y1', 'N7A 3Y2', 'N7G 3H7', 'N7M 5K5', 'N7M 5K8', 'N7T 1H7', 'N7T 7H8', 'N7T 7J2', 'N8H 3B5', 'N8W 5B5', 'N9A 6J3', 'P0B 1C0', 'P0H 1V0', 'P0H 2G0', 'P0L 1N0', 'P0M 1B0', 'P0T 1W0', 'P1B 8G4', 'P1H 1Y4', 'P1L 1T8', 'P2A 2W8', 'P3A 4M9', 'P3B 2Z3', 'P3N 1B3', 'P3Y 1K6', 'P4N 7W7', 'P4R 1M9', 'P6A 3T4', 'P6B 4K2', 'P7B 3X5', 'P7B 5M5', 'P7B 5X5', 'R0A 0R0', 'R0A 1E0', 'R0C 0A0', 'R0C 1N0', 'R0C 3E0', 'R0E 0A0', 'R0E 0C0', 'R0E 2G0', 'R0G 0B0', 'R0G 0J0', 'R0G 0V0', 'R0G 1K0', 'R0G 1M0', 'R0G 1S0', 'R0G 1W0', 'R0H 1L0', 'R0J 0M0', 'R0J 1H0', 'R0J 1T0', 'R0K 0L0', 'R0K 0P0', 'R0K 0W0', 'R0K 0X0', 'R0K 1G0', 'R0K 1W0', 'R0K 2G0', 'R0L 0C0', 'R0L 1S0', 'R0L 1Z0', 'R0M OJ0', 'R1A 3N9', 'R1N 0K2', 'R1N 3C5', 'R2C 2Z2', 'R2C 3T4', 'R2E 0C4', 'R2G 0H3', 'R2H 1R7', 'R2J 0A4', 'R2J 0Z7', 'R2J 3T1', 'R2J 3T6', 'R2L 0X3', 'R2P 2W5', 'R2R 1V1', 'R2R 1V9', 'R2R 2B9', 'R2X 2W5', 'R3C 2E6', 'R3C 2N5', 'R3E 1C6', 'R3E 2R9', 'R3E 3S4', 'R3H 0G7', 'R3H 0N6', 'R3H 0S8', 'R3J 1J2', 'R3J 3T2', 'R3J 3W1', 'R3T 1T5', 'R4A 1C4', 'R4A 5A9', 'R4H 1B8', 'R4K 1B2', 'R4L 1N6', 'R5G 1T8', 'R5G 2C4', 'R6M 1Y4', 'R6M 2G2', 'R6W 1A1', 'R6W 4A1', 'R6W 4A5', 'R6W 4A7', 'R6W 4B1', 'R6W 4B7', 'R6W 4C3', 'R6W 4C4', 'R7A 7A4', 'R7A 7L1', 'R7C 1A4', 'RC3 2E6', 'S0A 1B0', 'S0A 1V0', 'S0A 1W0', 'S0A 2P0', 'S0A 3J0', 'S0A 3R0', 'S0C 0N0', 'S0E 0Y0', 'S0E 1A0', 'S0E 1E0', 'S0G 0H0', 'S0G 0V0', 'S0H 0T0', 'S0H 1X0', 'S0H 2K0', 'S0H 4M0', 'S0J 1B0', 'S0K 0G0', 'S0K 1H0', 'S0K 2A0', 'S0K 2T0', 'S0K 2Z0', 'S0K 3V0', 'S0M 0N0', 'S0M 1H0', 'S0N 1H0', 'S4H 2J9', 'S4N 5A1', 'S4N 5A6', 'S4N 5P7', 'S4N 5W2', 'S4N 5X4', 'S4P 3E2', 'S4P 3H1', 'S4R 1K5', 'S4R 2M6', 'S4R 8R7', 'S4T 2P7', 'S4T 7M3', 'S5R 4J7', 'S6H 4P2', 'S6H 4P6', 'S6H 4P8', 'S6V 6G1', 'S7H 0H2', 'S7H 0Y0', 'S7K 0X1', 'S7K 0X4', 'S7K 0X8', 'S7K 3J8', 'S7K 3P5', 'S7K 3V1', 'S7K 5Z1', 'S7K 5Z7', 'S7K 6J4', 'S7K 6N3', 'S7K 6P6', 'S7L 6A4', 'S7M 1E3', 'S7N 1Y7', 'S7N 1Z3', 'S7P 0A9', 'S9A 3M1', 'S9V 1K5', 'S9V 1R6', 'T0A 0V1', 'T0A 2K0', 'T0A 3A0', 'T0B 1A0', 'T0B 1X0', 'T0B 3P0', 'T0B 4K0', 'T0C 1Z0', 'T0C 2L0', 'T0C 2T0', 'T0E 0A0', 'T0E 0H0', 'T0E 0J0', 'T0E 1V0', 'T0E 2G0', 'T0G 0J0', 'T0H 0W0', 'T0H 0Y0', 'T0J 0Y0', 'T0J 2M0', 'T0J 2S0', 'T0K 0C0', 'T0K 0K0', 'T0K 0R0', 'T0K 1W0', 'T0L 0A0', 'T0L 0T0', 'T0L 0W0', 'T0M 0J0', 'T0M 0S0', 'T0M 0V0', 'T0M 1H0', 'T0M 1J0', 'T0M 1X0', 'T1A 5P7', 'T1A 8E8', 'T1A 8G7', 'T1A 8M9', 'T1G 1W7', 'T1G 2E1', 'T1H 0C8', 'T1H 5G1', 'T1H 5G5', 'T1H 6G3', 'T1H 6L5', 'T1H 7A6', 'T1J 4P4', 'T1M 1N1', 'T1R 1B5', 'T1S 1A1', 'T1S 1B3', 'T1V 1E6', 'T1V 1M6', 'T2A 2N6', 'T2A 2P1', 'T2A 2P3', 'T2B 1P4', 'T2B 3K7', 'T2B 3N9', 'T2C 0L5', 'T2C 1J7', 'T2C 2A2', 'T2C 2B8', 'T2C 2E4', 'T2C 2H8', 'T2C 2L2', 'T2C 2P6', 'T2C 2R4', 'T2C 2X3', 'T2C 4A6', 'T2C 4L2', 'T2C 4L6', 'T2C 4L7', 'T2C 4M6', 'T2C 4P1', 'T2C 4R7', 'T2C 4T6', 'T2C 4X5', 'T2C 5B9', 'T2E 4B2', 'T2E 4B3', 'T2E 6N6', 'T2E 6Z5', 'T2E 7N4', 'T2E 8P9', 'T2G 2A5', 'T2G 2A7', 'T2G 4C8', 'T2H 1C2', 'T2H 1L6', 'T2H 1L8', 'T2H 2G7', 'T2H 2K1', 'T2H 2Y2', 'T2K 2A8', 'T2K 2E6', 'T2L 2X1', 'T2M 0K3', 'T2P 2G6', 'T2P 2M5', 'T2P 2P9', 'T2Z 2X4', 'T2Z 4K4', 'T3B 0S3', 'T3R 0H9', 'T4B 2B2', 'T4C 1W7', 'T4H 1V1', 'T4J 1J8', 'T4J 1R3', 'T4L 1X4', 'T4L 2C6', 'T4L 2N2', 'T4N 5G1', 'T4N 5H3', 'T4P 1A1', 'T4P 1A5', 'T4P 1A8', 'T4P 1K1', 'T4P 1K3', 'T4P 1N5', 'T4P 1X5', 'T4P 1Y3', 'T4P 2G9', 'T4P 2J9', 'T4P 3R2', 'T4P 3R3', 'T4P-3R2', 'T4S 1P5', 'T4S 1S6', 'T4S 1S8', 'T4S 2B3', 'T4S 2J9', 'T4S 2L4', 'T4T 2A3', 'T4V 1L9', 'T4V 1X4', 'T4V 4C5', 'T5B 1G8', 'T5B 1K5', 'T5B 2B7', 'T5G 2S7', 'T5L 0X6', 'T5L 2M8', 'T5L 2R8', 'T5M 2R8', 'T5M 3P5', 'T5M 3P9', 'T5M 3T5', 'T5M 3W2', 'T5P 1G8', 'T5P 4K2', 'T5S 1G4', 'T5S 1X2', 'T5S 2G2', 'T5S 2K4', 'T5S 2R9', 'T5V 1A1', 'T5V 1B7', 'T5V 1K5', 'T5V 1N4', 'T6B 0A3', 'T6B 0A5', 'T6B 0A7', 'T6B 0E5', 'T6B 2P1', 'T6B 2V2', 'T6B 2W4', 'T6B 3A7', 'T6B 3C4', 'T6B 3E3', 'T6E 0E2', 'T6E 4N2', 'T6E 4N6', 'T6E 6C2', 'T6E 6L9', 'T6E 6M5', 'T6H 2H5', 'T6H 4K5', 'T6J 5G9', 'T6N 1B2', 'T6N 1C9', 'T6P 1J6', 'T6P 1J8', 'T6P 1K1', 'T6P 1K2', 'T6P 1P7', 'T6P 1V8', 'T6P 1Y6', 'T6S 1B9', 'T6S 1G1', 'T7A 1S1', 'T7A 1S4', 'T7A 1S5', 'T7P 2M2', 'T7P 2M4', 'T7P 2P5', 'T7X 3A5', 'T7X 5A4', 'T7X 5A7', 'T7Z 1L7', 'T7Z 1V7', 'T7Z 1W4', 'T8H 1N7', 'T8N 2G3', 'T8R 1K6', 'T8S 1M6', 'T8V 6W7', 'T8V 7S3', 'T8V 8B1', 'T8V 8K4', 'T9A 0T8', 'T9E 0B3', 'T9E 0C3', 'T9E 7M1', 'T9E 7N6', 'T9E 7S5', 'T9E 7T7', 'T9E 7T8', 'T9E 7W1', 'T9E 7X2', 'T9E 7X8', 'T9E 8H9', 'T9E 8P2', 'T9N 2J3', 'T9V 2E4', 'T9V 3A7', 'TX8 0B1', 'V0B 2G0', 'V0E 2X0', 'V0E 3B0', 'V0G 1Z0', 'V0H 1T0', 'V0H 1Z2', 'V0J 3A0', 'V0J 3A1', 'V0K 2Z0', 'V0M1A0', 'V0R 1K0', 'V0R 1M0', 'V0R 1V0', 'V0X 1T0', 'V0X 1X0', 'V1B 3R9', 'V1E 1X2', 'V1E 4N3', 'V1G 4R8', 'V1J 7H2', 'V1L 6Z2', 'V1M 2X7', 'V1M 3G5', 'V1S 1J6', 'V1S 1S4', 'V1T 6V2', 'V1T 8T9', 'V1X 4R2', 'V1X 5W6', 'V1X 7S2', 'V1Y 1M3', 'V1Z 1G4', 'V2A 3H7', 'V2A 3K6', 'V2A 7J3', 'V2A 8V6', 'V2C 5P2', 'V2J 5Z2', 'V2K 1M8', 'V2L 2Z1', 'V2L 4V4', 'V2N 4T6', 'V2N 5T1', 'V2P 2N1', 'V2P 6H5', 'V2R 5N8', 'V2S 4N7', 'V2S 5C9', 'V2S 6B7', 'V2S 7M2', 'V2S 7M6', 'V2S 7T1', 'V2T 0A7', 'V2T 6L4', 'V2V 5X4', 'V2Y 2V9', 'V3A 1G5', 'V3A 4L5', 'V3A 4N4', 'V3A 4N5', 'V3A 5E8', 'V3C 1S9', 'V3C 6L4', 'V3K 5S9', 'V3M 5R1', 'V3M 6G7', 'V3S 6J8', 'V3S 8E5', 'V3T 5J4', 'V3V 3H2', 'V3V 3R9', 'V3W 4E8', 'V3W 4G1', 'V4G 1B5', 'V4G 1E2', 'V4G 1K7', 'V4N 2S1', 'V4N 3P8', 'V4N 3P9', 'V4N 3R7', 'V4N 4C2', 'V4N 4C3', 'V4N 4E6', 'V4W 2W5', 'V4W 2Z8', 'V4W 3A8', 'V4W 3X5', 'V4X 1C8', 'V5J 4R8', 'V5X 2X1', 'V6A 2X2', 'V6P 6G2', 'V6V 1J7', 'V6V 2H9', 'V6X 1X5', 'V6X 1Y4', 'V6X1X3', 'V7A 4V1', 'V8G 5R5', 'V8L 5Y1', 'V9A 2R1', 'V9B 2S2', 'V9L 3X9', 'V9L 6B1', 'V9M 4C7', 'V9P 22C2', 'V9P 2B9', 'V9P 2G6', 'V9R 6W6', 'V9R 6Z5', 'V9S 3H6', 'V9S 4M8', 'unknown']</t>
         </is>
@@ -1525,12 +1569,15 @@
         </is>
       </c>
       <c r="T15" t="n">
+        <v>3219</v>
+      </c>
+      <c r="U15" t="n">
         <v>19521</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>3</v>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>['CANADA', 'NOT ENTERED', 'UNITED STATES']</t>
         </is>
@@ -1603,12 +1650,15 @@
         </is>
       </c>
       <c r="T16" t="n">
+        <v>1547</v>
+      </c>
+      <c r="U16" t="n">
         <v>39034</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>13</v>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>['Bus', 'Chassis-Cab', 'Incomplete Vehicle', 'Low Speed Vehicle', 'MPV', 'Motorcycles', 'Passenger Car', 'Restraint Systems', 'Snowmobile', 'Three Wheeled Vehicle', 'Tire', 'Trailer', 'Truck Body']</t>
         </is>
@@ -1681,12 +1731,15 @@
         </is>
       </c>
       <c r="T17" t="n">
+        <v>732</v>
+      </c>
+      <c r="U17" t="n">
         <v>124159</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>107</v>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>['Bus / City Bus &lt; 10k lbs', 'Bus / City Bus &gt;= 10k lbstest', 'Bus / Coach Bus &lt; 10k lbs', 'Bus / Coach Bus &gt;= 10k lbs', 'Bus / Disabled Access &lt; 10k lbs', 'Bus / Disabled Access &gt;=10k lbs', 'Bus / Limousine', 'Bus / School Bus &lt; 10k lbs', 'Bus / School Bus &gt;= 10k lbs', 'Bus / Shuttle Bus &lt; 10k lbs', 'Bus / Shuttle Bus &gt;= 10k lbs', 'CMVSS 213 - Child Restraint Systems', 'CMVSS 213.1 - Infant Restraint Systems', 'CMVSS 213.2 - Booster nSeats', 'CMVSS 213.3 - Restraint Systems for Disabled Persons', 'CMVSS 213.3 Restraint systems for disabled persons', 'CMVSS 213.5 - Restraint Systems for Infants with Special Needs', 'Chassis-Cab (&lt; 4536 kg)', 'Chassis-Cab (&gt;= 4536 kg)', 'Final Stage - Body and Equipment', 'Final Stage - GA/GVWR increases', 'Final Stage - Wheelbase Alterations', 'Intermediate Stage - Body and Equipment', 'Intermediate Stage - Fuel system instalations', 'Intermediate Stage - Wheelbase alterations', 'Intermediate Stage -- Body and Equipment', 'Intermediate Stage -- GA/GVWR increase', 'Intermediate Stage -- Wheelbase Alternation', 'Low Speed Vehicle', 'MPV / Ambulance (&lt; 4536 kg)', 'MPV / Ambulance (&gt;= 4536kg)', 'MPV / Class "B" Motor Home', 'MPV / Class "C" Motor Home &gt;=10k lbs', 'MPV / Disabled Access &lt; 10k lbs', 'MPV / Disabled Access &gt;= 10k lbs', 'MPV / Limousine', 'MPV / Motor Home', 'MPV / Motor Home / Class "A"', 'MPV / Van Conversion &lt; 10k lbs', 'MPV &lt; 10k lbs', 'MPV &gt;= 10k lbs', 'Miscellaneous Bus', 'Miscellaneous Chassis-Cab', 'Miscellaneous MPV', 'Miscellaneous SnowMobile', 'Miscellaneous Tires', 'Miscellaneous Trailer [Air]', 'Miscellaneous Trailer [Standard]', 'Miscellaneous Truck', 'Motorcycle / Limited Speed Motorcycle', 'Motorcycle / Motor Tricycle', 'Motorcycle/ Open Motorcycle', 'New Tires', 'Passenger Car / Limousine', 'Passenger Car, OEM', 'RUM  / All Terrain Vehicle', 'Restricted Use Motorcycle (RUM)', 'Retread', 'Shelf and Partition installer', 'Snowmobile', 'Tanker Truck', 'Three Wheeled Vehicle', 'Trailer - Auto Transporter [Air]', 'Trailer - Boat [Air]', 'Trailer - Boat [Standard]', 'Trailer - C Dolly [Air]', 'Trailer - Cable Reel', 'Trailer - Car Dolly [Standard]', 'Trailer - Cargo (Air)', 'Trailer - Cargo [Standard]', 'Trailer - Converter Dolly [Air]', 'Trailer - Dump [Standard]', 'Trailer - Final Stage [Standard]', 'Trailer - Final stage [Air]', 'Trailer - Flat Deck (Standard)', 'Trailer - Full (Air)', 'Trailer - Heavy Hauler [Air]', 'Trailer - Heavy Hauler [Standard]', 'Trailer - Horse/Stock [Standard]', 'Trailer - Incomplete [Air]', 'Trailer - Incomplete [Standard]', 'Trailer - Light Duty [Standard]', 'Trailer - Load Divider Dolly [Air Brake]', 'Trailer - Medium Duty [Standard]', 'Trailer - Motorcycle', 'Trailer - Pole [Air]', 'Trailer - Pole [Standard]', 'Trailer - Portable Generator [Standard]', 'Trailer - Portable equip, construction/other (Air)', 'Trailer - Portable equip, construction/other (Standard)', 'Trailer - Pulpwood (Air)', 'Trailer - Recreational RV [Standard]', 'Trailer - Semi Trailer [Air]', 'Trailer - Semi Trailer [Standard]', 'Trailer - Snowmobile', 'Trailer - Tank [Air]', 'Trailer - Utility [Standard]', 'Trailer - Vehicle Alterer', 'Trailer [Air]', 'Truck / Walk-in Van (&lt; 4536 kg)', 'Truck / Walk-in Van (&gt;= 4536 kg)', 'Truck OEM (&lt; 4536 kg)', 'Truck OEM (&gt;= 4536 kg)', 'Vehicle Alterer  - Body and Equipment', 'Vehicle Alterer - Fuel system conversion', 'Vehicle Alterer - Wheelbase alterations', 'Vehicle Alterer GA/GVWR increases']</t>
         </is>
@@ -1759,12 +1812,15 @@
         </is>
       </c>
       <c r="T18" t="n">
+        <v>1547</v>
+      </c>
+      <c r="U18" t="n">
         <v>50447</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>13</v>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>['Autobus', 'Camion', 'Ch?&gt;ssis-cabine', 'Incomplete Vehicle - not translated', 'Low Speed Vehicle - not translated', 'Motocyclette', 'Motoneige', 'Pneu', 'Remorque', 'Restraint Systems - not translated', 'Three Wheeled Vehicle - not translated', 'V??hicule de tourisme', 'V??hicule de tourisme ?y usages multiple']</t>
         </is>
@@ -1837,12 +1893,15 @@
         </is>
       </c>
       <c r="T19" t="n">
+        <v>732</v>
+      </c>
+      <c r="U19" t="n">
         <v>164184</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>107</v>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="W19" t="inlineStr">
         <is>
           <t>['??quipement portatif, construction/autre', '??quipement portatif, construction/autre (air)', 'Autobus / Autobus Ecolier (&lt;10,000 lbs)', 'Autobus / Autobus Ecolier (&gt;=10,000 lbs)', 'Autobus / Autobus a acces modifie (&gt;=10,000 lbs)', 'Autobus / Autobus de croisiere (&lt;10,000 lbs)', 'Autobus / Autobus de croisiere (&gt;=10,000 lbs)', 'Autobus / Autobus e acces modifie (&lt;10,000 lbs)', 'Autobus / Autobus navette &gt;= 10,000 lbs', 'Autobus / Autobus navette(&lt;10,000 lbs)', 'Autobus / Autobus urbain (&lt;10,000 lbs)', 'Autobus / Autobus urbain (&gt;=10,000 lbs)', 'Autobus / Limousine', 'Autre chassis-cabine', 'Autres Pneus', 'Autres VTUM', 'Autres autobus', 'Autres camions', 'Autres motoneiges', 'CMVSS 213.3 Ensemble de retenue pour pers. hand', 'Camion (&lt; 4536 kg)', 'Camion (&gt;= 4536 kg)', 'Camion / Fourgon ?y acces debout (&lt;4536 kg)', 'Camion / Fourgon ?y acces debout (&gt;= 4536kg )', 'Camion-citerne', 'Chariot de r??partition de charge, [frein a air]', 'Chariot derouleur', 'Chassis-cabine (&lt; 4536 kg)', 'Chassis-cabine (&gt;=4536 kg)', 'Fab. Finale - Augmentations du PNBE/PNBV', 'Fab. Finale - Carrosseries et ??quipements', "Fab. Finale - Modifications d'empattement", 'Fab. Intermediaire - Installations du systeme de carburant', "Fab. Intermediaire - Modifications d'empattement", 'Fab. Intermediarie - Carrosseries et ??quipements', 'Fabricant finale, [Standard]', 'Installateur de tablette et s??paration', 'Intermediate Stage -- Body and Equipment (not translated)', 'Intermediate Stage -- GA/GVWR increase (not translated)', 'Intermediate Stage -- Wheelbase Alternation (not translated)', "Modificateur de v??hicule -  Installation de carrosseries ou d'??quipements", 'Modificateur de v??hicule - Conversion du systeme de carburant', "Modificateur de v??hicule - Modifications d'empattement", 'Modificateur de v??hicule - augmentation du PNBE/PNBV', 'Motocyclette / Motocyclette a vitesse limitee', 'Motocyclette / Tricycle a moteur', 'Motocyclette /Motocyclette sans habitacle ferm??', 'Motocyclette a usage restraint', 'Motoneige', 'NSVAC 213 - Ensembles de retenue pour enfant', 'NSVAC 213.1 - Ensembles de retenue pour b??b??', "NSVAC 213.2 - Si??ge d'appoint", 'NSVAC 213.3 - Ens. de retenue pour pers. hand.', 'NSVAC 213.5 - Ens. de retenue speciaux -b??b??', 'Pneu rechapes', 'Pneu, nouveau', 'RUM / Vehicule tout-terrain', 'Remorque - Modificateur de v??hicule', 'Remorque ?y bateau [standard]', 'Remorque ?y motocyclette', 'Remorque Cargo [standard]', 'Remorque [Freins ?y air]', 'Remorque a bateau, [frein a air]', 'Remorque a charge longue, [frein a air]', 'Remorque a materiel lourd [Standard]', 'Remorque a materiel lourd, [frein a air]', 'Remorque a voiture, [Frein a air]', 'Remorque citerne, [frein a air]', 'Remorque de camping [standard]', 'Remorque incomplete, [frein a air]', 'Remorque incomplete, [standard]', 'Remorque legere [Standard]', 'Remorque motoneige', 'Remorque moyenne [Standard]', 'Remorque plate-forme (standard)', 'Remorque pour charges longues [Standard]', 'Remorque tombereau', 'Remorque utilitaire [standard]', 'Remorque, Fabricant Finale, [freins a air]', 'Remorque, chariot de conversion de type C, frein a air', 'Remorque, chariot de conversion, [Frein a air]', 'Remorque, generatrice portatif [standard]', 'Remorque, semi [standard]', 'Remorque, semi, [frein a air]', 'Remorque, standard, chariot df??panneur', 'Remorque, standard, pour chevaux/betails', 'Tous les remorques [standard]', 'Tous les remorques, [frein a air]', 'VTUM (&lt;10,000 lbs)', 'VTUM / Autocaravane', 'VTUM / Limousine', 'VTUM &gt;= 10,000 lbs', 'VTUM Ambulance (&lt;4536 kg)', 'VTUM a acces modifie', 'VTUM a acces modifie (&gt;=10,000 lbs)', 'VTUM ambulance (&gt;=4536kg)', 'VTUM autocaravane de class "A" (&gt;=10,000 lbs)', 'VTUM autocaravane de class "B" (&lt;10,000 lbs)', 'VTUM autocaravane de class "C" (&gt;=10,000 lbs)', 'VTUM modifie (&lt;10,000 lbs)', 'Vehicule ?y basse vitesse()', 'Voiture de tourisme', 'Voiture de tourisme, limousines', 'remorque cargo (air)', 'remorque compl??te', 'remorque pour bois ?y p?&gt;te', 'v??hicule ?y trois roues()']</t>
         </is>

--- a/examples/Canada OGD/vehicle manufacturers/profile.xlsx
+++ b/examples/Canada OGD/vehicle manufacturers/profile.xlsx
@@ -455,15 +455,20 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
+          <t>csim</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -476,11 +481,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -539,12 +544,15 @@
         <v>66</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>112237</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>1549</v>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>['0782739 B.C. Ltd.', '1091736 Ontario Inc. o/a L.B. Welding', '1132290 Alberta Ltd. DBA Norseman Oilfield Mechanical Services', "1132682 Alberta Inc. d.b.a. Brown's Industrial Services", '1146592 Ontario Inc. d.b.a. S &amp; L Waste Tech', '1162928 Ontario Inc.', '1201363 Ontario Ltd., d.b.a. McBride Horse Trailers', '1246086 Alberta Ltd', '1263337 Ontario Inc.  o/a Burlington Krown', '1293550 Ontario Inc. d.b.a. D&amp;D Tow Truck Builder Inc.', '1389899 Ontario Inc. d.b.a. M&amp;S Equipment Sales &amp; Service', '1425893 Alberta Ltd. dba Big Wheels Equipment Emporium', '1433797 ALBERTA LTD. DBA INNOVATIVE SOLUTIONS', '1435741 Ontario Inc. o/a Excalibur Trailers', '1450384 Ont. Inc. dba A&amp;S Towing', '1462782 Alberta Ltd. o/a Dynamic Industrial Solutions', '1482271 Alberta Ltd. o/a Kamparoo Campers', '1515974 Ontario Inc. (Hitch Centre)', '1519786 Alberta Ltd. dba Foremost Fleet Outfitters', '1527490 Alberta Ltd. (d.b.a. Peerless Parts &amp; Service)', '1561660 Ontario Ltd. d.b.a. Surgenor Truck Centre', '1561660 Ontario Ltd. d.b.a. Surgenor Truck Centre (Ottawa, ON)', '1561660 Ontario Ltd. d.b.a. Surgenor Truck Centre(Ottawa, ON)', '1570621 ALBERTA LTD O/A R.J.Mobile Mechanical Services', '1628721 Ontario Inc. d.b.a. Northland Truck Centre', '1693382 ONT Inc. d.b.a. Lawson Trailers', '1708828 ONTARIO dba Horst Welding', '1719502 Ontario Inc. d.b.a. Apex2 Auto', '1742227 ONT Inc. d.b.a. Hyhills Trailers', '1746954 Ontario Limited (Operating as Northend Mobility)', '1792911 Alberta Ltd.', '1823741 ALBERTA LTD. (DBA. KWIK-FAB ENERGY SERVICES LTD.)', '2000007 ONT. INC. d.b.a Inkas', '2055495 Ontario Inc. d.b.a. Miska Trailer Factory', '2116602 Ontario Ltd.', '2193123 Ontario Limited o/a New Gen Trailers', '2213535 Ontario Inc. d.b.a. Vanfitters Inc.', '2231545 Ontario Inc. dba Matrixx Specialized Trailers', '2236697 Ontario Inc. O/A Delta Truck Equipment', '2550-2311 Qu??bec Inc. - Soudure Gerald Guibord 2000', '2747391 Canada Inc. o/a McCloskey Bros. Mfg', '3022331 Canada Inc', '30879076 Qu??bec Inc.', '3212921 Canada Inc. o/a Do It Industries', '3470148 Canada Inc. d.b.a. Fast T.R.A.C.', '3696660 Manitoba Ltd.', "3816410 Manitoba Ltd. d.b.a. Berg's Prep &amp; Paint", '3891721 Canada inc.', '3923932 Canada Inc. (o/a Remorque 3 Fronti??res)', '3963128 Canada inc. (Remorques AERO )', '401 Trucksource Inc.', '4187229 Canada Inc. dba Harmony Juvenile Products', '425723 Ontario Ltd. dba Holland Enterprises', '4843305 Manitoba Ltd. (o/a LTS Manufacturing)', '4WD Manufacturing Inc.', '510669 Ontario Limited d.b.a. Stainless Steel Technology', '5274398 Manitoba Ltd. d.b.a. Cross Country Manufacturing', '5274398 Manitoba Ltd. d.b.a. Cross Country Manufacturing Ltd. (Morden,ON)', '533438 Ontario Limited d.b.a. Northlander Industries', '5514 KM', '58952 Alberta Ltd dba Custom Energy Equipment Services', '611421 ONTARIO INC BAYWOOD ENTERPRISES', '6186433 Manitoba Ltd. d.b.a. Ironmen Industries', '626814 Alberta Ltd.', '6607578 Canada Ltd. D.B.A. Kangaroo Trailers', '662021 NB Inc. d.b.a. Coastal Aluminum Manufacturing', '686109 Alberta Ltd.', '727831 Ontario Limited d.b.a. Carmikel Canada', '7289235 CANADA INC. d.b.a Les ??quipements EDG', '731073 Ontario Inc. (d.b.a. Milano Trailers)', '732509 Alberta Ltd.', '749106 Alberta Ltd. c/o River Run Trailers', '771603 Alberta Ltd., o.a. Pressure Vessel Services', '77445 Alberta Ltd.', '823353 Ontario Limited o/a HD Equipment Sales &amp; Se', '830482 Alberta Ltd. o/a TFT Trailers', '853418 Ontario Ltd. d.b.a. Ratler Manufacturing', '862390 Ontario Inc. d.b.a. Nickel City International Truck Centre', '865593 Ontario Limited', '9000-2783 Quebec Inc., dba Garage Marcel Heon Enr.', '9006-5335 Qu??bec inc. (d.b.a. Ateliers Dufour &amp; Associ??)', '9019-8813 Quebec inc. o/a Machinerie Bromer', '9043 - 0851 Quebec Inc.', '9044-3433 Quebec Inc. dba Aluquip', '9054-9767 Qu??bec Inc. o/a Les Industries Danmare', '9060 - 6542 Quebec Inc.', '9066-7353 QU??BEC INC. o/a (Omnifab)', '9067-3708 Quebec Inc dba Technifab Industries', '9069-4654 Quebec inc. (Supervac 2000)', '9077-0223 Quebec Inc. dba. M??canique G??n??rale St-Thomas', '9081-0060 Quebec Inc. (Fourgons Elite)', '9102-2285 Qu??bec inc.', '9103-8034 Quebec Inc. d.b.a. Ginove', '91284182 Qu??bec Inc. o/a Les roulottes La Boheme', '9159-5181 QU??BEC INC. (REMORQUES LEWIS)', '9160 - 7531 Quebec Inc.', '9164-4419 QU??BEC INC. (DBA REMBEC)', '9175-3681 Qu??bec inc. o/a Amtech', '9197-5912 Qu??bec Inc. dba SM Suspension', '9299-5000 Qu??bec inc. (Raison sociale :  Remorques camping la bulle)', '930098 ONTARIO LTD. (FREIGHTLINER NORTH BAY)', '936244 Alberta Ltd. o/a Triple J Welding', '988951 Ontario Inc. o/a Wishing Well Fabricating', '??chelles Warwick Inc.', '??quipement Amos Lt??e', '??quipements SBI Inc.', 'A &amp; D Fabricating Ltd.', 'A. AMYOTTE &amp; SON WELDING LTD.', 'A.R.S. Trucking &amp; Welding Ltd.', 'ABC Mobilite Inc.', 'ABCO Industries Limited', 'ABS Remorques Inc.', 'ACCO TRAILER MANUFACTURING LTD.', 'ACTION CUSTOM TRUCK PARTS LTD.', 'AD Boivin Design Inc.', 'AG Shield mfg.', "AJJ's Trailers &amp; Welding", 'ALBERTA TANK TRUCK &amp; SUPPLY LTD.', 'ARCHER TRUCK CENTER (Welland) LIMITED', 'ARCHER TRUCK SERVICES LIMITED', 'ARW Truck Equipment Ltd.', 'ASL flameless heaters', 'AUTO TRUCK GROUP CANADA INC.', 'Abritech Inc.', 'Absolute Styling Limousine LTD', 'Accurate Guage Ltd.', 'Accusteel Inc.', 'Ace Custom Fabrication Ltd', 'Ace Machining &amp; Welding (P.R.) Ltd.', 'Acier Select Inc.', 'Acres Industries Inc.', 'Action Fiberglass &amp; Manufacturing Ltd. (CHARLETOWN)', 'Action Fiberglass &amp; Manufacturing Ltd. (Clarenville)', 'Action Fiberglass &amp; Manufacturing Ltd. (Corner Brook)', 'Action Fiberglass &amp; Manufacturing Ltd. (Dartmouth)', 'Action Fiberglass &amp; Manufacturing Ltd. (Gander)', 'Action Fiberglass &amp; Manufacturing Ltd. (Grand Falls)', 'Action Fiberglass &amp; Manufacturing Ltd. (Moncton)', 'Action Fiberglass &amp; Manufacturing Ltd. (Saint John)', "Action Fiberglass &amp; Manufacturing Ltd. (St John's)", 'Action Van &amp; Truck World Ltd. (Barrie)', 'Action Van &amp; Truck World Ltd. (Belleville)', 'Action Van &amp; Truck World Ltd. (Cobourg)', 'Action Van &amp; Truck World Ltd. (Collingwood)', 'Action Van &amp; Truck World Ltd. (Guelph)', 'Action Van &amp; Truck World Ltd. (Hamilton)', 'Action Van &amp; Truck World Ltd. (Kingston)', 'Action Van &amp; Truck World Ltd. (Kitchener)', 'Action Van &amp; Truck World Ltd. (London)', 'Action Van &amp; Truck World Ltd. (Mississauga)', 'Action Van &amp; Truck World Ltd. (Orillia)', 'Action Van &amp; Truck World Ltd. (Ottawa)', 'Action Van &amp; Truck World Ltd. (Pickering)', 'Action Van &amp; Truck World Ltd. (Regina)', 'Action Van &amp; Truck World Ltd. (Saskatoon)', 'Action Van &amp; Truck World Ltd. (Sault Ste Marie)', 'Action Van &amp; Truck World Ltd. (Scarborough)', 'Action Van &amp; Truck World Ltd. (Sudbury)', 'Action Van &amp; Truck World Ltd. (Timmins)', 'Action Van &amp; Truck World Ltd. (Whitby)', 'Action Van &amp; Truck World Ltd. (Winnipeg)', 'Acute Trailer Manufacturing Ltd.', "Adapt-Solutions #1 Lte?? (Centre de l'auto Saint-Lambert)", 'Admiral Drive Systems Inc.', 'Adriatic Machine and Tool Ltd.', 'Advance Engineered Products Ltd. (Calgary)', 'Advance Engineered Products Ltd. (Edmonton)', 'Advance Engineered Products Ltd. (Lloydminster)', 'Advance Engineered Products Ltd. (Regina)', 'Advance Engineered Products Ltd. (SURREY, B.C.)', 'Advance Manufacturing Ltd.', 'Advance Trailer Mfg.', 'Advantage Manufacturing Ltd.', 'Advocate Metal Works Inc.', 'Agri Plastics Mfg. A division of Polydome Ontario', 'Agrimetal Inc', 'Air Arc Manufacturing Ltd.', 'Air-V Design Inc.', 'Airland Manufacturing Inc.', 'Alantra Leasing Inc.', 'Alberta Flares Energy Services Ltd.', 'Alco Industrial Inc', 'Alcor Mat??riaux de Toiture Inc.', 'Alcraft industries Inc.', 'Alfab Manufacturing', 'All Seasons Equipment Manufacturing', 'All Trailer Repair Ltd', 'Allain Equipment Manufacturing Ltd.', 'Allan Fyfe Equipment Ltd.', 'Alliance Concrete Pumps Inc.', 'Alliance Custom Fabrication Ltd.', 'Allianz Madvac inc.', 'Alliston Equipment Ltd.', 'Alloy Truck Equipment Ltd.', 'Allstone Equipment Limited', 'Allweld Manufacturing Ltd.', 'Almas Custom Trailers', 'Alpine Shredders Limited', 'Alta Gear Distributing', 'Alta Vac Serices Ltd.', 'Altec Industries Ltd. (Milton)', 'Altec Industries Ltd. (Winnipeg)', 'Alternative Access &amp; Mobility Inc.', 'Alutrec Inc.', 'Alvan Truck Bodies Inc.', 'American Road Service Inc.', 'Andycap Mobility Services Inc.', 'Anra Manufacturing Ltd', 'Anser Manufacturing Ltd.', 'Ant Enterprises', 'Arctic Manufacturing Ltd.', 'Arfab Inc.', 'Armet Armored Vehicles Canada Inc.', "Arne's Welding Ltd. &amp; Trailer Sales 1986 Ltd.", "Arnold's Welding Regina Ltd.", 'Artic Therm International Ltd.', 'Aspectair Inc.', 'Aspen Custom Trailers', 'Asphodel Firetrucks Ltd', 'Associate Truck Bodies', 'Atelier Desgagnes Inc.', 'Atelier Despres Inc.', 'Atelier G??rard Beaulieu Inc.', 'Atelier Mobile No Problemo Inc.', 'Atelier Pli-Soude 2015 Inc.', 'Atelier Rosario Tremblay inc.', 'Atelier Ste-Emilie Inc.', "Atelier d'usinage R.R. enc", 'Atelier de Soudure Gino Isabel Inc.', 'Atelier de soudure R.S. inc.', 'Atlas Polar Company Limited', 'Auto Light Atlantic Limited', 'Autobus Lion Inc (Lion Bus)', 'Autobus Thomas Inc.', 'Automated Rig Technologies Ltd.', 'Automobile Rainville (1975) Inc.', 'Aventure DY inc.', 'Avenue Lawn &amp; Leisure', 'Award Recreational Vehicles Inc.', 'Awatec Industries Inc.', 'B.D.J. Menard', 'BECKNER &amp; SONS LTD.', 'BENOIT GILBERT', 'BLACKRAIN ENERGY SERVICES LTD', 'BMB Products Ltd.', 'BWS Manufacturing Ltd.', 'BXL Bulk Explosives Limited', 'Baby Trend Inc. c/o FMD Service (Ontario) Inc.', 'Back Motor Bodies Inc.', 'Backwoods Trailers', 'Badger Daylighting Inc', 'Badger Truck Decks &amp; Services', 'Bar T5 (BC) Agra Services Inc.', 'Bargin Wrecker Supply Ltd', 'Barton Truck Centre Ltd', 'Bayview Boats Inc.', 'Beck Industries Ltd.', 'Bedard Tankers Inc./Citernes Bedard Inc.', "Berk's Intertruck LTD.", 'Berkelmans Welding &amp; Manufacturing Inc.', 'Best 4 Less Trailers Inc.', 'Bigfoot Industries (2010) Inc.', 'Bik Hydraulics LTD.', 'Black Gear Products', 'Blue Hills Trailer &amp; Fabricating Ltd.', 'Blue Sky Trailer Manufacturing Inc.', 'Boden Fabricating &amp; Metal Products Ltd.', 'Body Company Industries(BCI)', 'Bombardier Recreational Products Inc. - BRP', 'Boss Trailers', 'Boulder Metal Industries (2002) Inc.', 'Bourdeau Entreprise', 'Bradvin Trailer Sales Ltd.', 'Brandt Engineered Products Ltd.', "Braun's Welding &amp; Repair Ltd.", 'Breda Machinery Limited', 'Brian McIntyre', 'Bridgeview Mfg. Inc.', 'Britax Child Safety, Ltd.', 'Brodex Industries Ltd.', 'Bruce Coach Inc.', 'Built Right Utility Bodies Ltd.', 'Built-Tuff Trailers', 'Burnaby Hitch Ltd.', 'Burncrest Industries LTD', 'C-Extrem Inc.', 'C-Max Transportation Equipment', 'C.D. Jabbco Sales Ltd', 'C.E.M. Heavy Equipment Ltd.', 'C.T. Soudure Inc.', 'CAMIONS EXCELLENCE PETERBILT INC.', 'CAMIONS EXCELLENCE PETERBILT INC. (DRUMMONDVILE)', 'CAMIONS EXCELLENCE PETERBILT INC. (LAVAL)', 'CAMIONS HELIE (2003) INC.', 'CCS Corporation d.b.a. Concord Well Servicing', "CENTRE DE GESTION DE L'EQUIPEMENT ROULANT (CGER)", 'CENTRE DE R??PARATION HYDRAULIQUE HYDREP INC.', 'CFO Calgary Fleet Outfitters &amp; Supply Inc.', 'CITY WRECKER MFG SERVICE INC.', 'CJAY Trailers Inc.', 'CJC 2000 Inc.', 'CLYDE COOPER ENTERPRISES LIMITED', 'COIL SOLUTIONS INC.', 'COMET WELDING LTD.', 'CONTINENTAL RAILWORKS TECHNOLOGY I INC.', 'CTS Automotive Truck Repair Ltd', 'CVA CANADA INC.', 'CW Manufacturing Ltd.', 'Cadman Power Equipment Limited', 'Calco Equipment (BC) Ltd - (Edmonton)', 'Calco Equipment (BC) Ltd. (Delta)', 'Calgary Aluminum Fabricating &amp; Distributing Ltd.', 'Calgary Box and Hoist Ltd.', 'California Immobilizer Int. Ltd.', 'Cam-Concept inc.', 'Camex Equipment Sales &amp; Rentals Inc.', 'Camion International West Island Inc.', 'Camions Carl Thibault inc.', 'Camions Freightliner M.B. Trois-Rivi??res Lt??e', 'Camions Freightliner Quebec Inc.', 'Camions Freightliner et Sterling Drummondville Inc', 'Camions Inter-Anjou Inc.', 'Camions International Elite Ltee', 'Camions Sterling Western Star Mauricie Inc.', 'Camrose Machine &amp; Welding Ltd.', 'Can Am Cruisers Inc.', 'Can American Stone Spreader Ltd', 'CanDig Mini Excavators Inc.', 'Canada Trailers Manufacturing Limited', 'Canadian Chassis Corporation', 'Canadian Electric Vehicles Ltd.', 'Canadian Range Trailers Ltd.', 'Canadian Tire Corporation Limited', 'Canadian Towing Equipment', 'Canadian Truck &amp; Trailer Inc.', 'Cancade Company Ltd.', 'Canuck Trailer Manufacturing Ltd.', 'Capital Disposal Equipment 2001 Limited', 'Capital Rig Repair Ltd.', 'Capital Truck Bodies', 'Capital Truck Body &amp; Equipment o/a 755968 Alberta Ltd', 'Carbec Inc.', 'Cardigan Bearing &amp; Steel', 'Care Industries Ltd.', 'Carrier Truck Center (London)', 'Carrier Truck Center (Windsor)', 'Carrier Truck Center Inc (Brantford)', 'Carrier Truck Center Inc. (Woodstock)', 'Carrier Truck Centre Inc. (Sarnia)', 'Carrovic Inc', 'CarryMor Industries Corp.', 'Cast Away Manufacturing Ltd.', 'Castleton Industries Ltd.', 'Catherwood Welding &amp; Boiler Service Inc.', 'Caytec Equipment Ltd.', 'Celtic Pride Manufacturing Ltd', 'Central Automation Control (2006) Limited', 'Central Automotive Services Limited d.b.a. Cambridge Mack', 'Central Automotive Services Limited d.b.a. Performance Equipment Body Shop', 'Central Mechanical Ltd.', 'Central Truck Body Co. Ltd.', 'Centre Auto De Duberger inc.', 'Centre Hydraulique GMB Inc', 'Centre de Suspension Routiers Inc', 'Centre de Transmission J.D.H. inc.', "Centre de gestion de l'equipement roulant (CGER) (Trois-Rivi??res)", 'Centre du Camion Acton-Vale inc.', 'Centre du Camion Beaudoin Inc.', 'Centre du Camion Gamache inc.', 'Centre du Camion Mabo Inc.', 'Centre du Camion Pro Cam Saguenay Inc', 'Centre du Camion R.B. enr., div. de 144778 Canada inc.', 'Centre du Camion U.T.R. Inc.', "Centre du Camion d'Amos inc.", 'Centre du camion Denis inc.', 'Certified Custom Trailers Ltd.', 'Certiflo inc.', 'Chagnon &amp; Fils Incorporee', 'Challenger Manufacturing Ltd.', 'Charest Automobile Ltee.', 'Charlton &amp; Hill Welding Ltd.', 'Chinook Manufacturing Partnership', 'Cirbin Inc. dba Campagna Motors', 'Citerne Almac Tank International Inc.', 'Citernes Girard et Coulombe Inc', 'Citernes Hebert &amp; Fils Inc.', 'City of Calgary Fleet Services', 'City of Vancouver', 'Classic Van Conversion &amp; Accessories', 'Clek, Inc.', 'Co-Up Garage &amp; Towing Service', 'Cobra Trailer Manufacturing Inc.', 'Collins Manufacturing Co. Ltd.', 'Colonial Railings (2000) LTD.', 'Columbia Remtec Manufacturing', 'Command Industries Inc.', 'Commander Industries Inc.', 'Commercial Body Builders Ltd.', 'Commercial Truck Equipment Corp (Calgary)', 'Commercial Truck Equipment Corp. (Calgary)', 'Commercial Truck Equipment Corp. (Delta Head Office)', 'Commercial Truck Equipment Corp. (Edmonton)', 'Commercial Truck Equipment Corp. (Regina)', 'Commercial Truck Equipment Corp. (Surrey)', 'Commercial Truck Equipment Corp. (Woodstock)', 'Compac Equip. Mfg. Inc.', 'Complete Auto Centre -Div. of National Energy Equipment', 'Complete Oilfield Manufacturing Inc.', 'Complete Truck Maintenance Ltd.', 'Comptank Corporation', 'Concept Truck &amp; Trailer Ltd.', 'Conception Metavic Inc.', 'Concord Elevator (Ottawa) Ltd.', 'Conqur', 'Consbec Inc.', 'Construction Mobilco Ltee.', 'Consultants F. Drapeau Inc.', 'Convey-All Industries Inc.', 'Convoyeurs B.M.G. inc.', 'Coral International Truck Equipment Ltd.', 'Coral Oilfield Services Inc.', "Corcoran's Farm Supply Ltd.", 'Corporation Micro Bird Inc.', 'Cottrill Heavy Equipment (1005422 Ontario Ltd.)', 'Country Trailers Sales (1999) Ltd', 'Courtland Mobility Services Inc.', 'Courtney Berg Industries Ltd.', 'Covax Tank Company Inc.', 'Cow Poke Trailers', 'Cramero Trailers', 'Creative Carriage Ltd.', 'Creative Enterprises Inc.', 'Crestline Coach Ltd.', 'Cropac Equipment Inc.', 'Cropper Motors Inc.', 'Cubex Ltd.', 'Cummins Hydraulics Ltd', 'Curtis Trailers Mfg.', 'Cusco Fabricators Ltd.', 'Custom Coachwork Inc.', 'Custom Gravel Box Ltd.', 'Custom Welding Services', 'Custom Welding and Fabricating Ltd.', 'Customvac Services Ltd.', 'Cycle-Mate', 'Cypress Industries Ltd', 'D &amp; G Box &amp; Hoist Ltd', 'D &amp; L Double Cut Sawmills Ltd.', 'D &amp; M Koch Enterprises Ltd.', 'D-Line Trailers/Division of 3-D Line Locating Ltd.', 'D. Murphy Sport Boats', 'DAIMLER TRUCKS CANADA LTD.', 'DESIGN ARMORIC INC.', 'DEW Engineering &amp; Development ULC.', 'DGC Trailer Manufacturing and Sales', 'DISTRIBUTIONS MARANDA INC.', 'DJT Corporation', 'DK Manufacturing Inc.', 'DML Soudure Inc', 'DNOW CANADA ULC (FULL TILT)', 'DRAGON ENERGY SALES AND SERVICE, LLC', 'DRD Fabrications Inc.', 'DSML Welding &amp; Fabricating', 'Dan Wilkinson Welding Ltd.', 'Danchuk Trailer 2000', 'Darco Industries', "Dave's Welding", 'Davidson Trailers', 'De Cloet Ltd.', 'DeCap Trailer Mfg. Ltd.', 'DeMonte Fabricating Ltd.', 'Debway 2000 Ltd. d.b.a. Debway Truck Body Mfg &amp; Repair', 'Decca Industries Ltd.', 'Defined Designs Inc', 'Deloupe Inc.', 'Deluxe Van &amp; Body (1988) Ltd.', "Demers, Ambulance Manufacturer Inc. (Demers, Manufacturier D'Ambulances Inc.)", 'Dentech Meters and Electronics Ltd.', 'Dependable Truck &amp; Tank Ltd. d.b.a Dependable Emergency Vehicles', 'Di-Mond Sales Inc.', 'Diemo Machine Works Inc.', 'Diesel Equipment Ltd. d.b.a. DEL (Burlington,ON)', 'Diesel Equipment Ltd. d.b.a. DEL (Moncton,NB)', 'Diesel Equipment Ltd. d.b.a. DEL (Port Coquitlam, BC)', 'Diesel Equipment Ltd. d.b.a. DEL (Regina,SK)', 'Diesel Equipment Ltd. d.b.a. DEL (Toronto,ON)', 'Diesel Equipment Ltee. d.b.a. DEL(Dorval,QC)', 'Diono Canada, ULC', 'Distribution Alumico', 'Distribution DFT Canada Inc', 'Distribution Raynald Bertrand DRB inc.', 'Distribution et Services R.G. inc.', 'Diversabody', 'Dock Rite Boat Lifts Ltd.', 'Doepker Industries Ltd. (Annaheim)', 'Doepker Industries Ltd. (Burlington)', 'Doepker Industries Ltd. (Moose Jaw)', 'Doepker Industries Ltd. (Saskatoon)', 'Dollman Welding Ltd.', 'Don Adams Welding Ltd.', 'Donore Holdings Ltd.', 'Dorel Juvenile Canada', 'Double Don Properties Ltd', 'Double S Enterprises', 'Dowler-Karn Limited', 'Doyle Manufacturing', "Drake's Truck Box Sales Limited", 'Drive Products Inc', 'Drivetec Manufacturing Inc.', 'DryAir 2000 Inc.', "Dueck's Mechanical", "Dumonceau's Trailers dba Dumonceau's Custom Trailers", 'Duncan Trailer Ltd.', 'Durabody Industries Limited', 'Dust Check Mfg.', 'DyTerra Corporation (Headingley, MB)', 'DyTerra Corporation (Saskatoon, SK)', 'DyTerra Corporation(Ayr, ON)', 'Dymark Industries Inc.', 'Dymech Engineering Inc', 'Dynacorp Fabricators Inc. (Calgary, AB)', 'Dynacorp Fabricators Inc. (Grande Prairie, AB)', 'Dynahyd Equipment Ltd.', 'Dynamic Fibre Lt??e', 'Dynamic Specialty Vehicles Ltd.', 'Dynawinch Industries Ltd.', 'Dyson Trailers &amp; R.V. Ltd.', 'E &amp; H Hitch Shop a Div. of Erik Jensen Ltd.', 'EDMONTON TRAILER SALES &amp; LEASING LTD', 'EMB Mfg. Inc.', 'ENVIROMECH INDUSTRIES INC.', 'Eagle Industries Ltd.', 'Eagle Iron Industries', 'Eagle RV Services Ltd', 'Eagle Trailers (829100 Ontario Limited)', 'Eaglemate Motorcycle Trailers Ltd.', "Earl Hoover's Machine &amp; Welding Ltd.", 'Eastgate Truck Centre', 'Eastway Tank, Pump And Meter Limited', 'Eastway911 Emergency Vehicles Ltd.', 'Echelles C.E. Thibault', 'Eddynet Inc.', 'Edmonton Trailer Manufacturing Ltd.', 'Egebjerg Green Farmline Ltd.', 'Elfe Juvenile Products', 'Elite Aluminum Inc.', 'Elite Trailer Sales', 'Ella Ventures Ltd. d.b.a. BC Upfitters', 'Eloquip Ltd.', 'Eltik Design', 'Empire International Service Rigs Inc.', 'Endeavor Manufacturing Ltd.', 'Enduron/Custom Inc.', 'Enercraft Silva-Saw Ltd.', 'Enerflow Industries Inc', 'Energy Savers Inc.', 'Enervac Corporation', 'Entreprise Jocelyn Baril inc.', 'Entreprise Ramec Inc', 'Equifab Inc.', 'Equinox Industries Ltd', 'Equipement Incendie Levasseur', 'Equipements F.D.S. INC.', 'Equipements Lourds Papineau Inc.', 'Equipements Ouellet Ltee', 'Equipements R. Poulin Inc.', 'Equipements Tremzac Inc.', 'Equipements Woody Inc', "Erv's Oilfield Service Ltd.", 'Escape Trailer Industries', 'Euroway Industrial Service Co. Ltd.', 'Eveley Alignment &amp; Spring Service Limited', 'Evenflo Canada, Inc.', 'Exact Enterprises Inc. d.b.a. Victory Rig Equipment Corp.', 'Excel Materiaux Composites Inc.', 'Expertec Van Systems Inc.', 'Express Custom Trailer Mfg. Inc.', 'F&amp;R Steelcraft Industries Inc.', 'F.A.S.T. Industries Ltd.', 'FABMASTER LTD.', 'FCA Canada Inc. (Chrysler)', 'FINISH LINE INDUSTRIES LTD', 'FRF Fabrication Inc.', 'FRP Manufacturing Inc o/a (Fiberglass Canada)', 'FUSION PRODUCTION SYSTEMS INC.', 'Fabal Fabrication Ltd.', 'Fabrication Damsen Inc.', 'Fabrication Delta inc.', 'Fabrications DALJI Inc.', 'Fabrimex Inc.', 'Fabrinord Ltee.', 'Fabrox Inc.', 'Falcon Equipment Ltd.', 'Fanotech Waste Equipement Inc.', 'Farmbro Inc.', 'Federated Co-operatives Ltd', 'Fer Plus Enr.', 'Ferguson Thresher Company', 'Fericar Inc.', 'Fiba Canning Inc.', 'Fibermax Systems Inc.', 'Fibro Concept ??volution Inc.', 'Fifties Trailers Inc.', 'First Choice Upholstery', 'First Truck Center Inc. d.b.a. FTC South', 'First Truck Centre Inc. (Edmonton, AB)', 'First Truck Centre Inc. d.b.a. FTC Vancouver', 'Firsttrax Snowplows Ind.', 'Flat Boy Trailers Inc', 'Flint Energy Services Ltd.', 'Flo-Back Rental and Fabrication Ltd.', 'Flow Specialties Inc.', 'Ford Motor Company Of Canada Ltd.', 'Foremost Equipment LP', 'Foremost Industries Ltd.', 'Fort Fabrication &amp; Welding Ltd', 'Fort Garry Fire Trucks Ltd.', 'Fort Garry Industries Ltd.', 'Fortress Tank Services Limited', 'Fourgons Leclair Inc', 'Freightliner of Red Deer Inc.', 'Frontier Fabrication Ltd.', 'Frontier Power Products Ltd.', 'Fullerton welding Ltd.', 'G &amp; D Tank and Trailer Inc.', 'G &amp; M Trailers Ltd.', 'G. Hansen 2007', 'G. Levesque Holdings Ltd', 'G.F. TRUCK BODY MFG. INC.', 'G.M.C. Truck Center', 'G.T. MANUFACTURING &amp; WELDING (ST.PAUL) LTD.', 'G.W. Anglin Manufacturing Limited', 'GARAGE ADANAC INC.', 'GARAGE REN?? BERTRAND INC.', 'GBM Trailer Service Ltd.', 'GCI Environnement inc.', 'GORMAN-RUPP OF CANADA LIMITED', 'GRAZIER CUSTOM MANUFACTURING LTD.', 'GROUPE CAMBLI INC.', 'Garage Desfonds inc.', 'Garage Georges Trudeau Ltee', 'Garage Lague Ltee', 'Gard Manufacturing', 'Gauthier Paul', 'Genax Metal Manufacturing Limited', 'General Body &amp; Equipment Ltd.', 'General Motors of Canada Company', 'George C. Doerr Body &amp; Trailer Company', 'Germain Jette Machineries Inc.', 'Germanic Mfg. Ltd.', 'Gilles Pelletier Artisan Soudeur Enr.', 'Gilmet Fabricated Products Ltd.', 'Gin-Cor Industries Inc o/a Gingras Corriveau', 'Glacier Hydraulics Ltd', 'Glendale Industries Ltd.', 'Global Service Rig and Repair (2005) Ltd.', 'Glover International Trucks Ltd.', "Goldec Hamm's Manufacturing Ltd.", 'Golden Mobility &amp; Rehab Ltd.', 'Goldline Mobility &amp; Conversions', 'Gortech Inc.', 'Grainmaster Manufacturing Ltd.', 'Grande West Transportation International Ltd.', 'Great Lakes Recreational Vehicles', 'Great West Kenworth Ltd. (Clairmont, AB)', 'Great West Kenworth Ltd. (Head Office)', 'Great West Kenworth Ltd. (Lethbridge, AB)', 'Great West Kenworth Ltd. (Red Deer, AB)', 'Great West Van Conversions Inc.', 'Greene Flyer Inc.', 'Greenweld', 'GreyHighlands Industrial Inc.', 'Groupe Environnemental Labrie inc.', 'Groupe FCM Inc.', 'Groupe J.L. Leclerc Inc.', 'Groupe R.Y. Beaudoin inc.', 'Grunthal Welding &amp; Supplies Ltd.', "Guido's Custom Trailers", 'Gypsy Trailers Inc.', 'H &amp; D Trailer Manufacturing', 'H. &amp; H. Care Ltd.', 'H.R. Runciman &amp; Company Limited', 'HARLEY-DAVIDSON CANADA LP', 'HORIZON TRUCK &amp; BODY LTD.', 'HSC Fabrication Ltd.', 'HYDRODIG LTD.', 'Harper Ontario Truck Centers Inc.', 'Harvest Services (1995) Ltd.', 'Harvey &amp; Company Limited', 'Haul-All Equipment Ltd.', "Hauser's Machinery Ltd.", 'Hay River Heavy Truck Sales Ltd.', 'Hayshed Trailers Ltd.', 'Hayworth Equipment Sales Inc.', 'Hazeland Manufacturing Inc.', 'Heartwood Saw Company Ltd.', 'Heat Design Equipment Inc.', 'Heat Innovations Inc.', 'Hi Q Fabrication Ltd.', 'Hi-Tec Fuel &amp; Auto Ltd.', 'Hi-Tec Trailers', 'Hickman Motors Limited', 'Highliner Trailers Ltd.', 'Highwood Global Manufacturing Inc.', 'Hillary Production Machining Ltd.', 'Hino Motors Canada, Ltd.', 'Hitchman Trailer by Lordale Ltd.', 'Hitchman Trailers and Supply Ltd.', 'Hocan Industries Ltd.', 'Honda Canada Inc.', 'Horizon Trailers Ltd.', 'Horseshoe Trailer Mfg.', 'Hub Fire Engines &amp; Equipment Ltd.', 'Hutchinson Industries Canada Inc', 'Hydra Nor International Ltd.', 'Hydraco Industries Ltd', 'Hydralfor Inc.', 'Hyduke Drilling Solutions Inc. d.b.a. Go Getter Welding Ltd.', 'Hyduke Well Service Solutions', 'Hyland Limited', 'Hymec inc', 'Hyundai Auto Canada', 'II M Welding &amp; Fabricating', 'INNOCAR INC.', 'INTERNATIONAL TRUCK BODY INC', 'IRS Truck &amp; Trailer Repair Inc.', 'ISSI Inc.', 'Icon Manufacturing', 'Ideal Cargo Inc.', 'Imex Marketing Inc.', 'Imperial Coach Trailers', 'Incendo Welding and Fabrication', 'Indian Custom Cargo Trailers', 'Industrial Engines Ltd.', 'Industries B. Rainville Inc.', 'Industries J.N.P. enr.', 'Industries Lafleur Inc.', 'Industries N.R.C. Inc.', 'Inline Industries Ltd.', 'Innotec Inc.', 'Innovation Industrielle Boivin Inc.', 'Innovative Trailer Design Industries Inc.', 'Insight Manufacturing Inc.', 'Inter-Boucherville inc.', 'Intercontinental Truck Body (B.C.) Inc.', 'Intercontinental Truck Body Ltd.(AB)', 'Interior R.V. Products Inc.', 'International Fabricating and Machining Inc.', 'Interprovincial Truck Body Corporation', 'Inventive Marine Products Ltd.', 'Irontech Rig Repair and Manufacturing Inc.', 'J. BOND &amp; SONS LTD.', 'J.C. Trailers And Equipment Ltd.', 'J.D.J. Trailer Manufacturers Inc.', 'J.R.W. Trailer Company', 'J.Z.K. Sales &amp; Service Ltd.', 'JEAN PAUL LECOURS LIMITED', 'JHG Metalworks', 'JJ Trailers Manufacturers and Sales Ltd.', "JP's Sales, Service &amp; Repair Ltd.", 'JSD TRUCK REPAIRS LTD.', 'JSW Manufacturing Inc.', 'JT Fabrication Ltd', 'Jackqueline Lockwood As Lockwood Trailer', 'Jacques Legault Welding Ltd.', 'Jamco Trailers a Division of MacLellan Welding Ltd', 'Jays Trailers', 'Jean-Marc Brissette inc.', 'Jensen Auto Body Inc. d.b.a. Jensen Trailer Sales &amp; Service', 'Jesler Enterprises Inc.', 'Joe Johnson Equipment Inc. (Head Office)', 'Joyride Lifts', 'Jroberts International Inc.', 'Junction RV Inc.', 'K-Line Maintenance &amp; Construction Limited', 'K-Line Trailers Ltd.', 'KAL TIRE (Alberta) LTD.', 'KID Trailer And Equipment', 'KRM Metal Products Ltd.', 'KSAD INC.', 'KSM Inc.', 'Kargo-Max Trailer Enclosures Ltd.', 'Kargotec Management Inc.', 'Kelly Trailers Inc.', 'Kemble Mountain Welding', 'Kente Enterprises Div. Of 349895 Ont.ltd', 'Kenworth Quebec inc.', 'Kerr Industries', 'Kevin Busque Inc', 'Kids Embrace c/o Trillium Sales &amp; Distribution Inc.', 'King Cobra Oilfield Services (Drumheller Ltd.)', 'Kingpin Trailers Ltd.', 'Kino Mobility Inc.', 'Kirby International Trucks Ltd. (Hamilton, ON) d.b.a. Altruck International Truck Centers', 'Kirby International Trucks Ltd. (Kitchener, ON) d.b.a. Altruck International Truck Centers', 'Knight Trailer Sales Inc.', 'Kruzer Motorcycle Trailers', 'Kwik Load Products Ltd.', 'L &amp; B Moore Co. Ltd.', 'L &amp; S Beck Enterprises', "L'Equipe Labrie Inc.", 'L. Asselin Inc.', 'L. Smith Industries Ltd.', 'L.E.S. Pro inc', 'L.T.S.  Enr.', 'LBC Contracting Ltd.', 'LES ??QUIPEMENTS POLYTEK INC.', 'LINK SUSPENSIONS OF CANADA, LIMITED PARTNERSHIP', 'LITE INDUSTRIES INC.', 'LITO GREEN MOTION', 'La Compagnie Normand Limitee', 'Lambton Fleet Maintenance Inc', "Landry's Truck Body Manufacturer Ltd.", 'Langfab Fabricators Ltd.', 'Larry Walsh', "Larry's Custom Trailer Manufacturing Inc.", 'Lazer Inox Inc.', 'Le Carrossier Rive-Sud Inc.', 'Le Centre Routier 1994 Inc', 'Le Centre du Camion (Amiante) inc.', 'Le Centre du Camion (Beauce) Inc.', 'Lejeune Engineering', 'Lennox Welding &amp; Supply Ltd.', 'Leo Lavoie &amp; Fils (1976) Ltee.', 'Les Ateliers FLPH Ltee', 'Les Ateliers MCG de Charlevoix Inc.', 'Les Ateliers Richard Tardif', 'Les Bras De Fer Gingras Inc', 'Les Camions Beaudoin Inc.', 'Les Contenants Durabac inc.', 'Les Distributions G.A.P. Inc.', 'Les Entreprises Damris inc.', 'Les Entreprises Ga??van Inc.', 'Les Entreprises H.M. Metal Inc.', 'Les Entreprises JGM Enr.', 'Les Entreprises Jo-He', 'Les Entreprises M. St-Hilaire Enr.', 'Les Entreprises M.C.R. Soudure Inc.', 'Les Equipements Decoste Inc.', 'Les Equipements Reka inc.', 'Les Equipements Twin (1980) Lt??e', 'Les Fabrications A.R.H. Ste-Melanie Inc.', 'Les Fabrications Daunais Inc.', 'Les Fourgons Nortech Inc.', 'Les Fourgons PME Ltee.', 'Les Fourgons Rive-Sud Inc.', 'Les Fourgons Transit Inc.', 'Les Industries Halrai Inc.', 'Les Industries Jack, Div. Auto-Decor Matane Inc.', 'Les Industries Wajax Limitee (Lachine)', 'Les Installations Am??Cam', 'Les Machineries St-Jovite inc.', 'Les Plastiques Flexibulb', 'Les Produits Denray Inc', 'Les Produits Fraco Ltee/Fraco Products Ltd.', 'Les Quais Beaulac Inc.', "Les Quais De L'Estrie Inc.", 'Les Remorques C.F.D.', 'Les Remorques Fleur-Maggs Enr.', 'Les Remorques Jelano', 'Les Remorques Megcass inc.', 'Les Remorques Pliantes DR Inc.', 'Les Ressorts Pour Vehicules Industriels Laval Inc.', 'Les Roulottes Prolite Engr.', 'Les Systemes Erin Ltee/Erin Systems Ltd.', 'Les Voitures Robert Inc.', 'Les modification de camions Tardif &amp; Fils Inc', 'Les remorques JD inc.', 'Les remorques TORX', 'Liberty Motor Company (The)', 'Linetech Design &amp; Mfg. Ltd.', "Linkletter's Welding Ltd.", 'Llomar Trailers 1998 Ltd.', 'Load Line Incorporated', 'London Machinery Inc.', 'Lonestar Welding', "Lorne's Welding &amp; Fabricating Ltd.", 'Lowey Enterprises Ltd.', 'Lucanus Mobility Aids', "Luke's Welding", 'Lyncorp Manufacturing Ltd.', 'M &amp; A Welding', 'M &amp; M Development Ltd.', 'M &amp; R Machines (2000) Ltd.', 'M-R-O RV Services Inc.', 'M. Tucci Construction Ltd.', 'M.G.H. Welding Ltd.', 'M??canique CGL inc.', 'M??cano Alca inc.', 'M??tallomax Inc.', 'MAX-INF (Ningbo) Baby Product Co., Ltd. (for Harmony Juvenile Products)', 'METRO FREIGHTLINER HAMILTON INC.', 'METRO TOW TRUCKS LTD.', 'MFTA Canada Inc (Mitsubishi Fuso Truck)', 'MICRON INDUSTRIES INC.', 'MID-COUNTRY SALES &amp; SUPPLY INC.', 'MID-ONTARIO DIESEL LIMITED', 'MID-ONTARIO TRUCK CENTER', 'MJS Fabricating', 'MORGAN CANADA CORPORATION', 'MRG Industries Inc.', 'MTB Mfg. Inc.', 'MUST Technologies Ltd.', 'MYSHAK SALES &amp; RENTALS LTD.', 'MacDonald Equipment Sales', 'Maccabee Tanks Ltd.', 'Machinerie Agricole Bois-Francs inc.', 'Machinerie Anderson', 'Machinerie G. Simard Inc.', 'Machinerie L??pine inc.', 'Machinerie Laurin Inc.', 'Mack Sales &amp; Service of Manitoba Ltd.', 'Mack Sales and Service of Stoney Creek Ltd.', 'Magma Welding Ltd.', 'Magnum Trailer &amp; Equipment Inc.', 'Mahadev Metal Works &amp; Fabrication', 'Main St. Woodworkers &amp; Marine Supply', 'Mainstream Manufacturing Inc.', 'Maisons SRM Blondeau Homes Inc.', 'Majestik Trailer', 'Malley Industries Inc.', 'Malmberg Truck Trailer Equipment Ltd.', 'Mammoth Trucks Corporation', 'Manac Inc.', 'Mar-Jo Welding &amp; Mechanical Services Ltd.', 'Marathon Equipment Inc.', 'Marboral Ltee', 'Marcep Manufacturing Ltd.', 'Marine Cradle Shop Inc.', 'Marion Trucking Ltd.', 'Mark Manley', 'Marl Technologies Inc.', 'Marshall Truck &amp; Trailer Repair Ltd.', 'Max Load Trailers Inc.', 'Max-Atlas Equipment International Inc.', 'Maxfield Inc', 'Maxi-Metal Inc.', 'Maxi-Roule Inc.', 'McCoy Corporation (Edmonton West end)', 'McCoy Corporation (Edmonton south side)', 'McCoy Corporation (Fort St-John)', 'McCoy Corporation (Red Deer)', 'McGrath Contracting LTD.', 'Medatech Engineering SVC. Ltd', 'Mega-Stage Inc.', 'MegaService R.G.', 'Meltrail (2002) Inc.', 'Mesures Calib-Tech inc.', 'Metal Grenier Ltee', 'Metal Laroche Inc.', 'Metalfab Ltd.', 'Metro Trailer Sales o/a Metro Centre Ltd', 'Micada Farm and Industrial Ltd.', 'Michel Gohier Ltee.', 'Midland Manufacturing Limited', 'Miklyn Mobile Service Inc.', 'Millcosteel', 'Miller Technology Inc.', 'Millroad Manufacturing &amp; Sales INc.', 'Millstone Heating &amp; Sheet Metal Ltd.', 'Milron Metal Fabricators Inc.', 'Minoru Truck Bodies Ltd.', 'Mobile Fibreglass Ltd.', 'Mobilift Inc.', 'Montreal Hydraulique 04 inc.', 'Morskate Manufacturing Ltd', 'Mory Inc.', 'Motor Coach Industries Limited (MCI Canada)', 'Motorises Star Suites Inc./Star Suites Motorhomes Inc.', 'Mountain Road Sales', 'Mowat Fabrication Ltd.', 'Muirhead Manufacturing Ltd.', 'Mulltech Industries Ltd.', 'Multi National Supply Canada Ltd.', 'Multivans Inc. (Bolton)', 'Mumby Manufacturing Ltd.', 'Mustang Trailers &amp; Welding', 'N &amp;  N Remorques Inc.', 'N.L.T. Fabrication', 'NOVILCO INC.', 'NRTC Inc.', 'Nahanni Industries Ltd.', "Nando's Trailer Mfg.", 'National Energy Equipment Inc (BC)', 'National Energy Equipment Inc (NS)', 'National Energy Equipment Inc (ON)', 'National Energy Equipment Inc (SK)', 'National Energy Equipment Inc. (MB)', 'National Energy Equipment Inc. (NB)', 'National Energy Equipment Inc. (NF)', 'National Oilwell/Hitec Systems and C</t>
         </is>
@@ -557,11 +565,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -620,12 +628,15 @@
         <v>66</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>11355</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>1428</v>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>['104', '11', '115', '117', '128', '132', '138', '14', '157', '158', '159', '163', '169', '171', '18', '180', '190', '199', '2', '201', '207', '214', '23', '232', '242', '249', '250', '252', '256', '271', '279', '28', '297', '3', '307', '309', '33', '330', '345', '346', '348', '38', '388', '394', '40', '402', '408', '417', '436', '439', '443', '461', '47', '471', '475', '477', '48', '485', '491', '501', '509', '51', '510', '532', '533', '543', '549', '561', '565', '567', '581', '582', '593', '598', '5HZ', '604', '627', '629', '63', '634', '655', '714', '715', '718', '729', '748', '771', '82', '821', '845', '863', '867', '885', '89', '896', '897', '901', '904', '912', '913', '927', '928', '930', '931', '933', '936', '942', '944', '950', '954', '961', '963', '964', '972', '975', '977', '979', '98', '981', '984', '985', '986', 'A05', 'A06', 'A13', 'A23', 'A26', 'A29', 'A35', 'A40', 'A49', 'A54', 'A56', 'A58', 'A67', 'A69', 'A74', 'A79', 'A82', 'A84', 'A87', 'A88', 'A95', 'B19', 'B23', 'B24', 'B25', 'B32', 'B42', 'B59', 'B61', 'B75', 'B77', 'B85', 'B88', 'B89', 'B94', 'B98', 'C03', 'C11', 'C30', 'C32', 'C37', 'C50', 'C51', 'C56', 'C57', 'C61', 'C64', 'C68', 'C72', 'C76', 'C78', 'C94', 'D04', 'D35', 'D50', 'D58', 'D76', 'D96', 'E08', 'E12', 'E14', 'E16', 'E18', 'E19', 'E25', 'E27', 'E31', 'E32', 'E38', 'E39', 'E40', 'E45', 'E61', 'E66', 'E69', 'E70', 'E75', 'E81', 'E82', 'E97', 'F01', 'F04', 'F06', 'F08', 'F18', 'F22', 'F27', 'F29', 'F31', 'F33', 'F34', 'F37', 'F39', 'F43', 'F44', 'F46', 'F49', 'F50', 'F52', 'F71', 'F76', 'F78', 'G03', 'G07', 'G09', 'G13', 'G17', 'G18', 'G25', 'G27', 'G34', 'G36', 'G45', 'G48', 'G49', 'G56', 'G57', 'G62', 'G63', 'G65', 'G71', 'G77', 'G83', 'G88', 'G89', 'G93', 'G96', 'G97', 'H01', 'H02', 'H04', 'H12', 'H13', 'H14', 'H16', 'H17', 'H19', 'H25', 'H28', 'H30', 'H33', 'H36', 'H37', 'H41', 'H45', 'H47', 'H55', 'H57', 'H60', 'H62', 'H63', 'H67', 'H68', 'H69', 'H71', 'H72', 'H73', 'H74', 'H76', 'H77', 'H78', 'H83', 'H85', 'H86', 'H89', 'H93', 'H94', 'H95', 'H96', 'H97', 'I02', 'I13', 'I15', 'I16', 'I20', 'I21', 'I23', 'I25', 'I27', 'I28', 'I32', 'I33', 'I34', 'I36', 'I37', 'I38', 'I40', 'I43', 'I44', 'I49', 'I51', 'I54', 'I56', 'I57', 'I59', 'I60', 'I64', 'I65', 'I66', 'I67', 'I68', 'I70', 'I71', 'I73', 'I74', 'I75', 'I76', 'I79', 'I80', 'I81', 'I83', 'I84', 'I87', 'I88', 'I89', 'I93', 'I95', 'I96', 'I97', 'I98', 'I99', 'J04', 'J08', 'J10', 'J11', 'J12', 'J13', 'J14', 'J15', 'J18', 'J20', 'J21', 'J24', 'J26', 'J27', 'J29', 'J30', 'J31', 'J32', 'J34', 'J35', 'J37', 'J39', 'J41', 'J43', 'J45', 'J47', 'J49', 'J51', 'J52', 'J53', 'J54', 'J55', 'J58', 'J63', 'J64', 'J65', 'J66', 'J67', 'J72', 'J73', 'J75', 'J76', 'J78', 'J80', 'J81', 'J82', 'J83', 'J85', 'J87', 'J89', 'J90', 'J91', 'J92', 'J93', 'J94', 'J95', 'J96', 'J97', 'J98', 'K01', 'K02', 'K03', 'K04', 'K07', 'K08', 'K09', 'K11', 'K12', 'K13', 'K15', 'K16', 'K18', 'K20', 'K22', 'K24', 'K28', 'K30', 'K31', 'K33', 'K35', 'K36', 'K37', 'K38', 'K42', 'K45', 'K46', 'K48', 'K49', 'K50', 'K52', 'K53', 'K54', 'K55', 'K56', 'K59', 'K60', 'K61', 'K62', 'K63', 'K67', 'K73', 'K78', 'K79', 'K80', 'K81', 'K82', 'K83', 'K87', 'K89', 'K92', 'K94', 'K95', 'K96', 'K97', 'K98', 'L04', 'L05', 'L06', 'L08', 'L12', 'L13', 'L14', 'L16', 'L17', 'L18', 'L22', 'L23', 'L24', 'L25', 'L27', 'L28', 'L30', 'L31', 'L32', 'L35', 'L36', 'L39', 'L42', 'L43', 'L44', 'L45', 'L46', 'L47', 'L49', 'L51', 'L55', 'L56', 'L57', 'L59', 'L61', 'L62', 'L66', 'L69', 'L71', 'L72', 'L74', 'L75', 'L77', 'L78', 'L80', 'L81', 'L82', 'L83', 'L84', 'L85', 'L86', 'L87', 'L89', 'L91', 'L94', 'L95', 'L96', 'L97', 'L98', 'L99', 'M01', 'M04', 'M07', 'M08', 'M09', 'M10', 'M11', 'M12', 'M13', 'M16', 'M19', 'M21', 'M23', 'M24', 'M25', 'M28', 'M29', 'M30', 'M33', 'M35', 'M36', 'M37', 'M38', 'M39', 'M41', 'M42', 'M43', 'M44', 'M45', 'M46', 'M47', 'M48', 'M49', 'M50', 'M51', 'M52', 'M55', 'M56', 'M57', 'M58', 'M60', 'M62', 'M63', 'M64', 'M65', 'M66', 'M67', 'M69', 'M70', 'M71', 'M73', 'M74', 'M75', 'M78', 'M79', 'M81', 'M82', 'M83', 'M84', 'M85', 'M86', 'M87', 'M88', 'M89', 'M90', 'M91', 'M92', 'M93', 'M94', 'M96', 'N01', 'N02', 'N03', 'N04', 'N06', 'N07', 'N08', 'N09', 'N11', 'N13', 'N14', 'N15', 'N17', 'N18', 'N20', 'N21', 'N23', 'N24', 'N25', 'N26', 'N28', 'N29', 'N30', 'N31', 'N32', 'N33', 'N35', 'N36', 'N37', 'N38', 'N40', 'N41', 'N42', 'N43', 'N44', 'N47', 'N48', 'N49', 'N50', 'N51', 'N53', 'N55', 'N56', 'N57', 'N59', 'N61', 'N62', 'N63', 'N64', 'N65', 'N66', 'N69', 'N70', 'N71', 'N73', 'N74', 'N75', 'N76', 'N77', 'N79', 'N80', 'N81', 'N82', 'N83', 'N84', 'N85', 'N86', 'N89', 'N90', 'N91', 'N93', 'N95', 'N96', 'N97', 'N99', 'P02', 'P03', 'P04', 'P05', 'P06', 'P08', 'P09', 'P12', 'P14', 'P15', 'P16', 'P17', 'P18', 'P22', 'P23', 'P24', 'P25', 'P28', 'P29', 'P30', 'P31', 'P35', 'P36', 'P37', 'P38', 'P39', 'P40', 'P41', 'P42', 'P44', 'P45', 'P46', 'P47', 'P48', 'P50', 'P51', 'P52', 'P53', 'P55', 'P56', 'P57', 'P60', 'P61', 'P62', 'P63', 'P66', 'P67', 'P68', 'P69', 'P70', 'P71', 'P72', 'P73', 'P74', 'P75', 'P76', 'P77', 'P79', 'P80', 'P81', 'P83', 'P84', 'P85', 'P86', 'P87', 'P88', 'P89', 'P91', 'P92', 'P94', 'P95', 'P96', 'P97', 'P98', 'P99', 'R01', 'R02', 'R04', 'R05', 'R06', 'R07', 'R08', 'R09', 'R10', 'R12', 'R13', 'R14', 'R15', 'R16', 'R18', 'R19', 'R20', 'R21', 'R22', 'R23', 'R24', 'R25', 'R26', 'R28', 'R29', 'R30', 'R31', 'R33', 'R34', 'R35', 'R36', 'R37', 'R38', 'R39', 'R40', 'R41', 'R42', 'R43', 'R44', 'R45', 'R47', 'R48', 'R49', 'R50', 'R51', 'R53', 'R54', 'R58', 'R59', 'R60', 'R61', 'R62', 'R63', 'R64', 'R65', 'R66', 'R68', 'R69', 'R70', 'R72', 'R73', 'R74', 'R75', 'R76', 'R77', 'R78', 'R79', 'R80', 'R81', 'R82', 'R83', 'R84', 'R85', 'R86', 'R87', 'R88', 'R89', 'R90', 'R91', 'R92', 'R93', 'R94', 'R95', 'R96', 'R97', 'R98', 'R99', 'T01', 'T02', 'T03', 'T04', 'T05', 'T06', 'T07', 'T08', 'T09', 'T10', 'T11', 'T12', 'T13', 'T20', 'T21', 'T22', 'T24', 'T25', 'T28', 'T30', 'T31', 'T32', 'T33', 'T34', 'T35', 'T38', 'T41', 'T42', 'T44', 'T45', 'T47', 'T48', 'T49', 'T50', 'T51', 'T52', 'T53', 'T54', 'T56', 'T57', 'T58', 'T59', 'T60', 'T62', 'T65', 'T66', 'T67', 'T69', 'T70', 'T71', 'T72', 'T73', 'T74', 'T75', 'T76', 'T77', 'T78', 'T79', 'T81', 'T82', 'T83', 'T85', 'T86', 'T87', 'T88', 'T89', 'T90', 'T92', 'T93', 'T95', 'T96', 'T97', 'T99', 'U01', 'U02', 'U03', 'U07', 'U09', 'U10', 'U11', 'U12', 'U13', 'U14', 'U15', 'U16', 'U18', 'U19', 'U20', 'U21', 'U22', 'U23', 'U24', 'U25', 'U26', 'U29', 'U30', 'U31', 'U32', 'U33', 'U34', 'U36', 'U37', 'U38', 'U40', 'U41', 'U42', 'U43', 'U44', 'U45', 'U46', 'U47', 'U48', 'U49', 'U50', 'U51', 'U52', 'U53', 'U55', 'U56', 'U57', 'U58', 'U59', 'U61', 'U62', 'U63', 'U65', 'U66', 'U67', 'U68', 'U69', 'U71', 'U72', 'U73', 'U74', 'U75', 'U76', 'U77', 'U78', 'U79', 'U80', 'U81', 'U82', 'U83', 'U84', 'U85', 'U86', 'U87', 'U88', 'U89', 'U90', 'U91', 'U92', 'U93', 'U94', 'U95', 'U96', 'U97', 'U98', 'U99', 'V01', 'V02', 'V03', 'V04', 'V07', 'V08', 'V09', 'V10', 'V11', 'V12', 'V13', 'V14', 'V15', 'V16', 'V17', 'V18', 'V20', 'V21', 'V22', 'V23', 'V24', 'V25', 'V27', 'V28', 'V29', 'V30', 'V31', 'V32', 'V33', 'V34', 'V35', 'V36', 'V37', 'V38', 'V39', 'V40', 'V41', 'V42', 'V44', 'V45', 'V46', 'V47', 'V48', 'V49', 'V50', 'V51', 'V52', 'V53', 'V54', 'V56', 'V57', 'V58', 'V59', 'V60', 'V62', 'V63', 'V65', 'V66', 'V67', 'V68', 'V69', 'V70', 'V71', 'V72', 'V73', 'V74', 'V75', 'V76', 'V77', 'V78', 'V79', 'V81', 'V82', 'V83', 'V84', 'V85', 'V86', 'V87', 'V88', 'V89', 'V90', 'V91', 'V92', 'V93', 'V94', 'V95', 'V96', 'V97', 'V98', 'V99', 'W01', 'W03', 'W04', 'W05', 'W06', 'W07', 'W08', 'W10', 'W11', 'W12', 'W13', 'W14', 'W16', 'W18', 'W19', 'W20', 'W21', 'W22', 'W23', 'W24', 'W25', 'W26', 'W27', 'W28', 'W29', 'W30', 'W31', 'W32', 'W33', 'W34', 'W35', 'W36', 'W37', 'W38', 'W39', 'W40', 'W41', 'W42', 'W43', 'W44', 'W45', 'W46', 'W47', 'W48', 'W49', 'W50', 'W51', 'W52', 'W53', 'W54', 'W55', 'W56', 'W57', 'W58', 'W59', 'W60', 'W61', 'W62', 'W63', 'W64', 'W65', 'W66', 'W67', 'W68', 'W69', 'W70', 'W71', 'W72', 'W73', 'W74', 'W75', 'W76', 'W77', 'W78', 'W79', 'W80', 'W81', 'W82', 'W83', 'W84', 'W85', 'W86', 'W87', 'W88', 'W89', 'W90', 'W91', 'W92', 'W93', 'W94', 'W96', 'W97', 'W98', 'W99', 'X01', 'X02', 'X03', 'X04', 'X05', 'X06', 'X07', 'X08', 'X09', 'X10', 'X11', 'X12', 'X13', 'X14', 'X15', 'X16', 'X17', 'X18', 'X19', 'X21', 'X22', 'X23', 'X24', 'X25', 'X26', 'X27', 'X28', 'X29', 'X30', 'X31', 'X32', 'X33', 'X34', 'X35', 'X36', 'X37', 'X38', 'X40', 'X41', 'X43', 'X44', 'X45', 'X46', 'X47', 'X48', 'X49', 'X50', 'X51', 'X52', 'X53', 'X54', 'X55', 'X56', 'X57', 'X58', 'X59', 'X60', 'X61', 'X62', 'X63', 'X64', 'X65', 'X66', 'X67', 'X68', 'X70', 'X71', 'X72', 'X73', 'X74', 'X75', 'X76', 'X77', 'X78', 'X79', 'X80', 'X81', 'X82', 'X83', 'X84', 'X85', 'X86', 'X87', 'X88', 'X89', 'X90', 'X91', 'X92', 'X93', 'X94', 'X95', 'X96', 'X97', 'Y03', 'Y04', 'Y05', 'Y06', 'Y07', 'Y08', 'Y09', 'Y10', 'Y11', 'Y12', 'Y13', 'Y14', 'Y15', 'Y16', 'Y17', 'Y18', 'Y19', 'Y20', 'Y21', 'Y22', 'Y23', 'Y24', 'Y25', 'Y26', 'Y27', 'Y28', 'Y29', 'Y30', 'Y31', 'Y32', 'Y34', 'Y35', 'Y36', 'Y37', 'Y38', 'Y39', 'Y40', 'Y41', 'Y42', 'Y43', 'Y44', 'Y45', 'Y47', 'Y48', 'Y49', 'Y50', 'Y51', 'Y52', 'Y53', 'Y54', 'Y55', 'Y56', 'Y57', 'Y58', 'Y59', 'Y60', 'Y61', 'Y62', 'Y63', 'Y64', 'Y65', 'Y66', 'Y68', 'Y69', 'Y70', 'Y71', 'Y72', 'Y73', 'Y74', 'Y75', 'Y76', 'Y77', 'Y78', 'Y80', 'Y81', 'Y82', 'Y84', 'Y85', 'Y86', 'Y87', 'Y88', 'Y89', 'Y90', 'Y92', 'Y93', 'Y94', 'Y95', 'Y96', 'Y97', 'Y98', 'Z01', 'Z02', 'Z03', 'Z05', 'Z06', 'Z07', 'Z08', 'Z10', 'Z11', 'Z12', 'Z13', 'Z14', 'Z15', 'Z16', 'Z17', 'Z18', 'Z19', 'Z20', 'Z21', 'Z22', 'Z23', 'Z24', 'Z25', 'Z26', 'Z27', 'Z28', 'Z29', 'Z30', 'Z31', 'Z32', 'Z33', 'Z34', 'Z35', 'Z36', 'Z37', 'Z38', 'Z39', 'Z40', 'Z41', 'Z42', 'Z43', 'Z44', 'Z45', 'Z46', 'Z47', 'Z48', 'Z49', 'Z50', 'Z51', 'Z52', 'Z53', 'Z54', 'Z55', 'Z56', 'Z57', 'Z58', 'Z60', 'Z61', 'Z62', 'Z63', 'Z64', 'Z65', 'Z66', 'Z67', 'Z68', 'Z69', 'Z70', 'Z71', 'Z72', 'Z73', 'Z74', 'Z75', 'Z76', 'Z77', 'Z79', 'Z81', 'v61']</t>
         </is>
@@ -638,11 +649,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -697,12 +708,15 @@
         <v>3391</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>22302</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>76</v>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>['2007 - GSR 400, GSR 600, GSRPT- service rigs &amp; pump truck', '3390', '5th Wheel trailers', '5th Wheel, flatdeck', '5th wheel trailers.  SR', 'All RIG  equipped trailers are CMVSS 223 compliant.', 'All RIG equipped trailers are CMVSS 223 compliant', 'All RIG equipped trailers are CMVSS 223 compliant\n\n\n\nWMI Codes:\n\n2R9 144 - trailers\n\n2J9 037 - trucks\n\n2A9 138 - trailer conv dollies', 'All RIG equipped trailers are CMVSS 223 compliant.', 'All RIG equipped trailers are CMVSS 223-RIG compliant - CTEA generic RIG program.', 'All RIG equipped trailers are CMVSs 223 compliant.', 'All trailers that Haultec manufacturers are wheels back.', 'Also Mfg flat deck car haulers DB July 19, 2003.', 'Armored vehicles', 'Astro/Safari infloor lift;\n\nRaised roofs by Kino;', 'Authorized to import under National Safety Mark X19 child restraint systems and booster seats manufactured in China by MAX-INF (Ningbo) Baby Product Co., Ltd. (formerly Ningbo Winwin)', 'CMVSS 223 - RIG exempt', 'CMVSS 223 EXEMPT AS PER SECTION 2(C)', 'CMVSS 223 compliant', 'Cadillac XTS conversions 7", 24", 44", 70"\n\nLincoln MKT conversions 44", 70", 120"', 'Chrysler mini-vans raised roof back from the "B" pillar, in floor lift, taxi.', 'Company is also performing "raised roof" conversions.', 'Drill rigs from the ground up and air brake trailers for the oil field. DB', 'Fire Trucks', 'Fire truck', 'Flat decks on chassis.', 'Flatbeds and service bodies.', 'Ford travel van conversions', 'Formerly o/a Ningbo Winwin, manufactures child restraint systems and booster seats in China for importation into Canada by 4187229 Canada Inc. dba Harmony Juvenile Products under National Safety Mark X19', 'Importer for Apramo, Kukuxumusu, Sparco products', 'Importer for Britax, BOB products', 'Importer for Chicco and Nuna products', 'Importer for Diono, Little Tikes, and formerly Sunshine Kids products', 'Importer for Evenflo and Snugli products', 'Importer for Graco products', 'Importer for Safety 1st, Cosco, Eddie Bauer, Maxi-Cosi products', 'Importer for TeamTex (Fisher Price, Ferrari, Barbie, Hot Wheels) and UPPABaby products', 'Installs Winter maintenance equipment (Snowplows, Sidewing, V-Box, Sander, Dump bodies, PTO) DB', 'Installs petroleum tanks', 'LSV', 'Low chassis trailers - CMVSS 223 - RIG exempt.', 'Mahadev is an alterer specializing in the modification of completed/compliant vehicles so as to render them wheelchair accessible.', 'Manufactures boat, snowmobile and small tent trailers. DB (from RDIM) July 16, 03.', 'Manufactures drilling rigs', 'Manufactures motorcycle trailers.', 'Member of CTEA generic RIG program.', 'Mfg firetrucks D.B. Sept 30, 2004', 'Mfg rear dump trailers', 'Mfg trailers that are used to heat buildings or tents for construction', 'Mfg, gravel dump trailers', 'Mud tank trailers. DB June 21, 2005.\n\n\n\nAll RIG equipped trailers are CMVSS 223 compliant.', 'NSM application in process 4-Nov-2002. Request proceeded by S. Lalime', 'No more new ambulances, adaptation dissable transportation, special vehicles. All altered vehicles are 0 to 50 000km. 60% of total production used 40% new.', 'Oil Field trailers', 'Pup Dump trailers.', "RIG's are CMVSS 223 compliant", "RIG's are CMVSS 223 compliant.", 'Right-hand drive', "Steel RIG's are CMVSS 223 compliant.\n\n\n\nAluminum RIG's only to be fitted to tanker trailers.", 'TRUCKS:\n\nFront &amp; Rear Loader Garbage Trucks, Roll-offs.\n\n\n\nTRAILERS:\n\nRoll-offs, Pups, Frameless dumps.', 'They are an International Truck dealer', 'This company manufacturers and installs transfer seats in vehicles modified for persons with disabilities.', 'Trailers for transporting coiled wire.', 'Transformation of trucks, installation of equipment on heavy trucks. Extend or shorten  chassis. Box of trucks, tatters, deck, topple over dumpsters, snow shoveling systems , articulated common cranes, valve systems, spreaders.', 'Triple E Recreational Vehicles A Division of Triple E Canada Ltd.', 'Truck:  4000, MT 350 &amp; VT 650', 'Van and flat decks', 'Vehicles modified for physically challenged individuals.\n\nChrysler and GM Pontiac Montana mini-van, raised roof / dropped floor + extended doors.', 'Vendor permit number', 'Whelbase alteration, body/equipment installation, fifthwheel installation on International Class 8 7000 &amp; 8000, Volvo serie VHD, Sterling serie LT9500, Freightliner serie Colombia &amp; model M2, Peterbuilt serie 340, 365 &amp; 367, Western Star serie 4900, Kenworth model T800, Mack CT-713 &amp; CV-713', 'Windstar rear entry wheelchair accessible vans', 'all RIG equipped trailers are CMVSS 223 compliant', 'company has 3 WMI codes\n\n2HS - Truck Tractor\n\n2HT - Incomplete Straight Truck\n\n2HV - Incomplete Bux', 'mfg Water supply trailers.', 'see others', 'trailers manufactured are CMVSS 223 exempt']</t>
         </is>
@@ -715,11 +729,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -774,12 +788,15 @@
         <v>3521</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>31245</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>49</v>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>['5th Wheel et remorque plateforme.', "Anciennement connu sous Ningbo Winwin, fabrique des syst??mes de retenue pour enfants et des si??ges d'appoint en Chine pour l'importation au Canada par la compagnie 4187229 Canada Inc. dba Harmony Juvenile Products en vertu de la Marque nationale de s??curit?? X19", "Autoris?? ?y importer en vertu de la Marque nationale de s??curit?? X19 des syst??mes de retenue pour enfants et des si??ges d'appoint fabriqu??s en Chine par MAX-INF (Ningbo) Baby Product Co., Ltd. (anciennement connu sous Ningbo Winwin)", 'CAMIONS:\n\nCamions ?y d??chets ?y chargement avant et arri??re, Roll-offs.\n\n\n\nREMORQUES:\n\nRoll-offs, Pups, Frameless dumps.', "Camionnettes Windstar avec acc??s pour fauteuils roulants ?y l'arri??re", 'Camions de pompier', 'Caravanes 5th Wheel', "Cette compagnie s'occupe aussi de la conversion de  to??ts sur??lev??s.", 'Conduite du c??t?? droit', 'Demande de MNS en cours. 4-Nov-2002. Traitement de la demande fait par S. Lalime', 'Dispositifs de protection arri??re conformes ?y NSVAC 223.', 'Exempt?? de la norme NSVAC 223 (dispositif de protection arri??re)', 'Fabrique aussi des plateformes pour le transport de voitures.\n\nD.B. 19 juillet 2003.', "Fabrique des camions d'incendie.\n\nD.B. 30 septembre 2004.", 'Fabrique des plateformes de forage.', 'Fabrique des remorques ?y d??charge arri??re.', 'Fabrique des remorques ?y motocyclette.', 'Fabrique des remorques pour approvisionnement en eau', 'Fabrique des remorques pour motocyclettes.', 'Fabrique des remorques servant ?y la d??charge de gravier.', 'Fabrique des remorques utilis??es pour le chauffage des ??difices ou des tentes, dans le domaine de la construction.', 'Importateur pour les products Britax, BOB', 'Importateur pour les produits Apramo, Kukuxumusu, Sparco', 'Importateur pour les produits Chicco et Nuna', 'Importateur pour les produits Diono, Little Tikes, et anciennement Sunshine Kids', 'Importateur pour les produits Evenflo et Snugli', 'Importateur pour les produits Graco', 'Importateur pour les produits Safety 1st, Cosco, Eddie Bauer, Maxi-Cosi', 'Importateur pour les produits TeamTex (Ferrari, Barbie, Hot Wheels) et UPPABaby', 'Installe des r??servoirs de p??trole', 'Les dispositifs de protection arri??re sont conformes ?y NSVAC 223.', "Les remorques ??quip??es d'un dispositif de protection arri??re sont conformes ?y la norme NSVAc 223.", 'Les remorques fabriqu??es sont exemptes de NSVAC 223.', "Les remorques munies d'un dispositif de protection arri??re en acier sont conformes ?y NSVAC 223.\n\n\n\nSeules les remorques citernes peuvent ?|tre munies d'un dispositif de protection arri??re en aluminium.", "Les remorques munies d'un dispositif de protection arri??re sont conformes ?y NSVAC 223.", 'Mahadev se sp??cialise dans la modification de v??hicules complets et conformes aux NSVAC en v??hicules accessibles pour les fauteuils roulants.', "Modification d'empattement, installation de bo??te et equipements, installation de sellette d'attelage sur International Class 8 7000 &amp; 8000, Volvo serie VHD, Sterling serie LT9500, Freightliner serie Colombia &amp; modele M2, Peterbuilt serie 340, 365 &amp; 367, Western Star serie 4900, Kenworth modele T800, Mack CT-713 &amp; CV-713", 'Modification de v??hicules\n\npour personnes handicap??es, Chrysler, GM, Pontiac Montana mini-van, toit sur??lev?? / planchers abaiss??s + portes agrandies.', 'Remorques "5th wheel". SR', 'Remorques ?y bas chassis - exemptes de NSVAC 223.', "Remorques de r??servoir de boue\n\nDB 21 juin, 2005.\n\n\n\nToutes les remorques munies d'un dispositif de protection arri??re sont conformes ?y NSVAC 223.", 'Remorques pour transporter des rouleaux de fil ??lectrique.', "Toutes les remorques ??quip??es d'un dispositif de protection arri??re sont conformes ?y la norme NSVAC 223.", "Toutes les remorques ??quip??es d'un dispositif de protection arri??re sont conformes ?y la norme NSVAC 223.\n\n\n\nCodes WMI:\n\n2R9 144 - remorques\n\n2J9 037 - camions\n\n2A9 138 - chariots de conversion", "Toutes les remorques munies d'un dispositif de protection arri??re sont conformes ?y NSVAC 223.", "Transformation de camions, installation d'??quippement sur camions lourds. Allonge ou raccourci chassis. Bo??te de camions, haillons, plate-forme, Bennes basculantes, syst. de pelle ?y neige, grues articul??es, syst??mes de valves, ??pandeuses.", 'V??hicules ?y basse vitesse.', "V??hicules Astro / Safari ??quip??s d'un levier int??gr?? au plancher.\n\n\n\nV??hicules Kino ?y to??t sur??lev??", 'camions incendie']</t>
         </is>
@@ -792,11 +809,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -855,12 +872,15 @@
         <v>14</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>72056</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>1617</v>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>['#1 - 2720 12th Street N.E.', '#1 - 7861 Hwy 97N', '#1 7884-49 Avenue', '#1 Cardinal Street', '#1 Greengage Road', '#1 Legacy Junction, Hwy 13/56', '#1 Silversage Road', '#1, 1915 - 30th Avenue North East', '#10 Forwell Road', '#107-20693 Langley Bypass', '#12, 3939 54th Avenue S.E.', '#120, 10569 - 42th Street SE', '#170 Hwy 83 North', '#30, 53016 Hwy# 60', '#301 26730 56th Avenue', '#306-5327-192nd  Street', '#4 - 7187 Honeyman Street', '#4 4440-75Ave. SE', '#5-7880-128 Street', '#54 - 37337 Burnt Lake Trail', '#7 - 1231 - 36th Avenue N.E.', '#7-3815 - 61St Avenue South East', '#8, 4 Erickson Crescent', '#9 - 1065 Herring Gull Way', '#9 Laut Cres Box 602', '#Bay 101, 4528 - 6A Street North East', '#NAME?', '07 Robinson Road  RR# 1', '1  Norpark Drive RR#4', '1 1/2 miles east of Hwy 21/595 jct near Delburne', '1 Av. Premier', '1 Elmvalley Road', '1 Lower Malpeque Road', '1 Quai Mgr Blanche, hangar no. 6', '1 Reed Avenue', '1 Royales Avenue', '1 Schenk Industrial Road', '1 Solvay Drive', '1 rue Du Parc', '1, rue Pinat', '1-1340 Stevens Road', "10 Boul. de L'Artisan", '10 Chemin de la Grande-Carriere', '10 Herritage RD', '10 Miles W. On Hwy #2', '10 Montana St', '10 Sicard St.', '10-B Li??bert', '100 - 10500, 48 Street S.E.', '100 Blvd. Real Caouette', '100 Burland Crescent', '100 Canola Ave.', '100 East Beaver Creek Road', '100 Pierrot', '100 Shirley Avenue', '100 Street', '100, rue Cormier', '1000 6th Avenue N.E.', '1000 boul. Industriel', '1000, rue Industrielle', '1001 Coutts Way', '1002 - 15 Ave Nisku', '1005 Pattullo Avenue, R.R. 8', '1006 Principale', '1007 South Service Road', '1008, Rte Mgr.-Bourget', '101 Columbus', '101 Marius Warnet', '101 Oakdale Road, Unit 10', '101 Place G??rard-Poirier, Complexe S.D.B.J.', '1018 Lansdowne St.', '102 - 485 Warren Ave. East', '102 Dawson Road, P.O. Box 3003', '102, rue du Menuisier', '102, rue du Parc Industriel, Case postale 70', '1020 17th Street West', '1020 Rue Craig Nord', '10240 Bl. L??vesque', '1026 Western Dr. Box 830', '1028 Laut Avenue', '103 - 3141 Gill Avenue', '103 Avenue', '103 Paramount Rd', '1030 Fernand-Dufour', '1035 Falconbridge Road', '1035, Rte. 219', '1038, Commerciale', '1040 Degurse Drive', '10401 Boul. Parkway', '1041 rue Nobel', '1043 rue Renault', '1047, rue Capri', '10498 17 Street', '105  MacDonald Street North', '1051 Heritage Road', '1053 Brock Road South', '1055 Line 3 South', '1056 hwy 6 North', '10571 - 178th Street', '106 Avenue', '106 Avenue South East', '106-6249 205th Street', '10620-205 Street', '1064, boul. Mgr-de-Laval', '10647 McSween Road', '1069 Route 133', '107 - 2707 Progressive Way', '1070 Gorham St', '1071 Hwy 7 East RR# 7', '1077 Hwy 26', '10774 - 42nd St SE', '1080, Chemin des Prairies', '10816 Plank Road R.R. #1', '1084, Rue L??vis', '10847 Scott Road', '1090 South Service Road East, Unit A', '1091 Manitoba Street', '1091, rue Principale', '10920 - 87 Avenue', '1093 Lorimar Drive', '1093 Smithers Road', '1095 St-Albert Road', '1096, L??vis , unit?? #3', '11 500, 57 ieme Avenue', '11 Queensway', '11, Rue Dupuis', '110 Boul. Desjardins', '110 Lowson Crescent', '110 Street', '110 route du lac St-Francois', '110, 41 Royal Viste Drive North West', '1100 Aviation Avenue', '1100 Fairville Blvd.', '1100 Rue Deschaillons', '1100 Rue Norman', '1100 Wall Street', "1100 de l'Industrie", '11003 - 97 Avenue', '11025 184 Street N.W', '1106 Broughton Street', '1114 Route 138', '1115 Cushman Road, Unit 46', '1116, rue Durance', '1119 -48th Street SE', '112 Avenue NW', '112 route 155', '1120 Industrial Drive P.O. Box 1271', '1121 Heritage Road', '1121 Heritage Road.', '1123 Lorimar Drive', '11313 - 170th Street', '114 Thomas Maher', '11416 Winterburn rd.', '1143 Route 500 West', '11434 154 St. NW', '115, St-Georges', '11500, 55e Avenue', '11520 - 2 Street N.W.', '11525 - 42 Street SE', '11525 - 42nd Street South East', '1155 rue George-H-Boulay', '1159 Des Pionniers', '116 Sunterra Heights', '116 Thorne Ave', '11634 - 156 Street', '11634 - 7th Street', '11635 6e avenue', '11650 - 156 Street NW', '1169 Pettit Rd.', '11700 Boul. St-Jean- Baptiste', '11740 Phillipe-Panneton', '1180 Aerowood Drive', '1184 Middlegate Rd.', '1185 Roland Street', '1186 route 321 Nord', '11860 Machrina Way', '11938 Imperial Road, R.R. #4', '119A 39015 Highway 2A', '11th Street', '12 Chelsea Lane', '12 McGregor Ave', '12 Norbett Drive, Units 2 &amp; 3', '12, Rang St-Andre', '120 boul. Industriel', '1200 McIntyre Street', '1200 McIntyre Street`', '1200, rue Nationale', '1201 Route 329 Nord', '1202 8th Street, Bay 18', '12020 - 101 Avenue', '12031 Vulcan Way', '1205B - 36th Street North', '1206, du pacifique', '121 B, rue Principale', '12145 - 156 Street', '12145 Dorchester Rd. (RR #7)', '12145 Meridian St', '1215 Victoria', '1220 Franklin Blvd.', '1222 58th Avenue SE', '12235 William Short Road', '1225 64TH Ave N.E.', '122nd Avenue, South East', '123 Old Highway 11 North', '123 Princess Street', "1234, rue de l'??glise", '12343A - 104th Avenue', '123rd Avenue North West', '12404-107th Street', '1245, rue Labadie', '12455, rue April', '1250 Gorham Street', '1250, Notre-Dame', '1250, boulevard V??zina', '126 Wheeler Street', '126, boul. Notre-Dame', '12605 - 66 Street', '1265 McDonald Street', '1266 Sharpe Line', '12731 Hwy #48', '12747 Hwy 16 E.', '129 Oakwood Street', '12A 2337 Townline Road', '130 Canada St, PO Box 2008', '130 Millwick Drive', '130 route 335', '1301 Jackson Side Road', '1304 rue Principale', '131 Staffern Drive', '13105 rue Jean-Grou', '1312 Plank Road', '1313 rue de Saint-Jovite', '13143 Country Road 16', '1318 rue Principale', '132 Montee Grande Ligne', '133, Industrial Park Road', '1330 Riverside Road', '1345 Franklin Street', '1345 Industrial Rd., Westside Industrial Park', '135 6th East', '135 Canada Street', '135 McNarmara Drive', '1351 Ampere Local-0', '1351 Ampere, Suite 1', '1351 Lionel-Boulet', '13594 Sabo Road', '136 Highway 33, R.R. #3', '1360 Bloor Street West', '1360 Rang 6 Nord', '1365 Alberni Highway', '1365 Border Street', '1365 Midland Avenue, Unit 90', '1368 Rymal Rd E', '139 Laird Drive', '13920 Tecumseh Road R.R. #5', '1395 Route 139', '1399 Waterton Avenue', '14 Ferry Road', '14 Hallett Crescent', '14 Mont??e Petite C??te', '14 ch. Grande Ligne', '1405 - 41 Street North', '1405 - 41st Street North', '1407 Colborne Street East', '1415 39 Street North', '1417 Notre Dame Drive  RR#1', '143, Route 108', '14355 - 120 Avenue', '1439, Rang 1', '144 Henderson Drive', '1440 1??re Avenue', '1445 Graham-Bell', '145 Damasse-Breton', '145 Falcon Street', '145 Roe Avenue', '1451, boulevard Industriel', '1461 Star Top Rd.', '14650-118th Ave.', '1467 Spitfire Place', '1470 Star Top Road', '1470 Willson Place', '14701 14 Ave Crowsnest Pass', '1475 Clarence Avenue', '149 Bentley Avenue', '1498 Midland Avenue', '15 Ilsley Avenue', '15 Iris Crescent', '15 Johnson Cres.', '15 Kenyon Street', '15 Robbins Drive', '15 rue Dutilly', '150 Cree Crescent', '150 route 112', '150, rue Edward-Assh', '1503 Petrolia Line RR#1', '151 Bullis Road', '151 Thornhill Drive', '1511 Sparrow Drive', '1511 rue J??rome-Hamel', '1520 Charles Street', '15210 Yellowhead Trail', '1523 Ross Ave.', '1525 County Road 42, RR#2', '152b Oakdale Rd', '153 Autumnwood Drive', '15303-94 Street', '1540 Saskatchewan Avenue', '15410 Yellowhead Trail', '1548 County Road 34', '155 Dawson Road', '155 Glenn Avenue', '155, Marie-Victorin', '1550 Highway 39 East', '156 Berryman Ave', '157, rue Principale', '1571 Liverpool Court', "15790 Robin's Hill Road", '158 Old Vernon Road', '15816 - 111 Avenue', '1588 King Edward Street', '15935A 118th Avenue', '1596 Vella Road', '16 Estate Drive', '160, rue Savard', '160, rue des Routiers', '1600 Springfield Road', '1602 Western Street', '16079, boul. Cure-Labelle (route 117)', '161 Deerhide Crescent Unit #3', '161 rue Sylvestre', '16105 Hwy #27 PO Box 209', '1616 Meridian Road N.E.', '162 Boulevard Mercier', '16230 188th Ave. NW', '1630 Matheson Blvd E, Unit 4', '1630, Route Kennedy', '16320, rang St-Dominique', '1634 Stittsville Main Street', '164, Mgr. Martin', '1640 Enterprise Road', '16440 130th Ave', '165 Magill Street', '165 Thames East', '1650 The Queensway', '1651 - 12th Street', '1655 Hymus Blvd.', '1655 boulevard de Port Royal', '166 North Murry Street - Box 682', '166 rue Sylvestre', '166 rue du Carrefour', '16615 Post Rd', '16657 - 111 Avenue', '16703 - 110 Avenue North West', '16715 114th Avenue', '16830 111th Avenue', '1690 rue Eiffel', '16A Second Street', '17 - 199 Omands Creek', '17 rue des Pins', '17-1-15 NE', '170 Joseph Zatzman Drive, Unit 18', '1715 Britannia Road East', '1718 - Hwy. #6 North, R.r. #2', '1720 boulevard St-Charles', '1730 rue Atmec', '17303 - 114 Avenue', '175 Gordon Baker Road', '175 Pinedale Avenue', '175 Route 104', '175, route du Pont', '1750 Brown Road', '1750 West 75th Avenue', '1755 rue Janelle', '1759 Trafalgar Street', '176 McGovern Drive, R.R. #32', '17604 105th Avenue', '1772 Broadway Street', '1775 Drew Road', '1781 Bresse', '17817 Leslie Street, Unit 16', '1783 Oxford Street, Unit #5', "18 Dundee Avenue Suite #1 (Donovan's Ind. Park)", '18 Mountshannon Dr.', '180 Hodsman Rd.', '180 Honda Blvd.', '1801 Bleams Rd', '18020 - 118 Avenue', '1803 Ryan Road East', '1805-10 Avenue SW', '181 Bay Street', '18110 - 118 Avenue', '182 Darling Drive', '182 Morin', '1825, rue Power', '1830A Cage Court', '1831 Barton St.', '1836, 3e avenue', '1839 Seymour St. Site 9, Comp. 11, RR# 3', '1840 Gage Court', '1840 Kryczka Place', '18410-118a Avenue North West', '18412 96th Ave', '1845 route 122', '1850 Derry Road East', '1855 boul. Queen Victoria', '18550 - 96 Avenue', '186 Main Street', '18688 96th Avenue', '1895, Boul. Frontenac Est', '18th Ave', '19 Industrial Street', '19, Gaston-Dumoulin', '19, rue C??t??', '190 Commercial Place', '1900-800 - 5th Avenue S.W.', '1904 4th street', '1908 Colonel Sam Drive', '191 Dalton Avenue', '1911 East Bypass Road', '1914 Glover Road', "1915 boul. de L'Industrie", '1919 - 84th Ave', '19315 96 Ave', '1940 Albion Road', '19405 Enterprise Way', '19439 94th Avenue', '19470 - 96th Avenue', '195 Citation Dr.', '1951 Wilfert road', '19548 - 96 Avenue', '1955 Caribou Street West', '1955 West Trans. Canada Hwy.', '196 Armand Bombardier', '1960 Barton Street East', '1963 Kingsway Avenue', '1995 Merivale Road', '19992 Fraser Hwy, Unit 102', '1??re rue', '1st Street South, P.O. Box 1124', '2 - 418 South Railway Street South', '2 Arrowsmith Road', '2 McIlveen Drive', '2 Robert Speck Parkway, Ste. 765', '2, boulevard Marie-Victorin', '2, rue du Parc', '2-331 Parkdale Road', '20 Alness Street', '200 Ellis Drive, Acheson Industrial Park', '200 Horsman Road', '200 Moulinette Road', '200 Street', '200 Waydom Drive', '200 mont??e Industrielle', '200 rue Damasse Breton', '200, rue Savard, C.P. 6', '2000 Boul. Ste Sophie', '2000 Langstaff Road', '2000, avenue M??thot, C.P. 333', '2001 1st Avenue', '201 Woodlawn Road', '201 blvd Labb?? N # 6', '201-1492 Admirals Road', '2010 Riverside Drive', '20141 Logan Ave', '20165 Logan Avenue', '202, 26229 TWP 531 A (Zone 2 Industrial Area)', '2020 Bantree St.', '2025 Lechatelier', '2028 Dundas Street', '2035 Bedell', '205 Boulevard Saint-Sacrement', '205 Konrad', '205 Miner', '205 rue Commerciale', '2054 Birch Crescent S.E.', '2066 Henry Avenue West', '2070 Concord Avenue', '20701 Unit 211 Langley Bypass', '2089 Rte. 132', '2091 Baseline Road', '20940 - 107 Ave.', '20th Avenue SE', '21 Antares #205', '21 rue Gauthier', '21 rue Notre Dame', '210 Tank St.', '2101, rue Chicoine', '21010-108 Avenue North West', '2106 Francis-Hugues', '2107 6th avenue', '2107 E Turvey Road', '2111 - 9th Avenue S.W.', '2119 Tramway', '2120 95ieme rue', '2124 Robinson Street', '213 Charlesworth Ave.', '2142 Country Road #16', '215 Tecumseh Street', '215 Terr Riopel', '2168 Springfield Road', '2170 Winston Park Drive', '2177 Plains Road East', '2180 Yonge St.', '22 Chemin Milton', '220 Patillu Road. RR #1', '2202 Hanselman Ave.', '2204-84 Ave', '221 Route du Village', '2215 8th avenue', '2215 Ave. Francis Hughes', '2215 Midland Avenue', '2223 Drummond Line', '223 Bodia Ave', '2230 McCullough Road', '22321 Labonte Ave.', '225 Nugget Avenue, Unit 14', '225 Oxford', '225 route 265 N.', '225, Ave. St-Sacrement', '2250 rue St-Jean', '226 Lesmill Rd.', '2275 Rue Canadien', '2275, 107 i??me Rue', '229 11th Avenue, North East', '2290 rang Versaille', '23 Boivin', '230 King St. East', '230 Yorktech Drive', '2300 Haines Road', '2307 Kings Rd', '231 Highway 17 East', '231, St-Antoine Nord', '2311 Highway 28, RR7', '2315 Boul. Wallberg', '2315 Douglas Road', '232 South Service Rd', '2324 Place Du Gala', '232A Woolwich Street, South', '2337 Bowman Street', '234 Glenarm Road', '235 - 3rd avenue', '235 Rue Principale', '2359 Boul. Fiset', '236, rue St-Calixte', '2380 Rue Dalton', '2390 South Service Road West', '24 Peet Street PO Box 8340, Stn A', '24 Yvon Provost', '24 du Village', '240 Chemin de la Forge', '240-103rd Street', '2400 Kirby Road', '2400A Autoroute Transcanadienne', '2401 Gottselig Rd.', '241 Bluewater Road', '242 NE 5-9-9W', '2430 Principale', '2435 Eagle Street North', '2439 Riverside drive', '244 Lake Avenue', '2441 rue Lupien', '245 Transport Road P.O. Box 4, Group 582, RR #5', '2450 Cohen Street', '2453 Chemin de Chambly', '2458 Highway 11', "246 Cooper's Road", '2490 Baseline Road, RR#8', '2492 Cedar Creek Road R.R. #1', '2499 Industrial Street', '25 - #8 Centennial Road', '25 Chemin De La Minerve', '25 Heritage Road', '25 Slack Rd', '250 West 70th Ave.', '250 rue Industrielle, local 10', '250, 2i??me Avenue', '2500 Boulevard  McWatters', '2500 Georges Street', '25084 Highway #3 East', '251, Rg St-Jean-Baptiste', '252 Saratoga Road', '2521 Inkster Boulevard', '2523 Fire Route O', '2525 Inkster Blvd.', '2525, rue Watt', '253 rue Principale', '2541 Country Court', '255 Rutherford Road South', '2590 Blackwell Street', '25975 Woodbine Ave.', '260 Dunkirk Road', '2607 North Yorke river road', '261 Binnington Court', '261 Bowes Road', '2612 Robison Rd.', '26162 30A Ave.', '26180 31B Avenue', '26230TH Avenue', '2625 Meadowpine Blvd.', '2628 Edinburgh Place', '2633 Bath Street', '26416 TWP RD 531A', '265 Rue Etienne-Dubreuil', '2651 Markham Road', '268, St-Antoine', '2680 B Boulevard Hamel Ouest', '2699 5ieme Ave., Boite Grouper 14', '270 Lacerte', '2705, Boulevard Wilfrid-Laurier', '27137 S. Hwy 33', '2717 rue Watt, Parc Colbert', '272 Oak Point Service', '2725 Belisle Drive', '273 County Rd #29', '273 Highway 29', '27360 - 58th Crescent', '2749 Thompson Road P.O. box 918', '275 Boul Industriel Est C.P. 443', '275 Carrier Drive', '275 Clarence Street', '275 Waterloo Ave.', '2753 Simcoe Road #27', '2759 Lancaster Road', '279 East 1st Street, Box 1158', '279 Norseman Street', '279, Route 204', '2793 Carp Road', '28 Boul. Richelieu', '2801-84th Ave', '28055-D de la cote Nord', '281 Main St. Hwy # 3, Box 401', '2814 Barton Street Est', '2820 84th Avenue', '282020 Grand Valley Road', '2827 - 30th Avenue', '28419 Ranch Avenue', '285 Boul. Edouard VII', '2865 Rte 112', '287 Mountain Road', '289 McLean Avenue', '29, rue Laroche', '2901 Rue Watt', '2903 Shuttle St.', '2909 Rue Bergman', '291 Young Road, R.R. # 8', '2920 Concession 21, R.R. #2', '2930 Pasqua St N', '2945 Millar Avenue', '295 Pinebush Road', '295, Rte. 165', '2957, boulevard P??re-Leli??vre', '2e Rang', '3 King Streeet West', '3 Main Street', '3 Marconi Court', '3-1140 Sheppard Ave. West', '30 Alpine Court', '30 Hanbury Street', '300 Doepker Avenue', '300 Rue Du Parc', '300 St-Fran??ois-Xavier', '300, rue Alexis-Poirier', '300, rue Quennville C.P. 759', '300,rue des Pins Ouest,', '300-19325-96 Avenue', '3000 Ament Line', '3000 rue Girardin', '301 Aqueduct Street', '301 Roblin Blvd', '301 chemin Lavaltrie C.P. 27', '302 Mill Street', '302 Portage Avenue', '3024 49 Avenue S.E.', '3025 Sandhill Road', '3025 Sandhills Road', '303 20630 Mufford Cresent', '303 Dunlop Street', '303 Station Road', '3044 Sawmill Rd', '305 Enford Road', '3050 Kilpatrick Road', '3050, rue Anderson', '30686-A Matsqui Place', '3074 Sawmill Road', '308 River View Cresent', '30817 Zone Road #8', '3091 Albion road', '31 Torbarrie Road', '310 rue Metivier #110', '3100 Boul. Jean-Jacques Cossette', '3104 Hampton Street', '3111  Shepard Place South East', '312 St George Avenue', '3128 Hope Place, R.R. #1', '313 Princess Street', '314 Lake Avenue North', '315 Park Avenue East', '3175 Mccallum Road', '3175 boulevard du Royaume', '3183 rue Harvey', '319 St. Jaques', '32 rue Industrielle', '3210 Swansea Cres. #6', '322 Rue Principale', '322 Totom Court', '325 Line 13 North RR #1', '325 Mud Street, R.R. #3', '325 Welland Avenue, Unit #8', '325 Weston Road, Unit 2D', '325, boul. Industriel', '3250  46th Avenue S.E.', '3255, Rue Picard', '327 Julien Street', '328, rue Adam', '3280 Wharton Way', '33 Maplecrete Road', '330 Saulteaux Crescent', '330 South Service Road', '3306,boul des entreprises', '331 Highway 12 North', '3311 B Millar Ave.', '3323 Hart Highway', '333 10th Street', '333 Bay Street, Suite 2400', '3332 - F River Rd.', '3348 Harvester Road', '335 Broadway Street, P.O. Box 189', '336 Birch Avenue', '336 Kenora Ave.', '3377 Gershaw Drive South West', '34 Golden Gate Court, Unit #10', '340, 12e Rue', '340, Marie Currie', '342, Henry - Bessemer', '3423 Millar Avenue', '3429 Hawthorne Road', '344 Fruitland Road', '3444 rue du Transport', '3445 Miners Ave.', '345 Finchdene Square', '345 Hwy 20, R.R. #3', '3455 Pembina Hwy', '3455 Wolfedale Road', '34640 Currie Place', '34709 Talbot Line', '35 Hale Road', '35 Standford Flemming Drive', '35 Sunnyhurst Avenue, Unit 8', '35 rue Beaulac Inc.', '35, De La B??tonni??re', '35, De Montgolfier', '350 Allen Avenue', '3500 Cite des Jeunes', '3543 Rue Principale', '3543 rue Principale', '356 Industrial Drive', '358 Rte 138', '36 Street SE', '3600, boul. Industriel', '3624 Hwy 209 (P.O. Box 35)', '3632 Boulevard des H?|tres', '3660 - 50th Avenue SE', '367 Boul. Chabot', '368 Main Street', '369 Quebec Street', '37 Raglin Place', '37 Sylvan Way', '370 Ecclestone Drive PO Box 870', '3705 route 108 Est', '37089 Talbot Line R.R. 3', '371, Grand Bernier Nord', '3731, Route 111 Est', '3737 Boulevard Lite', '375, Rue T??miscouata, C.P. 998', '3751 Highway 97', '38 Main St.', '38 Rue St-Anne', '38, boulevard Bernard', '38, rue Thibault', '3800 Boulevard Gene-H.-Kruger', '3805, La V??rendrye', '38207 Regional Road 25-1', '3850, Boulevard Leman', '38547 Huron Street West, R.R. #2', '3855, 5e Avenue', '3855, rue Georges-Corbeil', '386 Park Avenue', '389 rue Notre-Dame', '3904 - 78 Avenue', '3904-78 Avenue', '391 Alliance Avenue', '391 St. Jean Baptiste Nord', '3914 81st avenue', '3915 - 52 Street Close', '3965, rue Qu??bec Central', '3995, 2 Avenue North', '39E Avenue', '3rd Avenue South', '4 Blackmore Avenue', '4 Progress Drive', '4, chemin De Vimy', '4-7621 Edgar Industrial Drive', '40 Automatic Road', '40 Commerce Crescent', '40 Nixon Road', '40 Oswald Drive', '400 Dunlop Street West', '4000, quatri??me Rue', '401 - 18th Avenue', '401 9th St North Box 179', '401 Pido Road', '4013 Boileau Road', '4015 rue Carpentier', '402 MULOCK DR', '4024 Charles Street', '404 Meridian Road NE', '4040 Brandon Street South East', "4049 St. Margaret's Bay Road", '405 Van Buren St.', '407 - 22 Avenue', '407 Farnham Road', '407568 Grey Road 4   RR 1', '41 Carmella Drive', '41 Claireville Drive', '41 Granger Avenue', '4102 - 44th Avenue', '4110 - 76 Avenue', '4114 Crozier Road', '4115 18th Avenue North', '412-1, 3e Rue', '4131 Morris Drive', '4144 Christophe Colomb', '415 Monument Place SE', '4153 Hwy 38', '4164 New Street', '42 Avenue', '42 James Street, Unit #15', '42 Merit Crescent, Unit #2', '42 Newcombe Crescent', '42 des Entreprises', '4200 Sladeview Cres', '4200, des Castors', '4205 Voie de Desserte Est, Autoroute 13', '422 Lake Road, South Industrial Park', '423 Dakota Road', '42nd Avenue', '430 NEAVE COURT', '430, rue Cantin', '4303 - 69 Avenue', '431 Henry Street', '4313 76 Avenue NW', '433 58 Ave SE', '4342, Boulevard Bourque', '43841 Talbot Line RR #3', '4397 Wellington Street South', '44 Aaron Trail', '44 Poneida Road', '44 Trial', '4410 50 STREET', '4420 76 Avenue', '4425 76th Avenue', '44467 Yale Rd.', '445, boul. Industriel', '448 CR 34 East, R.R. #2', '4490, Av. des Industries', '450 1 Avenue', '450 Desautels Street P.O. Box 792', '450 Talbot Street', '450 rue de Vernon', '451 Kennedy Road', '451 Route 116 Est', '4514 - 46 Ave.', '4515 6A Street NE', '4523 - 50 Street', '4528 6A street N.E., bay 105', '455 Main Street South', '45681 Yale Road W.', '4575 Powell Road', '4580, Mont??e Gagnon', '459 Industrial Road', '460, St-Isidore', '4612 19th Avenue North West', '4618 Boulevard St. Joseph', '465 Bloor Street West', '465 Second Line East', '4680 boulevard Frontenac Est', '46th Street', '47 Bleams Road', '47 Canada Avenue', '470, Route 116 est', '4715 76th avenue South-East', '4715 Christie Drive', '4721, 50th Street, Suite #1', '4731 78A STREET CLOSE', '475 Prince Charles Drive South', '475 avenue Pruneau, porte 8', '475 rang St-Joseph', '476 Haut de la Chute', '476, rang 2-3 Ouest', '477 Aspdin Road', '48 Ardelt Ave', '48 Avenue', '480 - 7 Stree N.E.', '4800-27th Street S.E.', '4802 - 57th Avenue', '4807 82nd Avenue', '481 Madison Street', '4811 - 51 Avenue', '483 Rennie Street', '4841 - 78 Street', '485 Chemin Rivard', '487 rue Principale', '4870, rue de Courval', '488 Rue St. Pierre', '4880 Walker Road', '489 Abelard-Savoie Boulevard', '490 Highway 17', '4900 Golf Course Road', '4909-48 Street', '4910 - 80 th Avenue S.E.', '4919, Marie-Victorin', "492 de L'Esplanade", '4924 - 49th Street', '493 St. Amable', '4975 8th Concession Road', '4985 - 72 Avenue SE', '4985 Polkey Road', '499 Manitoba Road', '5 Tangiers Road', '50 Industrial Street', '50 Main Street', '50 McKenzie Road', '50 Northland Road, suite 400', '50 St-Jude Sud', '50, chemin du Tremblay', '500 Rte 220', '500 Waydom Drive', '501 - 24 Avenue', '5013 48th Street', '502 23A Avenue', '5024, 47th Avenue', '505 Kenora', '5075 De La Plaisance', '51 Street South East', '510 Whissel', '5112-49 Street', '5125 De la Plaisance', '5125 Harvester Road, Unit 7', '5135, Domville', '515 Hespler Avenue', '5151 Hwy 17 West', '5151 Simcoe St North', '5171 Thimens', '5172 route 3 Central Argyle', '5183 Route Domaine du Lac', '51st Street', '52 Ellisview Road', '52 TWP RD 524', '52 Wright Ave.', '5200 Dixie Road, Unit #46', '521 Achray Road', '521 Rue Principale', '5218 - 62th Street', '5227 Highway 17', '525 Hill Avenue', '526 rue Lanaudiere, Suite 109', '5280 Fairway', '5285 - 192 Street', '5290 Orbitor Drive', '53 Arthur Street North', '53 Jamieson Drive, R.R. #1, Forest Home Ind. Park', '530 Providence', '5300 Rue St-Roch', '53016 Hwy #60', '531 Admiral Drive', '5320-B 48th Avenue South East', '5329 72nd Avenue S.E.', '533, 71st Avenue S.E.', '5350, Armand-Frappier', '5351 46th Avenue S.E.', '53521 Range Rd 271', '5360 rue St. Roch', '537 rue Principale', "54 rue de l'Eglise", '54-5359 Timberlea Blvd.', "541, rue de l'Harricana", '5411 Chemin du Lac', '55 - 10 Avenue S.E.', '55 Crockford Blvd.', '55 Isnor Drive', '55 Marsh Street', '55 Steeles Avenue East', '55 White Street', '550 George Avenue', '550 McGeachie Drive', '5500 North Service Road', '5502 56th Avenue S.E.', '5505 64th Avenue', '551 Crestwood Drive', '5511 - 6 Street S.E.', '5521, chemin de l"Aeroport', '554 Rg Haut-St-Amable', '555 Cassell Drive, General Delivery', '555 St-Louis', '556 Hwy 77', '55780 Third Street', '56 Beach Road', '56 Boul. Industriel', '56 Churchill Drive, Unit 14', '560 Suffolk Court', '5600A Cancross Court', '5603-54 Street N.W.', '5604 Len Thomson Drive', '5606-55 st.', '563 Montee Princepale', '565 Marjorie Street', '566 - 2nd Ave', '5674 Production Way', '56th Street South East', '57 Durand Road', '5701 Warner Drive', '5705 - 76th Avenue', '5705 Place Kubota', '5734 103rd Street South', '575 Page Avenue', '5769 - Production Way, Unit# 103', '577 Route 535', '5770 Place Kubota', '578 McTavish Street', '5785 Place Turcot', '58 Cowansview Rd', '580, Lionel Boulet', '581 McGeachie Drive', '581 Wright Avenue', '581 avenue Lepine', '5810 - 50th Street', '583, St-Ovide', '585 Granite Court', '59 Commerce Drive', '59 Elm Ave', '59 Maitland Avenue, R.R. #4', '5901 - 48 Avenue', '5909 - 90th Street', '5909-6th Street SE', '591 Chester Road', '591 Chester Road, Annacis Business Park', '591 Rymal Road West', '5925 Hemingway', '593 Rte 219', '595 Lanaudiere', '5982 Main street', '5th Street', '6 Edmondson Street, P.O. Box 368', '6 Ragged Lake Drive', '6 Ridgeview', '60 Northline Road', '60-8 Bristol Road East. Suite 506', '600 Pandora Avenue West', '606 Highway Drive', '6060, 86th Avenue S.E.', '607-15 Avenue', '609 rue Principale', '6095 Austin Street', '61 Avenue SE', '61 Avenue South East, Bay #9', '6100 Chemin St-Francois', '6101, boulevard Talbot', '6115 - 30th Street', '6120 Route 101', '615 Kenmount Road', '62 Street', '620 Garyray Drive', '620 Moraine Road N.E.', '620 Nairn Avenue', '620 Stewart St', '6200 Henri-Bourassa Ouest', '6210 - 50 Avenue, Box 7324', '6214 50th Avenue', '6218 - 54 Avenue', "625 rue d l'Argon", '6250 Trans Canada Highway N.E.', '62nd Avenue', '63 Millroad, Box 6', '630 Adams Court', '633 Rang 9', '6333 Pacific Street', '6345 Dixie Road, Unit 1', '635 Farewell Avenue', '637 Miller Street', '638 A Great Northen Road, Unit 1', '638 Fortune Cres.', '64 Bartor Road, Unit 5', '64 Chemin des Patriotes E', '64 Signet Drive', '64 Springbank Ave. South', '640 Rink Avenue', '6418 Courtright Line R#1', '643 rue De Quen', '645 Athlone Place', '65 Rue Prevost', '65 Winder Street', '650 Cargill Rd.', '650 Hardwick Road', '650, 5e Rang', '651-25th Ave SE', '655 - 30 Street North', '655 boulevard de la Montagne', '66 Ave', '66 Fernstaff Court', '660 Riverside Road', '665 Millway Ave, Unit 57', '6701 Financial Drive, Suite 100', '6702 Golden West Ave.', '6706 - 44 Ave.', '6711 Mississauga Rd. N 3rd Floor', '6727 - 68 Avenue', '6730 Golden West Avenue, P.O. Box 540', '6739, 67 Avenue', '6740 - 65 Avenue', '6749 65th Ave', '675 Trotter Street', '6759 Hwy #62 North', '675A Davenport Road', '676 Main Street', '6760 65th Avenue', '6761 67 Avenue', '6771 84 Street S.E.', '680, Rue Des C??dres', '681 Route 143', '682 Okanagan Avenue East', '6820 - 52 Avenue', '686 Talbot Street West', '6900 rue Bombardier', '692 - 5th Concession West, R.R. #2', '6935 Farrell Road S.E.', '6943 Highway 38', '6961 Highway 3', '6970 Kenderry Gate', '6981 Boul. Bourque', '7 Industrial Ave', '7 Petersburg Circle', '7, Inrepid Court', '7, Rang St-Francois Est', '70 3rd Avenue Box 1790', '70 Burwell Road', '70 Line Road', '70 Mount Hope Street', '700 Finley Avenue, Unit 5', '700 Franklin Blvd., P.O. Box 98', '700 Richmond Street', '700, rue Jean-Marchand', '701 St-Pierre', '701-11 Ave', '702 - 1st  Avenue North West', '7035 Pacific Circle', '706 - 19 Avenue', '7076 Country Road West Hwy #124 South', '7079 Wellington Road 124', '707D McDOnald Street', '71 Liberty Rd', '7127 Honeyman St', '713, Route 219', '715, 5 Ave North', '7188 Vantage Way', '720 Wilson Road South', '7202, 98 Street', '7245 West Industrial Loop', '726, St-Joseph', '73 Brydon Drive', '732 Old Sackville Road', '733 Front Street', '7337 Trans Canada Highway', '735 Douglas Fir Road', '7375 Buller Street', '740 Grand Avenue East', '742 Casey Rd.', '743 William Street', '747 Bloor Street West', '747 Notre Dame Blvd', '75 Frontenac Drive', '75 Rue Hector C.P. 90', '75 Street', '750 Industrial Rd.', '7500 Trans-Canadienne', '7507- 40th St. S.E.', '75836 London Road', '7612 - 43 Street', '762 Conception Bay South Highway, Unit 1', '7640, Boul. Ste-Anne', '766 Route 700', '767 Old Sambro Road', '77 Grant Timmins Drive', '77 RUE MAINVILLE', '770 Lakeside', '770 Ross Avenue', '7700, rg St-Andr??', '7739 Edgar Industrial Way', '775 Lemire', '7760 18th Street', '7762 - 47 Avenue Close', '777 Bayly Street West', '7793 Young Street', '7809 102 Ave.', '7824 f?? 56 Street South East', '783 rue Mo?(r)ller', '78th Avenue', '79 rue principale', '79, 1i??re Rue Nord', '790 Montrichard Avenue', '7905 Enterprise Drive', '791, Route Principale', '7910 rue des PME', '7911 Edgar Industrial Drive', '7923 54th Street South East', '793-A Riviere Nord, Route 339', '7947 Edgar Industrial Dr.', "7985 boul. L'Ormi??re", '80 Clarke Street S., Unit 2', '80 High Street, Unit 2', '80 Saramia Crescent', '800 South Railway Ave', '800, Chemin Olivier', '800-47th Street East', '80042 - 475 Avenue East', '8007-39th Street', '801 - 50 Street E', '8010-44th Street SE', '8019 - 54 Street S.E.', '803 - 46th Street East', '8046 Edgar Industrial Crescent', '805 51st Street East', '8124 Davies Road', '8135 Wagner Road', '815 Trillium Drive', '8155 -128 Street', '818 - 43rd Street East', '81Tannery Road', '81st SE', '82 Ave', '820 Garyray Drive', '821 Du Parc', '821 Fairweather Place', '822 Bellevue Ouest', '826, boul. Guimond', '83 Caledonia Road, R.R.#4', '83 Old Onondaga Road West', '830 Edgeley Blvd.', '8300 Edison', '831 Nipissing Road', '8326 St. George Street', '8332 Haldibrook Road', '835 Mission Street', '8350 Boulevard Industriel', '841 Oakpoint Box 64 GRP 200 RR2', '843 rue Charest', '8442 Lisa Lane', '847 - 60th Street East', '847 Central St.', '84th Avenue North West', '85 Northland Road', '8505 Lafrenaie', '853 Route 111', '855 Algonquin Blvd East', '855 Industrial Avenue, Unit 1-4', '855 Matheson Blvd E Unit 9', '8580 River Road', '859 Station Avenue', '86 Boulder Blvd.', '8600 - 92nd Street', '865 Bradford Street', '865 Range Papineau', '866 Derwent Way', '866, route St-Joseph', '868 Blackwoods Avenue', "8685 Champ D'eau", '87 Ashgrove Crescent, Box 654', '87 Elora Street', '873 Hodge', '88 Forest St.', '88 Kenmount Road', '88 Route 158', '88 rue des Routiers', '880 rue Lucien Leclerc', '8803 - 60th Ave', '882 5th Street East', '8824 101 Street', '8825 126th Avenue', '8860, Croissant 5e', '89 Rue du Parc Industriel', '89 ch. Thibodeau', '8900, 25 i??me Avenue', '8901-150 Ave.', '896 Lakeshore Ct.', '897 Stremel Road', '8A Street', '9', '9 Union Street', '90 Enterprise Dr.', '9000 Boulevard Parent', '9000, boulevard Industriel', '905 rang 11', '90th Avenue South East', '91 Chemin Des Patriotes', '91, rue Ontario, P.O. Box 460', '910 Saskatchewan Avenue East', '9111-41st Avenue', '9115 -52nd Street SE', '915 Walsh St. W.', '9189 National Place', '92 Boulevard Est', '920 Champlain Court', '920 Denison Street Unit 11', '920, Cur??-Boivin', '9200 22 Avenue', '921 Gonczy Avenue, Box 1780', '921 chemin de la Rivi??re du Nord', '923 - 46 Avenue S.E.', '927 - 48 Avenue SE', '927 Gaudette', '927, Route 111 Ouest', '930, chemin Vanier', '9301 -102 Street', '9305 - 27 Avenue', '9312 - 110A Street', '933 Boul. Simard', '9345 25ieme Avenue, Parc Industriel', '940 Winston Churchill Blvd.', '944109 Partridge Place South West', '9475 - 192 Street', '9502 - 87th Avenue', '9532 - 27th Avenue', '955 Maginot Street', '955 Woodlawn Road W.', '9550 10E Avenue', '96 Principale', '9604 - 112 Street', '9620-62nd Ave', '9624- 35 Avenue', '9625 48th Street SE', '967 Trunk Rd.', '96th Avenue, Unit #1', '97 Hounslow Drive N.W.', '970 Boul. Pierre-Roux Est', '970, Avenue Bombardier', '98 Cougle Road', '9808 Park Lane', '981, Boul. Hamel', '9834 - 179th Street', '9835 - 199 A Street', '9880 McGrath Road', '990 Pays-Brule', '991 Jarvis Avenue', '9th Street', 'Alness Street', 'Aspen Road', 'Atlantic Drive', 'Aut. Chomedey', 'B 1st Avenue', 'B 39207 RR271', 'BAY A Barlow Trail SE', 'BCE Place - Suite 4400 Bay Wellington Tower', 'Bag No. 2019', 'Bay 10, 4216 12th Street NE', 'Bay 3 #2 Erickson Crescent', 'Bay 33 - 820 51st Street East', 'Bay 5, 3925 Avenue S.E.', 'Bay F-298-28042 Hwy 11', 'Bay K 8816 44th street SE', 'Bay L 8616 44th Street SE', 'Belich Crescent', 'Bleams Road RR#2', 'Boul Ren?? Est', 'Boulder', 'Boulevard Industriel', 'Bowes Rd. Unit 3', 'Bowman Street', 'Box 11', 'Box 118', 'Box 1205', 'Box 133, Eastside hwy 20', 'Box 1594', 'Box 176', 'Box 218', 'Box 22, Group 60, R.R. #1', 'Box 2738, Station "B"', 'Box 310', 'Box 310, Elevator Road', 'Box 317', 'Box 33, Group 6A, R.R.#1B', 'Box 332', 'Box 490', 'Box 511', 'Box 5396', 'Box 609', 'Box 617', 'Box 72036, Ottewell P.O.', 'Box 748', 'Box 8029 61317 RR 452 South Hwy 28 East', 'Box 88', 'Box 988', 'Box 99', 'Box 990', 'Breithaupt Street', 'Brier Park Cres. NW Unit 3', 'Brookside Branch Road', 'Bruce Road 86, RR # 3', 'CHILES INDUSTRIAL PARK 39015 HWY 2A', 'Carman Road', 'Cedar Creek Road', 'Centennial Road, Unit #9', 'Challenger Cr.', 'Chemin Grand Bernier', 'Chemin Oliver #5', 'Chemin du Grand Rang', 'Chemin du Tremblay', 'Chrislind', 'Cimarron Estates Manor', 'Corporate Drive', 'Country Energy Park</t>
         </is>
@@ -873,11 +893,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -936,12 +956,15 @@
         <v>187</v>
       </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>34602</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>714</v>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>['9', 'ACHESON', 'Abbotsford', 'Abotsford', 'Acheson', 'Acton Vale', 'Adstock', 'Advocate harbor', 'Airdrie', 'Ajax', 'Aldergrove', 'Aldersyde', 'Allanburg', 'Alma', 'Altona', 'Amos', 'Anjou', 'Annaheim', 'Anola', 'Apple Hill', 'Arborg', 'Ardossan', 'Armstrong', 'Arnprior', 'Aroostook', 'Arundel', 'Asbestos', 'Auburn Hills', 'Austin', 'Aylmer', 'Ayr', 'Azilda', 'B??cancour', 'Baden', 'Baie St. Paul', 'Barrie', 'Beamsville', 'Beausejour', 'Bedford', 'Belleville', 'Bellevue', 'Beloeil', 'Benito', 'Bentley', 'Berthierville', 'Bethune', 'Bic', "Bishop's Falls", 'Blackfalds', 'Blainville', 'Blenheim', 'Bois-des-Filion', 'Boisbriand', 'Bolton', 'Bond Head', 'Bonnyville', 'Bothwell', 'Boucherville', 'Bourget', 'Bowmanville', 'Bracebridge', 'Brampton', 'Brandon', 'Brantford', 'Breslau', 'Brighton', 'Bromhead', 'Brooks', 'Brookside', 'Brougham', 'Brucefield', 'Burlington', 'Burnaby', 'Calahoo', 'Caledonia', 'Calgary', 'Cambridge', 'Cambrige', 'Campbell River', 'Camrose', 'Candiac', 'Canfield', 'Cap Pele', 'Cap Sant??', 'Cap St. Ignace', 'Cardigan', 'Cardston', 'Cargary', 'Carignan', 'Carleton Place', 'Carman', 'Carp', 'Carthwright', 'Cartier', 'Cartwright', 'Carvel', 'Casselman', 'Cassleman', 'Cavan', 'Central Butte', 'Centralia', 'Centreville', 'Chambly', 'Chambord', 'Charlesbourg', 'Charlottetown', 'Chateau-Richer', 'Chateauguay', 'Chatham', 'Chelsea', 'Chemainus', 'Cherhill', 'Chesterville', 'Chicoutimi', 'Chillawack', 'Chilliwack', 'Claimont', 'Clairmont', 'Clarenville', 'Claresholm', 'Clifford', 'Coaldale', 'Cobourg', 'Cochrane', 'Colborne', 'Cold Lake', 'Coleman', 'Collingwood', 'Comox', 'Concord', 'Cookshire', 'Coquitlam', 'Corner Brook', 'Cornwall', 'Corunna', 'Courtland', 'Cowansville', 'Craik', 'Cranford', 'Crediton', 'Cromer', 'Crooked Creek', 'Crossfield', 'Cutknife', 'Cypress River', 'Darmouth', 'Darthmouth', 'Dartmouth', 'Daveluyville', 'Dawson Creek', 'Daysland', 'Debert', 'Delburne', 'Delhi', 'Delson', 'Delta', 'Deschambault', 'Dieppe', 'Disraeli', 'Dolbeau-Mistassini', 'Donnacona', 'Dorval', 'Downsview', 'Drake', 'Drayton Valley', 'Drumheller', 'Drummondville', 'Duncan', 'Dundalk', 'Dundas', 'Dunham', 'Dunnville', 'East Broughton', 'Eden', 'Edmonton', 'Elmira', 'Elora', 'Embrun', 'Errington', 'Essex', 'Estates Onoway', 'Esterhazy', 'Etobicoke', 'Exeter', 'Fenwick', 'Flesherton', 'Fort Erie', 'Fort St-John', 'Frankville', 'Freelton', 'Gander', 'Gatineau', 'Gerald', 'Glenboro', 'Goderich', 'Gormley', 'Gorrie', 'Granby', 'Grand Falls', 'Grand Mere', 'Grand Prairie', 'Grand-Mere', 'Grande Prairie', 'Grassie', 'Gravelbourg', 'Gretna', 'Grimsby', 'Grunthal', 'Guelph', 'HJuntsville', 'Hagen', 'Halifax', 'Hamilton', 'Hampton', 'Harrison Mills', 'Harrowsmith', 'Hartland', 'Hawkestone', 'Hay River', 'Hayter', 'Headingley', 'Hearst', 'Heidelberg', 'Hellier', 'Hemmingford', 'High River', 'Hillsborough', 'Hillsdale', 'Hodgson', 'Howie Center', 'Hoyt', 'Hubley', 'Hudson Bay', 'Humboldt', 'Iberville', 'Ingersoll', 'Innisfil', 'Inwood', 'Iroquois', 'Joliette', 'Joly', 'Jonqui??re', 'Jonquiere', 'Kakabeka Falls', 'Kamloops', 'Kelligrews', 'Kelowna', 'Kelvington', 'Kemptville', 'Keswick', 'Kincardine', 'Kingston', 'Kitchener', 'Kleinburg', 'L??vis', 'La Minerve', 'La Plaine', 'La Pr??sentation', 'La Sarre', 'Labelle', 'Lac Brome', 'Lac La Hache', 'Lac M??gantic', 'Lac St-Joseph', 'Lachenaie', 'Lachine', 'Lacombe', 'Lacombe County', 'Lafleche', 'Lafontaine', 'Lambton', 'Langley', 'Lanoraie', 'Lantzville', 'Lashburn', 'Laterri??re', 'Laval', 'Lavaltrie', 'Leader', 'Leamington', 'Leduc', 'Lennoxville', 'Leslieville', 'Lethbridge', 'Linden', 'Lindsay', 'Lislet', 'Listowel', 'Lively', 'Lloydminister', 'Lloydminster', 'London', 'Long Sault', 'Longueuil', 'Louiseville', 'Lower Sackville', 'Lucknow', 'Lunenburg', 'MONT-Laurier', 'Maderia Park', 'Maidstone', 'Mallaig', 'Manotick', 'Maple', 'Markham', 'Marmora', 'Martensville', 'Maskinong??', 'Matane', 'Mattawa', 'Maxville', 'McWatters', 'Medecine Hat', 'Medicine Hat', 'Melfort', 'Melville', 'Mercier', 'Millbrook', 'Millet', 'Milton', 'Milton Station', 'Mirabel', 'Miscouche', 'Mission', 'Mississauga', 'Moncton', 'Mont-Lebel', 'Mont-Tremblant', 'Montmagny', 'Montr??al', 'Montreal', 'Moose Jaw', 'Morden', 'Morinville', 'Morris', 'Mount Forest', 'Mount Pearl', 'NOT ENTERED', 'Naicam', 'Nanaimo', 'Napierville', 'Neepawa', 'Neerlandia', 'Nelson', 'Nepean', 'Neufchatel', 'Neuville', 'New Liskeard', 'New Lowell', 'Newmarket', 'Nipawin', 'Nisku', 'Niverville', 'Noranda', 'North Battleford', 'North Bay', 'North York', 'Norwich', 'Norwood', 'Notre-Dame', 'Notre-Dame de Lourdes', 'Notre-Dame-Du-Bon-Conseil', 'Notre-Dame-du-Laus', 'Notre-Dame-du-Nord', "O'Leary", 'Oakville', 'Odessa', 'Ohaton', 'Oil Springs', 'Okahumpka', 'Okotoks', 'Olds', 'Oliver', 'Orangeville', 'Orillia', 'Oro Station', 'Orrillia', 'Oshawa', 'Ottawa', 'Palmarolle', 'Paradize', 'Parksville', 'Parry Sound', 'Peace River', 'Pembroke', 'Pentiction', 'Penticton', 'Perth', 'Peterborough', 'Petersburg', 'Petite-Rivi??re St-Francoi', 'Petrolia', 'Pickering', 'Picton', 'Pierreville', 'Pincher Creek', 'Plantagenet', 'Plessisville', 'Plessiville', 'Pohenegamook', 'Pointe-Claire', 'Pointes-aux-Trembles', 'Ponoka', 'Pont-Rouge', 'Port Colbourne', 'Port Coquitlam', 'Port Rowan', 'Port au Choix', 'Portage La Prairie', 'Portage la Prairie', 'Prince Albert', 'Prince George', 'Princeton', 'Princeville', 'Puslinch', 'Qu??bec', 'Quebec', 'Quesnel', 'Radisson', 'Rapid City', 'Rathwell', 'Rawdon', 'Raymore', 'Red Deer', 'Red Deer County', 'Regina', 'Renfrew', 'Repentigny', 'Rexdale', 'Rexton', 'Richmond', 'Richmond Hill', 'Ridgetown', 'Riding Mountain', 'Rigaud', 'Rimouski', 'Rivi??re-du-Loup', 'Riviere-du-Loup', 'Rocky Mountain House', 'Rodney', 'Rolling Hills', 'Rosedale', 'Rosenort', 'Russell', 'Ruthven', 'SAINT-GERMAIN-DE-GRANTHAM', 'SAINT-Hilarion', 'Saint John', 'Saint-??variste', 'Saint-Amable', 'Saint-C??saire', 'Saint-Casimir', 'Saint-F??licien', 'Saint-Ferdinand', 'Saint-Georges', 'Saint-Gerard-Majella', 'Saint-Hubert', 'Saint-Hyacinthe', 'Saint-Jean-Sur-Richelieu', 'Saint-Jean-sur-Richelieu', 'Saint-Joseph de Coleraine', 'Saint-Lambert', 'Saint-Lambert-de-Lauzon', 'Saint-Laurent', 'Saint-Lin', 'Saint-Marc du Lac Long', 'Saint-Pierre-Baptiste', 'Saint-Romain', 'Sainte M??lanie', 'Sainte-Agathe-des-Monts', 'Sainte-Brigitte-des-Sault', 'Sainte-Eulalie', 'Sainte-Foy', 'Sainte-Rosalie', 'Sallaberry De Valeyfield', 'Salmo', 'Salmon Arm', 'Saltcoats', 'Sarnia', 'Saskatoon', 'Sault Ste. Marie', 'Scarborough', 'Schomberg', 'Scott Jonction', 'Seguin', 'Sept-iles', 'Shallow Lake', 'Shanty Bay', 'Shawinigan', 'Shawinigan Sud', 'Shawnigan Lake', 'Shedden', 'Sherbrooke', 'Sherwood Park', 'Shreveport', 'Sidney', 'Smith Falls', 'Smithville', 'Sorel-Tracy', 'South Huron', 'Sparewood', 'Spruce Grove', "St John's", 'St- Paul', 'St-Agapit', 'St-Amable', 'St-Andre Avelin', 'St-Andre-de-Kamouraska', 'St-Antoine, Mirabel', 'St-Antoine-De-Tilly', 'St-Armand', 'St-Augustin', 'St-Autonin', 'St-Barnab??-Sud', 'St-Benoit-Labre', 'St-Bonaventure', 'St-C??me', 'St-Catherines', 'St-Celestin', 'St-Charles-de-Drummond', 'St-Chrysostome', 'St-Damien-de-Brandon', 'St-Dominique', "St-Elie D'Orford", 'St-Elie-de-Caxton', 'St-Ephrem', 'St-Eustache', 'St-F??licien', 'St-Ferdinand', 'St-Fr??d??ric', 'St-Francois du Lac', 'St-Francois-du-Lac', 'St-Gabriel de Brandon', 'St-Georges', 'St-Georges Est-beauce', 'St-Georges de Beauce', 'St-Germain-de Grantham', 'St-Hubert', 'St-Hyacinthe', 'St-Isidore', 'St-J??r??me', 'St-Jean Chrysostome', 'St-Jean-Chrysostome', 'St-Jean-Sur-Richelieu', 'St-Jean-sur-Richelieu', 'St-John', "St-John's", 'St-Joseph de Levy', 'St-L??onard', 'St-Laurent', 'St-Lazare', 'St-Leonard', 'St-Lin', 'St-Mathias', 'St-Mathieu', 'St-Mathieu-de-Beloeil', 'St-Nicolas', 'St-Odilon de Cranbourne', 'St-Pascal', "St-Paul D'Abbotsford", "St-Paul-de-l'??le-aux-noix", 'St-Pie', 'St-Quentin', 'St-R??mi-de-Tingwick', "St-Roch de l'Achigan", "St-Roch-De-L'achigan", 'St-Romuald', 'St-Sim??on', 'St-Stanislas', 'St-Thomas', 'St-Ubalde', 'St-Urbain', 'St-Valerien', 'St-Victor', 'St. Agatha', 'St. Albert', 'St. Andrews', 'St. Barnabe Sud', 'St. Brieux', 'St. Bruno', 'St. Catharines', 'St. Catherines', 'St. Clements', 'St. Damase', 'St. Francois Xavier', 'St. George', 'St. Gervais', 'St. J??r??me', 'St. Jacobs', 'St. Jacques', "St. John's", 'St. Laurent', "St. Mary's", 'St. Marys', "St. Paul d'Abbotsford", 'St. Philippe', 'St. Raymond', 'St. Thomas', 'St.-Anseime', 'Ste Sophie', 'Ste Therese', 'Ste- Gertrude Abitibi', "Ste-??m??lie-de-l'??nergie", 'Ste-Agathe', 'Ste-Ang??le-de-Pr??mont', 'Ste-Anne de Kent', 'Ste-Anne des Plaines', 'Ste-Cath-de-la-Jq-Cartier', 'Ste-Catherine', 'Ste-Foy', 'Ste-Germaine Boul??', 'Ste-Julie', 'Ste-Melanie', 'Ste-Rose-de-Watford', 'Ste-Sophie-de-L??vard', 'Ste-Sophie-de-Levrard', 'Ste-Th??r??se', 'Ste. Claire', 'Ste. Marguerite', 'Ste. Rose', 'Steinbach', 'Stettler', 'Stittsville', 'Stoney Creek', 'Stony Plain', 'Stouffville', 'Straffordville', 'Strathroy', 'Sturgeon County', 'Sturgeon Falls', 'Sudbury', 'Sullivan', 'Summerland', 'Summerside', 'Sundre', 'Sunset Point', 'Surrey', 'Sussex Corner', 'Sutton', 'Swan River', 'Sylvan Lake', 'Taber', 'Tangier', 'Tappen', 'Taschereau', 'Tecumseh', 'Terrace', 'Terrebonne', 'The Nation', 'Thedford', 'Thetford Mines', 'Thunder Bay', 'Tilbury', 'Tillsonburg', 'Timmins', 'Toronta', 'Toronto', 'Treherne', 'Trenton', 'Trois Rivieres', 'Trois-Rivi??res', 'Two Hills', 'Uxbridge', 'V. de St-Georges', 'Val Caron', "Val D'Or", "Val-D'Or", 'Valcourt', 'Vanastra', 'Vancouver', 'Vanderhoof', 'Vanier', 'Varennes', 'Vaudreuil', 'Vernon', 'Vernon Bridge', 'Verona', 'Victoria', 'Victoriaville', 'Ville de St-Georges', 'Wallenstien', 'Warburg', 'Warminster', 'Warren', 'Warwick', 'Waterdown', 'Waterloo', 'Waubaushene', 'Wawanesa', 'Welland', 'West Kelowna', 'West St. Paul', 'Westbury', 'Westfield', 'Westlock', 'Wetaskiwin', 'Weyburn', 'Whitby', 'White Lakes', 'Whitemouth', 'Wiarton', 'Wickham', 'Windsor', 'Winkler', 'Winnipeg', 'Winnpeg', 'Woodlands', 'Woodrow', 'Woodstock', 'Woodville', 'Wyebridge', 'Yarker', 'Yarmouth', 'Yarmouth County']</t>
         </is>
@@ -954,11 +977,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -1017,12 +1040,15 @@
         <v>1218</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>30341</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>15</v>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>['9', 'Alberta', 'British Columbia', 'Florida', 'Louisiana', 'Manitoba', 'Michigan', 'New Brunswick', 'Newfoundland and Labrador', 'Northwest Territories', 'Nova Scotia', 'Ontario', 'Prince Edward Island', 'Quebec', 'Saskatchewan']</t>
         </is>
@@ -1035,11 +1061,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1098,12 +1124,15 @@
         <v>31</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>26364</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>1458</v>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>['34762', '48326', '5N5H 2R3', '71129', 'A0H 1C0', 'A0K 4C0', 'A1B 3N7', 'A1B 3P9', 'A1B 3R1', 'A1B 4C5', 'A1L 0A7', 'A1N 4R7', 'A1V 1W8', 'A1X 3A7', 'A2B 1K9', 'A2H 5M7', 'A5A 1B8', 'B0J 2C0', 'B0J 3H0', 'B0M 1A0', 'B0M 1G0', 'B0W 1W0', 'B1L 1C2', 'B2W 3T7', 'B3B 0H6', 'B3B 1G7', 'B3B 1L3', 'B3B 1L9', 'B3B 1M7', 'B3B 1N6', 'B3B 1S2', 'B3B 1Z2', 'B3B 2A6', 'B3S 1S4', 'B3T 1W1', 'B3V 1A3', 'B3V 1A4', 'B3Z 1C2', 'B4B 1H1', 'B4C 2K3', 'B5A 4B3', 'B6L 2A7', 'C0A 1G0', 'C0A 2E0', 'C0B 1H0', 'C0B 1T0', 'C0B 1V0', 'C1E 1R4', 'C1E 1Z4', 'C1N 4J9', 'E1A 7E7', 'E1A 9A3', 'E1E 0E8', 'E1H 2E6', 'E2J 0E8', 'E2J 4Y7', 'E2L 9Z9', 'E2M 5T6', 'E4E 2S5', 'E4H 4W5', 'E4S 1G5', 'E4V 1Z5', 'E4V 2K4', 'E4W 2B1', 'E5K 3N8', 'E5L 2A1', 'E7B 1S9', 'E7H 2Z6', 'E7K 2E8', 'E7K 3E9', 'E7P 2K7', 'E8A 1W1', 'G0A 1L0', 'G0A 1N0', 'G0A 1S0', 'G0A 2L0', 'G0A 2R0', 'G0A 3L0', 'G0A 3V0', 'G0A 4L0', 'G0C 3A0', 'G0K 1J0', 'G0L 1B0', 'G0L 1J0', 'G0L 1T0', 'G0L 2J0', 'G0L 3Y0', 'G0L4H0', 'G0M 1H0', 'G0M 1P0', 'G0M 1R0', 'G0M 1S0', 'G0M 2B0', 'G0N 1B0', 'G0N 1E0', 'G0N 1G0', 'G0N 1N0', 'G0N 1P0', 'G0N 1S0', 'G0P 1E0', 'G0P 1J0', 'G0R 2C0', 'G0R 2N0', 'G0R 2V0', 'G0R 4G0', 'G0R3C0', 'G0S 1M0', 'G0S 1T0', 'G0S 2A0', 'G0S 2C0', 'G0S 2S0', 'G0S 2W0', 'G0S 2X0', 'G0S 3A0', 'G0S 3G0', 'G0S 3H0', 'G0W 1G0', 'G0W 2L0', 'G0X 2N0', 'G0X 3C0', 'G0Y 1L0', 'G0Z 1C0', 'G0Z 1E0', 'G0Z 1Z0', 'G1L 3A7', 'G1M 2J8', 'G1M 2T7', 'G1M 2Y3', 'G1M 3K6', 'G1N 3X5', 'G1N 3X8', 'G1P 2H9', 'G1P 2J1', 'G1P 2X9', 'G1P 3T2', 'G1P 3X1', 'G1P 3X3', 'G1X 3W1', 'G2C 1B9', 'G2G 2V2', 'G2N 1X2', 'G2N 2G7', 'G3A 2V5', 'G3H 1L5', 'G3H 3K7', 'G3L 1R5', 'G3M 2X5', 'G3N 0A1', 'G3N 1A1', 'G3Z 2W9', 'G4R 5P3', 'G4W 3M9', 'G4W 3N1', 'G5L 8J9', 'G5M 1A5', 'G5R 3Z5', 'G5R 4C9', 'G5V 3S6', 'G5Y 8G6', 'G5Y 8J3', 'G5Y 8J8', 'G6A 1K5', 'G6A 1L1', 'G6B 2C8', 'G6G 6P6', 'G6H 4G5', 'G6L 1S2', 'G6L 2Y4', 'G6L 2Y8', 'G6P 1A7', 'G6P 6T2', 'G6P 7E4', 'G6P 7E6', 'G6T 1K3', 'G6T 2H6', 'G6V 6N4', 'G6V 9G6', 'G6W 5M6', 'G6Z 1B6', 'G6Z 1T2', 'G6Z 3H5', 'G7A 2N1', 'G7A 2T3', 'G7H 5B1', 'G7N 1V9', 'G7X 0B5', 'G7X 7V3', 'G7X 9H3', 'G8B 6T3', 'G8B 7A1', 'G8K 1W1', 'G8K 2R4', 'G8L 1K3', 'G8L 3M5', 'G8L 5M6', 'G8V 1W2', 'G9A 3C2', 'G9A 4M3', 'G9A 5E1', 'G9A 5J3', 'G9A 5J9', 'G9H 1X7', 'G9H2E5', 'G9N 4Y6', 'G9P 1R8', 'G9T 5K7', 'GOP 1K0', 'GOX 3E0', 'H1A 3N6', 'H1A 3V1', 'H1B5L8', 'H1C 2J3', 'H1E 1R8', 'H1E 2K1', 'H1E 4B6', 'H1E 4G4', 'H1J 1R4', 'H1J 1S8', 'H1J1A2', 'H1P 2B3', 'H1P 3B8', 'H1P 3K5', 'H4C 1V9', 'H4N 2B1', 'H4R 1C3', 'H4R 2N6', 'H4R 3C6', 'H4S 1B7', 'H4S 1C5', 'H4T 1A5', 'H4T 1L1', 'H4T 1N8', 'H7A 4C6', 'H7C 1A2', 'H7E 4P7', 'H7E 4X8', 'H7L 3Y5', 'H7L 4R9', 'H7L 5B3', 'H7P 0A8', 'H7R 6E9', 'H7S 1N5', 'H7S 1N7', 'H7W 3V3', 'H7X 1C4', 'H8S 1A6', 'H8T 1C2', 'H9P 1J5', 'H9P 2R2', 'H9R 2P2', 'H9R 4K3', 'J0A 1C0', 'J0A 1K0', 'J0A 1M0', 'J0B 1M0', 'J0B 1R0', 'J0B 2S0', 'J0C 1A0', 'J0C 1C0', 'J0C 1E0', 'J0C 1K0', 'J0C 1S0', 'J0E 1A0', 'J0E 1M0', 'J0E 1R0', 'J0E 1Y0', 'J0E 2L0', 'J0E 2N0', 'J0G 1J0', 'J0G 1M0', 'J0H 1A0', 'J0H 1B0', 'J0H 1G0', 'J0H 1W0', 'J0H 1X0', 'J0H 2B0', 'J0H1L0', 'J0J 1G0', 'J0J 1L0', 'J0J 1T0', 'J0K 1A0', 'J0K 1E0', 'J0K 1H0', 'J0K 1N0', 'J0K 1R0', 'J0K 2B0', 'J0K 2E0', 'J0K 2K0', 'J0K 2N0', 'J0K 3A0', 'J0K 3H0', 'J0K 3L0', 'J0K 3P0', 'J0L 1E0', 'J0L 1H0', 'J0L 1N0', 'J0L 1T0', 'J0P 1P0', 'J0S 1R0', 'J0S 1Y0', 'J0T 1A0', 'J0T 1H0', 'J0V 1W0', 'J0X 2M0', 'J0Y 2L0', 'J0Y 2N0', 'J0Y 2X0', 'J0Z 1M0', 'J0Z 3B0', 'J0Z 3C0', 'J0Z 3N0', 'J1C 0H9', 'J1G 1X7', 'J1H 2G5', 'J1J 4N8', 'J1M 1Z4', 'J1N 1S3', 'J1N 3K4', 'J1T 4V4', 'J2B 6V4', 'J2B 8B3', 'J2C 4Z5', 'J2C 5S5', 'J2C 5X4', 'J2C 7V9', 'J2C 8N6', 'J2E 0A1', 'J2G 6N6', 'J2G 9H9', 'J2G 9L5', 'J2J 0P2', 'J2J 2N4', 'J2K 2M5', 'J2K 3Y5', 'J2S 1H3', 'J2S 8B1', 'J2X 2L2', 'J2X 4J5', 'J2X 5G4', 'J2X 5P9', 'J3B 4S2', 'J3B 6Y8', 'J3B 7M3', 'J3B 7S7', 'J3B 8J8', 'J3B 8X7', 'J3E 1Z4', 'J3G 4N5', 'J3G 4S5', 'J3L 4B7', 'J3L 4N4', 'J3L 4X3', 'J3L 6A1', 'J3P 5K2', 'J3X 1P7', 'J3X 1S5', 'J3Y 3T7', 'J3Y1Y2', 'J3Z 1J2', 'J4B 1V5', 'J4B 2X2', 'J4B 5Z5', 'J4B 6A1', 'J4B 6Z5', 'J4B 7W1', 'J4B 8C4', 'J4G 1R9', 'J4G 1T5', 'J4G 2P8', 'J4H 3V8', 'J4N 1E2', 'J5B 1Y1', 'J5J 2V2', 'J5M 2C1', 'J5M 2V1', 'J5T 3S5', 'J5T 4A9', 'J5V 2J7', 'J5V1A6', 'J6A 7N1', 'J6A 8G5', 'J6E 3Z1', 'J6J 4Z2', 'J6R 2B9', 'J6S 6N7', 'J6W 4L1', 'J6W 6C1', 'J6X 4J5', 'J6X 4J8', 'J6Y 1J4', 'J6Y 1W1', 'J6Z 0J8', 'J6Z 4S7', 'J7C 5P9', 'J7C 6B4', 'J7E 1C8', 'J7E 2V2', 'J7E 4H5', 'J7E 4K9', 'J7G 2A7', 'J7J 2G6', 'J7M 2A4', 'J7N 1T6', 'J7R 5A5', 'J7T 3E7', 'J7V 5V5', 'J7V 8P2', 'J7Y 4B9', 'J7Y 4H8', 'J7Y 5G2', 'J8C 2W5', 'J8C 2Z8', 'J8E 3J9', 'J8P 8A9', 'J8R 3Y4', 'J9B 1L9', 'J9H 5E1', 'J9J 3J3', 'J9L 0H6', 'J9P 6Y6', 'J9P 7A9', 'J9T 1P8', 'J9T 2P3', 'J9T 3A1', 'J9X 5B7', 'J9Z 2X5', 'JOL 1H0', 'JOL 2H0', 'JON 1HO', 'K0A 1E0', 'K0A 1L0', 'K0A 1M0', 'K0A 1W0', 'K0B 1L0', 'K0C 1B0', 'K0C 1P0', 'K0C 1T0', 'K0C 2B0', 'K0E 1H0', 'K0E 1K0', 'K0G 1J0', 'K0H 1V0', 'K0H 2H0', 'K0H 2W0', 'K0K 1H0', 'K0K 1S0', 'K0K 2J0', 'K0K 2M0', 'K0K 2T0', 'K0K 3N0', 'K0L 2V0', 'K0M 2T0', 'K1B 3W5', 'K1B 4L1', 'K1B 4V7', 'K1B 4V8', 'K1B 5A4', 'K1B 5M1', 'K1B 5R1', 'K1G 3W4', 'K1G 4L4', 'K1V 9V9', 'K2E 6T7', 'K2E 7T8', 'K2G 0B7', 'K2G 1G1', 'K2J 4B6', 'K2S 1A2', 'K4M 1B4', 'K6H 5V2', 'K7A 5K3', 'K7C 3V7', 'K7H 3C7', 'K7K 6C2', 'K7L 4W5', 'K7M 2T3', 'K7M 8N3', 'K7M 9H2', 'K7S 3G7', 'K7V 1Y6', 'K8A 7M5', 'K8H 6W7', 'K8K 4Z5', 'K8N 4Z2', 'K8N 4Z5', 'K8N 4Z6', 'K8V 5P6', 'K8V 5W6', 'K9A 3A7', 'K9J 1Z9', 'K9J 6X7', 'K9J 6X8', 'K9J 6X9', 'K9V 5G4', 'KIG 4G2', 'L0A 1C0', 'L0A 1G0', 'L0B 1J0', 'L0E 1R0', 'L0G 1B0', 'L0G AT0', 'L0H 1A0', 'L0H 1G0', 'L0J 1C0', 'L0K 2C0', 'L0K 2E0', 'L0K 2G0', 'L0L 1V0', 'L0L 2E0', 'L0L 2L0', 'L0M 1N0', 'L0R 1B0', 'L0R 1K0', 'L0R 1M0', 'L0R 2A0', 'L0R 2H2', 'L0R1B1', 'L0S 1A0', 'L0S 1C0', 'L1C 3K3', 'L1C 4P8', 'L1H 6E8', 'L1H 7K4', 'L1H 7L3', 'L1H 8P7', 'L1J 5Y5', 'L1J 5Y6', 'L1N 5K9', 'L1S 3Z2', 'L1S 7G7', 'L1W 3K1', 'L1W 3T7', 'L2A 5A2', 'L2M 6S9', 'L2R 1C9', 'L2R 2R2', 'L2R 3X1', 'L2R 7K6', 'L3B 3X1', 'L3B 6G4', 'L3C 1C9', 'L3K 5V4', 'L3M 4E7', 'L3P 1M3', 'L3R 3K5', 'L3R 6H2', 'L3R 8T9', 'L3V 6H1', 'L3Y 8C6', 'L3Y 8W4', 'L3Y 9B9', 'L4A 1C4', 'L4A 7X5', 'L4B 1J6', 'L4C 3E9', 'L4K 1A5', 'L4K 1H8', 'L4K 1J5', 'L4K 2R2', 'L4K 2Y8', 'L4K 3B5', 'L4K 3L6', 'L4K 3T8', 'L4K 3Z8', 'L4K 4X1', 'L4M 6C8', 'L4N 1C1', 'L4N 1C2', 'L4N 8Z5', 'L4P 3E9', 'L4W 1E4', 'L4W 1H3', 'L4W 1T7', 'L4W 1Y4', 'L4W 1Y5', 'L4W 2A3', 'L4W 2X8', 'L4W 4L6', 'L4W 4N5', 'L4W 4Z5', 'L4W1A1', 'L4X 2C5', 'L4Y 1Y6', 'L4Z 1H8', 'L4Z 3K8', 'L5C 1V8', 'L5L 5Z2', 'L5M 5M1', 'L5N 2W3', 'L5N 7J7', 'L5N 7K5', 'L5R 3E6', 'L5R 3E9', 'L5R 4J7', 'L5S 1J5', 'L5S 1M5', 'L5S 1S2', 'L5S 1Y6', 'L5T 2A8', 'L5T 2E6', 'L5T 2S7', 'L5W 4L4', 'L6A 4R6', 'L6C 0H8', 'L6G 1A6', 'L6H 5R1', 'L6J 2X8', 'L6J 5E4', 'L6J 7X5', 'L6L 5M9', 'L6L 6R3', 'L6S 5N8', 'L6T 3T4', 'L6T 3Y4', 'L6W 3J7', 'L6W 3J9', 'L6W 3R3', 'L6Z 3H8', 'L7E 1H3', 'L7E 5R5', 'L7E 5T2', 'L7E 5T4', 'L7L 1T2', 'L7L 4Y1', 'L7L 5H7', 'L7L 5L5', 'L7L 5R3', 'L7L 6A2', 'L7M 1A6', 'L7N 3M8', 'L7P 1A6', 'L7R 3R3', 'L7S 1A2', 'L7S 1W3', 'L8E 2J9', 'L8E 2N9', 'L8E 2R2', 'L8E 2R4', 'L8E 2W2', 'L8E 3A2', 'L8E 5M8', 'L8E 5M9', 'L8E4H8', 'L8H  3R6', 'L8H 2Y6', 'L8H 2Y7', 'L8H 3P6', 'L8H 7L5', 'L8L 8B7', 'L8L 8K3', 'L8N 2Z7', 'L8N2Z7', 'L8S 1M5', 'L8W 3N1', 'L9B 1B7', 'L9P 1R1', 'L9S 1S8', 'L9S 3V6', 'L9T 1X9', 'L9T 3L5', 'L9T 3Y5', 'L9T 4Z4', 'L9T 5C4', 'L9W 1N1', 'L9W 1P9', 'L9W 2Z3', 'L9Y 4V6', 'L9Y 5A6', 'LOL 1T0', 'LOL 2E0', 'M1H 1H9', 'M1H 2Z1', 'M1K 3K9', 'M1P 3B9', 'M1P 3E7', 'M1P 4M8', 'M1R 3B7', 'M1S 3L2', 'M1V 0C1', 'M1X 1B9', 'M1X 1M4', 'M2H 2N7', 'M3B 2T5', 'M3J 1Y8', 'M3J 2B1', 'M3J 2E2', 'M3J 3H4', 'M3K 2A2', 'M3L 1G5', 'M3N 1W1', 'M3N 1W3', 'M4B', 'M4G 1Y9', 'M4G 1Z2', 'M4G 3V6', 'M4P 2V8', 'M5H 2T6', 'M5H2T6', 'M5J 2T3', 'M6H 1P2', 'M6N 2J1', 'M6N 4Z9', 'M8Z 1X1', 'M8Z 2R4', 'M9L 1R1', 'M9L 1X1', 'M9L 1Y6', 'M9L 2T4', 'M9M 2G5', 'M9M 2Z2', 'M9W 4N3', 'M9W 5T2', 'M9W 5Y8', 'M9W 5Z7', 'N/A', 'N0A 1C0', 'N0B 1E0', 'N0B 1M0', 'N0B 1S0', 'N0B 1Y0', 'N0B 2H0', 'N0B 2J0', 'N0B 2L0', 'N0B 2M0', 'N0B 2N0', 'N0B 2S0', 'N0C 1B0', 'N0C 1E0', 'N0E 1N0', 'N0E1M0', 'N0G 1M0', 'N0G 1X0', 'N0G 2H0', 'N0H 2K0', 'N0H 2T0', 'N0J 1E0', 'N0J 1H0', 'N0J 1P0', 'N0J 1V0', 'N0J 1Y0', 'N0L 2E0', 'N0M 1J0', 'N0M 1L0', 'N0M 1M0', 'N0M 1S3', 'N0M 1Y0', 'N0M 2N0', 'N0N 1G0', 'N0N 1K0', 'N0N 1P0', 'N0P 1A0', 'N0P 1C0', 'N0P 2C0', 'N0P 2G0', 'N0P 2L0', 'N0R 1K0', 'N1A 2W1', 'N1A 2W7', 'N1H 1A4', 'N1H 1B8', 'N1H 6J2', 'N1H 6J3', 'N1H 6K3', 'N1K 1G7', 'N1R 5S9', 'N1R 7J2', 'N1R 7N3', 'N1R 8B7', 'N1T 1B2', 'N2B 2E1', 'N2B 3E1', 'N2B 3E7', 'N2C 2C9', 'N2C 2G1', 'N2E 2M7', 'N2E 3X9', 'N2H 5H3', 'N2R 1J9', 'N2S 4B3', 'N2V 1N3', 'N2V 1Y8', 'N2V 2E3', 'N2Z 2N3', 'N3A 3B8', 'N3B 2Z7', 'N3H 4R7', 'N3H 4V9', 'N3H 4W3', 'N3S 7V6', 'N3T 5M1', 'N3T 5M6', 'N3T 5M7', 'N3T 5N3', 'N3W 1Y1', 'N3W 2G8', 'N4B 2W6', 'N4G 4G7', 'N4P 3S7', 'N4S 7V8', 'N4S 7W5', 'N4S 7Z2', 'N4S 8Y7', 'N4V 1E2', 'N4W 3G8', 'N4W 3G9', 'N4X 1C9', 'N5C 3J7', 'N5H 2R6', 'N5H 2R8', 'N5H 2R9', 'N5P 3R7', 'N5V 0A4', 'N5V 1R2', 'N5V 2Z6', 'N5V 2Z8', 'N5V 4J5', 'N5V 4L6', 'N5V 4N8', 'N5W 1X4', 'N5W 4Z2', 'N6A 5J6', 'N6E 2Z8', 'N6K 1Y1', 'N6N 1A8', 'N7A 3Y1', 'N7A 3Y2', 'N7G 3H7', 'N7M 5K5', 'N7M 5K8', 'N7T 7H8', 'N7T 7J2', 'N8H 3V8', 'N8M 3G6', 'N8N 2L9', 'N8W 5B5', 'N9A 6J3', 'N9C 4H5', 'NOG 2L0', 'NOL 2C0', 'NOM 1K0', 'NON 1R0', 'P0H 1V0', 'P0H 2G0', 'P0J 1P0', 'P0L 1N0', 'P0M  1B0', 'P0M 1B0', 'P0T 1W0', 'P1A 0B5', 'P1B 2M4', 'P1B 8G4', 'P1B 8G8', 'P1H 1Y4', 'P1L 1T8', 'P1L 1V1', 'P2A 0B6', 'P2A 2W8', 'P3A 2N5', 'P3A 2T2', 'P3A 4M9', 'P3B 2Z3', 'P3N 1B3', 'P3Y 1K6', 'P4N 7C3', 'P4N 7H9', 'P4R 1M9', 'P6A 3T4', 'P6B 4K2', 'P6B 5A1', 'P6C 3W7', 'P7B 3X5', 'P7B 5M5', 'P7B 5X5', 'P7E 4X5', 'P7K 0C6', 'P7X 3G7', 'R0A 0R0', 'R0A 1E0', 'R0C 0A0', 'R0C 1N0', 'R0C 3E0', 'R0C 3H0', 'R0E 0A0', 'R0E 0C0', 'R0E 2G0', 'R0G 0B0', 'R0G 0J0', 'R0G 0V0', 'R0G 1K0', 'R0G 1S0', 'R0G 1W0', 'R0G 2V0', 'R0H 0C0', 'R0H 0Y0', 'R0H 1L0', 'R0J 0M0', 'R0J 1H0', 'R0J 1T0', 'R0K 0L0', 'R0K 0P0', 'R0K 1W0', 'R0K 2G0', 'R0L 0C0', 'R0L 1S0', 'R0L 1Z0', 'R0M OJ0', 'R1A 3N9', 'R1N 3C5', 'R2C 2Z2', 'R2C 3T4', 'R2C 5G4', 'R2H 1R7', 'R2J 0A4', 'R2J 0Z7', 'R2J 3T1', 'R2J 3T6', 'R2JOE6', 'R2L 0X3', 'R2P 2W5', 'R2R 1V1', 'R2R 1V9', 'R2R 2B9', 'R2X 0A1', 'R2X 2W5', 'R3C 2E6', 'R3C 2N5', 'R3C 4A3', 'R3E 1C6', 'R3E 2R9', 'R3E 3S4', 'R3H 0G7', 'R3H 0N1', 'R3H 0N6', 'R3H 0R5', 'R3H 0S8', 'R3J 1J2', 'R3J 3T2', 'R3J 3W1', 'R3P 2H8', 'R3T 1T5', 'R3T 3N9', 'R3V 1A4', 'R3X 1G9', 'R4A 5A9', 'R4H 1B8', 'R4K 1B2', 'R4L 1N6', 'R5G 1T8', 'R5G 1W1', 'R5G 2C4', 'R6M 1Y4', 'R6M 2G2', 'R6W 1A1', 'R6W 4A1', 'R6W 4A5', 'R6W 4A7', 'R6W 4A9', 'R6W 4B1', 'R6W 4B7', 'R6W 4C3', 'R6W 4C4', 'R7A  7A4', 'R7A 7A8', 'R7A 7L1', 'R7C 1A4', 'RC3 2E6', 'ROJ1W0', 'ROK 0W0', 'S0A 0X0', 'S0A 1B0', 'S0A 1V0', 'S0A 2P0', 'S0A 3J0', 'S0A 3R0', 'S0C 0N0', 'S0E 0Y0', 'S0E 1A0', 'S0E 1E0', 'S0G 0H0', 'S0G 0V0', 'S0H 0T0', 'S0H 1X0', 'S0H 2K0', 'S0H 4M0', 'S0J 1B0', 'S0K 0G0', 'S0K 1H0', 'S0K 2A0', 'S0K 2T0', 'S0K 2Z0', 'S0K 3V0', 'S0M 0N0', 'S0M 1H0', 'S0N 1H0', 'S4H 2J9', 'S4H 2L2', 'S4N 3M3', 'S4N 3W1', 'S4N 5A1', 'S4N 5A6', 'S4N 5M2', 'S4N 5P7', 'S4N 5W2', 'S4N 5X4', 'S4N 7E5', 'S4P 3E2', 'S4P 3H1', 'S4R 2M6', 'S4R 8R7', 'S4T 2P7', 'S4T 7M3', 'S6H 4P2', 'S6H 4P6', 'S6H 4P8', 'S6V 6G1', 'S7J 4C6', 'S7J0R1', 'S7K 0X1', 'S7K 0X4', 'S7K 0X7', 'S7K 0X8', 'S7K 3J8', 'S7K 3P5', 'S7K 3S2', 'S7K 3V1', 'S7K 3Y5', 'S7K 5Z1', 'S7K 5Z7', 'S7K 6J4', 'S7K 6N3', 'S7K 6P6', 'S7L 6A4', 'S7M 1E3', 'S7M 3Z7', 'S7N 1Y7', 'S7N 1Z3', 'S7P 0A9', 'S7P 0B2', 'S9A 3M1', 'S9V 1R6', 'SOH 1X0', 'SOK 3V0', 'T0A 0V1', 'T0A 2K0', 'T0A 3A0', 'T0B 1A0', 'T0B 1X0', 'T0B 3P0', 'T0B 4K0', 'T0C 0J0', 'T0C 1Z0', 'T0C 2L0', 'T0C 2T0', 'T0E 0A0', 'T0E 0H0', 'T0E 0J0', 'T0E 1V0', 'T0G 0J0', 'T0G 1R0', 'T0H 0W0', 'T0J 0Y0', 'T0J 2S0', 'T0K 0C0', 'T0K 0K0', 'T0K 0R0', 'T0K 1W0', 'T0L 0A0', 'T0L 0T0', 'T0M 0J0', 'T0M 0S0', 'T0M 0V0', 'T0M 1H0', 'T0M 1J0', 'T0M 1X0', 'T1A 5P7', 'T1A 8G7', 'T1A 8M9', 'T1B 3N2', 'T1C 1T9', 'T1G 0B7', 'T1G 2E1', 'T1G 2J4', 'T1H 0C8', 'T1H 5G1', 'T1H 5G5', 'T1H 6G3', 'T1H 6L5', 'T1H 7A6', 'T1J 4P4', 'T1M 1N1', 'T1R 1B5', 'T1R 1E1', 'T1S 0J8', 'T1S 1A1', 'T1V 1E6', 'T1V 1M3', 'T1V 1M6', 'T2A 1X4', 'T2A 2N6', 'T2A 2P1', 'T2A 2P3', 'T2B 1P4', 'T2B 2X4', 'T2B 3K7', 'T2B 3M4', 'T2B 3N9', 'T2C 0L5', 'T2C 0Y4', 'T2C 1V5', 'T2C 1Z6', 'T2C 2B8', 'T2C 2E4', 'T2C 2H5', 'T2C 2H8', 'T2C 2J1', 'T2C 2L2', 'T2C 2P6', 'T2C 2R4', 'T2C 2R5', 'T2C 2X3', 'T2C 3H3', 'T2C 4L2', 'T2C 4L7', 'T2C 4M6', 'T2C 4M9', 'T2C 4P1', 'T2C 4R7', 'T2C 4S9', 'T2C 4T6', 'T2C 4X5', 'T2C 4Z6', 'T2C 5B9', 'T2C 5H4', 'T2C 5J8', 'T2E 4B2', 'T2E 4B3', 'T2E 6K9', 'T2E 6N6', 'T2E 6Z5', 'T2E 7N4', 'T2E 8C2', 'T2E 8P9', 'T2G 2A5', 'T2G 2A7', 'T2G 4A8', 'T2G 4R5', 'T2H 1C2', 'T2H 1L6', 'T2H 1X1', 'T2H 2G7', 'T2H 2Y2', 'T2H0P5', 'T2K 2E6', 'T2L 2X1', 'T2P 2P9', 'T2Z 4K4', 'T2Z 4V3', 'T3R 0H9', 'T3S 0A1', 'T3Z 3M2', 'T4B 2B4', 'T4C 1B4', 'T4C 1W7', 'T4H 1V1', 'T4J 1J8', 'T4J 1R3', 'T4L 1X4', 'T4L 2C6', 'T4L 2N1', 'T4L 2N2', 'T4N 4L1', 'T4N 5G1', 'T4N 5H3', 'T4P 1A5', 'T4P 1A7', 'T4P 1A8', 'T4P 1K3', 'T4P 1N5', 'T4P 1X5', 'T4P 2G9', 'T4P 2J9', 'T4P 2R2', 'T4P 3R2', 'T4P 3R3', 'T4P-3R2', 'T4R 2P7', 'T4S 1P5', 'T4S 1S6', 'T4S 1S8', 'T4S 1X6', 'T4S 2A3', 'T4S 2B3', 'T4S 2J8', 'T4S 2J9', 'T4S 2K5', 'T4S 2L4', 'T4S 2M4', 'T4S2A8', 'T4T 2A3', 'T4V 1L9', 'T4V 1X4', 'T4V 4B9', 'T4V 4E7', 'T4V 4W3', 'T5B 0X3', 'T5B 1C6', 'T5B 1G8', 'T5B 1K5', 'T5B 2B7', 'T5G 2S7', 'T5L 2M8', 'T5L 2R8', 'T5L 2T3', 'T5M 2R8', 'T5M 2S4', 'T5M 2S6', 'T5M 2V7', 'T5M 3P5', 'T5M 3R4', 'T5M 3T5', 'T5P 1G8', 'T5S 0A6', 'T5S 1G4', 'T5S 1J4', 'T5S 1W1', 'T5S 1X2', 'T5S 1X4', 'T5S 1Z1', 'T5S 2G2', 'T5S 2K4', 'T5S 2M3', 'T5S 2R9', 'T5S 2Y3', 'T5V 1A1', 'T5V 1B7', 'T5V 1J8', 'T5V 1N4', 'T6B 0A3', 'T6B 0A5', 'T6B 0A7', 'T6B 0E5', 'T6B 2H7', 'T6B 2P1', 'T6B 2S1', 'T6B 2V2', 'T6B 2W4', 'T6B 3A7', 'T6B 3C4', 'T6B 3E3', 'T6E 0E2', 'T6E 4N2', 'T6E 4N6', 'T6E 5S6', 'T6E 6C2', 'T6E 6L9', 'T6E 6M5', 'T6H 2H5', 'T6N 1A3', 'T6N 1B2', 'T6N 1C9', 'T6P 1J8', 'T6P 1K1', 'T6P 1K2', 'T6P 1P7', 'T6P 1V8', 'T6P 1Y6', 'T6S 1B9', 'T6S 1G1', 'T7A 1S1', 'T7A 1S4', 'T7A 1S5', 'T7P 2M2', 'T7P 2M4', 'T7P 2P5', 'T7X 3A5', 'T7X 3L8', 'T7X 5A3', 'T7X 5A4', 'T7X 5A5', 'T7X 5A7', 'T7Z 1L7', 'T7Z 1V6', 'T7Z 1V7', 'T7Z 1W4', 'T8E 2J3', 'T8H 1N7', 'T8H 2J6', 'T8H 2V2', 'T8N 2G3', 'T8R 1K6', 'T8R 1Y2', 'T8S 1M6', 'T8V 4H4', 'T8V 7S3', 'T8V 8B1', 'T8V 8K4', 'T8W 1M3', 'T8W 5J1', 'T8X 0L2', 'T9A 0T8', 'T9E 0B3', 'T9E 0C3', 'T9E 0R3', 'T9E 7E8', 'T9E 7M1', 'T9E 7N6', 'T9E 7R2', 'T9E 7R5', 'T9E 7S5', 'T9E 7T7', 'T9E 7T8', 'T9E 7W1', 'T9E 7W9', 'T9E 7X2', 'T9E 7X8', 'T9E 8G2', 'T9E 8H9', 'T9E 8P2', 'T9E7T5', 'T9M 1P3', 'T9N 2J3', 'T9V 2C2', 'T9V 2E4', 'T9V 3A7', 'TB6 3G8', 'TX8 0B1', 'V0B 2G0', 'V0E 1B6', 'V0E 2X0', 'V0G 1Z0', 'V0H 1Z1', 'V0J 3A0', 'V0J 3A1', 'V0K 1T0', 'V0M 1L0', 'V0R 1K4', 'V0R 1V0', 'V0R 2H0', 'V0R 2H1', 'V0R 2W3', 'V0X 1X0', 'V1B 3E4', 'V1B 3R9', 'V1B 3S1', 'V1E 1X2', 'V1E 4N3', 'V1G 4R8', 'V1J 5K5', 'V1J 7H2', 'V1L 6Z2', 'V1M 2X7', 'V1M 36A', 'V1S 1J6', 'V1S 1S4', 'V1T 8T9', 'V1V 2M2', 'V1X 4R2', 'V1X 5E6', 'V1X 5W6', 'V1X 7S2', 'V1Y 1M3', 'V1Z 1G2', 'V1Z 1G4', 'V2A 3H7', 'V2A 3K7', 'V2A 3M3', 'V2A 6P3', 'V2B 6B1', 'V2C 5P2', 'V2J 5Z2', 'V2K 1M8', 'V2K 3A1', 'V2L 2Z1', 'V2L 4V4', 'V2N 1X2', 'V2N 4T6', 'V2N 5S3', 'V2N 5T1', 'V2P 2N1', 'V2P 6H5', 'V2R 4H2', 'V2R 5N8', 'V2S 4N7', 'V2S 6B7', 'V2S 7M2', 'V2S 7M6', 'V2S 7T1', 'V2T 0A7', 'V2T 6G1', 'V2T 7L4', 'V2V 5X4', 'V2Y 1N7', 'V2Y 2S9', 'V2Y 2V9', 'V3A 4E3', 'V3A 4L5', 'V3A 4N4', 'V3A 4N5', 'V3A 5E8', 'V3C 1S9', 'V3C 2M8', 'V3C 6L4', 'V3G 1M1', 'V3K 5S9', 'V3M 5R1', 'V3M 6G7', 'V3S 4N9', 'V3S 8E5', 'V3T 5J4', 'V3V 3H2', 'V3V 4G8', 'V3W 4E8', 'V4G 1B5', 'V4G 1E2', 'V4G 1K7', 'V4N 2S1', 'V4N 3P5', 'V4N 3P8', 'V4N 3P9', 'V4N 3R7', 'V4N 4C2', 'V4N 4C3', 'V4N 4C4', 'V4N 4E6', 'V4S 0A1', 'V4W 2W5', 'V4W 2Z8', 'V4W 3A8', 'V4W 3W7', 'V4W 3X5', 'V4X 1C8', 'V5C 5A9', 'V5J 4S6', 'V5X 2X1', 'V6A 2X2', 'V6G 2B2', 'V6P 6G2', 'V6V 1J7', 'V6X 1T3', 'V6X 1X3', 'V6X 1X5', 'V6X 1Y4', 'V7A 4V1', 'V8G 5R5', 'V8L 5Y1', 'V9B 2S2', 'V9L 3X9', 'V9L 6B1', 'V9M 4C7', 'V9P 2B8', 'V9P 2B9', 'V9P 2C2', 'V9R 6W6', 'V9R 6Z5', 'V9S 3H6', 'V9S 4M8', 'V9W 3G2', 'X0E 0R6']</t>
         </is>
@@ -1116,11 +1145,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1179,12 +1208,15 @@
         <v>3790</v>
       </c>
       <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>22779</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>2</v>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>['CANADA', 'UNITED STATES']</t>
         </is>
@@ -1197,11 +1229,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1256,12 +1288,15 @@
         <v>567</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>61305</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>1331</v>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>['#1 - 2720 12th Street N.E.', '#1 - 7861 Hwy 97N', '#1 7884 49 Ave.', '#1 7884-49 Avenue', '#1 Cardinal Street', '#1 Greengage Road', '#1, 1915 - 30th Avenue North East', '#10 Forwell Road', '#107-20693 Langley Bypass', '#12, 3939 54th Avenue S.E.', '#120, 10569 - 42th Street SE', '#170 Hwy 83 North', '#301 26730 56th Avenue', '#306-5327-192nd  Street', '#4 4440-75Ave. SE', '#5-7880-128 Street', '#7 - 1231 36th Avenue N.E.', '#8, 4 Erickson Crescent', '#9 - 1065 Herring Gull Way', '#9 Laut Cres Box 602', "'A' Twp Rd 110", '07 Robinson Road  RR# 1', '1 Av. Premier', '1 Elmvalley Road', '1 Quai Mgr Blanche, hangar no. 6', '1 Royales Avenue', '1 Schenk Industrial Road', '1 rue Du Parc', '1, rue Pinat', "10 Boul. de L'Artisan", '10 Chemin de la Grande-Carriere', '10 Herritage RD', '10 Sicard St.', '10-B Li??bert', '100 - 10500, 48 Street S.E.', '100 Blvd. Real Caouette', '100 Canola Ave.', '100 East Beaver Creek Road', '100 Pierrot', '100 Shirley Avenue', '1000 6th Avenue N.E.', '1000 boul. Industriel', '1000, rue Industrielle, C.P. 279', '1001 Coutts Way', '1002 - 15 Ave Nisku', '1005 Pattullo Avenue, R.R. 8', '1006 Principale', '1008, Fte Mgr.-Bourget', '101 Marius Warnet', '102 Dawson Road, P.O. Box 3003', '102 Saliken Dr.', '102, rue du Menuisier', '102, rue du Parc Industriel, Case postale 70', '1020 17th Street West', '1020 Rue Craig Nord', '10240 Bl. L??vesque', '1026 Western Dr. Box 830', '1028 Laut Avenue', '103 Ave.', '103 Paramount Rd', '1030 Fernand-Dufour', '1035 Falconbridge Road', '1035, Rte. 219', '1038, Commerciale', '1040 Degurse Drive', '10401 Boul. Parkway', '1041 rue Nobel', '1043 rue Renault', '1047, rue Capri', '1049 The Queensway', '10498 17 Street', '105 MacDonald Street North', '1051 Heritage Road', '1053 Brock Road South', '10531 Gilmore Cr.', '10571 - 178th Street', '1064, boul. Mgr-de-Laval', '10647 McSween Road', '107 - 2707 Progressive Way', '1070 Gorham St', '10708-2nd Ave North West', '1071 Hwy 7 East RR# 7', '1077 Hwy 26', '10774 - 42nd St SE', '1084, Rue L??vis', '109 Erie Street South', '1090 South Service Road East, Unit A', '1091, rue Principale', '10920 - 87 Avenue', '1093 Lorimar Drive', '1093 Smithers Road', '1096, L??vis , unit?? #3', '11 500, 57 ieme Avenue', '11, Rue Dupuis', '110 Boul. Desjardins', '110 route du lac St-Francois', '110, 41 Royal Viste Drive North West', '1100 3ieme Ave.,', '1100 Aviation Avenue', '1100 Fairville Blvd.', '1100 Rue Deschaillons', '1100 Rue Norman', '1100 Wall Street', "1100 de l'Industrie", '11003 - 97 Avenue', '1114 Route 138', '112 route 155', '1120 Industrial Drive P.O. Box 1271', '1121 Heritage Road', '1121 Heritage Road.', '1123 Lorimar Drive', '11313 - 170th Street', '115 Cushman Road, Unit #46', '115, St-Georges', '11500, 55e Avenue', '11520 - 2 Street N.W.', '11525 - 42 Street SE', '11525 - 42nd Street South East', '1159 Des Pionniers', '116 Sunterra Heights', '116 Thorne Ave', '11634 - 156 Street', '11634 - 7th Street', '11635 6e avenue', '11650 - 156 Street NW', '1169 Pettit Rd.', '1170 Boulevard Lebourgneuf', '1170, boulevard Lebourgneuf, bureau 110', '11700 Boul. St-Jean- Baptiste', '11740 Phillipe-Panneton', '1185 Roland Street', '11860 Machrina Way', '11938 Imperial Road, R.R. #4', '12 Chelsea Lane', '12 McGregor Ave', '12 Norbett Drive, Units 2 &amp; 3', '12, Rang St-Andre', '1200 McIntyre Street', '1200 McIntyre Street`', '1200, rue Nationale', '1201 Route 329 Nord', '1202 8th Street, Bay 18', '12020 - 101 Avenue', '12031 Vulcan Way', '1205 36th Street', '1206, du pacifique', '121 B, rue Principale, C.P. 249', '12145 - 156 Street', '12145 Dorchester Rd. (RR #7)', '12145 Meridian St', '1215 Victoria', '12180 Industrial Rd.', '1220 Franklin Blvd.', '1225 64th Avenue N.E.', '123 Old Highway 11 North', '123 Princess Street', "1234, rue de l'eglise", '12343A - 104th Avenue', '124 St-Regis Crescent South, Unit 1', '12404-107th Street', '1245, rue Labadie', '12455, rue April', '1250 Gorham Street', '1250, Notre-Dame', '1250, boulevard V??zina', '12533 William Short Road Street', '126 Wheeler Street', '12603 GrandView Drive NW', '12605 - 66 Street', '12622 125th Street', '1266 Sharpe Line', '12731 Hwy #48', '12747 Hwy 16 E.', '129 Oakwood Street', '130 Canada St, PO Box 2008', '130 Millwick Drive', '130 route 335', '1301 Jackson Side Road', '1304 rue Principale', '131 Staffern Drive', '13105 rue Jean-Grou', '1312 Plank Road', '1313 rue de Saint-Jovite', '13143 Country Road 16', '1318 rue Principale', '132 Fletcher Creek', '132 Montee Grande Ligne', '133 Industrial Park Road', '1330 Riverside Road', '1345 Industrial Rd., Westside Industrial Park', '135 6th East', '135 McNarmara Drive', '1350 The Queensway', '1351 Ampere Local-0', '1351 Ampere, Suite 1', '1351 Lionel-Boulet', '13594 Sabo Road', '136 Highway 33, R.R. #3', '1360 Bloor Street West', '1360 Rang 6 Nord', '1360Champlain Street', '1367 Station Rd.  P.O. Box 581', '139 Laird Drive', '13920 Tecumseh Road R.R. #5', '1395 Route 139', '1399 Waterton Avenue', '14 Ferry Road', '14 Hallett Crescent', '14 Mont??e Petite C??te', '14 ch. Grande Ligne', '1405 - 41 Street North', '1405 - 41st Street North', '1407 Colborne Street East', '1415 39 Street North', '1417 Notre Dame Drive  RR#1', '143, Route 108', '14355 - 120 Avenue', '1439, Rang 1', '144 Henderson Drive', '1440 1??re Avenue', '145 Falcon Street', '1461 Star Top Rd.', '14650-118th Avenue', '1467 Spitfire Place', '1470 Star Top Road', '14701 14 Ave Crowsnest Pass', '1475 Clarence Avenue', '149 Bentley Avenue', '15 Iris Crescent', '15 Kenyon Street', '15 Robbins Drive', '150 Cree Crescent', '150, rue Edward-Assh', '1503 Petrolia Line RR#1', '151 Bullis Road', '151 Thornhill Drive', '1511 Sparrow Drive', '1511 rue J??rome-Hamel', '1520 Charles Street', '15210 Yellowhead Trail', '1525 County Road 42, RR#2', '152b Oakdale Rd', '153 Autumnwood Drive', '1540 Kal Lake Road', '1540 Saskatchewan Avenue', '15410 Yellowhead Trail', '1548 County Road 34', '155 Dawson Road', '155, Marie-Victorin', '1550 Highway 39 East', '156 Berryman Ave', '157, rue Principale', '1570 Hwy #7 At Brook Road', '1571 Liverpool Court', "15790 Robin's Hill Road", '158 Old Vernon Road', '15816 - 111 Avenue', '15935A 118th Avenue', '1596 Vella Road', '16 Estate Drive', '16 Second Street', '160, rue Savard, CP 188', '160, rue des Routiers', '1602 Western Street', '1607 S. Campus Ave', '16079, boul. Cure-Labelle (route 117)', '161 Deerhide Crescent Unit #3', '161 rue Sylvestre', '16105 Hwy #27 PO Box 209', '1616 Meridian Road N.E.', '162 Boulevard Mercier', '1621 Michael Street', '1630, Route Kennedy', '16304 - 117 Avenue', '16320 rang St-Dominique', '16333-130 Avenue', '164, Msg. Martin', '1640 Enterprise Road', '1641 De Gascogne', '165 Magill Street', '165 Thames E.', '1651 - 12th Street', '1655 Hymus Blvd.', '1655 boulevard de Port Royal', '166 North Murray - PO Box 682', '166 rue Sylvestre', '166 rue du Carrefour', '16615 Post Rd', '16703 - 110 Avenue North West', '16715 114th Avenue', '1690 rue Eiffel', '17 - 199 Omands Creek', '17 rue des Pins', '17-1-15 NE', '170 Joseph Zatzman Drive, Unit 18', '1715 Britannia Road East', '1718 - Hwy. #6 North, R.r. #2', '172 St-Laurent Blvd.', '1720 boulevard St-Charles', '1730 rue Atmec', '17303 - 114 Avenue', '175 Gordon Baker Road', '175 Pinedale Avenue', '175 Route 104', '175, route du Pont', '1750 Brown Road', '1750 West 75th Avenue', '1759 Trafalgar Street', '176 McGovern Drive, R.R. #32', '17604 105th Avenue', '1775 Drew Road', '1781 Bresse', '17817 Leslie Street, Unit 16', '1783 Oxford Street, Unit #5', "18 Dundee Avenue Suite #1 (Donovan's Ind. Park)", '180 Hodsman Rd.', '180 Honda Blvd.', '18020 - 118 Avenue', '1803 Ryan Road East', '1805-10 Avenue SW', '1809 Main Street', '18110 - 118 Avenue', '182 Darling Drive', '1830A Cage Court', '1836, 3e avenue', '1839 Seymour St. Site 9, Comp. 11, RR# 3', '1840 Gage Court', '1840 Kryczka Pl', '18412 96th Ave', '1845 route 122', '1850 Derry Road East', '1855 boul. Queen Victoria', '18550 - 96th Avenue', '186 Main Street', '18688 96th Avenue', '18th Ave', '19 Industrial Street', '19 Wheatland Avenue', '19, Gaston-Dumoulin', '19, rue C??t??', '190 Commercial Place', '1900-800 5th Avenue S.W.', '1904 4th street', '1908 Colonel Sam Drive', '191 Dalton Avenue', '1914 Glover Road', "1915 boul. de L'Industrie", '1940 Albion Road', '1940 Eglinton Avenue East', '19405 Enterprise Way', '19439 94th Avenue', '19470 - 96th Avenue', '19470 f?? 96th Avenue', '195 Citation Dr.', '195 Fyffe Road S.E.', '1951 Wilfert road', '19548 - 96 Avenue', '1955 Caribou Street West', '1955 West Trans. Canada Hwy.', '196 Armand Bombardier', '1963 Kingsway Avenue', '1995 Merivale Road', '1995, rue Frank-Carrel, bureau 90', '1st Street South, P.O. Box 1124', '2 - 418 South Railway Street South', '2 Arrowsmith Road', '2, boulevard Marie-Victorin', '2, rue du Parc', '2-331 Parkdale Road', '20 Alness Street', '200 - 53016 Highway 60', '200 Hempstead Drive, Unit 6', '200 Waydom Drive', '200 mont??e Industrielle', '200 rue Damasse Breton', '200, rue Savard, C.P. 6', '2000 Boul. Ste Sophie', '2000 Langstaff Road', '2000, avenue M??thot, C.P. 333', '2001 1st Avenue', '201 Woodlawn Road', '201 blvd Labb?? N # 6', '201-1492 Admirals Road', '2010 Riverside Drive', '20165 Logan Avenue', '202, 26229 TWP 531 A (Zone 2 Industrial Area)', '2020 Bantree St.', '2025 Lechatelier', '2028 Dundas Street', '2035 Bedell', '205 Boulevard Saint-Sacrement', '205 Konrad', '205 Miner', '205 rue Commerciale', '2054 Birch Crescent S.E.', '2060, 55e Avenue', '2066 Henry Avenue West', '2070 Concord Avenue', '2089 Rte. 132', '209, Joseph-Carrier', '2091 Baseline Road', '20940 - 107 Ave.', '21 Antares #205', '21 rue Gauthier', '21 rue Notre Dame', '2101, rue Chicoine', '2107 6th avenue', '2111 - 9th Avenue S.W.', '2119 Tramway', '2120 95ieme rue', '2124 Robinson Street', '2142 Country Road #16', '215 Tecumseh Street', '215 Terr Riopel', '2170 Winston Park Drive', '2177 Plains Road East', '22 Chemin Milton', '2202 Hanselman Ave.', '2204-84 Ave', '221 Route du Village', '2215 Ave. Francis Hughes', '2215 Midland Avenue', '2223 Drummond Line', '2223 Sentinel Road', '223 Bodia Ave', '2230 McCullough Road', '225 Nugget Avenue, Unit 14', '225 Oxford', '225 route 265 N.', '225, Ave. St-Sacrement', '2250 rue St-Jean', '226 Lesmill Rd.', '2275 Rue Canadien', '2275, 107i??me Rue, C.P. 490', '229 11th Avenue, North East', '2290 rang Versaille', '23 Boivin', '230 King St. East', '2307 Kings Rd', '231 Highway 17 East, P.O. Box 1181', '231, St-Antoine Nord', '2311 Highway 28, RR7', '2315 Boul. Wallberg', '232 South Service Rd', '2324 Place Du Gala', '232A Woolwich Street, South', '2337 Bowman Street', '235 Rue Principale', '2359 Boul. Fiset', '2380 Rue Dalton', '2390 S. Service Rd. W.', '24 Peet Street PO Box 8340, Stn A', '24 Yvon Provost', '240 Route 285', '240-103rd Street', '2400 Kirby Road', '241 Bluewater Road', '2430 Principale, CP 160', '2435 Eagle Street North', '2439 Riverside drive', '2450 Cohen Street', '2453 Chemin de Chambly', '2458 Highway 11', "246 Cooper's Road", '2490 Baseline Road, RR#8', '2492 Cedar Creek Road R.R. #1', '2499 Industrial Street', '25 - #8 Centennial Road', '25 Chemin De La Minerve', '25 Heritage Road', '250 West 70th Ave.', '250 rue Industrielle, local 10', '250, 2i??me Avenue', '2500 Boulevard McWatters', '2500 Georges Street', '25084 Highway #3 East', '251, Rg St-Jean-Baptiste', '252 Saratoga Road', '2521 Inkster Boulevrd', '2523 Fire Route O', '2525 Inkster Blvd.', '2525, rue Watt', '2565 Binder Crescent', '2590 Blackwell Street', '260 Dunkirk Road', '261 Bowes Road', '2612 Robison Rd.', '26162 30A Ave.', '26180 31B Avenue', '2625 Meadowpine Blvd.', '2628 Edinburgh Place', '2633 Bath Street', '2645-D, Boul. Terra-Jet', '265 Rue Etienne-Dubreuil', '2651 Markham Road', '2660 Sabourin', '268, St-Antoine', '2680 B Boulevard Hamel Ouest', '270 Lacerte', '2703 Henderson Highway', '2705, Boulevard Wilfrid-Laurier', '27137 S. Hwy 33', '2717 rue Watt, Parc Colbert', '272 Oak Point Service', '2725 Belisle Drive', '273 Highway 29', '273 Hwy. #29', '275 Boul Industriel Est C.P. 443', '275 Carrier Drive', '275 Clarence Street', '275 Waterloo Ave.', '2759 Lancaster Road', '279 East 1st Street, Box 1158', '279 Norseman Street', '279, Route 204', '2793 Carp Road', '28 Boul. Richelieu', '2801-84th Ave', '281 Main St. Hwy # 3, Box 401', '2810 Matheson Blvd East, Suite 200', '2820 84th Ave', '28419 Ranch Avenue', '287 Mountain Road', '29, rue Laroche', '2901 Rue Watt', '2903 Shuttle St.', '2909 Rue Bergman', '291 Young Road, R.R. # 8', '2920 Concession 21, R.R. 2', '2930 Pasqua St N', '2945 Millar Avenue', '295 Pinebush Road', '295, Rte. 165', '2957, boulevard P??re-Leli??vre', '299, St-Isidore', '3 Marconi Court', '3-1140 Sheppard Ave. West', '3-79 Eagle Drive', '30 Alpine Court', '300 Doepker Avenue', '300 Rue Du Parc', '300 St-Fran??ois-Xavier', '300, rue Alexis-Poirier', '300, rue Quennville C.P. 759', '300, rue des Pins Ouest,', '3000 Ament Line', '3000 rue Girardin', '301 Aqueduct Street', '301 chemin Lavaltrie C.P. 27', '302 Mill Street', '302 Portage Avenue, Sub 18', '303 20630 Mufford Crescent', '303 Station Road', '3044 Sawmill Rd', '305 Enford Road', '3050 Kilpatrick Road', '3050, rue Anderson', '30686-A Matsqui Place', '3074 Sawmill Road P.O Box 520', '308 River View Cresent', '3091, Albion road', '30th Street', '31 Torbarrie Road', '310 rue Metivier #110', '3104 Hampton Street', '3111  Shepard Place South East', '312 St George Avenue', '3128 Hope Place, R.R. #1', '313 Princess Street', '314 Lake Avenue North', '315 Park Avenue East', '3175 boulevard du Royaume', '3183 rue Harvey', '319 St. Jacques', '32 rue Industrielle', '3201 - 84 Avenue', '322 Rue Principale', '322 Totom Court', '325 Line 13 North RR #1', '325 Mud Street, R.R. #3', '325 Welland Avenue, Unit #8', '325 Weston Road, Unit 2D', '325, boul. Industriel', '3250  46th Avenue S.E.', '3255, Rue Picard', '326 Kenora Ave.', '327 Julien Street', '328, rue Adam', '329 Park Dale Avenue', '330 Saulteaux Crescent', '330 South Service Road', '331 Highway 12 North', '3311 B Millar Ave.', '3323 Hart Highway', '333 10th Street', '333 Bay Street, Suite 2400', '3332 - F River Rd.', '336 Birch Avenue', '34 Golden Gate Court, Unit #10', '340, 12e Rue', '3423 Millar Avenue', '3429 Hawthorne Road', '344 Fruitland Road', '345 Hwy 20, R.R. #3', '3455 Wolfedale Road', '34640 Currie Place', '34709 Talbot Line', '35 Boulevard Gagnon', '35 Hale Road', '35 Standford Flemming Drive', '35 Sunnyhurst Avenue, Unit 8', '35, De Montgolfier', '350 Parkdale Avenue North', '3500 Cite des Jeunes', '3513 Bay "F", 78th Ave', '3543 rue Principale, C.P. 333', '356 Industrial Drive', '3600, boul. Industriel', '3624 Hwy 209 (P.O. Box 35)', '3632 Boulevard des H?|tres', '3660 - 50th Avenue SE', '367 Boul. Chabot', '369 Quebec Street', '37 Raglin Place', '37 Sylvan Way', '37, De La B??tonni??re', '3705 route 108 Est', '37089 Talbot Line R.R. 3', '371, Grand Bernier Nord', '3731, Route 111 Est', '3737 Boulevard Lite', '375, Rue T??miscouata, C.P. 998', '3751 Highway 97', "3785 Hwy 316, RR#2 Larry's River", '38 Main St.', '38 Rue St-Anne', '3805, La V??rendrye', '3850, Boulevard Leman', '38547 Huron Street West, R.R. #2', '3855, 5e Avenue', '3855, rue Georges-Corbeil', '3875 Rue Georges Corbeil', '39 Bellevue Road', '3904 - 78 Avenue', '3904-78 Avenue', '391 Alliance Avenue', '391 St. Jean Baptiste Nord', '3914 81st avenue', '3915 - 52 Street Close P.O. Box 2148', '3965, rue Quebec Central', '3995, 2 Avenue North', '4, chemin De Vimy C.P 2027', '40 Automatic Road', '40 Oswald Drive PO Box 3156', '400 Dunlop Street West', '4000, quatri??me Rue', '401 9th Street North, Box 179', '401 Pido Road', '4013 Boileau Road', '4015 rue Carpentier', '4024 Charles Street', '404 Meridian Road NE', '4040 Brandon Street S.E.', "4049 St. Margaret's Bay Road", '405 Van Buren St.', '407 - 22 Avenue', '407 Farnham Road', '407568 Grey Road 4   RR 1', '41 Carmella Drive', '41 Claireville Drive', '41 Granger Avenue', '4110 - 76 Avenue', '4115 18th Avenue North', '4131 Morris Drive', '4140 Pleasant Road', '4144 Christophe Colomb', '4153 Hwy 38', '4164 New Street', '42 Merit Crescent, Unit #2', '42 Newcombe Crescent', '42 des Entreprises', '4200 Sladeview Crescent', '422 Lake Road, South Industrial Park', '430, rue Cantin', '4303 - 69 Avenue', '431 Henry Street', '4342, Boulevard Bourque', '43841 Talbot Line RR #3', '44 Aaron Trail', '44 Poneida Road', '4420 76 Avenue', '4425 76th Avenue', '445, boul. Industriel', '4451 - 54 Avenue SE', '448 CR 34 East, R.R. #2', '4490, Av. des Industries', '450 Desautels Street P.O. Box 792', '450 rue de Vernon', '4500 Boul Thimens, Suite 100', '4506 - 46 Avenue, Box 4831', '451 Route 116 Est', '4514 - 46 Ave.', '4515 6A Street NE', '4523 - 50 Street', '455 Main Street South', '45681 Yale Road W.', '4575 Powell Road', '4580, Mont??e Gagnon', '459 Industrial Road, P.O. Box 490', '459 Wellington Street', '4600, boulevard Henri-Bourassa, suite 234', '4612 19th Avenue North West', '4618 Boulevard St. Joseph', '465 Bloor Street West', '465 Second Line East', '4680 boulevard Frontenac Est', '47 Canada Avenue', '470, Route 116 est', '4715 76th avenue South-East', '4721, 50th Street, Suite #1', '4731 78A STREET CLOSE', '475 Prince Charles Drive South', '475 rang St-Joseph', '476 Haut de la Chute', '476, rang 2-3 Ouest', '477 Aspdin Road', '48 Ardelt Ave', '480 - 7 Stree N.E.', '4807 82nd Avenue', '481 Madison Street', '4811 - 51 Avenue', '483 Rennie Street', '4841 - 78 Street', '485 - 6th Avenue East', '485 Chemin Rivard', '487 rue Principale', '4870, rue de Courval', '488 Rue St. Pierre', '4880 Walker Road', '489 Abelard-Savoie Boulevard', '490 Highway 17', '4900 Golf Course Road', '4910 - 80 th Avenue S.E.', '4919, Marie-Victorin', "492 de L'Esplanade", '493 St. Amable', '4975 8th Concession Road', '4985 Polkey Road', '5 Borden Street', '5 Tangiers Road', '50 Industrial Street', '50 Main Street', '50 McKenzie Road', '50 Northland Road, suite 400', '50 St-Jude Sud', '50, chemin du Tremblay', '500 Rte 220', '500 Waydom Drive', '501 - 24 Avenue', '5013 48th Street', '505 Kenora Avenue, Unit #8', '5075 De La Plaisance', '5091 rue Noel', '510 Whissell', '5125 De la Plaisance', '5125 Harvester Road, Unit 7', '5135, Domville', '5140 Halford Drive', '5151 Hwy 17 West', '5151 Simcoe Street', '5171 Thimens', '5172 route 3 Central Argyle', '5183 Route Domaine du Lac', '52 Ellisview Road', '5200 Dixie Road, Unit #46', '521 Achray Road', '521 Rue Principale', '5218 - 62th Street', '5221-46 Street', '5227 Highway 17', '526 rue Lanaudiere, Suite 104', '5280 Fairway', '5285 - 192 Street', '5290 Orbitor Drive', '53 Jamieson Drive, R.R. #1, Forest Home Ind. Park', '530 Providence', '531 Admiral Drive', '5320-B 48th Avenue South East', '5329 72nd Avenue S.E., Box 70', '533, 71st Avenue S.E.', '5350, Armand-Frappier', '5351 46th Avenue S.E.', '5360 rue St. Roch', "54 rue de l'Eglise", '54-5359 Timberlea Blvd.', "541, rue de l'Harricana", '5411 Chemin du Lac', '5439 McKinley Ave.', '5450 Rue St-Roch', '55 - 10 Avenue S.E.', '55 Crockford Blvd.', '55 Isnor Drive', '55 Steeles Avenue East', '55 White Street, Box 2', '550 George Avenue', '550 McGeachie Drive', '5500 North Service Road', '5502 56th Avenue S.E.', '551 Crestwood Drive', '5511 - 6 Street S.E.', '5521, chemin de l"Aeroport', '554 Rg Haut-St-Amable', '555 Cassell Drive, General Delivery', '555 St-Louis', '55780 Third Street, P.O. BOX', '56 Beach Road', '56 Boul. Industriel', '56 Churchill Drive', '560 Suffolk Court', '563 Montee Princepale', '565 Marjorie Street', '566', '5674 Production Way', '57 Durand Road', '5701 Warner Drive', '5705 - 76th Avenue', '5723 198th Street', '5734 103rd Street South', '577 Route 535', '5770 Place Kubota', '5785 Place Turcot', '58 Cowansview Rd', '580, Lionel Boulet', '581 McGeachie Drive', '581 avenue Lepine', '5810 - 50th Street', '583, St-Ovide', '585 Granite Court', '59 Elm Ave', '59 Maitland Avenue, R.R. #4', '5901 - 48 Avenue', '5909 - 90th Street', '5909-6th Street SE', '591 Chester Road', '591 Chester Road, Annacis Business Park', '591 Rymal Road West', '5925 Hemingway', '593 Rte 219', '595 Lanaudiere', '5982 Main Street', '6 Edmondson Street, P.O. Box 368', '6 Ragged Lake Drive', '60 Northline Road', '60-8 Bristol Road East, Suite 506', '6025 - 12 Street SE', '606 Highway Drive', '6060, 86th Avenue S.E.', '607-15 Avenue', '609 rue Principale', '6095 Austin Street', '6100 Chemin St-Francois', '6101, boulevard Talbot', '6115 - 30th Street', '6120 Route 101', '620 Garyray Drive', '620 Moraine Road N.E.', '620 Nairn Avenue', '620 Stewart St', '6200 Henri-Bourassa', '6210 - 50 Avenue, Box 7324', '6218 - 54 Avenue', '622 Dundas Street, suite 416', "625 rue d l'Argon", '63 Millroad, Box 6', '630 Adams Court', '633 Rang 9', '638 Fortune Cres.', '64 Bartor Road, Unit 5', '64 Signet Drive', '64 Springbank Ave. South', '6418 Courtright Line R#1', '643 rue De Quen', '6439 Netherhart Road', '6444 - 67 Street', '645 Athlone Place', '6490 Vipond Drive', '65 Reive Blvd.', '65 Winder Street', '650 Cargill Rd.', '650 Hardwick Road', '650, 5e Rang', '655 - 30 Street North', '65906 State Road 19 PO Box 585', '66 Fernstaff Court', '660 Riverside Road', '665 Arvin Avenue', '6701 Financial Drive, Suite 100', '6702 Golden West Ave.', '6706 - 44 Ave.', '6711 Mississauga Rd. N.', '6727 - 68 Avenue', '6730 Golden West Avenue, P.O. Box 540', '6739, 67 Avenue', '6740 - 65 Avenue', '675 Trotter Street', '675A Davenport Road', '676 Main Street', '6760 65th Avenue', '6761 67 Avenue', '6771 84 Street S.E.', '680, Rue Des C??dres', '6809 42 Avenue', '682 Okanagan Avenue East', '686 Talbot Street West', '692 - 5th Concession West, R.R. #2', '6943 Highway 38', '6961 Highway 3', '6970 Kenderry Gate', '6981 Boul. Bourque', '7 - 35th Avenue', '7 Hattfield Place', '7 Industrial Ave', '7 Petersburg Circle', '7, Rang St-Francois Est', '70 3rd Avenue Box 1790', '70 Mount Hope Street', '700 Finley Avenue, Unit 5', '700 Franklin Blvd., P.O. Box 98', '700 Richmond Street', '700, rue Jean-Marchand', '7035 Pacific Circle', '706 - 19 Avenue', '7079 Wellington Road 124', '7111 Russell Street', '7127 Honeyman St', '713, Route 219', '7188 Vantage Way', '720 Wilson Road South', '7202, 98 Street', '7245 West Industrial Loop', '726, Saint-Joseph', '73 Brydon Drive', '732 Old Sackville Road', '7337 Trans Canada Highway', '7350 72nd Avenue', '742 Casey Rd.', '747 Bloor Street West', '7475 - 51 Street S.E', '75 Frontenac Drive', '75 Rue Hector C.P. 90', '750 Industrial Rd.', '7500 Trans-Canadienne', '7501 Wilkes Ave.', '7525-51st St. SE', '75836 London Road', '7605 Louis-Quilico', '762 Conception Bay South Highway, Unit 1', '7640, Boul. Ste-Anne', '766 Route 700', '767 Old Sambro Road', '77 RUE MAINVILLE', '770 Lakeside', '770 Ross Avenue', '7700 St-Patrick', '7700, rg St-Andr??', '7739 Edgar Industrial Way', '775 Lemire', '7760 18th Street', '7762 - 47 Avenue Close', '7793 Young Street', '783 rue Mo?(r)ller', '79 rue principale', '79, 1i??re Rue Nord, C.P. 277', '7905 Enterprise Drive', '791, Route Principale', '7910 rue des PME', '7911 Edgar Industrial Drive', '7923 54th Street S.E.', '793-A Riviere Nord, Route 339', "7985 boul. L'Ormi??re", '80 Clarke Street S., Unit 2', '80 Commerce Pl', '80 High Street, Unit 2', '80 Saramia Crescent', '800 South Railway Ave', '800, Chemin Olivier', '800-47th Street East', '8007-39th Street', '8010-44th Street S.E.', '8019 - 54 Street S.E.', '803 - 46th Street East', '8046 Edgar Industrial Crescent', '811 Steeles Avenue East', '8124 Davies Road', '8135 Wagner Road', '8155 -128 Street', '818 - 43rd Street East', '81Tannery Road', '820 Garyray Drive', '821 Du Parc', '821 Fairweather Place', '822 Bellevue Ouest', '826, boul. Guimond', '83 Caledonia Road, R.R.#4', '8300 Edison', '831 Nipissing Road', '8332 Haldibrook Road', '835 Mission Street', '8350 Boulevard Industriel', '843 rue Charest', '847 - 60th Street East', '85 Northland Road', '853 Route 111, C.P. 214', '855 Matheson Blvd E Unit 9', '8580 River Road', '859 Station Avenue', '8600 - 92 Street', '8600 - 92nd Street', '865 Bradford Street', '865 Rang Papineau', '866 Derwent Way', '866, route St-Joseph', '868 Blackwoods Avenue', "8685 Champ D'Eau", '87 Ashgrove Crescent, Box 654', '87 Elora Street', '87 Southwest Drive S.W.', '873 Hodge', '88 Kenmount Road', '88 Route 158', '88 rue des Routiers', '880 Desaulniers, bureau 11', '880 rue Lucien Leclerc', '8803 - 60th Ave', '882 5th Street East', '8825 126th Avenue', '89 Rue du Parc Industriel', '89 ch. Thibodeau', '8900, 25 i??me Avenue', '8901-150 Ave.', '896 Lakeshore Ct.', '90 Enterprise Dr.', '9000 Boulevard Parent', '9000, boulevard Industriel', '91 Chemin Des Patriotes', '910 Saskatchewan Avenue East', '9111-41st Avenue', '9115 -52nd Street SE', '918, 16th Avenue N.W. suite 4020', '9189 National Place', '92 Boulevard Est', '920 Denison Street Unit 11', '920, Cur??-Boivin', '9200 22 Avenue', '921 chemin de la Rivi??re du Nord', '923 - 46 Avenue S.E.', '927 - 48 Avenue SE', '927 Gaudette', '927, Route 111 Ouest', '9301 -102 Street', '9305 - 27 Avenue', '9312 - 110A Street', '933 Boul. Simard', '9345 25ieme Avenue Est, Parc Industriel', '940 Winston Churchill Blvd.', '9475 - 192 Street', '9475 Pascal -Gagnon', '9502 - 87th Avenue', '9532 - 27th Avenue', '955 Maginot Street', '955 Woodlawn Road W.', '9550 10E Avenue', '96 Principale', '9604 - 112 Street', '9620-62nd Ave', '967 Trunk Rd.', '97 Hounslow Drive N.W.', '970 Boul. Industriel Est', '970, Avenue Bombardier', '981, Boul. Hamel', '9834 - 179th Street', '9835 - 199 A Street', '9880 McGrath Road', '990 Pays-Brule', 'BOX 291', 'Bag No. 2019', 'Barfield Road', 'Bay 162, 6660 64th Avenue', 'Bay 3 #2 Erickson Crescent', 'Bay 33 - 820 51st Street East', 'Bay 5, 3925 Avenue S.E.', 'Bay F-298-28042 Hwy 11', 'Bay K 8816 44th street', 'Bay L 8616 44th Street SE', 'Box 1003', 'Box 1050 401 - 22nd Street East', 'Box 11', 'Box 117', 'Box 1205', 'Box 129', 'Box 1300', 'Box 133, Eastside hwy 20', 'Box 1343', 'Box 1360', 'Box 1408', 'Box 1594', 'Box 176', 'Box 1780', 'Box 1840', 'Box 187', 'Box 22, Group 60, R.R. #1', 'Box 225', 'Box 2308', 'Box 247', 'Box 269', 'Box 2738, Station "B"', 'Box 280', 'Box 30', 'Box 310', 'Box 310, Elevator Road', 'Box 317', 'Box 388', 'Box 393', 'Box 4, Group 582, R.R. # 5', 'Box 4, site 3, RR2', 'Box 4101, 30 Alberta Avenue', 'Box 430', 'Box 45', 'Box 478', 'Box 490', 'Box 511', 'Box 539', 'Box 5396', 'Box 5501', 'Box 56, Group 525, R.R. 5', 'Box 576', 'Box 617', 'Box 671', 'Box 72036, Ottewell P.O.', 'Box 748', 'Box 8029', 'Box 88', 'Box 89', 'Box 9025', 'Box 934', 'Box 94', 'Box 990', 'Box C-5, Pringle Road', 'Breithaupt Street', 'Burbank Industrial Park Box 1628, 27121-13 Hwy 597', 'C.P. 155', 'C.P. 1801', 'C.P. 189', 'C.P. 3503', 'C.P. 460', 'C.P. 5040', 'C.P. 540', 'C.P. 698', 'Carman Road', 'Coleraine Drive', 'Creditview Road, Unit #2', 'D-825 Laval Crescent', 'East St', 'Exit 13, Hwy. 102, P.O. Box 1229', 'Farewell Road', 'Grace Cresent', 'Grassmere Road, Unit 10', 'Highway #2 South', 'Highway 875', 'Horton Road South West', 'Hunter Rd.', 'Hunter Road', 'Ilsley Avenue', 'Keystone Colony Farms Ltd. Box 7', 'Lot 110 Crystal Lake', 'Main Road', 'Marine Parade Dr.', 'Midland Avenue', 'Montrichard Avenue', 'Muskoka Road #4', 'NE-3-3-25  P.O. Box 2579', 'NW 28 16 15 W', 'NW-28-26-18-W2nd, P.O. Box 547', 'North Industrial Drive', 'One Toyota Place', 'P.O BOX  1922', 'P.O BOX 218', 'P.O BOX 549', 'P.O Box 340', 'P.O Box 607', 'P.O. 248', 'P.O. BOX 1120', 'P.O. BOX 1131 Station Main', 'P.O. Box 10', 'P.O. Box 100', 'P.O. Box 1055', 'P.O. Box 1146', 'P.O. Box 1150', 'P.O. Box 116', 'P.O. Box 12, 2753 Highway 27', 'P.O. Box 1230', 'P.O. Box 129', 'P.O. Box 130', 'P.O. Box 1300', 'P.O. Box 1370', 'P.O. Box 1419', 'P.O. Box 1530', 'P.O. Box 156', 'P.O. Box 16', 'P.O. Box 160', 'P.O. Box 17', 'P.O. Box 1799', 'P.O. Box 1871', 'P.O. Box 19', 'P.O. Box 1900', 'P.O. Box 209', 'P.O. Box 218', 'P.O. Box 245', 'P.O. Box 249', 'P.O. Box 26575, Markville Postal Outlet 26575', 'P.O. Box 273, 2000 16th Sideroad', 'P.O. Box 278', 'P.O. Box 279', 'P.O. Box 285', 'P.O. Box 328', 'P.O. Box 332', 'P.O. Box 3488, Station C', 'P.O. Box 359', 'P.O. Box 360 - McLean Avenue', 'P.O. Box 365', 'P.O. Box 368', 'P.O. Box 376', 'P.O. Box 4', 'P.O. Box 406', 'P.O. Box 420,', 'P.O. Box 422', 'P.O. Box 46', 'P.O. Box 486, 88 Forest Street', 'P.O. Box 509', 'P.O. Box 532', 'P.O. Box 535', 'P.O. Box 54', 'P.O. Box 586', 'P.O. Box 6,', 'P.O. Box 600', 'P.O. Box 607', 'P.O. Box 609', 'P.O. Box 67 Station T', 'P.O. Box 717', 'P.O. Box 73', 'P.O. Box 75', 'P.O. Box 770, Station K', 'P.O. Box 8', 'P.O. Box 820', 'P.O. Box 8238 Stn A', "P.O. Box 9136, Station `E'", 'P.O. Box 938', 'P.O. Box 96', 'P.O. Box 988', 'P.O. Box 99', 'P.O. Box 99, 55 Marsh Street', 'P.O.Box 185', 'PO BOX 5933', 'PO BOX 7162', 'PO Box 10676', 'PO Box 1197', 'PO Box 2100 Station M', 'PO Box 3715', 'PO Box 487', 'PO Box 616 1184 Middlegate Rd.', 'PO Box 64', 'PO Box 656', 'PO box', 'PO box 69', 'PO box 989', 'Pinewood Close', 'Po box', 'Production Way, Unit #103', 'R.R. #1', 'R.R. #1, Box 56', 'R.R. #2', 'R.R. #2 - 561 Ofield Road North', 'R.R. #2, 580 Maple Road', 'R.R. #2, Woodbine Ave.', 'R.R. #3', 'R.R. #3, Central Bedeque', 'R.R. #3, Site 9, Box 12', 'R.R. #4', 'R.R. #5', 'R.R. #7, Junction Station Road', 'R.R. #8, Site 26, Comp. 4', 'R.R. 1, 6915 Wellington Road 7', 'R.R. 1, Box 328, Group 25', 'R.R. 2 Site 7 Box 5', 'R.R. 2, Box 4015', 'R.R. 3, P.O. Box 6', 'R.R. 8-6-17', 'R.R.#1', 'R.R.#2', 'R.R.#3, Highway No. 3', 'R.R.#4', 'R.R.#4, James St. South,', 'R.R.#5, 5656 Highway 6 North', 'RR #3', 'RR 1, 12 Holland Rd W', 'RR 1, Site 12, 28016B Secondary hwy 633, PO Box 5', 'RR 6', 'RR 7 (3rd Line, Amaranth)', 'RR#2 Wiarton 462120', 'RR#3 60 Dedrick Road', 'RR#5, Site 501, Box 11', 'Rd 64  RR3', 'Rhodes Drive', 'River Road', 'Route 15', 'S.E. 16391W5 or 5.6 km on Hwy 20 from hwy 11', 'Sec Hwy 834', 'Site 13, Box 11, R.R. #1', 'Skyway Road', 'Solvay Drive', 'Suite 242 (300 -8120 Beddington Blvd. N.W.)', 'Suite 300 - 8120 Beddingtom Blvd. N.W.', 'The Canadian Road', 'Unit #150 - 7280 River Road', 'Unit 130 12855 Clarke Place', 'Unit 54-3347 262nd Street', 'Unit 6 - 1343 Alberni Highway', 'Unity Road West And Hwy. 6', 'n/a', 'unkown', 'xxxx']</t>
         </is>
@@ -1274,11 +1309,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1333,12 +1368,15 @@
         <v>568</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>29395</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>643</v>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>['Abbotsford', 'Abotsford', 'Acheson', 'Acton Vale', 'Adstock', 'Advocate harbor', 'Airdrie', 'Ajax', 'Aldergrove', 'Aldersyde', 'Allanburg', 'Alma', 'Altona', 'Amos', 'Anjou', 'Annaheim', 'Anola', 'Arborg', 'Ardossan', 'Arnprior', 'Aroostook', 'Asbestos', 'Auburn Hills', 'Aylmer', 'Ayr', 'Azilda', 'B??cancour', 'Baie St. Paul', 'Barrie', 'Beamsville', 'Beausejour', 'Bedford', 'Belleville', 'Bellevue', 'Beloeil', 'Benito', 'Berthierville', 'Bethune', 'Bic', "Bishop's Falls", 'Blackfalds', 'Blainville', 'Blenheim', 'Boisbriand', 'Bolton', 'Bond Head', 'Bonnyville', 'Bothwell', 'Boucherville', 'Bourget', 'Bowmanville', 'Bracebridge', 'Brampton', 'Brandon', 'Brantford', 'Breslau', 'Brighton', 'Bromhead', 'Brooks', 'Brookside', 'Brougham', 'Brucefield', 'Burlington', 'Burnaby', 'Calahoo', 'Caledonia', 'Calgary', 'Cambridge', 'Cambrige', 'Camrose', 'Candiac', 'Canfield', 'Cap Pele', 'Cap Sant??', 'Cap St. Ignace', 'Cardigan', 'Cardston', 'Carignan', 'Carleton Place', 'Carman', 'Carp', 'Carthwright', 'Cartier', 'Cartwright', 'Carvel', 'Casselman', 'Cassleman', 'Cavan', 'Central Butte', 'Centreville', 'Chambly', 'Chambord', 'Charlesbourg', 'Chateau-Richer', 'Chateauguay', 'Chatham', 'Chelsea', 'Chemainus', 'Cherhill', 'Chesterville', 'Chicoutimi', 'Chilliwack', 'Claimont', 'Clairmont', 'Claresholm', 'Clifford', 'Coaldale', 'Cochrane', 'Colborne', 'Cold Lake', 'Coleman', 'Collingwood', 'Comox', 'Concord', 'Cookshire', 'Coombs', 'Coquitlam', 'Cornwall', 'Corunna', 'Courtland', 'Cowansville', 'Craik', 'Cranford', 'Crediton', 'Cromer', 'Crooked Creek', 'Crossfield', 'Cutknife', 'Cypress River', 'Darmouth', 'Dartmouth', 'Daveluyville', 'Dawson Creek', 'Daysland', 'Debert', 'Delburne', 'Delhi', 'Delson', 'Delta', 'Deschambault', 'Dieppe', 'Dolbeau-Mistassini', 'Donnacona', 'Dorval', 'Downsview', 'Drake', 'Drayton Valley', 'Drumheller', 'Drummondville', 'Duncan', 'Dundalk', 'Dundas', 'Dunham', 'Dunnville', 'East Broughton', 'Eden', 'Edmonton', 'Elmira', 'Elora', 'Embrun', 'Errington', 'Estates Onoway', 'Esterhazy', 'Etobicoke', 'Exeter', 'Fenwick', 'Flesherton', 'Fort Erie', 'Fort Mill', 'Fort St-John', 'Frankville', 'Freelton', 'Gatineau', 'Gerald', 'Glenboro', 'Goderich', 'Gormley', 'Gorrie', 'Granby', 'Grand Mere', 'Grand Prairie', 'Grand-Mere', 'Grande Prairie', 'Grassie', 'Gravelbourg', 'Gretna', 'Grimsby', 'Grunthal', 'Guelph', 'HJuntsville', 'Hagen', 'Halifax', 'Hamilton', 'Hampton', 'Harrison Mills', 'Harrowsmith', 'Hartland', 'Hawkestone', 'Hayter', 'Headingley', 'Hearst', 'Heidelberg', 'Hellier', 'Hemmingford', 'High River', 'Hillsborough', 'Hillsdale', 'Hodgson', 'Howie Center', 'Hoyt', 'Hubley', 'Hudson Bay', 'Humboldt', 'Iberville', 'Ingersoll', 'Innisfil', 'Inwood', 'Iroquois', 'Joliette', 'Joly', 'Jonquiere', 'Kakabeka Falls', 'Kamloops', 'Kelligrews', 'Kelowna', 'Kelvington', 'Kemptville', 'Keswick', 'Kincardine', 'Kingston', 'Kitchener', 'L??vis', 'La Minerve', 'La Plaine', 'La Sarre', 'Labelle', 'Lac Brome', 'Lac La Hache', 'Lac M??gantic', 'Lachenaie', 'Lachine', 'Lacombe', 'Lacombe County', 'Lafleche', 'Lafontaine', 'Langley', 'Lanoraie', 'Lashburn', 'Laterri??re', 'Laval', 'Lavaltrie', 'Leader', 'Leamington', 'Leduc', 'Lennoxville', 'Leslieville', 'Lethbridge', 'Linden', 'Lindsay', 'Lislet', 'Listowel', 'Lively', 'Lloydminster', 'London', 'Long Sault', 'Longueuil', 'Louiseville', 'Lower Sackville', 'Lunenburg', 'Mallaig', 'Manotick', 'Maple', 'Markham', 'Marmora', 'Martensville', 'Maskinong??', 'Matane', 'Mattawa', 'Maxville', 'McWatters', 'Medicine Hat', 'Melfort', 'Melville', 'Mercier', 'Millbrook', 'Millet', 'Milton', 'Milton Station', 'Mirabel', 'Miscouche', 'Mission', 'Mississauga', 'Moncton', 'Mont-Lebel', 'Mont-Tremblant', 'Montmagny', 'Montr??al', 'Montreal', 'Moose Jaw', 'Morden', 'Morinville', 'Morris', 'Mount Forest', 'Mount Pearl', 'NOT ENTERED', 'Naicam', 'Nanaimo', 'Napierville', 'Neepawa', 'Nelson', 'Nepean', 'Neufchatel', 'Neuville', 'New Lowell', 'Newmarket', 'Nipawin', 'Nisku', 'Niverville', 'Noranda', 'North Battleford', 'North Bay', 'North York', 'Norwich', 'Norwood', 'Notre-Dame', 'Notre-Dame de Lourdes', 'Notre-Dame-Du-Bon-Conseil', 'Notre-Dame-du-Laus', 'Notre-Dame-du-Nord', "O'Leary", 'Oakville', 'Odessa', 'Ohaton', 'Oil Springs', 'Okahumpka', 'Okotoks', 'Olds', 'Oliver', 'Ontario', 'Orangeville', 'Orillia', 'Oro Station', 'Oshawa', 'Ottawa', 'Palmarolle', 'Paradize', 'Parksville', 'Parry Sound', 'Peace River', 'Pembroke', 'Pentiction', 'Penticton', 'Perth', 'Peterborough', 'Petite-Rivi??re St-Francoi', 'Petrolia', 'Pickering', 'Pierreville', 'Pincher Creek', 'Plantagenet', 'Plessisville', 'Plessiville', 'Pohenegamook', 'Pointe-Claire', 'Ponoka', 'Port Colbourne', 'Port Coquitlam', 'Port Rowan', 'Port au Choix', 'Portage La Prairie', 'Portage la Prairie', 'Prince Albert', 'Prince George', 'Princeton', 'Princeville', 'Qu??bec', 'Quebec', 'Quesnel', 'Radisson', 'Rapid City', 'Rathwell', 'Rawdon', 'Raymore', 'Red Deer', 'Red Deer County', 'Regina', 'Renfrew', 'Repentigny', 'Rexdale', 'Rexton', 'Richmond', 'Richmond Hill', 'Ridgetown', 'Riding Mountain', 'Rigaud', 'Rimouski', 'Rivi??re-du-Loup', 'Riviere-du-Loup', 'Rocky Mountain House', 'Rodney', 'Rolling Hills', 'Rosedale', 'Rosenort', 'Russell', 'Ruthven', 'SAINT-GERMAIN-DE-GRANTHAM', 'Saint John', 'Saint-??variste', 'Saint-Amable', 'Saint-Ferdinand', 'Saint-Georges', 'Saint-Gerard-Majella', 'Saint-Hubert', 'Saint-Hyacinthe', 'Saint-Jean-Sur-Richelieu', 'Saint-Jean-sur-Richelieu', 'Saint-Joseph de Coleraine', 'Saint-Lambert-de-Lauzon', 'Saint-Laurent', 'Saint-Lin', 'Saint-Marc du Lac Long', 'Saint-Pierre-Baptiste', 'Sainte M??lanie', 'Sainte-Brigitte-des-Sault', 'Sainte-Eulalie', 'Sainte-Foy', 'Sainte-Rosalie', 'Sallaberry De Valeyfield', 'Salmo', 'Salmon Arm', 'Saltcoats', 'Sarnia', 'Saskatoon', 'Sault Ste. Marie', 'Scarborough', 'Schomberg', 'Scott Jonction', 'Sept-iles', 'Shallow Lake', 'Shanty Bay', 'Shawinigan', 'Shawinigan Sud', 'Shedden', 'Sherbrooke', 'Sherwood Park', 'Shreveport', 'Sidney', 'Smith Falls', 'Smithville', 'Sorel-Tracy', 'South Huron', 'Sparewood', 'Spruce Grove', 'St- Paul', 'St-Agapit', 'St-Amable', 'St-Andre Avelin', 'St-Andre-de-Kamouraska', 'St-Antoine, Mirabel', 'St-Antoine-De-Tilly', 'St-Autonin', 'St-Barnab??-Sud', 'St-C??me', 'St-Catherines', 'St-Celestin', 'St-Charles-de-Drummond', 'St-Chrysostome', 'St-Dominique', "St-Elie D'Orford", 'St-Elie-de-Caxton', 'St-Eustache', 'St-F??licien', 'St-Ferdinand', 'St-Fr??d??ric', 'St-Francois du Lac', 'St-Francois-du-Lac', 'St-Gabriel de Brandon', 'St-Georges', 'St-Georges Est-beauce', 'St-Georges de Beauce', 'St-Germain-de Grantham', 'St-Hubert', 'St-Hyacinthe', 'St-Isidore', 'St-J??r??me', 'St-Jean Chrysostome', 'St-Jean-Chrysostome', 'St-Jean-Sur-Richelieu', 'St-Jean-sur-Richelieu', 'St-John', "St-John's", 'St-Joseph de Levy', 'St-L??onard', 'St-Laurent', 'St-Lazare', 'St-Leonard', 'St-Lin', 'St-Mathias', 'St-Mathieu', 'St-Mathieu-de-Beloeil', 'St-Nicolas', 'St-Odilon de Cranbourne', 'St-Pascal', "St-Paul D'Abbotsford", "St-Paul-de-l'??le-aux-noix", 'St-Quentin', 'St-R??mi-de-Tingwick', "St-Roch de l'Achigan", 'St-Sim??on', 'St-Stanislas', 'St-Thomas', 'St-Ubalde', 'St-Urbain', 'St-Valerien', 'St-Victor', 'St. Agatha', 'St. Albert', 'St. Andrews', 'St. Barnabe Sud', 'St. Brieux', 'St. Bruno', 'St. Catharines', 'St. Catherines', 'St. Clements', 'St. Damase', 'St. Francois Xavier', 'St. George', 'St. Gervais', 'St. J??r??me', 'St. Jacobs', 'St. Jacques', "St. John's", 'St. Laurent', "St. Mary's", 'St. Marys', "St. Paul d'Abbotsford", 'St. Philippe', 'St. Raymond', 'Ste Sophie', 'Ste Therese', 'Ste- Gertrude Abitibi', "Ste-??m??lie-de-l'??nergie", 'Ste-Agathe', 'Ste-Anne des Plaines', 'Ste-Cath-de-la-Jq-Cartier', 'Ste-Catherine', 'Ste-Foy', 'Ste-Germaine Boul??', 'Ste-Julie', 'Ste-Melanie', 'Ste-Rose-de-Watford', 'Ste-Sophie-de-L??vard', 'Ste-Sophie-de-Levrard', 'Ste-Th??r??se', 'Ste. Claire', 'Ste. Marguerite', 'Ste. Rose', 'Steinbach', 'Stettler', 'Stittsville', 'Stoney Creek', 'Stony Plain', 'Stouffville', 'Straffordville', 'Strathroy', 'Sturgeon Falls', 'Sudbury', 'Sullivan', 'Summerland', 'Summerside', 'Sundre', 'Sunset Point', 'Surrey', 'Sutton', 'Swan River', 'Sylvan Lake', 'Taber', 'Tangier', 'Tappen', 'Taschereau', 'Tecumseh', 'Terrace', 'Terrebonne', 'The Nation', 'Thedford', 'Thetford Mines', 'Thunder Bay', 'Tilbury', 'Tillsonburg', 'Timmins', 'Toronta', 'Toronto', 'Treherne', 'Trenton', 'Trois Rivieres', 'Trois-Rivi??res', 'Two Hills', 'Uxbridge', 'V. de St-Georges', 'Val Caron', "Val-D'Or", 'Valcourt', 'Vancouver', 'Vanderhoof', 'Vanier', 'Varennes', 'Vaudreuil', 'Vernon', 'Vernon Bridge', 'Verona', 'Victoria', 'Victoriaville', 'Ville de St-Georges', 'Wallenstien', 'Warburg', 'Warminster', 'Warren', 'Warwick', 'Waterdown', 'Waterloo', 'Waubaushene', 'Wawanesa', 'Welland', 'West St. Paul', 'Westbury', 'Westfield', 'Westlock', 'Wetaskiwin', 'Weyburn', 'White Lakes', 'Whitemouth', 'Wiarton', 'Wickham', 'Windsor', 'Winkler', 'Winnipeg', 'Woodrow', 'Woodstock', 'Woodville', 'Wyebridge', 'Yarker', 'Yarmouth', 'Yarmouth County']</t>
         </is>
@@ -1351,11 +1389,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1414,12 +1452,15 @@
         <v>1043</v>
       </c>
       <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
         <v>25751</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>17</v>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>['573', 'Alberta', 'British Columbia', 'California', 'Florida', 'Indiana', 'Louisiana', 'Manitoba', 'Michigan', 'New Brunswick', 'Newfoundland and Labrador', 'Nova Scotia', 'Ontario', 'Prince Edward Island', 'Quebec', 'Saskatchewan', 'South Carolina']</t>
         </is>
@@ -1432,11 +1473,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1491,12 +1532,15 @@
         <v>567</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>22560</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>1256</v>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>['29708', '34762', '46573', '48326', '566', '5N5H 2R3', '71129', '91761', ':2R 2R2', 'A0A 0X0', 'A0H 1C0', 'A0K 4C0', 'A1B 3N7', 'A1B 3R1', 'A1B 4C5', 'A1L 0A7', 'A1N 4R7', 'A1X 3A7', 'B0H 1T0', 'B0J 2C0', 'B0J 3H0', 'B0M 1A0', 'B0M 1G0', 'B0W 1W0', 'B1L 1C2', 'B2N 5N2', 'B2W 3T7', 'B3B 1L5', 'B3B 1L9', 'B3B 1N6', 'B3B 1S2', 'B3B 1Z2', 'B3B 2A6', 'B3K 5L9', 'B3N 2V6', 'B3S 1S4', 'B3T 1W1', 'B3V 1A3', 'B3Z 1C2', 'B4B 1H1', 'B4C 2K3', 'B5A 4B3', 'C0A 1G0', 'C0A 2E0', 'C0B 1H0', 'C0B 1T0', 'C0B 1V0', 'C1A 7M8', 'C1N 4J9', 'E01 1N0', 'E0A 1J0', 'E0J 1H0', 'E1A 1R1', 'E1A 7E7', 'E1A 9A3', 'E1E 1H5', 'E1H 2E6', 'E2M 5T6', 'E4H 4W5', 'E4V 2K4', 'E4W 2B1', 'E5K 3N8', 'E5L 2A1', 'E7B 1S9', 'E7H 2Z6', 'E7K 2E8', 'E8A 1W1', 'G0A 1L0', 'G0A 1N0', 'G0A 1S0', 'G0A 2R0', 'G0A 4L0', 'G0C 3A0', 'G0K 1J0', 'G0L 1B0', 'G0L 1J0', 'G0L 1T0', 'G0L 2J0', 'G0L 3Y0', 'G0L4H0', 'G0M 1S0', 'G0M 2B0', 'G0N 1B0', 'G0N 1G0', 'G0N 1N0', 'G0N 1P0', 'G0N 1S0', 'G0P 1E0', 'G0P 1J0', 'G0R 1H0', 'G0R 2C0', 'G0R 2V0', 'G0R 3C0', 'G0R 4G0', 'G0S 1M0', 'G0S 1T0', 'G0S 2A0', 'G0S 2C0', 'G0S 2S0', 'G0S 2W0', 'G0S 2X0', 'G0S 2Z0', 'G0S 3A0', 'G0S 3G0', 'G0S 3H0', 'G0W 1G0', 'G0W 2L0', 'G0X 2N0', 'G0X 3C0', 'G0Z 1C0', 'G0Z 1E0', 'G0Z 1Z0', 'G1H 3A5', 'G1L 3A7', 'G1M 2T7', 'G1M 2Y3', 'G1M 3K6', 'G1N 3X5', 'G1N 3X8', 'G1N 3Z2', 'G1N4H9', 'G1P 2H9', 'G1P 2J1', 'G1P 2X9', 'G1P 3T2', 'G1P 3X3', 'G1S 2W3', 'G1X 3W1', 'G2C 1B9', 'G2G 2V2', 'G2K 2E3', 'G2N 2G7', 'G3M 2X5', 'G3N 1A1', 'G3Z 2W9', 'G4R 5P3', 'G4W 3M9', 'G4W 3N1', 'G5L 8J9', 'G5M 1A5', 'G5R 3Z5', 'G5R 4C9', 'G5V 3S8', 'G5Y 7R6', 'G5Y 8G6', 'G5Y 8J3', 'G5Y 8J8', 'G6A 1K5', 'G6A 1L1', 'G6B 2C8', 'G6H 4G5', 'G6L 2Y4', 'G6L 2Y8', 'G6P 1A7', 'G6P 6T2', 'G6P 7E4', 'G6P 7E6', 'G6T 2H6', 'G6V 6N4', 'G6V 9G6', 'G6Z 1B6', 'G6Z 1T2', 'G6Z 3H5', 'G7A 2N1', 'G7H 5B1', 'G7N 1V9', 'G7X 7V3', 'G8B 6T3', 'G8B 7A1', 'G8K 2R4', 'G8L 1K3', 'G8L 3M5', 'G8L 5M6', 'G8V 1W2', 'G9A 3C2', 'G9A 5E1', 'G9A 5J3', 'G9A 5J9', 'G9H 1X7', 'G9N 4Y6', 'G9P 1R8', 'G9T 5K7', 'G9T 7A5', 'GOP 1K0', 'GOX 3E0', 'H1A 3N6', 'H1B5L8', 'H1C 2J3', 'H1E 1R8', 'H1E 2K1', 'H1E 4B6', 'H1E 4G4', 'H1J 1R4', 'H1J 1S8', 'H1P 3B8', 'H1P1Z4', 'H1S 3E4', 'H4C 1V9', 'H4N 2B1', 'H4R 1C3', 'H4R 2N6', 'H4R 2P2', 'H4R 3C6', 'H4S 1B7', 'H4S 1M2', 'H4T 1A5', 'H4T 1L1', 'H7A 4C6', 'H7C 1A2', 'H7E 1A1', 'H7E 4X8', 'H7L 3Y5', 'H7L 4R9', 'H7L 5B3', 'H7N 6C4', 'H7S 1N5', 'H7W 3S6', 'H7X 1C4', 'H8N 1V1', 'H8S 1A6', 'H8T 1C2', 'H9J 1T9', 'H9P', 'H9P 1H1', 'H9P 1J5', 'J0A 1C0', 'J0A 1K0', 'J0A 1M0', 'J0B 1M0', 'J0B 1R0', 'J0B 2S0', 'J0C 1A0', 'J0C 1E0', 'J0C 1G0', 'J0C 1K0', 'J0C 1S0', 'J0E 1A0', 'J0E 1M0', 'J0E 1R0', 'J0E 1Y0', 'J0E 2L0', 'J0E 2N0', 'J0G 1J0', 'J0G 1M0', 'J0H 1A0', 'J0H 1G0', 'J0H 1J0', 'J0H 1X0', 'J0H 2B0', 'J0H1L0', 'J0J 1G0', 'J0J 1L0', 'J0K 1A0', 'J0K 1E0', 'J0K 1H0', 'J0K 1N0', 'J0K 1S0', 'J0K 2B0', 'J0K 2K0', 'J0K 2N0', 'J0K 3A0', 'J0K 3H0', 'J0K 3L0', 'J0K 3P0', 'J0L 1E0', 'J0L 1H0', 'J0L 1N0', 'J0L 2K0', 'J0P 1P0', 'J0R 1C0', 'J0S 1R0', 'J0S 1Y0', 'J0T 1H0', 'J0T 1S0', 'J0V 1W0', 'J0X 2M0', 'J0Y 2L0', 'J0Y 2N0', 'J0Y 2X0', 'J0Z 1M0', 'J0Z 3B0', 'J0Z 3C0', 'J0Z 3N0', 'J1C 0H9', 'J1G 1X7', 'J1H 2G5', 'J1J 4N8', 'J1M 1Z4', 'J1N 1S3', 'J1N 3K4', 'J1T 4V4', 'J1Z 1B3', 'J2B 6V4', 'J2B 6Z3', 'J2B 8B3', 'J2C 4Z5', 'J2C 7V9', 'J2E 0A1', 'J2G 9H9', 'J2G 9L5', 'J2J 0P2', 'J2J 2N4', 'J2K 2M5', 'J2K 3Y5', 'J2S 1H3', 'J2S 8B1', 'J2T 1L7', 'J2X 4J5', 'J2X 5G4', 'J3A 1B1', 'J3B 4S2', 'J3B 7M3', 'J3B 7S7', 'J3B 8J8', 'J3B 8X7', 'J3E 1Z4', 'J3G 4N5', 'J3G 4S5', 'J3L 4B7', 'J3L 4N4', 'J3L 4X3', 'J3L 6A1', 'J3P 5K2', 'J3X 1P7', 'J3X 1S5', 'J3Y 3T7', 'J3Y1Y2', 'J3Z 1J2', 'J4B 1V5', 'J4B 5Z5', 'J4B 6Z5', 'J4B 7W1', 'J4B 8C4', 'J4G 1T5', 'J4H 3V8', 'J4L 2B5', 'J4N 1E2', 'J5B 1Y1', 'J5J 2V2', 'J5M 2C1', 'J5T 3S5', 'J5T 4A9', 'J5V 2J7', 'J6A 7N1', 'J6A 8G5', 'J6E 3Z1', 'J6J 4Z2', 'J6R 2B9', 'J6S 6N7', 'J6W 4L1', 'J6W 6C1', 'J6X 4J5', 'J6Y 1J4', 'J6Y 1W1', 'J6Z 2E3', 'J7C 5P9', 'J7C 6B4', 'J7E 1C8', 'J7E 2V2', 'J7E 4K9', 'J7G 2A7', 'J7J 2G6', 'J7M 2A4', 'J7N 1T6', 'J7R 5A5', 'J7T 3E7', 'J7V 5V5', 'J7V 8P2', 'J7Y 4B9', 'J7Y 4H8', 'J7Y 5G2', 'J8C 2Z8', 'J8E 3J9', 'J8P 2G7', 'J8R 3Y4', 'J9B 1L9', 'J9H 5E1', 'J9P 7A9', 'J9T 1P8', 'J9T 2P3', 'J9T 3A1', 'J9X 5B7', 'J9X 5C6', 'J9Z 2X5', 'JK0K 3A0', 'JOL 1H0', 'JOL 2H0', 'JON 1HO', 'JON 1NO', 'K0A 1E0', 'K0A 1L0', 'K0A 1M0', 'K0A 1W0', 'K0B 1L0', 'K0C 1P0', 'K0C 1T0', 'K0C 2B0', 'K0E 1H0', 'K0E 1K0', 'K0G 1J0', 'K0H 1V0', 'K0H 2H0', 'K0H 2W0', 'K0K 1H0', 'K0K 1S0', 'K0K 2J0', 'K0K 2M0', 'K0K 3N0', 'K0L 2V0', 'K0M 2T0', 'K1B 3T6', 'K1B 3W5', 'K1B 4L1', 'K1B 4V7', 'K1B 4V8', 'K1B 5A4', 'K1B 5M1', 'K1B 5R1', 'K1G 4G2', 'K1K 2Y7', 'K1V 9V9', 'K2E 6T7', 'K2E 7T8', 'K2G 1G1', 'K2M 2L2', 'K2S 1A2', 'K4M 1B4', 'K4P 1A1', 'K6H 5V2', 'K7C 3V7', 'K7H 3C7', 'K7K 6C2', 'K7P 2T3', 'K7S 3G7', 'K7V 1Y6', 'K8A 7M5', 'K8H 6W7', 'K8N 4Z2', 'K8N 4Z5', 'K8N 4Z6', 'K8V 5P6', 'K8V 5W6', 'K9J 6X7', 'K9J 6X8', 'K9J 6X9', 'K9J 6Y5', 'K9V 5G4', 'L0A 1C0', 'L0A 1G0', 'L0B 1J0', 'L0C 1K0', 'L0E 1R0', 'L0G 1B0', 'L0G AT0', 'L0H 1A0', 'L0H 1G0', 'L0K 2C0', 'L0K 2E0', 'L0K 2G0', 'L0L 1L0', 'L0L 1V0', 'L0L 2E0', 'L0M 1N0', 'L0R 1B0', 'L0R 1K0', 'L0R 1M0', 'L0R 2A0', 'L0R 2H2', 'L0S 1A0', 'L0S 1C0', 'L1C 3K3', 'L1C 4P8', 'L1H 6E8', 'L1H 6N2', 'L1H 7K4', 'L1H 8P7', 'L1J 5Y5', 'L1J 5Y6', 'L1S 3Z2', 'L1W 3K1', 'L1W 3T7', 'L2A 5A2', 'L2M 6S9', 'L2R 3X1', 'L2R 7K6', 'L2S 0B3', 'L3B 3X1', 'L3B 6G4', 'L3C 1C9', 'L3K 5V4', 'L3M 4E7', 'L3M4G1', 'L3P 1M3', 'L3R 0M4', 'L3R 3K5', 'L3R 6H2', 'L3R 8T9', 'L3V 6H1', 'L3Y 8C6', 'L3Y 8W4', 'L4A 1C4', 'L4A 7X5', 'L4B 1J6', 'L4C 3E9', 'L4K 1B4', 'L4K 1H8', 'L4K 2R2', 'L4K 2Y8', 'L4K 3B5', 'L4K 3L6', 'L4K 3Z8', 'L4M 6C8', 'L4N 1C2', 'L4N 8Z5', 'L4N 9S8', 'L4P 3E9', 'L4W 1E4', 'L4W 2A3', 'L4W 4L6', 'L4W 4N5', 'L4W 4X7', 'L4W 4Z5', 'L4Z 3K8', 'L5C 1V8', 'L5L 5Z2', 'L5M 5M1', 'L5N 2W3', 'L5N 7J7', 'L5N 7K5', 'L5N 8E9', 'L5S 1J5', 'L5S 1M5', 'L5S 1S2', 'L5S 1Y6', 'L5T 1C3', 'L5T 1W8', 'L5T 2A8', 'L5T 2S7', 'L5W 4L4', 'L6A 4R6', 'L6C 0H9', 'L6H 5R1', 'L6J 2X8', 'L6J 4Z2', 'L6J 5E4', 'L6L 5M9', 'L6S 5N8', 'L6T 3Y4', 'L6W 3J9', 'L6W 3R3', 'L6X 4V3', 'L6Z 3H8', 'L7B 1A6', 'L7E 1H3', 'L7E 3B6', 'L7E 5R5', 'L7E 5T4', 'L7L 1T2', 'L7L 4Y1', 'L7L 5H7', 'L7L 5L5', 'L7L 6A2', 'L7P 1A6', 'L7R 3R3', 'L7S 1A2', 'L8E  3P3', 'L8E 2N9', 'L8E 2R4', 'L8E 2W2', 'L8E 3A2', 'L8E 5M8', 'L8E 5M9', 'L8E 5R2', 'L8E4H8', 'L8H 3P6', 'L8H 5Y3', 'L8H 7L5', 'L8L 8B7', 'L8L 8K3', 'L8N 2Z7', 'L8S 1M5', 'L8W 2E8', 'L9B 1B7', 'L9H 4J7', 'L9H 5E2', 'L9S 1S8', 'L9S 3V6', 'L9T 1X9', 'L9T 3L5', 'L9T 3Y5', 'L9T 4Z4', 'L9T 5H3', 'L9W 1N1', 'L9W 2Z3', 'L9Y 4V6', 'L9Y 5A6', 'LOL 1T0', 'LOR 2A0', 'M1H 1H9', 'M1H 2Z1', 'M1K 3K9', 'M1L 2M2', 'M1P 3E7', 'M1P 4M8', 'M1R 3B7', 'M1S 3L2', 'M1X 1M4', 'M2H 2N7', 'M3B 2T5', 'M3J 1Y8', 'M3J 2B1', 'M3J 2E2', 'M3K 2A2', 'M3L 1G5', 'M3N 1W1', 'M4B', 'M4G 1Y9', 'M4G 1Z2', 'M4G 3V6', 'M4P 2V8', 'M5H 2T6', 'M6H 1P2', 'M6N 2J1', 'M6N 4Z9', 'M8V L4W', 'M8Z 1R1', 'M8Z 1S5', 'M8Z 2R4', 'M9L 1R1', 'M9L 1X1', 'M9L 1Y6', 'M9L 2T4', 'M9M 2G5', 'M9M 2Z2', 'M9M 5T2', 'M9W 4N3', 'M9W 5Y8', 'M9W 5Z7', 'N/A', 'N0A 1C0', 'N0B 1E0', 'N0B 1M0', 'N0B 1S0', 'N0B 1Y0', 'N0B 2L0', 'N0B 2M0', 'N0B 2N0', 'N0B 2S0', 'N0C 1B0', 'N0C 1E0', 'N0E 1N0', 'N0E1M0', 'N0G 1M0', 'N0G 1X0', 'N0G 2L0', 'N0H 2K0', 'N0H 2T0', 'N0J 1E0', 'N0J 1H0', 'N0J 1P0', 'N0J 1V0', 'N0J 1Y0', 'N0L 2C0', 'N0L 2E0', 'N0M 1J0', 'N0M 1M0', 'N0M 1S3', 'N0M 1Y0', 'N0M 2N0', 'N0N 1G0', 'N0N 1K0', 'N0N 1P0', 'N0P 1C0', 'N0P 2C0', 'N0P 2G0', 'N0P 2L0', 'N0R 1A0', 'N0R 1K0', 'N0R 1L0', 'N1A 2W1', 'N1A 2W7', 'N1H 1A4', 'N1H 1B8', 'N1H 6J2', 'N1H 6J3', 'N1H 6K9', 'N1K 1G7', 'N1R 5S9', 'N1R 7J2', 'N1R 7N3', 'N1R 8B7', 'N1T 1B2', 'N2B 3E1', 'N2B 3E7', 'N2C 2C9', 'N2C 2E1', 'N2E 2M7', 'N2H 5H3', 'N2S 4B3', 'N2V 1N3', 'N2V 1Y8', 'N2V 2E3', 'N2Z 2N3', 'N3B 2Z7', 'N3H 4R7', 'N3H 4V9', 'N3S 7V6', 'N3T 5M1', 'N3T 5M6', 'N3T 5M7', 'N3T 5N3', 'N3W 1Y1', 'N3W 2G8', 'N45 1E2', 'N4B 2W6', 'N4G 4G7', 'N4P 3S7', 'N4S 7V8', 'N4S 7W5', 'N4S 7Z2', 'N4S 8Y7', 'N4W 3G9', 'N4X 1B5', 'N4X 1C7', 'N5C 3J6', 'N5C 3J7', 'N5H 2R6', 'N5H 2R8', 'N5H 2V1', 'N5V 0A4', 'N5V 1R2', 'N5V 2Z6', 'N5V 4L6', 'N5W 1X4', 'N5W 4Z2', 'N6K 1Y1', 'N6N 1A8', 'N7A 3Y1', 'N7A 3Y2', 'N7G 3H7', 'N7M 5K5', 'N7M 5K8', 'N7T 1H7', 'N7T 7H8', 'N7T 7J2', 'N8H 3B5', 'N8W 5B5', 'N9A 6J3', 'P0B 1C0', 'P0H 1V0', 'P0H 2G0', 'P0L 1N0', 'P0M 1B0', 'P0T 1W0', 'P1B 8G4', 'P1H 1Y4', 'P1L 1T8', 'P2A 2W8', 'P3A 4M9', 'P3B 2Z3', 'P3N 1B3', 'P3Y 1K6', 'P4N 7W7', 'P4R 1M9', 'P6A 3T4', 'P6B 4K2', 'P7B 3X5', 'P7B 5M5', 'P7B 5X5', 'R0A 0R0', 'R0A 1E0', 'R0C 0A0', 'R0C 1N0', 'R0C 3E0', 'R0E 0A0', 'R0E 0C0', 'R0E 2G0', 'R0G 0B0', 'R0G 0J0', 'R0G 0V0', 'R0G 1K0', 'R0G 1M0', 'R0G 1S0', 'R0G 1W0', 'R0H 1L0', 'R0J 0M0', 'R0J 1H0', 'R0J 1T0', 'R0K 0L0', 'R0K 0P0', 'R0K 0W0', 'R0K 0X0', 'R0K 1G0', 'R0K 1W0', 'R0K 2G0', 'R0L 0C0', 'R0L 1S0', 'R0L 1Z0', 'R0M OJ0', 'R1A 3N9', 'R1N 0K2', 'R1N 3C5', 'R2C 2Z2', 'R2C 3T4', 'R2E 0C4', 'R2G 0H3', 'R2H 1R7', 'R2J 0A4', 'R2J 0Z7', 'R2J 3T1', 'R2J 3T6', 'R2L 0X3', 'R2P 2W5', 'R2R 1V1', 'R2R 1V9', 'R2R 2B9', 'R2X 2W5', 'R3C 2E6', 'R3C 2N5', 'R3E 1C6', 'R3E 2R9', 'R3E 3S4', 'R3H 0G7', 'R3H 0N6', 'R3H 0S8', 'R3J 1J2', 'R3J 3T2', 'R3J 3W1', 'R3T 1T5', 'R4A 1C4', 'R4A 5A9', 'R4H 1B8', 'R4K 1B2', 'R4L 1N6', 'R5G 1T8', 'R5G 2C4', 'R6M 1Y4', 'R6M 2G2', 'R6W 1A1', 'R6W 4A1', 'R6W 4A5', 'R6W 4A7', 'R6W 4B1', 'R6W 4B7', 'R6W 4C3', 'R6W 4C4', 'R7A 7A4', 'R7A 7L1', 'R7C 1A4', 'RC3 2E6', 'S0A 1B0', 'S0A 1V0', 'S0A 1W0', 'S0A 2P0', 'S0A 3J0', 'S0A 3R0', 'S0C 0N0', 'S0E 0Y0', 'S0E 1A0', 'S0E 1E0', 'S0G 0H0', 'S0G 0V0', 'S0H 0T0', 'S0H 1X0', 'S0H 2K0', 'S0H 4M0', 'S0J 1B0', 'S0K 0G0', 'S0K 1H0', 'S0K 2A0', 'S0K 2T0', 'S0K 2Z0', 'S0K 3V0', 'S0M 0N0', 'S0M 1H0', 'S0N 1H0', 'S4H 2J9', 'S4N 5A1', 'S4N 5A6', 'S4N 5P7', 'S4N 5W2', 'S4N 5X4', 'S4P 3E2', 'S4P 3H1', 'S4R 1K5', 'S4R 2M6', 'S4R 8R7', 'S4T 2P7', 'S4T 7M3', 'S5R 4J7', 'S6H 4P2', 'S6H 4P6', 'S6H 4P8', 'S6V 6G1', 'S7H 0H2', 'S7H 0Y0', 'S7K 0X1', 'S7K 0X4', 'S7K 0X8', 'S7K 3J8', 'S7K 3P5', 'S7K 3V1', 'S7K 5Z1', 'S7K 5Z7', 'S7K 6J4', 'S7K 6N3', 'S7K 6P6', 'S7L 6A4', 'S7M 1E3', 'S7N 1Y7', 'S7N 1Z3', 'S7P 0A9', 'S9A 3M1', 'S9V 1K5', 'S9V 1R6', 'T0A 0V1', 'T0A 2K0', 'T0A 3A0', 'T0B 1A0', 'T0B 1X0', 'T0B 3P0', 'T0B 4K0', 'T0C 1Z0', 'T0C 2L0', 'T0C 2T0', 'T0E 0A0', 'T0E 0H0', 'T0E 0J0', 'T0E 1V0', 'T0E 2G0', 'T0G 0J0', 'T0H 0W0', 'T0H 0Y0', 'T0J 0Y0', 'T0J 2M0', 'T0J 2S0', 'T0K 0C0', 'T0K 0K0', 'T0K 0R0', 'T0K 1W0', 'T0L 0A0', 'T0L 0T0', 'T0L 0W0', 'T0M 0J0', 'T0M 0S0', 'T0M 0V0', 'T0M 1H0', 'T0M 1J0', 'T0M 1X0', 'T1A 5P7', 'T1A 8E8', 'T1A 8G7', 'T1A 8M9', 'T1G 1W7', 'T1G 2E1', 'T1H 0C8', 'T1H 5G1', 'T1H 5G5', 'T1H 6G3', 'T1H 6L5', 'T1H 7A6', 'T1J 4P4', 'T1M 1N1', 'T1R 1B5', 'T1S 1A1', 'T1S 1B3', 'T1V 1E6', 'T1V 1M6', 'T2A 2N6', 'T2A 2P1', 'T2A 2P3', 'T2B 1P4', 'T2B 3K7', 'T2B 3N9', 'T2C 0L5', 'T2C 1J7', 'T2C 2A2', 'T2C 2B8', 'T2C 2E4', 'T2C 2H8', 'T2C 2L2', 'T2C 2P6', 'T2C 2R4', 'T2C 2X3', 'T2C 4A6', 'T2C 4L2', 'T2C 4L6', 'T2C 4L7', 'T2C 4M6', 'T2C 4P1', 'T2C 4R7', 'T2C 4T6', 'T2C 4X5', 'T2C 5B9', 'T2E 4B2', 'T2E 4B3', 'T2E 6N6', 'T2E 6Z5', 'T2E 7N4', 'T2E 8P9', 'T2G 2A5', 'T2G 2A7', 'T2G 4C8', 'T2H 1C2', 'T2H 1L6', 'T2H 1L8', 'T2H 2G7', 'T2H 2K1', 'T2H 2Y2', 'T2K 2A8', 'T2K 2E6', 'T2L 2X1', 'T2M 0K3', 'T2P 2G6', 'T2P 2M5', 'T2P 2P9', 'T2Z 2X4', 'T2Z 4K4', 'T3B 0S3', 'T3R 0H9', 'T4B 2B2', 'T4C 1W7', 'T4H 1V1', 'T4J 1J8', 'T4J 1R3', 'T4L 1X4', 'T4L 2C6', 'T4L 2N2', 'T4N 5G1', 'T4N 5H3', 'T4P 1A1', 'T4P 1A5', 'T4P 1A8', 'T4P 1K1', 'T4P 1K3', 'T4P 1N5', 'T4P 1X5', 'T4P 1Y3', 'T4P 2G9', 'T4P 2J9', 'T4P 3R2', 'T4P 3R3', 'T4P-3R2', 'T4S 1P5', 'T4S 1S6', 'T4S 1S8', 'T4S 2B3', 'T4S 2J9', 'T4S 2L4', 'T4T 2A3', 'T4V 1L9', 'T4V 1X4', 'T4V 4C5', 'T5B 1G8', 'T5B 1K5', 'T5B 2B7', 'T5G 2S7', 'T5L 0X6', 'T5L 2M8', 'T5L 2R8', 'T5M 2R8', 'T5M 3P5', 'T5M 3P9', 'T5M 3T5', 'T5M 3W2', 'T5P 1G8', 'T5P 4K2', 'T5S 1G4', 'T5S 1X2', 'T5S 2G2', 'T5S 2K4', 'T5S 2R9', 'T5V 1A1', 'T5V 1B7', 'T5V 1K5', 'T5V 1N4', 'T6B 0A3', 'T6B 0A5', 'T6B 0A7', 'T6B 0E5', 'T6B 2P1', 'T6B 2V2', 'T6B 2W4', 'T6B 3A7', 'T6B 3C4', 'T6B 3E3', 'T6E 0E2', 'T6E 4N2', 'T6E 4N6', 'T6E 6C2', 'T6E 6L9', 'T6E 6M5', 'T6H 2H5', 'T6H 4K5', 'T6J 5G9', 'T6N 1B2', 'T6N 1C9', 'T6P 1J6', 'T6P 1J8', 'T6P 1K1', 'T6P 1K2', 'T6P 1P7', 'T6P 1V8', 'T6P 1Y6', 'T6S 1B9', 'T6S 1G1', 'T7A 1S1', 'T7A 1S4', 'T7A 1S5', 'T7P 2M2', 'T7P 2M4', 'T7P 2P5', 'T7X 3A5', 'T7X 5A4', 'T7X 5A7', 'T7Z 1L7', 'T7Z 1V7', 'T7Z 1W4', 'T8H 1N7', 'T8N 2G3', 'T8R 1K6', 'T8S 1M6', 'T8V 6W7', 'T8V 7S3', 'T8V 8B1', 'T8V 8K4', 'T9A 0T8', 'T9E 0B3', 'T9E 0C3', 'T9E 7M1', 'T9E 7N6', 'T9E 7S5', 'T9E 7T7', 'T9E 7T8', 'T9E 7W1', 'T9E 7X2', 'T9E 7X8', 'T9E 8H9', 'T9E 8P2', 'T9N 2J3', 'T9V 2E4', 'T9V 3A7', 'TX8 0B1', 'V0B 2G0', 'V0E 2X0', 'V0E 3B0', 'V0G 1Z0', 'V0H 1T0', 'V0H 1Z2', 'V0J 3A0', 'V0J 3A1', 'V0K 2Z0', 'V0M1A0', 'V0R 1K0', 'V0R 1M0', 'V0R 1V0', 'V0X 1T0', 'V0X 1X0', 'V1B 3R9', 'V1E 1X2', 'V1E 4N3', 'V1G 4R8', 'V1J 7H2', 'V1L 6Z2', 'V1M 2X7', 'V1M 3G5', 'V1S 1J6', 'V1S 1S4', 'V1T 6V2', 'V1T 8T9', 'V1X 4R2', 'V1X 5W6', 'V1X 7S2', 'V1Y 1M3', 'V1Z 1G4', 'V2A 3H7', 'V2A 3K6', 'V2A 7J3', 'V2A 8V6', 'V2C 5P2', 'V2J 5Z2', 'V2K 1M8', 'V2L 2Z1', 'V2L 4V4', 'V2N 4T6', 'V2N 5T1', 'V2P 2N1', 'V2P 6H5', 'V2R 5N8', 'V2S 4N7', 'V2S 5C9', 'V2S 6B7', 'V2S 7M2', 'V2S 7M6', 'V2S 7T1', 'V2T 0A7', 'V2T 6L4', 'V2V 5X4', 'V2Y 2V9', 'V3A 1G5', 'V3A 4L5', 'V3A 4N4', 'V3A 4N5', 'V3A 5E8', 'V3C 1S9', 'V3C 6L4', 'V3K 5S9', 'V3M 5R1', 'V3M 6G7', 'V3S 6J8', 'V3S 8E5', 'V3T 5J4', 'V3V 3H2', 'V3V 3R9', 'V3W 4E8', 'V3W 4G1', 'V4G 1B5', 'V4G 1E2', 'V4G 1K7', 'V4N 2S1', 'V4N 3P8', 'V4N 3P9', 'V4N 3R7', 'V4N 4C2', 'V4N 4C3', 'V4N 4E6', 'V4W 2W5', 'V4W 2Z8', 'V4W 3A8', 'V4W 3X5', 'V4X 1C8', 'V5J 4R8', 'V5X 2X1', 'V6A 2X2', 'V6P 6G2', 'V6V 1J7', 'V6V 2H9', 'V6X 1X5', 'V6X 1Y4', 'V6X1X3', 'V7A 4V1', 'V8G 5R5', 'V8L 5Y1', 'V9A 2R1', 'V9B 2S2', 'V9L 3X9', 'V9L 6B1', 'V9M 4C7', 'V9P 22C2', 'V9P 2B9', 'V9P 2G6', 'V9R 6W6', 'V9R 6Z5', 'V9S 3H6', 'V9S 4M8', 'unknown']</t>
         </is>
@@ -1509,11 +1553,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1572,12 +1616,15 @@
         <v>3219</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
         <v>19521</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>3</v>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>['CANADA', 'NOT ENTERED', 'UNITED STATES']</t>
         </is>
@@ -1590,11 +1637,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1653,12 +1700,15 @@
         <v>1547</v>
       </c>
       <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>39034</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>13</v>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>['Bus', 'Chassis-Cab', 'Incomplete Vehicle', 'Low Speed Vehicle', 'MPV', 'Motorcycles', 'Passenger Car', 'Restraint Systems', 'Snowmobile', 'Three Wheeled Vehicle', 'Tire', 'Trailer', 'Truck Body']</t>
         </is>
@@ -1671,11 +1721,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1734,12 +1784,15 @@
         <v>732</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>124159</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>107</v>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>['Bus / City Bus &lt; 10k lbs', 'Bus / City Bus &gt;= 10k lbstest', 'Bus / Coach Bus &lt; 10k lbs', 'Bus / Coach Bus &gt;= 10k lbs', 'Bus / Disabled Access &lt; 10k lbs', 'Bus / Disabled Access &gt;=10k lbs', 'Bus / Limousine', 'Bus / School Bus &lt; 10k lbs', 'Bus / School Bus &gt;= 10k lbs', 'Bus / Shuttle Bus &lt; 10k lbs', 'Bus / Shuttle Bus &gt;= 10k lbs', 'CMVSS 213 - Child Restraint Systems', 'CMVSS 213.1 - Infant Restraint Systems', 'CMVSS 213.2 - Booster nSeats', 'CMVSS 213.3 - Restraint Systems for Disabled Persons', 'CMVSS 213.3 Restraint systems for disabled persons', 'CMVSS 213.5 - Restraint Systems for Infants with Special Needs', 'Chassis-Cab (&lt; 4536 kg)', 'Chassis-Cab (&gt;= 4536 kg)', 'Final Stage - Body and Equipment', 'Final Stage - GA/GVWR increases', 'Final Stage - Wheelbase Alterations', 'Intermediate Stage - Body and Equipment', 'Intermediate Stage - Fuel system instalations', 'Intermediate Stage - Wheelbase alterations', 'Intermediate Stage -- Body and Equipment', 'Intermediate Stage -- GA/GVWR increase', 'Intermediate Stage -- Wheelbase Alternation', 'Low Speed Vehicle', 'MPV / Ambulance (&lt; 4536 kg)', 'MPV / Ambulance (&gt;= 4536kg)', 'MPV / Class "B" Motor Home', 'MPV / Class "C" Motor Home &gt;=10k lbs', 'MPV / Disabled Access &lt; 10k lbs', 'MPV / Disabled Access &gt;= 10k lbs', 'MPV / Limousine', 'MPV / Motor Home', 'MPV / Motor Home / Class "A"', 'MPV / Van Conversion &lt; 10k lbs', 'MPV &lt; 10k lbs', 'MPV &gt;= 10k lbs', 'Miscellaneous Bus', 'Miscellaneous Chassis-Cab', 'Miscellaneous MPV', 'Miscellaneous SnowMobile', 'Miscellaneous Tires', 'Miscellaneous Trailer [Air]', 'Miscellaneous Trailer [Standard]', 'Miscellaneous Truck', 'Motorcycle / Limited Speed Motorcycle', 'Motorcycle / Motor Tricycle', 'Motorcycle/ Open Motorcycle', 'New Tires', 'Passenger Car / Limousine', 'Passenger Car, OEM', 'RUM  / All Terrain Vehicle', 'Restricted Use Motorcycle (RUM)', 'Retread', 'Shelf and Partition installer', 'Snowmobile', 'Tanker Truck', 'Three Wheeled Vehicle', 'Trailer - Auto Transporter [Air]', 'Trailer - Boat [Air]', 'Trailer - Boat [Standard]', 'Trailer - C Dolly [Air]', 'Trailer - Cable Reel', 'Trailer - Car Dolly [Standard]', 'Trailer - Cargo (Air)', 'Trailer - Cargo [Standard]', 'Trailer - Converter Dolly [Air]', 'Trailer - Dump [Standard]', 'Trailer - Final Stage [Standard]', 'Trailer - Final stage [Air]', 'Trailer - Flat Deck (Standard)', 'Trailer - Full (Air)', 'Trailer - Heavy Hauler [Air]', 'Trailer - Heavy Hauler [Standard]', 'Trailer - Horse/Stock [Standard]', 'Trailer - Incomplete [Air]', 'Trailer - Incomplete [Standard]', 'Trailer - Light Duty [Standard]', 'Trailer - Load Divider Dolly [Air Brake]', 'Trailer - Medium Duty [Standard]', 'Trailer - Motorcycle', 'Trailer - Pole [Air]', 'Trailer - Pole [Standard]', 'Trailer - Portable Generator [Standard]', 'Trailer - Portable equip, construction/other (Air)', 'Trailer - Portable equip, construction/other (Standard)', 'Trailer - Pulpwood (Air)', 'Trailer - Recreational RV [Standard]', 'Trailer - Semi Trailer [Air]', 'Trailer - Semi Trailer [Standard]', 'Trailer - Snowmobile', 'Trailer - Tank [Air]', 'Trailer - Utility [Standard]', 'Trailer - Vehicle Alterer', 'Trailer [Air]', 'Truck / Walk-in Van (&lt; 4536 kg)', 'Truck / Walk-in Van (&gt;= 4536 kg)', 'Truck OEM (&lt; 4536 kg)', 'Truck OEM (&gt;= 4536 kg)', 'Vehicle Alterer  - Body and Equipment', 'Vehicle Alterer - Fuel system conversion', 'Vehicle Alterer - Wheelbase alterations', 'Vehicle Alterer GA/GVWR increases']</t>
         </is>
@@ -1752,11 +1805,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1815,12 +1868,15 @@
         <v>1547</v>
       </c>
       <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>50447</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>13</v>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>['Autobus', 'Camion', 'Ch?&gt;ssis-cabine', 'Incomplete Vehicle - not translated', 'Low Speed Vehicle - not translated', 'Motocyclette', 'Motoneige', 'Pneu', 'Remorque', 'Restraint Systems - not translated', 'Three Wheeled Vehicle - not translated', 'V??hicule de tourisme', 'V??hicule de tourisme ?y usages multiple']</t>
         </is>
@@ -1833,11 +1889,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1896,12 +1952,15 @@
         <v>732</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>164184</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>107</v>
       </c>
-      <c r="W19" t="inlineStr">
+      <c r="X19" t="inlineStr">
         <is>
           <t>['??quipement portatif, construction/autre', '??quipement portatif, construction/autre (air)', 'Autobus / Autobus Ecolier (&lt;10,000 lbs)', 'Autobus / Autobus Ecolier (&gt;=10,000 lbs)', 'Autobus / Autobus a acces modifie (&gt;=10,000 lbs)', 'Autobus / Autobus de croisiere (&lt;10,000 lbs)', 'Autobus / Autobus de croisiere (&gt;=10,000 lbs)', 'Autobus / Autobus e acces modifie (&lt;10,000 lbs)', 'Autobus / Autobus navette &gt;= 10,000 lbs', 'Autobus / Autobus navette(&lt;10,000 lbs)', 'Autobus / Autobus urbain (&lt;10,000 lbs)', 'Autobus / Autobus urbain (&gt;=10,000 lbs)', 'Autobus / Limousine', 'Autre chassis-cabine', 'Autres Pneus', 'Autres VTUM', 'Autres autobus', 'Autres camions', 'Autres motoneiges', 'CMVSS 213.3 Ensemble de retenue pour pers. hand', 'Camion (&lt; 4536 kg)', 'Camion (&gt;= 4536 kg)', 'Camion / Fourgon ?y acces debout (&lt;4536 kg)', 'Camion / Fourgon ?y acces debout (&gt;= 4536kg )', 'Camion-citerne', 'Chariot de r??partition de charge, [frein a air]', 'Chariot derouleur', 'Chassis-cabine (&lt; 4536 kg)', 'Chassis-cabine (&gt;=4536 kg)', 'Fab. Finale - Augmentations du PNBE/PNBV', 'Fab. Finale - Carrosseries et ??quipements', "Fab. Finale - Modifications d'empattement", 'Fab. Intermediaire - Installations du systeme de carburant', "Fab. Intermediaire - Modifications d'empattement", 'Fab. Intermediarie - Carrosseries et ??quipements', 'Fabricant finale, [Standard]', 'Installateur de tablette et s??paration', 'Intermediate Stage -- Body and Equipment (not translated)', 'Intermediate Stage -- GA/GVWR increase (not translated)', 'Intermediate Stage -- Wheelbase Alternation (not translated)', "Modificateur de v??hicule -  Installation de carrosseries ou d'??quipements", 'Modificateur de v??hicule - Conversion du systeme de carburant', "Modificateur de v??hicule - Modifications d'empattement", 'Modificateur de v??hicule - augmentation du PNBE/PNBV', 'Motocyclette / Motocyclette a vitesse limitee', 'Motocyclette / Tricycle a moteur', 'Motocyclette /Motocyclette sans habitacle ferm??', 'Motocyclette a usage restraint', 'Motoneige', 'NSVAC 213 - Ensembles de retenue pour enfant', 'NSVAC 213.1 - Ensembles de retenue pour b??b??', "NSVAC 213.2 - Si??ge d'appoint", 'NSVAC 213.3 - Ens. de retenue pour pers. hand.', 'NSVAC 213.5 - Ens. de retenue speciaux -b??b??', 'Pneu rechapes', 'Pneu, nouveau', 'RUM / Vehicule tout-terrain', 'Remorque - Modificateur de v??hicule', 'Remorque ?y bateau [standard]', 'Remorque ?y motocyclette', 'Remorque Cargo [standard]', 'Remorque [Freins ?y air]', 'Remorque a bateau, [frein a air]', 'Remorque a charge longue, [frein a air]', 'Remorque a materiel lourd [Standard]', 'Remorque a materiel lourd, [frein a air]', 'Remorque a voiture, [Frein a air]', 'Remorque citerne, [frein a air]', 'Remorque de camping [standard]', 'Remorque incomplete, [frein a air]', 'Remorque incomplete, [standard]', 'Remorque legere [Standard]', 'Remorque motoneige', 'Remorque moyenne [Standard]', 'Remorque plate-forme (standard)', 'Remorque pour charges longues [Standard]', 'Remorque tombereau', 'Remorque utilitaire [standard]', 'Remorque, Fabricant Finale, [freins a air]', 'Remorque, chariot de conversion de type C, frein a air', 'Remorque, chariot de conversion, [Frein a air]', 'Remorque, generatrice portatif [standard]', 'Remorque, semi [standard]', 'Remorque, semi, [frein a air]', 'Remorque, standard, chariot df??panneur', 'Remorque, standard, pour chevaux/betails', 'Tous les remorques [standard]', 'Tous les remorques, [frein a air]', 'VTUM (&lt;10,000 lbs)', 'VTUM / Autocaravane', 'VTUM / Limousine', 'VTUM &gt;= 10,000 lbs', 'VTUM Ambulance (&lt;4536 kg)', 'VTUM a acces modifie', 'VTUM a acces modifie (&gt;=10,000 lbs)', 'VTUM ambulance (&gt;=4536kg)', 'VTUM autocaravane de class "A" (&gt;=10,000 lbs)', 'VTUM autocaravane de class "B" (&lt;10,000 lbs)', 'VTUM autocaravane de class "C" (&gt;=10,000 lbs)', 'VTUM modifie (&lt;10,000 lbs)', 'Vehicule ?y basse vitesse()', 'Voiture de tourisme', 'Voiture de tourisme, limousines', 'remorque cargo (air)', 'remorque compl??te', 'remorque pour bois ?y p?&gt;te', 'v??hicule ?y trois roues()']</t>
         </is>
